--- a/HoI2Editor/Documents/Design/scenario.xlsx
+++ b/HoI2Editor/Documents/Design/scenario.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ファイル構成" sheetId="1" r:id="rId1"/>
-    <sheet name="Month" sheetId="3" r:id="rId2"/>
-    <sheet name="GovernmentType" sheetId="2" r:id="rId3"/>
-    <sheet name="BuildingType" sheetId="4" r:id="rId4"/>
-    <sheet name="MissionType" sheetId="5" r:id="rId5"/>
+    <sheet name="レイアウト" sheetId="6" r:id="rId2"/>
+    <sheet name="Month" sheetId="3" r:id="rId3"/>
+    <sheet name="GovernmentType" sheetId="2" r:id="rId4"/>
+    <sheet name="BuildingType" sheetId="4" r:id="rId5"/>
+    <sheet name="MissionType" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="195">
   <si>
     <t>シナリオファイルの構成</t>
     <rPh sb="9" eb="11">
@@ -779,6 +780,263 @@
   </si>
   <si>
     <t>Nuke</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エディタウィンドウのレイアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シナリオ名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パネル画像名</t>
+    <rPh sb="3" eb="6">
+      <t>ガゾウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発生済みイベント</t>
+    <rPh sb="0" eb="2">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休止イベント</t>
+    <rPh sb="0" eb="2">
+      <t>キュウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存日時</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インクルードファイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントファイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シナリオ開始日時</t>
+    <rPh sb="4" eb="8">
+      <t>カイシニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シナリオ終了日時</t>
+    <rPh sb="4" eb="8">
+      <t>シュウリョウニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データフォルダ名</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショートシナリオ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主要国</t>
+    <rPh sb="0" eb="3">
+      <t>シュヨウコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロパンダ画像名</t>
+    <rPh sb="5" eb="8">
+      <t>ガゾウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択可能国</t>
+    <rPh sb="0" eb="4">
+      <t>センタクカノウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム設定</t>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AIの攻撃性</t>
+    <rPh sb="3" eb="6">
+      <t>コウゲキセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームスピード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明文</t>
+    <rPh sb="0" eb="3">
+      <t>セツメイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右端に配置</t>
+    <rPh sb="0" eb="2">
+      <t>ミギハシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルール設定</t>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国家の自由選択</t>
+    <rPh sb="0" eb="2">
+      <t>コッカ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ジユウセンタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショートシナリオ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外交</t>
+    <rPh sb="0" eb="2">
+      <t>ガイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生産</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>技術</t>
+    <rPh sb="0" eb="2">
+      <t>ギジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダ開始日時</t>
+    <rPh sb="3" eb="7">
+      <t>カイシニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シナリオ開始年</t>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シナリオ終了年</t>
+    <rPh sb="4" eb="7">
+      <t>シュウリョウネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>枢軸国</t>
+    <rPh sb="0" eb="3">
+      <t>スウジクコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連合国</t>
+    <rPh sb="0" eb="3">
+      <t>レンゴウコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共産国</t>
+    <rPh sb="0" eb="3">
+      <t>キョウサンコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同盟国</t>
+    <rPh sb="0" eb="3">
+      <t>ドウメイコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参加国</t>
+    <rPh sb="0" eb="3">
+      <t>サンカコク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -786,7 +1044,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -801,13 +1059,26 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -819,14 +1090,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1456,6 +1732,218 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C13" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C14" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B18" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B38" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B39" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B40" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B41" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1577,7 +2065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -1691,7 +2179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -1811,11 +2299,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>

--- a/HoI2Editor/Documents/Design/scenario.xlsx
+++ b/HoI2Editor/Documents/Design/scenario.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="ファイル構成" sheetId="1" r:id="rId1"/>
     <sheet name="レイアウト" sheetId="6" r:id="rId2"/>
-    <sheet name="Month" sheetId="3" r:id="rId3"/>
-    <sheet name="GovernmentType" sheetId="2" r:id="rId4"/>
-    <sheet name="BuildingType" sheetId="4" r:id="rId5"/>
-    <sheet name="MissionType" sheetId="5" r:id="rId6"/>
+    <sheet name="保存先" sheetId="7" r:id="rId3"/>
+    <sheet name="Month" sheetId="3" r:id="rId4"/>
+    <sheet name="GovernmentType" sheetId="2" r:id="rId5"/>
+    <sheet name="BuildingType" sheetId="4" r:id="rId6"/>
+    <sheet name="MissionType" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="273">
   <si>
     <t>シナリオファイルの構成</t>
     <rPh sb="9" eb="11">
@@ -1037,6 +1038,270 @@
     <rPh sb="0" eb="3">
       <t>サンカコク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ProvinceVp</t>
+  </si>
+  <si>
+    <t>CountryCapital</t>
+  </si>
+  <si>
+    <t>CountryCoreProvinces</t>
+  </si>
+  <si>
+    <t>CountryOwnedProvinces</t>
+  </si>
+  <si>
+    <t>CountryControlledProvinces</t>
+  </si>
+  <si>
+    <t>CountryClaimedProvinces</t>
+  </si>
+  <si>
+    <t>ProvinceId</t>
+  </si>
+  <si>
+    <t>ProvinceName</t>
+  </si>
+  <si>
+    <t>ProvinceRevoltRisk</t>
+  </si>
+  <si>
+    <t>ProvinceManpowerCurrent</t>
+  </si>
+  <si>
+    <t>ProvinceManpowerMax</t>
+  </si>
+  <si>
+    <t>ProvinceEnergyPool</t>
+  </si>
+  <si>
+    <t>ProvinceEnergyCurrent</t>
+  </si>
+  <si>
+    <t>ProvinceEnergyMax</t>
+  </si>
+  <si>
+    <t>ProvinceMetalPool</t>
+  </si>
+  <si>
+    <t>ProvinceMetalCurrent</t>
+  </si>
+  <si>
+    <t>ProvinceMetalMax</t>
+  </si>
+  <si>
+    <t>ProvinceRareMaterialsPool</t>
+  </si>
+  <si>
+    <t>ProvinceRareMaterialsCurrent</t>
+  </si>
+  <si>
+    <t>ProvinceRareMaterialsMax</t>
+  </si>
+  <si>
+    <t>ProvinceOilPool</t>
+  </si>
+  <si>
+    <t>ProvinceOilCurrent</t>
+  </si>
+  <si>
+    <t>ProvinceOilMax</t>
+  </si>
+  <si>
+    <t>ProvinceSupplyPool</t>
+  </si>
+  <si>
+    <t>ProvinceIcCurrent</t>
+  </si>
+  <si>
+    <t>ProvinceIcMax</t>
+  </si>
+  <si>
+    <t>ProvinceIcRelative</t>
+  </si>
+  <si>
+    <t>ProvinceInfrastructureCurrent</t>
+  </si>
+  <si>
+    <t>ProvinceInfrastructureMax</t>
+  </si>
+  <si>
+    <t>ProvinceInfrastructureRelative</t>
+  </si>
+  <si>
+    <t>ProvinceLandFortCurrent</t>
+  </si>
+  <si>
+    <t>ProvinceLandFortMax</t>
+  </si>
+  <si>
+    <t>ProvinceLandFortRelative</t>
+  </si>
+  <si>
+    <t>ProvinceCoastalFortCurrent</t>
+  </si>
+  <si>
+    <t>ProvinceCoastalFortMax</t>
+  </si>
+  <si>
+    <t>ProvinceCoastalFortRelative</t>
+  </si>
+  <si>
+    <t>ProvinceAntiAirCurrent</t>
+  </si>
+  <si>
+    <t>ProvinceAntiAirMax</t>
+  </si>
+  <si>
+    <t>ProvinceAntiAirRelative</t>
+  </si>
+  <si>
+    <t>ProvinceAirBaseCurrent</t>
+  </si>
+  <si>
+    <t>ProvinceAirBaseMax</t>
+  </si>
+  <si>
+    <t>ProvinceAirBaseRelative</t>
+  </si>
+  <si>
+    <t>ProvinceNavalBaseCurrent</t>
+  </si>
+  <si>
+    <t>ProvinceNavalBaseMax</t>
+  </si>
+  <si>
+    <t>ProvinceNavalBaseRelative</t>
+  </si>
+  <si>
+    <t>ProvinceRadarStationCurrent</t>
+  </si>
+  <si>
+    <t>ProvinceRadarStationMax</t>
+  </si>
+  <si>
+    <t>ProvinceRadarStationRelative</t>
+  </si>
+  <si>
+    <t>ProvinceNuclearReactorCurrent</t>
+  </si>
+  <si>
+    <t>ProvinceNuclearReactorMax</t>
+  </si>
+  <si>
+    <t>ProvinceNuclearReactorRelative</t>
+  </si>
+  <si>
+    <t>ProvinceRocketTestCurrent</t>
+  </si>
+  <si>
+    <t>ProvinceRocketTestMax</t>
+  </si>
+  <si>
+    <t>ProvinceRocketTestRelative</t>
+  </si>
+  <si>
+    <t>ProvinceSyntheticOilCurrent</t>
+  </si>
+  <si>
+    <t>ProvinceSyntheticOilMax</t>
+  </si>
+  <si>
+    <t>ProvinceSyntheticOilRelative</t>
+  </si>
+  <si>
+    <t>ProvinceSyntheticRaresCurrent</t>
+  </si>
+  <si>
+    <t>ProvinceSyntheticRaresMax</t>
+  </si>
+  <si>
+    <t>ProvinceSyntheticRaresRelative</t>
+  </si>
+  <si>
+    <t>ProvinceNuclearPowerCurrent</t>
+  </si>
+  <si>
+    <t>ProvinceNuclearPowerMax</t>
+  </si>
+  <si>
+    <t>ProvinceNuclearPowerRelative</t>
+  </si>
+  <si>
+    <t>項目ID</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バニラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バニラ
+ショートシナリオ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DH Full
+その他</t>
+    <rPh sb="10" eb="11">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DH Full
+1933</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存ゲーム</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bases_DOD.inc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DH Full
+ショートシナリオ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bases.inc
+bases_DOD.inc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bases.inc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country.inc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>save_games.eug</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bases.inc
+country.inc</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1044,7 +1309,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1064,6 +1329,21 @@
       <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1096,9 +1376,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1406,7 +1695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1734,7 +2023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -1943,6 +2232,1499 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="12.5" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>213</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>218</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>220</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>221</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>222</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>223</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>224</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>225</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>226</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>227</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>228</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>229</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>230</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>231</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>232</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>233</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>235</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>236</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>237</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>238</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>239</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>240</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>241</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>242</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>243</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>244</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>245</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>246</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>247</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>248</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>249</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>250</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>251</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>252</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>253</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>254</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>255</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>256</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>257</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -2065,7 +3847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -2179,7 +3961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -2299,7 +4081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>

--- a/HoI2Editor/Documents/Design/scenario.xlsx
+++ b/HoI2Editor/Documents/Design/scenario.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ファイル構成" sheetId="1" r:id="rId1"/>
     <sheet name="レイアウト" sheetId="6" r:id="rId2"/>
     <sheet name="保存先" sheetId="7" r:id="rId3"/>
-    <sheet name="Month" sheetId="3" r:id="rId4"/>
-    <sheet name="GovernmentType" sheetId="2" r:id="rId5"/>
-    <sheet name="BuildingType" sheetId="4" r:id="rId6"/>
-    <sheet name="MissionType" sheetId="5" r:id="rId7"/>
+    <sheet name="編集項目" sheetId="8" r:id="rId4"/>
+    <sheet name="Month" sheetId="3" r:id="rId5"/>
+    <sheet name="GovernmentType" sheetId="2" r:id="rId6"/>
+    <sheet name="BuildingType" sheetId="4" r:id="rId7"/>
+    <sheet name="MissionType" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="497">
   <si>
     <t>シナリオファイルの構成</t>
     <rPh sb="9" eb="11">
@@ -1302,6 +1303,730 @@
   <si>
     <t>bases.inc
 country.inc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SliderYear</t>
+  </si>
+  <si>
+    <t>SliderMonth</t>
+  </si>
+  <si>
+    <t>SliderDay</t>
+  </si>
+  <si>
+    <t>SliderDemocratic</t>
+  </si>
+  <si>
+    <t>SliderPoliticalLeft</t>
+  </si>
+  <si>
+    <t>SliderFreedom</t>
+  </si>
+  <si>
+    <t>SliderFreeMarket</t>
+  </si>
+  <si>
+    <t>SliderProfessionalArmy</t>
+  </si>
+  <si>
+    <t>SliderDefenseLobby</t>
+  </si>
+  <si>
+    <t>SliderInterventionism</t>
+  </si>
+  <si>
+    <t>CabinetHeadOfStateType</t>
+  </si>
+  <si>
+    <t>CabinetHeadOfStateId</t>
+  </si>
+  <si>
+    <t>CabinetHeadOfGovernmentType</t>
+  </si>
+  <si>
+    <t>CabinetHeadOfGovernmentId</t>
+  </si>
+  <si>
+    <t>CabinetForeignMinisterType</t>
+  </si>
+  <si>
+    <t>CabinetForeignMinisterId</t>
+  </si>
+  <si>
+    <t>CabinetArmamentMinisterType</t>
+  </si>
+  <si>
+    <t>CabinetArmamentMinisterId</t>
+  </si>
+  <si>
+    <t>CabinetMinisterOfSecurityType</t>
+  </si>
+  <si>
+    <t>CabinetMinisterOfSecurityId</t>
+  </si>
+  <si>
+    <t>CabinetMinisterOfIntelligenceType</t>
+  </si>
+  <si>
+    <t>CabinetMinisterOfIntelligenceId</t>
+  </si>
+  <si>
+    <t>CabinetChiefOfStaffType</t>
+  </si>
+  <si>
+    <t>CabinetChiefOfStaffId</t>
+  </si>
+  <si>
+    <t>CabinetChiefOfArmyType</t>
+  </si>
+  <si>
+    <t>CabinetChiefOfArmyId</t>
+  </si>
+  <si>
+    <t>CabinetChiefOfNavyType</t>
+  </si>
+  <si>
+    <t>CabinetChiefOfNavyId</t>
+  </si>
+  <si>
+    <t>CabinetChiefOfAirType</t>
+  </si>
+  <si>
+    <t>CabinetChiefOfAirId</t>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.SliderYear</t>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.SliderMonth</t>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.SliderDay</t>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.Democratic</t>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.PoliticalLeft</t>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.Freedom</t>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.FreeMarket</t>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.ProfessionalArmy</t>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.DefenseLobby</t>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.Interventionism</t>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.HeadOfStateType</t>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.HeadOfStateId</t>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.HeadOfGovernmentType</t>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.HeadOfGovernmentId</t>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.ForeignMinisterType</t>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.ForeignMinisterId</t>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.ArmamentMinisterType</t>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.ArmamentMinisterId</t>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.MinisterOfSecurityType</t>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.MinisterOfSecurityId</t>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.MinisterOfIntelligenceType</t>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.MinisterOfIntelligenceId</t>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.ChiefOfStaffType</t>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.ChiefOfStaffId</t>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.ChiefOfArmyType</t>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.ChiefOfArmyId</t>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.ChiefOfNavyType</t>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.ChiefOfNavyId</t>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.ChiefOfAirType</t>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.ChiefOfAirId</t>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.Capital</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.Vp</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.RevoltRisk</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.Manpower</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.MaxManpower</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.EnergyPool</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.Energy</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.MaxEnergy</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.MetalPool</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.Metal</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.MaxMetal</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.RareMaterialsPool</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.RareMaterials</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.MaxRareMaterials</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.OilPool</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.Oil</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.MaxOil</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.SupplyPool</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.Ic</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.MaxIc</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.RelativeIc</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.Infrastructure</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.MaxInfrastructure</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.RelativeInfrastructure</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.LandFort</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.MaxLandFort</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.RelativeLandFort</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.CoastalFort</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.MaxCoastalFort</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.RelativeCoastalFort</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.AntiAir</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.MaxAntiAir</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.RelativeAntiAir</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.AirBase</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.MaxAirBase</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.RelativeAirBase</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.NavalBase</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.MaxNavalBase</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.RelativeNavalBase</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.RadarStation</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.MaxRadarStation</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.RelativeRadarStation</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.NuclearReactor</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.MaxNuclearReactor</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.RelativeNuclearReactor</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.RocketTest</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.MaxRocketTest</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.RelativeRocketTest</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.SyntheticOil</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.MaxSyntheticOil</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.RelativeSyntheticOil</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.SyntheticRares</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.MaxSyntheticRares</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.RelativeSyntheticRares</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.NuclearPower</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.MaxNuclearPower</t>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.RelativeNuclearPower</t>
+  </si>
+  <si>
+    <t>編集済みフラグ</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slideryear</t>
+  </si>
+  <si>
+    <t>slidermonth</t>
+  </si>
+  <si>
+    <t>sliderday</t>
+  </si>
+  <si>
+    <t>capital</t>
+  </si>
+  <si>
+    <t>coreprovinces</t>
+  </si>
+  <si>
+    <t>ownedprovinces</t>
+  </si>
+  <si>
+    <t>controlledprovinces</t>
+  </si>
+  <si>
+    <t>claimedprovinces</t>
+  </si>
+  <si>
+    <t>provinceid</t>
+  </si>
+  <si>
+    <t>provincename</t>
+  </si>
+  <si>
+    <t>provincevp</t>
+  </si>
+  <si>
+    <t>provincerevoltrisk</t>
+  </si>
+  <si>
+    <t>provincemanpower</t>
+  </si>
+  <si>
+    <t>provincemaxmanpower</t>
+  </si>
+  <si>
+    <t>provinceenergypool</t>
+  </si>
+  <si>
+    <t>provinceenergy</t>
+  </si>
+  <si>
+    <t>provincemaxenergy</t>
+  </si>
+  <si>
+    <t>provincemetalpool</t>
+  </si>
+  <si>
+    <t>provincemetal</t>
+  </si>
+  <si>
+    <t>provincemaxmetal</t>
+  </si>
+  <si>
+    <t>provincerarematerialspool</t>
+  </si>
+  <si>
+    <t>provincerarematerials</t>
+  </si>
+  <si>
+    <t>provincemaxrarematerials</t>
+  </si>
+  <si>
+    <t>provinceoilpool</t>
+  </si>
+  <si>
+    <t>provinceoil</t>
+  </si>
+  <si>
+    <t>provincemaxoil</t>
+  </si>
+  <si>
+    <t>provincesupplypool</t>
+  </si>
+  <si>
+    <t>provinceic</t>
+  </si>
+  <si>
+    <t>provincemaxic</t>
+  </si>
+  <si>
+    <t>provincerelativeic</t>
+  </si>
+  <si>
+    <t>provinceinfrastructure</t>
+  </si>
+  <si>
+    <t>provincemaxinfrastructure</t>
+  </si>
+  <si>
+    <t>provincerelativeinfrastructure</t>
+  </si>
+  <si>
+    <t>provincelandfort</t>
+  </si>
+  <si>
+    <t>provincemaxlandfort</t>
+  </si>
+  <si>
+    <t>provincerelativelandfort</t>
+  </si>
+  <si>
+    <t>provincecoastalfort</t>
+  </si>
+  <si>
+    <t>provincemaxcoastalfort</t>
+  </si>
+  <si>
+    <t>provincerelativecoastalfort</t>
+  </si>
+  <si>
+    <t>provinceantiair</t>
+  </si>
+  <si>
+    <t>provincemaxantiair</t>
+  </si>
+  <si>
+    <t>provincerelativeantiair</t>
+  </si>
+  <si>
+    <t>provinceairbase</t>
+  </si>
+  <si>
+    <t>provincemaxairbase</t>
+  </si>
+  <si>
+    <t>provincerelativeairbase</t>
+  </si>
+  <si>
+    <t>provincenavalbase</t>
+  </si>
+  <si>
+    <t>provincemaxnavalbase</t>
+  </si>
+  <si>
+    <t>provincerelativenavalbase</t>
+  </si>
+  <si>
+    <t>provinceradarstation</t>
+  </si>
+  <si>
+    <t>provincemaxradarstation</t>
+  </si>
+  <si>
+    <t>provincerelativeradarstation</t>
+  </si>
+  <si>
+    <t>provincenuclearreactor</t>
+  </si>
+  <si>
+    <t>provincemaxnuclearreactor</t>
+  </si>
+  <si>
+    <t>provincerelativenuclearreactor</t>
+  </si>
+  <si>
+    <t>provincerockettest</t>
+  </si>
+  <si>
+    <t>provincemaxrockettest</t>
+  </si>
+  <si>
+    <t>provincerelativerockettest</t>
+  </si>
+  <si>
+    <t>provincesyntheticoil</t>
+  </si>
+  <si>
+    <t>provincemaxsyntheticoil</t>
+  </si>
+  <si>
+    <t>provincerelativesyntheticoil</t>
+  </si>
+  <si>
+    <t>provincesyntheticrares</t>
+  </si>
+  <si>
+    <t>provincemaxsyntheticrares</t>
+  </si>
+  <si>
+    <t>provincerelativesyntheticrares</t>
+  </si>
+  <si>
+    <t>provincenuclearpower</t>
+  </si>
+  <si>
+    <t>provincemaxnuclearpower</t>
+  </si>
+  <si>
+    <t>provincerelativenuclearpower</t>
+  </si>
+  <si>
+    <t>democratic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>political left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>freedom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>free market</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>professional army</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>defense lobby</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>interventionism</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>head of state type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>head of state id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>head of government type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>head of government id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>foreign minister type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>foreign minister id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>armament minister type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>armament minister id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>minister of security type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>minister of security id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>minister of intelligence type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>minister of intelligence id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chief of staff type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chief of staff id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chief of army type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chief of army id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chief of navy type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chief of navy id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chief of air type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chief of air id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目文字列</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CabinetHeadOfState</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.HeadOfStateId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CabinetHeadOfGovernment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CabinetForeignMinister</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CabinetArmamentMinister</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CabinetMinisterOfSecurity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CabinetMinisterOfIntelligence</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CabinetChiefOfStaff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CabinetChiefOfArmy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CabinetChiefOfNavy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CabinetChiefOfAir</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1695,7 +2420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3726,6 +4451,1172 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B10" t="s">
+        <v>311</v>
+      </c>
+      <c r="C10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C11" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>486</v>
+      </c>
+      <c r="B12" t="s">
+        <v>487</v>
+      </c>
+      <c r="C12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>283</v>
+      </c>
+      <c r="B13" t="s">
+        <v>313</v>
+      </c>
+      <c r="C13" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>284</v>
+      </c>
+      <c r="B14" t="s">
+        <v>314</v>
+      </c>
+      <c r="C14" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>488</v>
+      </c>
+      <c r="B15" t="s">
+        <v>316</v>
+      </c>
+      <c r="C15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C16" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>286</v>
+      </c>
+      <c r="B17" t="s">
+        <v>316</v>
+      </c>
+      <c r="C17" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>489</v>
+      </c>
+      <c r="B18" t="s">
+        <v>318</v>
+      </c>
+      <c r="C18" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>287</v>
+      </c>
+      <c r="B19" t="s">
+        <v>317</v>
+      </c>
+      <c r="C19" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>288</v>
+      </c>
+      <c r="B20" t="s">
+        <v>318</v>
+      </c>
+      <c r="C20" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>490</v>
+      </c>
+      <c r="B21" t="s">
+        <v>320</v>
+      </c>
+      <c r="C21" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>289</v>
+      </c>
+      <c r="B22" t="s">
+        <v>319</v>
+      </c>
+      <c r="C22" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>290</v>
+      </c>
+      <c r="B23" t="s">
+        <v>320</v>
+      </c>
+      <c r="C23" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>491</v>
+      </c>
+      <c r="B24" t="s">
+        <v>322</v>
+      </c>
+      <c r="C24" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>291</v>
+      </c>
+      <c r="B25" t="s">
+        <v>321</v>
+      </c>
+      <c r="C25" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>292</v>
+      </c>
+      <c r="B26" t="s">
+        <v>322</v>
+      </c>
+      <c r="C26" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>492</v>
+      </c>
+      <c r="B27" t="s">
+        <v>324</v>
+      </c>
+      <c r="C27" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>293</v>
+      </c>
+      <c r="B28" t="s">
+        <v>323</v>
+      </c>
+      <c r="C28" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>294</v>
+      </c>
+      <c r="B29" t="s">
+        <v>324</v>
+      </c>
+      <c r="C29" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>493</v>
+      </c>
+      <c r="B30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C30" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>295</v>
+      </c>
+      <c r="B31" t="s">
+        <v>325</v>
+      </c>
+      <c r="C31" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>296</v>
+      </c>
+      <c r="B32" t="s">
+        <v>326</v>
+      </c>
+      <c r="C32" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>494</v>
+      </c>
+      <c r="B33" t="s">
+        <v>328</v>
+      </c>
+      <c r="C33" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>297</v>
+      </c>
+      <c r="B34" t="s">
+        <v>327</v>
+      </c>
+      <c r="C34" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>298</v>
+      </c>
+      <c r="B35" t="s">
+        <v>328</v>
+      </c>
+      <c r="C35" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>495</v>
+      </c>
+      <c r="B36" t="s">
+        <v>330</v>
+      </c>
+      <c r="C36" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>299</v>
+      </c>
+      <c r="B37" t="s">
+        <v>329</v>
+      </c>
+      <c r="C37" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>300</v>
+      </c>
+      <c r="B38" t="s">
+        <v>330</v>
+      </c>
+      <c r="C38" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>496</v>
+      </c>
+      <c r="B39" t="s">
+        <v>332</v>
+      </c>
+      <c r="C39" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>301</v>
+      </c>
+      <c r="B40" t="s">
+        <v>331</v>
+      </c>
+      <c r="C40" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>302</v>
+      </c>
+      <c r="B41" t="s">
+        <v>332</v>
+      </c>
+      <c r="C41" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>196</v>
+      </c>
+      <c r="B42" t="s">
+        <v>333</v>
+      </c>
+      <c r="C42" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>197</v>
+      </c>
+      <c r="B43" t="s">
+        <v>334</v>
+      </c>
+      <c r="C43" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>198</v>
+      </c>
+      <c r="B44" t="s">
+        <v>334</v>
+      </c>
+      <c r="C44" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>199</v>
+      </c>
+      <c r="B45" t="s">
+        <v>334</v>
+      </c>
+      <c r="C45" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>200</v>
+      </c>
+      <c r="B46" t="s">
+        <v>334</v>
+      </c>
+      <c r="C46" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>201</v>
+      </c>
+      <c r="B47" t="s">
+        <v>334</v>
+      </c>
+      <c r="C47" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" t="s">
+        <v>334</v>
+      </c>
+      <c r="C48" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>195</v>
+      </c>
+      <c r="B49" t="s">
+        <v>335</v>
+      </c>
+      <c r="C49" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>203</v>
+      </c>
+      <c r="B50" t="s">
+        <v>336</v>
+      </c>
+      <c r="C50" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>204</v>
+      </c>
+      <c r="B51" t="s">
+        <v>337</v>
+      </c>
+      <c r="C51" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>205</v>
+      </c>
+      <c r="B52" t="s">
+        <v>338</v>
+      </c>
+      <c r="C52" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>206</v>
+      </c>
+      <c r="B53" t="s">
+        <v>339</v>
+      </c>
+      <c r="C53" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>207</v>
+      </c>
+      <c r="B54" t="s">
+        <v>340</v>
+      </c>
+      <c r="C54" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>208</v>
+      </c>
+      <c r="B55" t="s">
+        <v>341</v>
+      </c>
+      <c r="C55" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>209</v>
+      </c>
+      <c r="B56" t="s">
+        <v>342</v>
+      </c>
+      <c r="C56" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>210</v>
+      </c>
+      <c r="B57" t="s">
+        <v>343</v>
+      </c>
+      <c r="C57" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>211</v>
+      </c>
+      <c r="B58" t="s">
+        <v>344</v>
+      </c>
+      <c r="C58" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>212</v>
+      </c>
+      <c r="B59" t="s">
+        <v>345</v>
+      </c>
+      <c r="C59" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>213</v>
+      </c>
+      <c r="B60" t="s">
+        <v>346</v>
+      </c>
+      <c r="C60" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>214</v>
+      </c>
+      <c r="B61" t="s">
+        <v>347</v>
+      </c>
+      <c r="C61" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>215</v>
+      </c>
+      <c r="B62" t="s">
+        <v>348</v>
+      </c>
+      <c r="C62" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>216</v>
+      </c>
+      <c r="B63" t="s">
+        <v>349</v>
+      </c>
+      <c r="C63" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>217</v>
+      </c>
+      <c r="B64" t="s">
+        <v>350</v>
+      </c>
+      <c r="C64" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>218</v>
+      </c>
+      <c r="B65" t="s">
+        <v>351</v>
+      </c>
+      <c r="C65" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>219</v>
+      </c>
+      <c r="B66" t="s">
+        <v>352</v>
+      </c>
+      <c r="C66" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>220</v>
+      </c>
+      <c r="B67" t="s">
+        <v>353</v>
+      </c>
+      <c r="C67" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>221</v>
+      </c>
+      <c r="B68" t="s">
+        <v>354</v>
+      </c>
+      <c r="C68" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>222</v>
+      </c>
+      <c r="B69" t="s">
+        <v>355</v>
+      </c>
+      <c r="C69" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>223</v>
+      </c>
+      <c r="B70" t="s">
+        <v>356</v>
+      </c>
+      <c r="C70" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>224</v>
+      </c>
+      <c r="B71" t="s">
+        <v>357</v>
+      </c>
+      <c r="C71" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>225</v>
+      </c>
+      <c r="B72" t="s">
+        <v>358</v>
+      </c>
+      <c r="C72" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>226</v>
+      </c>
+      <c r="B73" t="s">
+        <v>359</v>
+      </c>
+      <c r="C73" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>227</v>
+      </c>
+      <c r="B74" t="s">
+        <v>360</v>
+      </c>
+      <c r="C74" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>228</v>
+      </c>
+      <c r="B75" t="s">
+        <v>361</v>
+      </c>
+      <c r="C75" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>229</v>
+      </c>
+      <c r="B76" t="s">
+        <v>362</v>
+      </c>
+      <c r="C76" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>230</v>
+      </c>
+      <c r="B77" t="s">
+        <v>363</v>
+      </c>
+      <c r="C77" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>231</v>
+      </c>
+      <c r="B78" t="s">
+        <v>364</v>
+      </c>
+      <c r="C78" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>232</v>
+      </c>
+      <c r="B79" t="s">
+        <v>365</v>
+      </c>
+      <c r="C79" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>233</v>
+      </c>
+      <c r="B80" t="s">
+        <v>366</v>
+      </c>
+      <c r="C80" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>234</v>
+      </c>
+      <c r="B81" t="s">
+        <v>367</v>
+      </c>
+      <c r="C81" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>235</v>
+      </c>
+      <c r="B82" t="s">
+        <v>368</v>
+      </c>
+      <c r="C82" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>236</v>
+      </c>
+      <c r="B83" t="s">
+        <v>369</v>
+      </c>
+      <c r="C83" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>237</v>
+      </c>
+      <c r="B84" t="s">
+        <v>370</v>
+      </c>
+      <c r="C84" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>238</v>
+      </c>
+      <c r="B85" t="s">
+        <v>371</v>
+      </c>
+      <c r="C85" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>239</v>
+      </c>
+      <c r="B86" t="s">
+        <v>372</v>
+      </c>
+      <c r="C86" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>240</v>
+      </c>
+      <c r="B87" t="s">
+        <v>373</v>
+      </c>
+      <c r="C87" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>241</v>
+      </c>
+      <c r="B88" t="s">
+        <v>374</v>
+      </c>
+      <c r="C88" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>242</v>
+      </c>
+      <c r="B89" t="s">
+        <v>375</v>
+      </c>
+      <c r="C89" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>243</v>
+      </c>
+      <c r="B90" t="s">
+        <v>376</v>
+      </c>
+      <c r="C90" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>244</v>
+      </c>
+      <c r="B91" t="s">
+        <v>377</v>
+      </c>
+      <c r="C91" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>245</v>
+      </c>
+      <c r="B92" t="s">
+        <v>378</v>
+      </c>
+      <c r="C92" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>246</v>
+      </c>
+      <c r="B93" t="s">
+        <v>379</v>
+      </c>
+      <c r="C93" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>247</v>
+      </c>
+      <c r="B94" t="s">
+        <v>380</v>
+      </c>
+      <c r="C94" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>248</v>
+      </c>
+      <c r="B95" t="s">
+        <v>381</v>
+      </c>
+      <c r="C95" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>249</v>
+      </c>
+      <c r="B96" t="s">
+        <v>382</v>
+      </c>
+      <c r="C96" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>250</v>
+      </c>
+      <c r="B97" t="s">
+        <v>383</v>
+      </c>
+      <c r="C97" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>251</v>
+      </c>
+      <c r="B98" t="s">
+        <v>384</v>
+      </c>
+      <c r="C98" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>252</v>
+      </c>
+      <c r="B99" t="s">
+        <v>385</v>
+      </c>
+      <c r="C99" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>253</v>
+      </c>
+      <c r="B100" t="s">
+        <v>386</v>
+      </c>
+      <c r="C100" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>254</v>
+      </c>
+      <c r="B101" t="s">
+        <v>387</v>
+      </c>
+      <c r="C101" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>255</v>
+      </c>
+      <c r="B102" t="s">
+        <v>388</v>
+      </c>
+      <c r="C102" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>256</v>
+      </c>
+      <c r="B103" t="s">
+        <v>389</v>
+      </c>
+      <c r="C103" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>257</v>
+      </c>
+      <c r="B104" t="s">
+        <v>390</v>
+      </c>
+      <c r="C104" t="s">
+        <v>457</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3847,7 +5738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -3961,7 +5852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -4081,7 +5972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>

--- a/HoI2Editor/Documents/Design/scenario.xlsx
+++ b/HoI2Editor/Documents/Design/scenario.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="611">
   <si>
     <t>シナリオファイルの構成</t>
     <rPh sb="9" eb="11">
@@ -1682,192 +1682,6 @@
     <t>capital</t>
   </si>
   <si>
-    <t>coreprovinces</t>
-  </si>
-  <si>
-    <t>ownedprovinces</t>
-  </si>
-  <si>
-    <t>controlledprovinces</t>
-  </si>
-  <si>
-    <t>claimedprovinces</t>
-  </si>
-  <si>
-    <t>provinceid</t>
-  </si>
-  <si>
-    <t>provincename</t>
-  </si>
-  <si>
-    <t>provincevp</t>
-  </si>
-  <si>
-    <t>provincerevoltrisk</t>
-  </si>
-  <si>
-    <t>provincemanpower</t>
-  </si>
-  <si>
-    <t>provincemaxmanpower</t>
-  </si>
-  <si>
-    <t>provinceenergypool</t>
-  </si>
-  <si>
-    <t>provinceenergy</t>
-  </si>
-  <si>
-    <t>provincemaxenergy</t>
-  </si>
-  <si>
-    <t>provincemetalpool</t>
-  </si>
-  <si>
-    <t>provincemetal</t>
-  </si>
-  <si>
-    <t>provincemaxmetal</t>
-  </si>
-  <si>
-    <t>provincerarematerialspool</t>
-  </si>
-  <si>
-    <t>provincerarematerials</t>
-  </si>
-  <si>
-    <t>provincemaxrarematerials</t>
-  </si>
-  <si>
-    <t>provinceoilpool</t>
-  </si>
-  <si>
-    <t>provinceoil</t>
-  </si>
-  <si>
-    <t>provincemaxoil</t>
-  </si>
-  <si>
-    <t>provincesupplypool</t>
-  </si>
-  <si>
-    <t>provinceic</t>
-  </si>
-  <si>
-    <t>provincemaxic</t>
-  </si>
-  <si>
-    <t>provincerelativeic</t>
-  </si>
-  <si>
-    <t>provinceinfrastructure</t>
-  </si>
-  <si>
-    <t>provincemaxinfrastructure</t>
-  </si>
-  <si>
-    <t>provincerelativeinfrastructure</t>
-  </si>
-  <si>
-    <t>provincelandfort</t>
-  </si>
-  <si>
-    <t>provincemaxlandfort</t>
-  </si>
-  <si>
-    <t>provincerelativelandfort</t>
-  </si>
-  <si>
-    <t>provincecoastalfort</t>
-  </si>
-  <si>
-    <t>provincemaxcoastalfort</t>
-  </si>
-  <si>
-    <t>provincerelativecoastalfort</t>
-  </si>
-  <si>
-    <t>provinceantiair</t>
-  </si>
-  <si>
-    <t>provincemaxantiair</t>
-  </si>
-  <si>
-    <t>provincerelativeantiair</t>
-  </si>
-  <si>
-    <t>provinceairbase</t>
-  </si>
-  <si>
-    <t>provincemaxairbase</t>
-  </si>
-  <si>
-    <t>provincerelativeairbase</t>
-  </si>
-  <si>
-    <t>provincenavalbase</t>
-  </si>
-  <si>
-    <t>provincemaxnavalbase</t>
-  </si>
-  <si>
-    <t>provincerelativenavalbase</t>
-  </si>
-  <si>
-    <t>provinceradarstation</t>
-  </si>
-  <si>
-    <t>provincemaxradarstation</t>
-  </si>
-  <si>
-    <t>provincerelativeradarstation</t>
-  </si>
-  <si>
-    <t>provincenuclearreactor</t>
-  </si>
-  <si>
-    <t>provincemaxnuclearreactor</t>
-  </si>
-  <si>
-    <t>provincerelativenuclearreactor</t>
-  </si>
-  <si>
-    <t>provincerockettest</t>
-  </si>
-  <si>
-    <t>provincemaxrockettest</t>
-  </si>
-  <si>
-    <t>provincerelativerockettest</t>
-  </si>
-  <si>
-    <t>provincesyntheticoil</t>
-  </si>
-  <si>
-    <t>provincemaxsyntheticoil</t>
-  </si>
-  <si>
-    <t>provincerelativesyntheticoil</t>
-  </si>
-  <si>
-    <t>provincesyntheticrares</t>
-  </si>
-  <si>
-    <t>provincemaxsyntheticrares</t>
-  </si>
-  <si>
-    <t>provincerelativesyntheticrares</t>
-  </si>
-  <si>
-    <t>provincenuclearpower</t>
-  </si>
-  <si>
-    <t>provincemaxnuclearpower</t>
-  </si>
-  <si>
-    <t>provincerelativenuclearpower</t>
-  </si>
-  <si>
     <t>democratic</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2027,6 +1841,572 @@
   </si>
   <si>
     <t>CabinetChiefOfAir</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コントロール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sliderYearTextBox</t>
+  </si>
+  <si>
+    <t>sliderMonthTextBox</t>
+  </si>
+  <si>
+    <t>sliderDayTextBox</t>
+  </si>
+  <si>
+    <t>democraticTrackBar</t>
+  </si>
+  <si>
+    <t>politicalLeftTrackBar</t>
+  </si>
+  <si>
+    <t>freedomTrackBar</t>
+  </si>
+  <si>
+    <t>freeMarketTrackBar</t>
+  </si>
+  <si>
+    <t>professionalArmyTrackBar</t>
+  </si>
+  <si>
+    <t>defenseLobbyTrackBar</t>
+  </si>
+  <si>
+    <t>interventionismTrackBar</t>
+  </si>
+  <si>
+    <t>headOfStateComboBox</t>
+  </si>
+  <si>
+    <t>headOfStateTypeTextBox</t>
+  </si>
+  <si>
+    <t>headOfStateIdTextBox</t>
+  </si>
+  <si>
+    <t>headOfGovernmentComboBox</t>
+  </si>
+  <si>
+    <t>headOfGovernmentTypeTextBox</t>
+  </si>
+  <si>
+    <t>headOfGovernmentIdTextBox</t>
+  </si>
+  <si>
+    <t>foreignMinisterComboBox</t>
+  </si>
+  <si>
+    <t>foreignMinisterTypeTextBox</t>
+  </si>
+  <si>
+    <t>foreignMinisterIdTextBox</t>
+  </si>
+  <si>
+    <t>armamentMinisterComboBox</t>
+  </si>
+  <si>
+    <t>armamentMinisterTypeTextBox</t>
+  </si>
+  <si>
+    <t>armamentMinisterIdTextBox</t>
+  </si>
+  <si>
+    <t>ministerOfSecurityComboBox</t>
+  </si>
+  <si>
+    <t>ministerOfSecurityTypeTextBox</t>
+  </si>
+  <si>
+    <t>ministerOfSecurityIdTextBox</t>
+  </si>
+  <si>
+    <t>ministerOfIntelligenceComboBox</t>
+  </si>
+  <si>
+    <t>ministerOfIntelligenceTypeTextBox</t>
+  </si>
+  <si>
+    <t>ministerOfIntelligenceIdTextBox</t>
+  </si>
+  <si>
+    <t>chiefOfStaffComboBox</t>
+  </si>
+  <si>
+    <t>chiefOfStaffTypeTextBox</t>
+  </si>
+  <si>
+    <t>chiefOfStaffIdTextBox</t>
+  </si>
+  <si>
+    <t>chiefOfArmyComboBox</t>
+  </si>
+  <si>
+    <t>chiefOfArmyTypeTextBox</t>
+  </si>
+  <si>
+    <t>chiefOfArmyIdTextBox</t>
+  </si>
+  <si>
+    <t>chiefOfNavyComboBox</t>
+  </si>
+  <si>
+    <t>chiefOfNavyTypeTextBox</t>
+  </si>
+  <si>
+    <t>chiefOfNavyIdTextBox</t>
+  </si>
+  <si>
+    <t>chiefOfAirComboBox</t>
+  </si>
+  <si>
+    <t>chiefOfAirTypeTextBox</t>
+  </si>
+  <si>
+    <t>chiefOfAirIdTextBox</t>
+  </si>
+  <si>
+    <t>capitalCheckBox</t>
+  </si>
+  <si>
+    <t>coreProvinceCheckBox</t>
+  </si>
+  <si>
+    <t>ownedProvinceCheckBox</t>
+  </si>
+  <si>
+    <t>controlledProvinceCheckBox</t>
+  </si>
+  <si>
+    <t>claimedProvinceCheckBox</t>
+  </si>
+  <si>
+    <t>provinceNameTextBox</t>
+  </si>
+  <si>
+    <t>provinceIdTextBox</t>
+  </si>
+  <si>
+    <t>vpTextBox</t>
+  </si>
+  <si>
+    <t>revoltRiskTextBox</t>
+  </si>
+  <si>
+    <t>manpowerCurrentTextBox</t>
+  </si>
+  <si>
+    <t>manpowerMaxTextBox</t>
+  </si>
+  <si>
+    <t>energyPoolTextBox</t>
+  </si>
+  <si>
+    <t>energyCurrentTextBox</t>
+  </si>
+  <si>
+    <t>energyMaxTextBox</t>
+  </si>
+  <si>
+    <t>metalPoolTextBox</t>
+  </si>
+  <si>
+    <t>metalCurrentTextBox</t>
+  </si>
+  <si>
+    <t>metalMaxTextBox</t>
+  </si>
+  <si>
+    <t>rareMaterialsPoolTextBox</t>
+  </si>
+  <si>
+    <t>rareMaterialsCurrentTextBox</t>
+  </si>
+  <si>
+    <t>rareMaterialsMaxTextBox</t>
+  </si>
+  <si>
+    <t>oilPoolTextBox</t>
+  </si>
+  <si>
+    <t>oilCurrentTextBox</t>
+  </si>
+  <si>
+    <t>oilMaxTextBox</t>
+  </si>
+  <si>
+    <t>suppliesPoolTextBox</t>
+  </si>
+  <si>
+    <t>icCurrentTextBox</t>
+  </si>
+  <si>
+    <t>icMaxTextBox</t>
+  </si>
+  <si>
+    <t>icRelativeTextBox</t>
+  </si>
+  <si>
+    <t>infrastructureCurrentTextBox</t>
+  </si>
+  <si>
+    <t>infrastructureMaxTextBox</t>
+  </si>
+  <si>
+    <t>infrastructureRelativeTextBox</t>
+  </si>
+  <si>
+    <t>landFortCurrentTextBox</t>
+  </si>
+  <si>
+    <t>landFortMaxTextBox</t>
+  </si>
+  <si>
+    <t>landFortRelativeTextBox</t>
+  </si>
+  <si>
+    <t>coastalFortCurrentTextBox</t>
+  </si>
+  <si>
+    <t>coastalFortMaxTextBox</t>
+  </si>
+  <si>
+    <t>coastalFortRelativeTextBox</t>
+  </si>
+  <si>
+    <t>antiAirCurrentTextBox</t>
+  </si>
+  <si>
+    <t>antiAirMaxTextBox</t>
+  </si>
+  <si>
+    <t>antiAirRelativeTextBox</t>
+  </si>
+  <si>
+    <t>airBaseCurrentTextBox</t>
+  </si>
+  <si>
+    <t>airBaseMaxTextBox</t>
+  </si>
+  <si>
+    <t>airBaseRelativeTextBox</t>
+  </si>
+  <si>
+    <t>navalBaseCurrentTextBox</t>
+  </si>
+  <si>
+    <t>navalBaseMaxTextBox</t>
+  </si>
+  <si>
+    <t>navalBaseRelativeTextBox</t>
+  </si>
+  <si>
+    <t>radarStationCurrentTextBox</t>
+  </si>
+  <si>
+    <t>radarStationMaxTextBox</t>
+  </si>
+  <si>
+    <t>radarStationRelativeTextBox</t>
+  </si>
+  <si>
+    <t>nuclearReactorCurrentTextBox</t>
+  </si>
+  <si>
+    <t>nuclearReactorMaxTextBox</t>
+  </si>
+  <si>
+    <t>nuclearReactorRelativeTextBox</t>
+  </si>
+  <si>
+    <t>rocketTestCurrentTextBox</t>
+  </si>
+  <si>
+    <t>rocketTestMaxTextBox</t>
+  </si>
+  <si>
+    <t>rocketTestRelativeTextBox</t>
+  </si>
+  <si>
+    <t>syntheticOilCurrentTextBox</t>
+  </si>
+  <si>
+    <t>syntheticOilMaxTextBox</t>
+  </si>
+  <si>
+    <t>province id</t>
+  </si>
+  <si>
+    <t>province name</t>
+  </si>
+  <si>
+    <t>province vp</t>
+  </si>
+  <si>
+    <t>province energy</t>
+  </si>
+  <si>
+    <t>province metal</t>
+  </si>
+  <si>
+    <t>province oil</t>
+  </si>
+  <si>
+    <t>province ic</t>
+  </si>
+  <si>
+    <t>province infrastructure</t>
+  </si>
+  <si>
+    <t>core provinces</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>owned provinces</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>controlled provinces</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>claimed provinces</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>province revolt risk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>province max manpower</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>province energy pool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>province manpower</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>province max energy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>province metal pool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>province max metal</t>
+  </si>
+  <si>
+    <t>province max oil</t>
+  </si>
+  <si>
+    <t>province max ic</t>
+  </si>
+  <si>
+    <t>province max infrastructure</t>
+  </si>
+  <si>
+    <t>province relative ic</t>
+  </si>
+  <si>
+    <t>province relative infrastructure</t>
+  </si>
+  <si>
+    <t>province oil pool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>province rare materials pool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>province rare materials</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>province max rare materials</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>province supply pool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>province max land fort</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>province relative land fort</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>province land fort</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>province coastal fort</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>province max coastal fort</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>province relative coastal fort</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>province anti air</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>province max anti air</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>province relative anti air</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>province air base</t>
+  </si>
+  <si>
+    <t>province max air base</t>
+  </si>
+  <si>
+    <t>province relative air base</t>
+  </si>
+  <si>
+    <t>province naval base</t>
+  </si>
+  <si>
+    <t>province max naval base</t>
+  </si>
+  <si>
+    <t>province relative naval base</t>
+  </si>
+  <si>
+    <t>province radar station</t>
+  </si>
+  <si>
+    <t>province max radar station</t>
+  </si>
+  <si>
+    <t>province relative radar station</t>
+  </si>
+  <si>
+    <t>province nuclear reactor</t>
+  </si>
+  <si>
+    <t>province max nuclear reactor</t>
+  </si>
+  <si>
+    <t>province relative nuclear reactor</t>
+  </si>
+  <si>
+    <t>province nuclear power</t>
+  </si>
+  <si>
+    <t>province max nuclear power</t>
+  </si>
+  <si>
+    <t>province relative nuclear power</t>
+  </si>
+  <si>
+    <t>province synthetic oil</t>
+  </si>
+  <si>
+    <t>province max synthetic oil</t>
+  </si>
+  <si>
+    <t>province relative synthetic oil</t>
+  </si>
+  <si>
+    <t>province synthetic rares</t>
+  </si>
+  <si>
+    <t>province max synthetic rares</t>
+  </si>
+  <si>
+    <t>province relative synthetic rares</t>
+  </si>
+  <si>
+    <t>province relative rocket test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>province max rocket test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>province rocket test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>syntheticOilRelativeTextBox</t>
+  </si>
+  <si>
+    <t>syntheticRaresCurrentTextBox</t>
+  </si>
+  <si>
+    <t>syntheticRaresMaxTextBox</t>
+  </si>
+  <si>
+    <t>syntheticRaresRelativeTextBox</t>
+  </si>
+  <si>
+    <t>nuclearPowerCurrentTextBox</t>
+  </si>
+  <si>
+    <t>nuclearPowerMaxTextBox</t>
+  </si>
+  <si>
+    <t>nuclearPowerRelativeTextBox</t>
+  </si>
+  <si>
+    <t>TechBlueprints</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>owned techs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blueprints</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inventions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ownedTechsListView</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blueprintsListView</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inventionsListView</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TechInventions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TechOwned</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4451,20 +4831,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>258</v>
       </c>
@@ -4472,10 +4853,13 @@
         <v>391</v>
       </c>
       <c r="C1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="D1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>273</v>
       </c>
@@ -4485,8 +4869,11 @@
       <c r="C2" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>274</v>
       </c>
@@ -4496,8 +4883,11 @@
       <c r="C3" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>275</v>
       </c>
@@ -4507,8 +4897,11 @@
       <c r="C4" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>276</v>
       </c>
@@ -4516,10 +4909,13 @@
         <v>306</v>
       </c>
       <c r="C5" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>396</v>
+      </c>
+      <c r="D5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>277</v>
       </c>
@@ -4527,10 +4923,13 @@
         <v>307</v>
       </c>
       <c r="C6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <v>397</v>
+      </c>
+      <c r="D6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>278</v>
       </c>
@@ -4538,10 +4937,13 @@
         <v>308</v>
       </c>
       <c r="C7" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+        <v>398</v>
+      </c>
+      <c r="D7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>279</v>
       </c>
@@ -4549,10 +4951,13 @@
         <v>309</v>
       </c>
       <c r="C8" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+        <v>399</v>
+      </c>
+      <c r="D8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -4560,10 +4965,13 @@
         <v>310</v>
       </c>
       <c r="C9" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+        <v>400</v>
+      </c>
+      <c r="D9" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>281</v>
       </c>
@@ -4571,10 +4979,13 @@
         <v>311</v>
       </c>
       <c r="C10" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+        <v>401</v>
+      </c>
+      <c r="D10" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>282</v>
       </c>
@@ -4582,21 +4993,27 @@
         <v>312</v>
       </c>
       <c r="C11" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+        <v>402</v>
+      </c>
+      <c r="D11" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>486</v>
+        <v>424</v>
       </c>
       <c r="B12" t="s">
-        <v>487</v>
+        <v>425</v>
       </c>
       <c r="C12" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+        <v>404</v>
+      </c>
+      <c r="D12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>283</v>
       </c>
@@ -4604,10 +5021,13 @@
         <v>313</v>
       </c>
       <c r="C13" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+        <v>403</v>
+      </c>
+      <c r="D13" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>284</v>
       </c>
@@ -4615,21 +5035,27 @@
         <v>314</v>
       </c>
       <c r="C14" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+        <v>404</v>
+      </c>
+      <c r="D14" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>488</v>
+        <v>426</v>
       </c>
       <c r="B15" t="s">
         <v>316</v>
       </c>
       <c r="C15" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+        <v>406</v>
+      </c>
+      <c r="D15" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>285</v>
       </c>
@@ -4637,10 +5063,13 @@
         <v>315</v>
       </c>
       <c r="C16" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+        <v>405</v>
+      </c>
+      <c r="D16" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>286</v>
       </c>
@@ -4648,21 +5077,27 @@
         <v>316</v>
       </c>
       <c r="C17" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+        <v>406</v>
+      </c>
+      <c r="D17" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>489</v>
+        <v>427</v>
       </c>
       <c r="B18" t="s">
         <v>318</v>
       </c>
       <c r="C18" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+        <v>408</v>
+      </c>
+      <c r="D18" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>287</v>
       </c>
@@ -4670,10 +5105,13 @@
         <v>317</v>
       </c>
       <c r="C19" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+        <v>407</v>
+      </c>
+      <c r="D19" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>288</v>
       </c>
@@ -4681,21 +5119,27 @@
         <v>318</v>
       </c>
       <c r="C20" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+        <v>408</v>
+      </c>
+      <c r="D20" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>490</v>
+        <v>428</v>
       </c>
       <c r="B21" t="s">
         <v>320</v>
       </c>
       <c r="C21" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+        <v>410</v>
+      </c>
+      <c r="D21" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>289</v>
       </c>
@@ -4703,10 +5147,13 @@
         <v>319</v>
       </c>
       <c r="C22" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+        <v>409</v>
+      </c>
+      <c r="D22" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>290</v>
       </c>
@@ -4714,21 +5161,27 @@
         <v>320</v>
       </c>
       <c r="C23" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+        <v>410</v>
+      </c>
+      <c r="D23" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>491</v>
+        <v>429</v>
       </c>
       <c r="B24" t="s">
         <v>322</v>
       </c>
       <c r="C24" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+        <v>412</v>
+      </c>
+      <c r="D24" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>291</v>
       </c>
@@ -4736,10 +5189,13 @@
         <v>321</v>
       </c>
       <c r="C25" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+        <v>411</v>
+      </c>
+      <c r="D25" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>292</v>
       </c>
@@ -4747,21 +5203,27 @@
         <v>322</v>
       </c>
       <c r="C26" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+        <v>412</v>
+      </c>
+      <c r="D26" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>492</v>
+        <v>430</v>
       </c>
       <c r="B27" t="s">
         <v>324</v>
       </c>
       <c r="C27" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+        <v>414</v>
+      </c>
+      <c r="D27" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>293</v>
       </c>
@@ -4769,10 +5231,13 @@
         <v>323</v>
       </c>
       <c r="C28" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+        <v>413</v>
+      </c>
+      <c r="D28" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>294</v>
       </c>
@@ -4780,21 +5245,27 @@
         <v>324</v>
       </c>
       <c r="C29" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+        <v>414</v>
+      </c>
+      <c r="D29" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>493</v>
+        <v>431</v>
       </c>
       <c r="B30" t="s">
         <v>326</v>
       </c>
       <c r="C30" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+        <v>416</v>
+      </c>
+      <c r="D30" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>295</v>
       </c>
@@ -4802,10 +5273,13 @@
         <v>325</v>
       </c>
       <c r="C31" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+        <v>415</v>
+      </c>
+      <c r="D31" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>296</v>
       </c>
@@ -4813,21 +5287,27 @@
         <v>326</v>
       </c>
       <c r="C32" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+        <v>416</v>
+      </c>
+      <c r="D32" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>494</v>
+        <v>432</v>
       </c>
       <c r="B33" t="s">
         <v>328</v>
       </c>
       <c r="C33" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+      <c r="D33" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>297</v>
       </c>
@@ -4835,10 +5315,13 @@
         <v>327</v>
       </c>
       <c r="C34" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+        <v>417</v>
+      </c>
+      <c r="D34" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>298</v>
       </c>
@@ -4846,21 +5329,27 @@
         <v>328</v>
       </c>
       <c r="C35" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+      <c r="D35" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>495</v>
+        <v>433</v>
       </c>
       <c r="B36" t="s">
         <v>330</v>
       </c>
       <c r="C36" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+      <c r="D36" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>299</v>
       </c>
@@ -4868,10 +5357,13 @@
         <v>329</v>
       </c>
       <c r="C37" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+      <c r="D37" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>300</v>
       </c>
@@ -4879,21 +5371,27 @@
         <v>330</v>
       </c>
       <c r="C38" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+      <c r="D38" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>496</v>
+        <v>434</v>
       </c>
       <c r="B39" t="s">
         <v>332</v>
       </c>
       <c r="C39" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+      <c r="D39" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>301</v>
       </c>
@@ -4901,10 +5399,13 @@
         <v>331</v>
       </c>
       <c r="C40" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+        <v>421</v>
+      </c>
+      <c r="D40" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>302</v>
       </c>
@@ -4912,700 +5413,934 @@
         <v>332</v>
       </c>
       <c r="C41" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+      <c r="D41" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
+        <v>610</v>
+      </c>
+      <c r="B42" t="s">
+        <v>602</v>
+      </c>
+      <c r="C42" t="s">
+        <v>603</v>
+      </c>
+      <c r="D42" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>601</v>
+      </c>
+      <c r="B43" t="s">
+        <v>602</v>
+      </c>
+      <c r="C43" t="s">
+        <v>604</v>
+      </c>
+      <c r="D43" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>609</v>
+      </c>
+      <c r="B44" t="s">
+        <v>602</v>
+      </c>
+      <c r="C44" t="s">
+        <v>605</v>
+      </c>
+      <c r="D44" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
         <v>196</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B45" t="s">
         <v>333</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C45" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
+      <c r="D45" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>197</v>
-      </c>
-      <c r="B43" t="s">
-        <v>334</v>
-      </c>
-      <c r="C43" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>198</v>
-      </c>
-      <c r="B44" t="s">
-        <v>334</v>
-      </c>
-      <c r="C44" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>199</v>
-      </c>
-      <c r="B45" t="s">
-        <v>334</v>
-      </c>
-      <c r="C45" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>200</v>
       </c>
       <c r="B46" t="s">
         <v>334</v>
       </c>
       <c r="C46" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+        <v>540</v>
+      </c>
+      <c r="D46" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B47" t="s">
         <v>334</v>
       </c>
       <c r="C47" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+        <v>541</v>
+      </c>
+      <c r="D47" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B48" t="s">
         <v>334</v>
       </c>
       <c r="C48" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+      <c r="D48" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
+        <v>200</v>
+      </c>
+      <c r="B49" t="s">
+        <v>334</v>
+      </c>
+      <c r="C49" t="s">
+        <v>543</v>
+      </c>
+      <c r="D49" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>201</v>
+      </c>
+      <c r="B50" t="s">
+        <v>334</v>
+      </c>
+      <c r="C50" t="s">
+        <v>532</v>
+      </c>
+      <c r="D50" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>202</v>
+      </c>
+      <c r="B51" t="s">
+        <v>334</v>
+      </c>
+      <c r="C51" t="s">
+        <v>533</v>
+      </c>
+      <c r="D51" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
         <v>195</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B52" t="s">
         <v>335</v>
       </c>
-      <c r="C49" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
+      <c r="C52" t="s">
+        <v>534</v>
+      </c>
+      <c r="D52" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
         <v>203</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B53" t="s">
         <v>336</v>
       </c>
-      <c r="C50" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
+      <c r="C53" t="s">
+        <v>544</v>
+      </c>
+      <c r="D53" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
         <v>204</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B54" t="s">
         <v>337</v>
       </c>
-      <c r="C51" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
+      <c r="C54" t="s">
+        <v>547</v>
+      </c>
+      <c r="D54" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
         <v>205</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B55" t="s">
         <v>338</v>
       </c>
-      <c r="C52" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
+      <c r="C55" t="s">
+        <v>545</v>
+      </c>
+      <c r="D55" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
         <v>206</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B56" t="s">
         <v>339</v>
       </c>
-      <c r="C53" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
+      <c r="C56" t="s">
+        <v>546</v>
+      </c>
+      <c r="D56" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
         <v>207</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B57" t="s">
         <v>340</v>
       </c>
-      <c r="C54" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
+      <c r="C57" t="s">
+        <v>535</v>
+      </c>
+      <c r="D57" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
         <v>208</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B58" t="s">
         <v>341</v>
       </c>
-      <c r="C55" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
+      <c r="C58" t="s">
+        <v>548</v>
+      </c>
+      <c r="D58" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
         <v>209</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B59" t="s">
         <v>342</v>
       </c>
-      <c r="C56" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
+      <c r="C59" t="s">
+        <v>549</v>
+      </c>
+      <c r="D59" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
         <v>210</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B60" t="s">
         <v>343</v>
       </c>
-      <c r="C57" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
+      <c r="C60" t="s">
+        <v>536</v>
+      </c>
+      <c r="D60" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
         <v>211</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B61" t="s">
         <v>344</v>
       </c>
-      <c r="C58" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
+      <c r="C61" t="s">
+        <v>550</v>
+      </c>
+      <c r="D61" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
         <v>212</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B62" t="s">
         <v>345</v>
       </c>
-      <c r="C59" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
+      <c r="C62" t="s">
+        <v>557</v>
+      </c>
+      <c r="D62" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
         <v>213</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B63" t="s">
         <v>346</v>
       </c>
-      <c r="C60" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
+      <c r="C63" t="s">
+        <v>558</v>
+      </c>
+      <c r="D63" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
         <v>214</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B64" t="s">
         <v>347</v>
       </c>
-      <c r="C61" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
+      <c r="C64" t="s">
+        <v>559</v>
+      </c>
+      <c r="D64" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
         <v>215</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B65" t="s">
         <v>348</v>
       </c>
-      <c r="C62" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
+      <c r="C65" t="s">
+        <v>556</v>
+      </c>
+      <c r="D65" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
         <v>216</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B66" t="s">
         <v>349</v>
       </c>
-      <c r="C63" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
+      <c r="C66" t="s">
+        <v>537</v>
+      </c>
+      <c r="D66" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
         <v>217</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B67" t="s">
         <v>350</v>
       </c>
-      <c r="C64" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
+      <c r="C67" t="s">
+        <v>551</v>
+      </c>
+      <c r="D67" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
         <v>218</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B68" t="s">
         <v>351</v>
       </c>
-      <c r="C65" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
+      <c r="C68" t="s">
+        <v>560</v>
+      </c>
+      <c r="D68" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
         <v>219</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B69" t="s">
         <v>352</v>
       </c>
-      <c r="C66" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
+      <c r="C69" t="s">
+        <v>538</v>
+      </c>
+      <c r="D69" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
         <v>220</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B70" t="s">
         <v>353</v>
       </c>
-      <c r="C67" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
+      <c r="C70" t="s">
+        <v>552</v>
+      </c>
+      <c r="D70" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
         <v>221</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B71" t="s">
         <v>354</v>
       </c>
-      <c r="C68" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
+      <c r="C71" t="s">
+        <v>554</v>
+      </c>
+      <c r="D71" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
         <v>222</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B72" t="s">
         <v>355</v>
       </c>
-      <c r="C69" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
+      <c r="C72" t="s">
+        <v>539</v>
+      </c>
+      <c r="D72" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
         <v>223</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B73" t="s">
         <v>356</v>
       </c>
-      <c r="C70" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
+      <c r="C73" t="s">
+        <v>553</v>
+      </c>
+      <c r="D73" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
         <v>224</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B74" t="s">
         <v>357</v>
       </c>
-      <c r="C71" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
+      <c r="C74" t="s">
+        <v>555</v>
+      </c>
+      <c r="D74" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
         <v>225</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B75" t="s">
         <v>358</v>
       </c>
-      <c r="C72" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
+      <c r="C75" t="s">
+        <v>563</v>
+      </c>
+      <c r="D75" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
         <v>226</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B76" t="s">
         <v>359</v>
       </c>
-      <c r="C73" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
+      <c r="C76" t="s">
+        <v>561</v>
+      </c>
+      <c r="D76" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
         <v>227</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B77" t="s">
         <v>360</v>
       </c>
-      <c r="C74" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
+      <c r="C77" t="s">
+        <v>562</v>
+      </c>
+      <c r="D77" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
         <v>228</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B78" t="s">
         <v>361</v>
       </c>
-      <c r="C75" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
+      <c r="C78" t="s">
+        <v>564</v>
+      </c>
+      <c r="D78" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
         <v>229</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B79" t="s">
         <v>362</v>
       </c>
-      <c r="C76" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
+      <c r="C79" t="s">
+        <v>565</v>
+      </c>
+      <c r="D79" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
         <v>230</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B80" t="s">
         <v>363</v>
       </c>
-      <c r="C77" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
+      <c r="C80" t="s">
+        <v>566</v>
+      </c>
+      <c r="D80" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
         <v>231</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B81" t="s">
         <v>364</v>
       </c>
-      <c r="C78" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" t="s">
+      <c r="C81" t="s">
+        <v>567</v>
+      </c>
+      <c r="D81" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
         <v>232</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B82" t="s">
         <v>365</v>
       </c>
-      <c r="C79" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
+      <c r="C82" t="s">
+        <v>568</v>
+      </c>
+      <c r="D82" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
         <v>233</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B83" t="s">
         <v>366</v>
       </c>
-      <c r="C80" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
+      <c r="C83" t="s">
+        <v>569</v>
+      </c>
+      <c r="D83" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
         <v>234</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B84" t="s">
         <v>367</v>
       </c>
-      <c r="C81" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
+      <c r="C84" t="s">
+        <v>570</v>
+      </c>
+      <c r="D84" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
         <v>235</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B85" t="s">
         <v>368</v>
       </c>
-      <c r="C82" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" t="s">
+      <c r="C85" t="s">
+        <v>571</v>
+      </c>
+      <c r="D85" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
         <v>236</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B86" t="s">
         <v>369</v>
       </c>
-      <c r="C83" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
+      <c r="C86" t="s">
+        <v>572</v>
+      </c>
+      <c r="D86" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
         <v>237</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B87" t="s">
         <v>370</v>
       </c>
-      <c r="C84" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" t="s">
+      <c r="C87" t="s">
+        <v>573</v>
+      </c>
+      <c r="D87" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
         <v>238</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B88" t="s">
         <v>371</v>
       </c>
-      <c r="C85" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
+      <c r="C88" t="s">
+        <v>574</v>
+      </c>
+      <c r="D88" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
         <v>239</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B89" t="s">
         <v>372</v>
       </c>
-      <c r="C86" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
+      <c r="C89" t="s">
+        <v>575</v>
+      </c>
+      <c r="D89" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
         <v>240</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B90" t="s">
         <v>373</v>
       </c>
-      <c r="C87" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
+      <c r="C90" t="s">
+        <v>576</v>
+      </c>
+      <c r="D90" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
         <v>241</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B91" t="s">
         <v>374</v>
       </c>
-      <c r="C88" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A89" t="s">
+      <c r="C91" t="s">
+        <v>577</v>
+      </c>
+      <c r="D91" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
         <v>242</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B92" t="s">
         <v>375</v>
       </c>
-      <c r="C89" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A90" t="s">
+      <c r="C92" t="s">
+        <v>578</v>
+      </c>
+      <c r="D92" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
         <v>243</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B93" t="s">
         <v>376</v>
       </c>
-      <c r="C90" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A91" t="s">
+      <c r="C93" t="s">
+        <v>579</v>
+      </c>
+      <c r="D93" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
         <v>244</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B94" t="s">
         <v>377</v>
       </c>
-      <c r="C91" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A92" t="s">
+      <c r="C94" t="s">
+        <v>580</v>
+      </c>
+      <c r="D94" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
         <v>245</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B95" t="s">
         <v>378</v>
       </c>
-      <c r="C92" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A93" t="s">
+      <c r="C95" t="s">
+        <v>581</v>
+      </c>
+      <c r="D95" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
         <v>246</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B96" t="s">
         <v>379</v>
       </c>
-      <c r="C93" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" t="s">
+      <c r="C96" t="s">
+        <v>593</v>
+      </c>
+      <c r="D96" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
         <v>247</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B97" t="s">
         <v>380</v>
       </c>
-      <c r="C94" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A95" t="s">
+      <c r="C97" t="s">
+        <v>592</v>
+      </c>
+      <c r="D97" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
         <v>248</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B98" t="s">
         <v>381</v>
       </c>
-      <c r="C95" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A96" t="s">
+      <c r="C98" t="s">
+        <v>591</v>
+      </c>
+      <c r="D98" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
         <v>249</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B99" t="s">
         <v>382</v>
       </c>
-      <c r="C96" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
+      <c r="C99" t="s">
+        <v>585</v>
+      </c>
+      <c r="D99" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
         <v>250</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B100" t="s">
         <v>383</v>
       </c>
-      <c r="C97" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A98" t="s">
+      <c r="C100" t="s">
+        <v>586</v>
+      </c>
+      <c r="D100" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
         <v>251</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B101" t="s">
         <v>384</v>
       </c>
-      <c r="C98" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A99" t="s">
+      <c r="C101" t="s">
+        <v>587</v>
+      </c>
+      <c r="D101" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
         <v>252</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B102" t="s">
         <v>385</v>
       </c>
-      <c r="C99" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A100" t="s">
+      <c r="C102" t="s">
+        <v>588</v>
+      </c>
+      <c r="D102" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
         <v>253</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B103" t="s">
         <v>386</v>
       </c>
-      <c r="C100" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A101" t="s">
+      <c r="C103" t="s">
+        <v>589</v>
+      </c>
+      <c r="D103" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
         <v>254</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B104" t="s">
         <v>387</v>
       </c>
-      <c r="C101" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A102" t="s">
+      <c r="C104" t="s">
+        <v>590</v>
+      </c>
+      <c r="D104" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
         <v>255</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B105" t="s">
         <v>388</v>
       </c>
-      <c r="C102" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A103" t="s">
+      <c r="C105" t="s">
+        <v>582</v>
+      </c>
+      <c r="D105" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
         <v>256</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B106" t="s">
         <v>389</v>
       </c>
-      <c r="C103" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A104" t="s">
+      <c r="C106" t="s">
+        <v>583</v>
+      </c>
+      <c r="D106" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
         <v>257</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B107" t="s">
         <v>390</v>
       </c>
-      <c r="C104" t="s">
-        <v>457</v>
+      <c r="C107" t="s">
+        <v>584</v>
+      </c>
+      <c r="D107" t="s">
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/HoI2Editor/Documents/Design/scenario.xlsx
+++ b/HoI2Editor/Documents/Design/scenario.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="837">
   <si>
     <t>シナリオファイルの構成</t>
     <rPh sb="9" eb="11">
@@ -1670,15 +1670,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>slideryear</t>
-  </si>
-  <si>
-    <t>slidermonth</t>
-  </si>
-  <si>
-    <t>sliderday</t>
-  </si>
-  <si>
     <t>capital</t>
   </si>
   <si>
@@ -2370,44 +2361,900 @@
     <t>nuclearPowerRelativeTextBox</t>
   </si>
   <si>
-    <t>TechBlueprints</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>owned techs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>blueprints</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>inventions</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ownedTechsListView</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>blueprintsListView</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>inventionsListView</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TechInventions</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TechOwned</t>
-    <phoneticPr fontId="1"/>
+    <t>CountryName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountryFlagExt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountryBelligerence</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountryDissent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountryNuke</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountryNukeYear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountryNukeMonth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountryGroundDefEff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountryPeacetimeIcModifier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountryWartimeIcModifier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountryIndustrialModifier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountryEnergy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountryMetal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountryRareMaterials</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountryOil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySupplies</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountryMoney</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountryTransports</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountryEscorts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountryManpower</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountryAiFileName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountryOffmapEnergy</t>
+  </si>
+  <si>
+    <t>CountryOffmapMetal</t>
+  </si>
+  <si>
+    <t>CountryOffmapRareMaterials</t>
+  </si>
+  <si>
+    <t>CountryOffmapOil</t>
+  </si>
+  <si>
+    <t>CountryOffmapSupplies</t>
+  </si>
+  <si>
+    <t>CountryOffmapMoney</t>
+  </si>
+  <si>
+    <t>CountryOffmapTransports</t>
+  </si>
+  <si>
+    <t>CountryOffmapEscorts</t>
+  </si>
+  <si>
+    <t>CountryOffmapManpower</t>
+  </si>
+  <si>
+    <t>CountryOffmapIc</t>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.FlagExt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.RegularId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.Belligerence</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.Dissent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.ExtraTc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.Nuke</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.NukeYear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.NukeMonth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.NukeDay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.GroundDefEff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.AiFileName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.PeacetimeIcModifier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.WartimeIcModifier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.IndustrialModifier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.RelativeManpower</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.Energy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.Metal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.RareMaterials</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.Oil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.Supplies</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.Money</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.Transports</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.Escorts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.OffmapIc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.OffmapManpower</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.OffmapEnergy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.Manpower</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.OffmapMetal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.OffmapRareMaterials</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.OffmapOil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.OffmapSupplies</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.OffmapMoney</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.OffmapTransports</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.OffmapEscorts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slider year</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slider month</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slider day</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country flag ext</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country regular id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country belligerence</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country dissent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country extra tc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country nuke</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country nuke year</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country nuke month</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country nuke day</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country ground def eff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country peacetime ic modifier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country wartime ic modifier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country industrial modifier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country relative manpower</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country energy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country metal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country rare materials</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country oil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country supplies</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country money</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country transports</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country escorts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country manpower</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country offmap energy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country offmap metal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country ai file</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country offmap rare materials</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country offmap oil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country offmap supplies</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country offmap money</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country offmap transports</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country offmap escorts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country offmap manpower</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country offmap ic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>countryNameTextBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flagExtTextBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>extraTcTextBox</t>
+  </si>
+  <si>
+    <t>nukeYearTextBox</t>
+  </si>
+  <si>
+    <t>nukeMonthTextBox</t>
+  </si>
+  <si>
+    <t>nukeDayTextBox</t>
+  </si>
+  <si>
+    <t>countryEnergyTextBox</t>
+  </si>
+  <si>
+    <t>countryMetalTextBox</t>
+  </si>
+  <si>
+    <t>countryOilTextBox</t>
+  </si>
+  <si>
+    <t>countryMoneyTextBox</t>
+  </si>
+  <si>
+    <t>countryTransportsTextBox</t>
+  </si>
+  <si>
+    <t>countryEscortsTextBox</t>
+  </si>
+  <si>
+    <t>countryManpowerTextBox</t>
+  </si>
+  <si>
+    <t>offmapEnergyTextBox</t>
+  </si>
+  <si>
+    <t>offmapMetalTextBox</t>
+  </si>
+  <si>
+    <t>offmapOilTextBox</t>
+  </si>
+  <si>
+    <t>offmapSuppliesTextBox</t>
+  </si>
+  <si>
+    <t>offmapMoneyTextBox</t>
+  </si>
+  <si>
+    <t>offmapTransportsTextBox</t>
+  </si>
+  <si>
+    <t>offmapEscortsTextBox</t>
+  </si>
+  <si>
+    <t>offmapManpowerTextBox</t>
+  </si>
+  <si>
+    <t>offmapIcTextBox</t>
+  </si>
+  <si>
+    <t>regularIdComboBox</t>
+  </si>
+  <si>
+    <t>belligerenceTextBox</t>
+  </si>
+  <si>
+    <t>dissentTextBox</t>
+  </si>
+  <si>
+    <t>nukeTextBox</t>
+  </si>
+  <si>
+    <t>countryRareMaterialsTextBox</t>
+  </si>
+  <si>
+    <t>countrySuppliesTextBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>offmapRareMaterialsTextBox</t>
+  </si>
+  <si>
+    <t>CountryRegularId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountryExtraTc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountryNukeDay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Country</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Double</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Government</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Province</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountryRelativeManpower</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>groundDefEffTextBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>peacetimeIcModifierTextBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wartimeIcModifierTextBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>industrialModifierTextBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>relativeManpowerTextBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aiFileNameTextBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TradeStartYear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TradeStartMonth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TradeStartDay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TradeEndYear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TradeEndMonth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TradeEndDay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TradeId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TradeCancel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TradeCountry1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TradeCountry2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TradeEnergy1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TradeEnergy2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TradeMetal1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TradeMetal2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TradeRareMaterials1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TradeRareMaterials2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TradeOil1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TradeOil2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TradeSupplies1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TradeSupplies2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TradeMoney1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TradeMoney2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Trade</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Country</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Treaty.ItemId.StartYear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Treaty.ItemId.EndYear</t>
+  </si>
+  <si>
+    <t>Treaty.ItemId.EndMonth</t>
+  </si>
+  <si>
+    <t>Treaty.ItemId.StartMonth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Treaty.ItemId.StartDay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Treaty.ItemId.EndDay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Treaty.ItemId.Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Treaty.ItemId.Cancel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Treaty.ItemId.Country1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Treaty.ItemId.Country2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Treaty.ItemId.Energy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Treaty.ItemId.Energy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Treaty.ItemId.Metal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Treaty.ItemId.RareMaterials</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Treaty.ItemId.Oil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Treaty.ItemId.Supplies</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Treaty.ItemId.Money</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trade start year</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trade end year</t>
+  </si>
+  <si>
+    <t>trade end month</t>
+  </si>
+  <si>
+    <t>trade end day</t>
+  </si>
+  <si>
+    <t>trade start month</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trade start day</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trade id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trade cancel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trade country1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trade country2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trade energy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trade metal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trade rare materials</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trade oil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trade supplies</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trade money</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tradeStartYearTextBox</t>
+  </si>
+  <si>
+    <t>tradeStartMonthTextBox</t>
+  </si>
+  <si>
+    <t>tradeStartDayTextBox</t>
+  </si>
+  <si>
+    <t>tradeEndYearTextBox</t>
+  </si>
+  <si>
+    <t>tradeEndMonthTextBox</t>
+  </si>
+  <si>
+    <t>tradeEndDayTextBox</t>
+  </si>
+  <si>
+    <t>tradeTypeTextBox</t>
+  </si>
+  <si>
+    <t>TradeType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Treaty.ItemId.Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trade type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tradeIdTextBox</t>
+  </si>
+  <si>
+    <t>tradeCancelCheckBox</t>
+  </si>
+  <si>
+    <t>tradeCountryComboBox1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tradeCountryComboBox2</t>
+  </si>
+  <si>
+    <t>tradeEnergyTextBox1</t>
+  </si>
+  <si>
+    <t>tradeEnergyTextBox2</t>
+  </si>
+  <si>
+    <t>tradeMetalTextBox1</t>
+  </si>
+  <si>
+    <t>tradeMetalTextBox2</t>
+  </si>
+  <si>
+    <t>tradeRareMaterialsTextBox1</t>
+  </si>
+  <si>
+    <t>tradeRareMaterialsTextBox2</t>
+  </si>
+  <si>
+    <t>tradeOilTextBox1</t>
+  </si>
+  <si>
+    <t>tradeOilTextBox2</t>
+  </si>
+  <si>
+    <t>tradeSuppliesTextBox1</t>
+  </si>
+  <si>
+    <t>tradeSuppliesTextBox2</t>
+  </si>
+  <si>
+    <t>tradeMoneyTextBox1</t>
+  </si>
+  <si>
+    <t>tradeMoneyTextBox2</t>
   </si>
 </sst>
 </file>
@@ -4831,1516 +5678,3258 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="44.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>258</v>
       </c>
       <c r="B1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C1" t="s">
+        <v>735</v>
+      </c>
+      <c r="D1" t="s">
         <v>391</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B2" t="s">
+        <v>774</v>
+      </c>
+      <c r="C2" t="s">
+        <v>775</v>
+      </c>
+      <c r="D2" t="s">
+        <v>778</v>
+      </c>
+      <c r="E2" t="s">
+        <v>795</v>
+      </c>
+      <c r="F2" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>753</v>
+      </c>
+      <c r="B3" t="s">
+        <v>774</v>
+      </c>
+      <c r="C3" t="s">
+        <v>775</v>
+      </c>
+      <c r="D3" t="s">
+        <v>781</v>
+      </c>
+      <c r="E3" t="s">
+        <v>799</v>
+      </c>
+      <c r="F3" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>754</v>
+      </c>
+      <c r="B4" t="s">
+        <v>774</v>
+      </c>
+      <c r="C4" t="s">
+        <v>775</v>
+      </c>
+      <c r="D4" t="s">
+        <v>782</v>
+      </c>
+      <c r="E4" t="s">
+        <v>800</v>
+      </c>
+      <c r="F4" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>755</v>
+      </c>
+      <c r="B5" t="s">
+        <v>774</v>
+      </c>
+      <c r="C5" t="s">
+        <v>775</v>
+      </c>
+      <c r="D5" t="s">
+        <v>779</v>
+      </c>
+      <c r="E5" t="s">
+        <v>796</v>
+      </c>
+      <c r="F5" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>756</v>
+      </c>
+      <c r="B6" t="s">
+        <v>774</v>
+      </c>
+      <c r="C6" t="s">
+        <v>775</v>
+      </c>
+      <c r="D6" t="s">
+        <v>780</v>
+      </c>
+      <c r="E6" t="s">
+        <v>797</v>
+      </c>
+      <c r="F6" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>757</v>
+      </c>
+      <c r="B7" t="s">
+        <v>774</v>
+      </c>
+      <c r="C7" t="s">
+        <v>775</v>
+      </c>
+      <c r="D7" t="s">
+        <v>783</v>
+      </c>
+      <c r="E7" t="s">
+        <v>798</v>
+      </c>
+      <c r="F7" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>818</v>
+      </c>
+      <c r="B8" t="s">
+        <v>774</v>
+      </c>
+      <c r="C8" t="s">
+        <v>775</v>
+      </c>
+      <c r="D8" t="s">
+        <v>819</v>
+      </c>
+      <c r="E8" t="s">
+        <v>820</v>
+      </c>
+      <c r="F8" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>758</v>
+      </c>
+      <c r="B9" t="s">
+        <v>774</v>
+      </c>
+      <c r="C9" t="s">
+        <v>775</v>
+      </c>
+      <c r="D9" t="s">
+        <v>784</v>
+      </c>
+      <c r="E9" t="s">
+        <v>801</v>
+      </c>
+      <c r="F9" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>759</v>
+      </c>
+      <c r="B10" t="s">
+        <v>774</v>
+      </c>
+      <c r="C10" t="s">
+        <v>776</v>
+      </c>
+      <c r="D10" t="s">
+        <v>785</v>
+      </c>
+      <c r="E10" t="s">
+        <v>802</v>
+      </c>
+      <c r="F10" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>760</v>
+      </c>
+      <c r="B11" t="s">
+        <v>774</v>
+      </c>
+      <c r="C11" t="s">
+        <v>777</v>
+      </c>
+      <c r="D11" t="s">
+        <v>786</v>
+      </c>
+      <c r="E11" t="s">
+        <v>803</v>
+      </c>
+      <c r="F11" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>761</v>
+      </c>
+      <c r="B12" t="s">
+        <v>774</v>
+      </c>
+      <c r="C12" t="s">
+        <v>777</v>
+      </c>
+      <c r="D12" t="s">
+        <v>787</v>
+      </c>
+      <c r="E12" t="s">
+        <v>804</v>
+      </c>
+      <c r="F12" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>762</v>
+      </c>
+      <c r="B13" t="s">
+        <v>774</v>
+      </c>
+      <c r="C13" t="s">
+        <v>739</v>
+      </c>
+      <c r="D13" t="s">
+        <v>789</v>
+      </c>
+      <c r="E13" t="s">
+        <v>805</v>
+      </c>
+      <c r="F13" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>763</v>
+      </c>
+      <c r="B14" t="s">
+        <v>774</v>
+      </c>
+      <c r="C14" t="s">
+        <v>739</v>
+      </c>
+      <c r="D14" t="s">
+        <v>788</v>
+      </c>
+      <c r="E14" t="s">
+        <v>805</v>
+      </c>
+      <c r="F14" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>764</v>
+      </c>
+      <c r="B15" t="s">
+        <v>774</v>
+      </c>
+      <c r="C15" t="s">
+        <v>739</v>
+      </c>
+      <c r="D15" t="s">
+        <v>790</v>
+      </c>
+      <c r="E15" t="s">
+        <v>806</v>
+      </c>
+      <c r="F15" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>765</v>
+      </c>
+      <c r="B16" t="s">
+        <v>774</v>
+      </c>
+      <c r="C16" t="s">
+        <v>739</v>
+      </c>
+      <c r="D16" t="s">
+        <v>790</v>
+      </c>
+      <c r="E16" t="s">
+        <v>806</v>
+      </c>
+      <c r="F16" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>766</v>
+      </c>
+      <c r="B17" t="s">
+        <v>774</v>
+      </c>
+      <c r="C17" t="s">
+        <v>739</v>
+      </c>
+      <c r="D17" t="s">
+        <v>791</v>
+      </c>
+      <c r="E17" t="s">
+        <v>807</v>
+      </c>
+      <c r="F17" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>767</v>
+      </c>
+      <c r="B18" t="s">
+        <v>774</v>
+      </c>
+      <c r="C18" t="s">
+        <v>739</v>
+      </c>
+      <c r="D18" t="s">
+        <v>791</v>
+      </c>
+      <c r="E18" t="s">
+        <v>807</v>
+      </c>
+      <c r="F18" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>768</v>
+      </c>
+      <c r="B19" t="s">
+        <v>774</v>
+      </c>
+      <c r="C19" t="s">
+        <v>739</v>
+      </c>
+      <c r="D19" t="s">
+        <v>792</v>
+      </c>
+      <c r="E19" t="s">
+        <v>808</v>
+      </c>
+      <c r="F19" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>769</v>
+      </c>
+      <c r="B20" t="s">
+        <v>774</v>
+      </c>
+      <c r="C20" t="s">
+        <v>739</v>
+      </c>
+      <c r="D20" t="s">
+        <v>792</v>
+      </c>
+      <c r="E20" t="s">
+        <v>808</v>
+      </c>
+      <c r="F20" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>770</v>
+      </c>
+      <c r="B21" t="s">
+        <v>774</v>
+      </c>
+      <c r="C21" t="s">
+        <v>739</v>
+      </c>
+      <c r="D21" t="s">
+        <v>793</v>
+      </c>
+      <c r="E21" t="s">
+        <v>809</v>
+      </c>
+      <c r="F21" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>771</v>
+      </c>
+      <c r="B22" t="s">
+        <v>774</v>
+      </c>
+      <c r="C22" t="s">
+        <v>739</v>
+      </c>
+      <c r="D22" t="s">
+        <v>793</v>
+      </c>
+      <c r="E22" t="s">
+        <v>809</v>
+      </c>
+      <c r="F22" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>772</v>
+      </c>
+      <c r="B23" t="s">
+        <v>774</v>
+      </c>
+      <c r="C23" t="s">
+        <v>739</v>
+      </c>
+      <c r="D23" t="s">
+        <v>794</v>
+      </c>
+      <c r="E23" t="s">
+        <v>810</v>
+      </c>
+      <c r="F23" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>773</v>
+      </c>
+      <c r="B24" t="s">
+        <v>774</v>
+      </c>
+      <c r="C24" t="s">
+        <v>739</v>
+      </c>
+      <c r="D24" t="s">
+        <v>794</v>
+      </c>
+      <c r="E24" t="s">
+        <v>810</v>
+      </c>
+      <c r="F24" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B25" t="s">
+        <v>736</v>
+      </c>
+      <c r="C25" t="s">
+        <v>737</v>
+      </c>
+      <c r="D25" t="s">
+        <v>629</v>
+      </c>
+      <c r="E25" t="s">
+        <v>667</v>
+      </c>
+      <c r="F25" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>599</v>
+      </c>
+      <c r="B26" t="s">
+        <v>736</v>
+      </c>
+      <c r="C26" t="s">
+        <v>737</v>
+      </c>
+      <c r="D26" t="s">
+        <v>630</v>
+      </c>
+      <c r="E26" t="s">
+        <v>668</v>
+      </c>
+      <c r="F26" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>731</v>
+      </c>
+      <c r="B27" t="s">
+        <v>736</v>
+      </c>
+      <c r="C27" t="s">
+        <v>736</v>
+      </c>
+      <c r="D27" t="s">
+        <v>631</v>
+      </c>
+      <c r="E27" t="s">
+        <v>669</v>
+      </c>
+      <c r="F27" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>600</v>
+      </c>
+      <c r="B28" t="s">
+        <v>736</v>
+      </c>
+      <c r="C28" t="s">
+        <v>738</v>
+      </c>
+      <c r="D28" t="s">
+        <v>632</v>
+      </c>
+      <c r="E28" t="s">
+        <v>670</v>
+      </c>
+      <c r="F28" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>601</v>
+      </c>
+      <c r="B29" t="s">
+        <v>736</v>
+      </c>
+      <c r="C29" t="s">
+        <v>739</v>
+      </c>
+      <c r="D29" t="s">
+        <v>633</v>
+      </c>
+      <c r="E29" t="s">
+        <v>671</v>
+      </c>
+      <c r="F29" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>732</v>
+      </c>
+      <c r="B30" t="s">
+        <v>736</v>
+      </c>
+      <c r="C30" t="s">
+        <v>739</v>
+      </c>
+      <c r="D30" t="s">
+        <v>634</v>
+      </c>
+      <c r="E30" t="s">
+        <v>672</v>
+      </c>
+      <c r="F30" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>602</v>
+      </c>
+      <c r="B31" t="s">
+        <v>736</v>
+      </c>
+      <c r="C31" t="s">
+        <v>740</v>
+      </c>
+      <c r="D31" t="s">
+        <v>635</v>
+      </c>
+      <c r="E31" t="s">
+        <v>673</v>
+      </c>
+      <c r="F31" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>603</v>
+      </c>
+      <c r="B32" t="s">
+        <v>736</v>
+      </c>
+      <c r="C32" t="s">
+        <v>741</v>
+      </c>
+      <c r="D32" t="s">
+        <v>636</v>
+      </c>
+      <c r="E32" t="s">
+        <v>674</v>
+      </c>
+      <c r="F32" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>604</v>
+      </c>
+      <c r="B33" t="s">
+        <v>736</v>
+      </c>
+      <c r="C33" t="s">
+        <v>740</v>
+      </c>
+      <c r="D33" t="s">
+        <v>637</v>
+      </c>
+      <c r="E33" t="s">
+        <v>675</v>
+      </c>
+      <c r="F33" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>733</v>
+      </c>
+      <c r="B34" t="s">
+        <v>736</v>
+      </c>
+      <c r="C34" t="s">
+        <v>740</v>
+      </c>
+      <c r="D34" t="s">
+        <v>638</v>
+      </c>
+      <c r="E34" t="s">
+        <v>676</v>
+      </c>
+      <c r="F34" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>605</v>
+      </c>
+      <c r="B35" t="s">
+        <v>736</v>
+      </c>
+      <c r="C35" t="s">
+        <v>739</v>
+      </c>
+      <c r="D35" t="s">
+        <v>639</v>
+      </c>
+      <c r="E35" t="s">
+        <v>677</v>
+      </c>
+      <c r="F35" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>606</v>
+      </c>
+      <c r="B36" t="s">
+        <v>736</v>
+      </c>
+      <c r="C36" t="s">
+        <v>739</v>
+      </c>
+      <c r="D36" t="s">
+        <v>641</v>
+      </c>
+      <c r="E36" t="s">
+        <v>678</v>
+      </c>
+      <c r="F36" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>607</v>
+      </c>
+      <c r="B37" t="s">
+        <v>736</v>
+      </c>
+      <c r="C37" t="s">
+        <v>739</v>
+      </c>
+      <c r="D37" t="s">
+        <v>642</v>
+      </c>
+      <c r="E37" t="s">
+        <v>679</v>
+      </c>
+      <c r="F37" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>608</v>
+      </c>
+      <c r="B38" t="s">
+        <v>736</v>
+      </c>
+      <c r="C38" t="s">
+        <v>739</v>
+      </c>
+      <c r="D38" t="s">
+        <v>643</v>
+      </c>
+      <c r="E38" t="s">
+        <v>680</v>
+      </c>
+      <c r="F38" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>745</v>
+      </c>
+      <c r="B39" t="s">
+        <v>736</v>
+      </c>
+      <c r="C39" t="s">
+        <v>739</v>
+      </c>
+      <c r="D39" t="s">
+        <v>644</v>
+      </c>
+      <c r="E39" t="s">
+        <v>681</v>
+      </c>
+      <c r="F39" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>609</v>
+      </c>
+      <c r="B40" t="s">
+        <v>736</v>
+      </c>
+      <c r="C40" t="s">
+        <v>739</v>
+      </c>
+      <c r="D40" t="s">
+        <v>645</v>
+      </c>
+      <c r="E40" t="s">
+        <v>682</v>
+      </c>
+      <c r="F40" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>610</v>
+      </c>
+      <c r="B41" t="s">
+        <v>736</v>
+      </c>
+      <c r="C41" t="s">
+        <v>739</v>
+      </c>
+      <c r="D41" t="s">
+        <v>646</v>
+      </c>
+      <c r="E41" t="s">
+        <v>683</v>
+      </c>
+      <c r="F41" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>611</v>
+      </c>
+      <c r="B42" t="s">
+        <v>736</v>
+      </c>
+      <c r="C42" t="s">
+        <v>739</v>
+      </c>
+      <c r="D42" t="s">
+        <v>647</v>
+      </c>
+      <c r="E42" t="s">
+        <v>684</v>
+      </c>
+      <c r="F42" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>612</v>
+      </c>
+      <c r="B43" t="s">
+        <v>736</v>
+      </c>
+      <c r="C43" t="s">
+        <v>739</v>
+      </c>
+      <c r="D43" t="s">
+        <v>648</v>
+      </c>
+      <c r="E43" t="s">
+        <v>685</v>
+      </c>
+      <c r="F43" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>613</v>
+      </c>
+      <c r="B44" t="s">
+        <v>736</v>
+      </c>
+      <c r="C44" t="s">
+        <v>739</v>
+      </c>
+      <c r="D44" t="s">
+        <v>649</v>
+      </c>
+      <c r="E44" t="s">
+        <v>686</v>
+      </c>
+      <c r="F44" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>614</v>
+      </c>
+      <c r="B45" t="s">
+        <v>736</v>
+      </c>
+      <c r="C45" t="s">
+        <v>739</v>
+      </c>
+      <c r="D45" t="s">
+        <v>650</v>
+      </c>
+      <c r="E45" t="s">
+        <v>687</v>
+      </c>
+      <c r="F45" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>615</v>
+      </c>
+      <c r="B46" t="s">
+        <v>736</v>
+      </c>
+      <c r="C46" t="s">
+        <v>740</v>
+      </c>
+      <c r="D46" t="s">
+        <v>651</v>
+      </c>
+      <c r="E46" t="s">
+        <v>688</v>
+      </c>
+      <c r="F46" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>616</v>
+      </c>
+      <c r="B47" t="s">
+        <v>736</v>
+      </c>
+      <c r="C47" t="s">
+        <v>740</v>
+      </c>
+      <c r="D47" t="s">
+        <v>652</v>
+      </c>
+      <c r="E47" t="s">
+        <v>689</v>
+      </c>
+      <c r="F47" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>617</v>
+      </c>
+      <c r="B48" t="s">
+        <v>736</v>
+      </c>
+      <c r="C48" t="s">
+        <v>739</v>
+      </c>
+      <c r="D48" t="s">
+        <v>656</v>
+      </c>
+      <c r="E48" t="s">
+        <v>690</v>
+      </c>
+      <c r="F48" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>619</v>
+      </c>
+      <c r="B49" t="s">
+        <v>736</v>
+      </c>
+      <c r="C49" t="s">
+        <v>739</v>
+      </c>
+      <c r="D49" t="s">
+        <v>655</v>
+      </c>
+      <c r="E49" t="s">
+        <v>691</v>
+      </c>
+      <c r="F49" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>620</v>
+      </c>
+      <c r="B50" t="s">
+        <v>736</v>
+      </c>
+      <c r="C50" t="s">
+        <v>739</v>
+      </c>
+      <c r="D50" t="s">
+        <v>657</v>
+      </c>
+      <c r="E50" t="s">
+        <v>692</v>
+      </c>
+      <c r="F50" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>621</v>
+      </c>
+      <c r="B51" t="s">
+        <v>736</v>
+      </c>
+      <c r="C51" t="s">
+        <v>739</v>
+      </c>
+      <c r="D51" t="s">
+        <v>658</v>
+      </c>
+      <c r="E51" t="s">
+        <v>694</v>
+      </c>
+      <c r="F51" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>622</v>
+      </c>
+      <c r="B52" t="s">
+        <v>736</v>
+      </c>
+      <c r="C52" t="s">
+        <v>739</v>
+      </c>
+      <c r="D52" t="s">
+        <v>659</v>
+      </c>
+      <c r="E52" t="s">
+        <v>695</v>
+      </c>
+      <c r="F52" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>623</v>
+      </c>
+      <c r="B53" t="s">
+        <v>736</v>
+      </c>
+      <c r="C53" t="s">
+        <v>739</v>
+      </c>
+      <c r="D53" t="s">
+        <v>660</v>
+      </c>
+      <c r="E53" t="s">
+        <v>696</v>
+      </c>
+      <c r="F53" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>624</v>
+      </c>
+      <c r="B54" t="s">
+        <v>736</v>
+      </c>
+      <c r="C54" t="s">
+        <v>739</v>
+      </c>
+      <c r="D54" t="s">
+        <v>661</v>
+      </c>
+      <c r="E54" t="s">
+        <v>697</v>
+      </c>
+      <c r="F54" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>625</v>
+      </c>
+      <c r="B55" t="s">
+        <v>736</v>
+      </c>
+      <c r="C55" t="s">
+        <v>740</v>
+      </c>
+      <c r="D55" t="s">
+        <v>662</v>
+      </c>
+      <c r="E55" t="s">
+        <v>698</v>
+      </c>
+      <c r="F55" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>626</v>
+      </c>
+      <c r="B56" t="s">
+        <v>736</v>
+      </c>
+      <c r="C56" t="s">
+        <v>740</v>
+      </c>
+      <c r="D56" t="s">
+        <v>663</v>
+      </c>
+      <c r="E56" t="s">
+        <v>699</v>
+      </c>
+      <c r="F56" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>627</v>
+      </c>
+      <c r="B57" t="s">
+        <v>736</v>
+      </c>
+      <c r="C57" t="s">
+        <v>739</v>
+      </c>
+      <c r="D57" t="s">
+        <v>654</v>
+      </c>
+      <c r="E57" t="s">
+        <v>700</v>
+      </c>
+      <c r="F57" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>628</v>
+      </c>
+      <c r="B58" t="s">
+        <v>736</v>
+      </c>
+      <c r="C58" t="s">
+        <v>739</v>
+      </c>
+      <c r="D58" t="s">
+        <v>653</v>
+      </c>
+      <c r="E58" t="s">
+        <v>701</v>
+      </c>
+      <c r="F58" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>618</v>
+      </c>
+      <c r="B59" t="s">
+        <v>736</v>
+      </c>
+      <c r="C59" t="s">
+        <v>737</v>
+      </c>
+      <c r="D59" t="s">
+        <v>640</v>
+      </c>
+      <c r="E59" t="s">
+        <v>693</v>
+      </c>
+      <c r="F59" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>273</v>
+      </c>
+      <c r="B60" t="s">
+        <v>742</v>
+      </c>
+      <c r="C60" t="s">
+        <v>740</v>
+      </c>
+      <c r="D60" t="s">
+        <v>303</v>
+      </c>
+      <c r="E60" t="s">
+        <v>664</v>
+      </c>
+      <c r="F60" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>274</v>
+      </c>
+      <c r="B61" t="s">
+        <v>742</v>
+      </c>
+      <c r="C61" t="s">
+        <v>740</v>
+      </c>
+      <c r="D61" t="s">
+        <v>304</v>
+      </c>
+      <c r="E61" t="s">
+        <v>665</v>
+      </c>
+      <c r="F61" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>275</v>
+      </c>
+      <c r="B62" t="s">
+        <v>742</v>
+      </c>
+      <c r="C62" t="s">
+        <v>740</v>
+      </c>
+      <c r="D62" t="s">
+        <v>305</v>
+      </c>
+      <c r="E62" t="s">
+        <v>666</v>
+      </c>
+      <c r="F62" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>276</v>
+      </c>
+      <c r="B63" t="s">
+        <v>742</v>
+      </c>
+      <c r="C63" t="s">
+        <v>740</v>
+      </c>
+      <c r="D63" t="s">
+        <v>306</v>
+      </c>
+      <c r="E63" t="s">
+        <v>393</v>
+      </c>
+      <c r="F63" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>277</v>
+      </c>
+      <c r="B64" t="s">
+        <v>742</v>
+      </c>
+      <c r="C64" t="s">
+        <v>740</v>
+      </c>
+      <c r="D64" t="s">
+        <v>307</v>
+      </c>
+      <c r="E64" t="s">
+        <v>394</v>
+      </c>
+      <c r="F64" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>278</v>
+      </c>
+      <c r="B65" t="s">
+        <v>742</v>
+      </c>
+      <c r="C65" t="s">
+        <v>740</v>
+      </c>
+      <c r="D65" t="s">
+        <v>308</v>
+      </c>
+      <c r="E65" t="s">
+        <v>395</v>
+      </c>
+      <c r="F65" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>279</v>
+      </c>
+      <c r="B66" t="s">
+        <v>742</v>
+      </c>
+      <c r="C66" t="s">
+        <v>740</v>
+      </c>
+      <c r="D66" t="s">
+        <v>309</v>
+      </c>
+      <c r="E66" t="s">
+        <v>396</v>
+      </c>
+      <c r="F66" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>280</v>
+      </c>
+      <c r="B67" t="s">
+        <v>742</v>
+      </c>
+      <c r="C67" t="s">
+        <v>740</v>
+      </c>
+      <c r="D67" t="s">
+        <v>310</v>
+      </c>
+      <c r="E67" t="s">
+        <v>397</v>
+      </c>
+      <c r="F67" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>281</v>
+      </c>
+      <c r="B68" t="s">
+        <v>742</v>
+      </c>
+      <c r="C68" t="s">
+        <v>740</v>
+      </c>
+      <c r="D68" t="s">
+        <v>311</v>
+      </c>
+      <c r="E68" t="s">
+        <v>398</v>
+      </c>
+      <c r="F68" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>282</v>
+      </c>
+      <c r="B69" t="s">
+        <v>742</v>
+      </c>
+      <c r="C69" t="s">
+        <v>740</v>
+      </c>
+      <c r="D69" t="s">
+        <v>312</v>
+      </c>
+      <c r="E69" t="s">
+        <v>399</v>
+      </c>
+      <c r="F69" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>421</v>
+      </c>
+      <c r="B70" t="s">
+        <v>742</v>
+      </c>
+      <c r="C70" t="s">
+        <v>740</v>
+      </c>
+      <c r="D70" t="s">
+        <v>422</v>
+      </c>
+      <c r="E70" t="s">
+        <v>401</v>
+      </c>
+      <c r="F70" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>283</v>
+      </c>
+      <c r="B71" t="s">
+        <v>742</v>
+      </c>
+      <c r="C71" t="s">
+        <v>740</v>
+      </c>
+      <c r="D71" t="s">
+        <v>313</v>
+      </c>
+      <c r="E71" t="s">
+        <v>400</v>
+      </c>
+      <c r="F71" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>284</v>
+      </c>
+      <c r="B72" t="s">
+        <v>742</v>
+      </c>
+      <c r="C72" t="s">
+        <v>740</v>
+      </c>
+      <c r="D72" t="s">
+        <v>314</v>
+      </c>
+      <c r="E72" t="s">
+        <v>401</v>
+      </c>
+      <c r="F72" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
         <v>423</v>
       </c>
-      <c r="D1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B73" t="s">
+        <v>742</v>
+      </c>
+      <c r="C73" t="s">
+        <v>740</v>
+      </c>
+      <c r="D73" t="s">
+        <v>316</v>
+      </c>
+      <c r="E73" t="s">
+        <v>403</v>
+      </c>
+      <c r="F73" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>285</v>
+      </c>
+      <c r="B74" t="s">
+        <v>742</v>
+      </c>
+      <c r="C74" t="s">
+        <v>740</v>
+      </c>
+      <c r="D74" t="s">
+        <v>315</v>
+      </c>
+      <c r="E74" t="s">
+        <v>402</v>
+      </c>
+      <c r="F74" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>286</v>
+      </c>
+      <c r="B75" t="s">
+        <v>742</v>
+      </c>
+      <c r="C75" t="s">
+        <v>740</v>
+      </c>
+      <c r="D75" t="s">
+        <v>316</v>
+      </c>
+      <c r="E75" t="s">
+        <v>403</v>
+      </c>
+      <c r="F75" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>424</v>
+      </c>
+      <c r="B76" t="s">
+        <v>742</v>
+      </c>
+      <c r="C76" t="s">
+        <v>740</v>
+      </c>
+      <c r="D76" t="s">
+        <v>318</v>
+      </c>
+      <c r="E76" t="s">
+        <v>405</v>
+      </c>
+      <c r="F76" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>287</v>
+      </c>
+      <c r="B77" t="s">
+        <v>742</v>
+      </c>
+      <c r="C77" t="s">
+        <v>740</v>
+      </c>
+      <c r="D77" t="s">
+        <v>317</v>
+      </c>
+      <c r="E77" t="s">
+        <v>404</v>
+      </c>
+      <c r="F77" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>288</v>
+      </c>
+      <c r="B78" t="s">
+        <v>742</v>
+      </c>
+      <c r="C78" t="s">
+        <v>740</v>
+      </c>
+      <c r="D78" t="s">
+        <v>318</v>
+      </c>
+      <c r="E78" t="s">
+        <v>405</v>
+      </c>
+      <c r="F78" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>425</v>
+      </c>
+      <c r="B79" t="s">
+        <v>742</v>
+      </c>
+      <c r="C79" t="s">
+        <v>740</v>
+      </c>
+      <c r="D79" t="s">
+        <v>320</v>
+      </c>
+      <c r="E79" t="s">
+        <v>407</v>
+      </c>
+      <c r="F79" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>289</v>
+      </c>
+      <c r="B80" t="s">
+        <v>742</v>
+      </c>
+      <c r="C80" t="s">
+        <v>740</v>
+      </c>
+      <c r="D80" t="s">
+        <v>319</v>
+      </c>
+      <c r="E80" t="s">
+        <v>406</v>
+      </c>
+      <c r="F80" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>290</v>
+      </c>
+      <c r="B81" t="s">
+        <v>742</v>
+      </c>
+      <c r="C81" t="s">
+        <v>740</v>
+      </c>
+      <c r="D81" t="s">
+        <v>320</v>
+      </c>
+      <c r="E81" t="s">
+        <v>407</v>
+      </c>
+      <c r="F81" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>426</v>
+      </c>
+      <c r="B82" t="s">
+        <v>742</v>
+      </c>
+      <c r="C82" t="s">
+        <v>740</v>
+      </c>
+      <c r="D82" t="s">
+        <v>322</v>
+      </c>
+      <c r="E82" t="s">
+        <v>409</v>
+      </c>
+      <c r="F82" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>291</v>
+      </c>
+      <c r="B83" t="s">
+        <v>742</v>
+      </c>
+      <c r="C83" t="s">
+        <v>740</v>
+      </c>
+      <c r="D83" t="s">
+        <v>321</v>
+      </c>
+      <c r="E83" t="s">
+        <v>408</v>
+      </c>
+      <c r="F83" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>292</v>
+      </c>
+      <c r="B84" t="s">
+        <v>742</v>
+      </c>
+      <c r="C84" t="s">
+        <v>740</v>
+      </c>
+      <c r="D84" t="s">
+        <v>322</v>
+      </c>
+      <c r="E84" t="s">
+        <v>409</v>
+      </c>
+      <c r="F84" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>427</v>
+      </c>
+      <c r="B85" t="s">
+        <v>742</v>
+      </c>
+      <c r="C85" t="s">
+        <v>740</v>
+      </c>
+      <c r="D85" t="s">
+        <v>324</v>
+      </c>
+      <c r="E85" t="s">
+        <v>411</v>
+      </c>
+      <c r="F85" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>293</v>
+      </c>
+      <c r="B86" t="s">
+        <v>742</v>
+      </c>
+      <c r="C86" t="s">
+        <v>740</v>
+      </c>
+      <c r="D86" t="s">
+        <v>323</v>
+      </c>
+      <c r="E86" t="s">
+        <v>410</v>
+      </c>
+      <c r="F86" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>294</v>
+      </c>
+      <c r="B87" t="s">
+        <v>742</v>
+      </c>
+      <c r="C87" t="s">
+        <v>740</v>
+      </c>
+      <c r="D87" t="s">
+        <v>324</v>
+      </c>
+      <c r="E87" t="s">
+        <v>411</v>
+      </c>
+      <c r="F87" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>428</v>
+      </c>
+      <c r="B88" t="s">
+        <v>742</v>
+      </c>
+      <c r="C88" t="s">
+        <v>740</v>
+      </c>
+      <c r="D88" t="s">
+        <v>326</v>
+      </c>
+      <c r="E88" t="s">
+        <v>413</v>
+      </c>
+      <c r="F88" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>295</v>
+      </c>
+      <c r="B89" t="s">
+        <v>742</v>
+      </c>
+      <c r="C89" t="s">
+        <v>740</v>
+      </c>
+      <c r="D89" t="s">
+        <v>325</v>
+      </c>
+      <c r="E89" t="s">
+        <v>412</v>
+      </c>
+      <c r="F89" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>296</v>
+      </c>
+      <c r="B90" t="s">
+        <v>742</v>
+      </c>
+      <c r="C90" t="s">
+        <v>740</v>
+      </c>
+      <c r="D90" t="s">
+        <v>326</v>
+      </c>
+      <c r="E90" t="s">
+        <v>413</v>
+      </c>
+      <c r="F90" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>429</v>
+      </c>
+      <c r="B91" t="s">
+        <v>742</v>
+      </c>
+      <c r="C91" t="s">
+        <v>740</v>
+      </c>
+      <c r="D91" t="s">
+        <v>328</v>
+      </c>
+      <c r="E91" t="s">
+        <v>415</v>
+      </c>
+      <c r="F91" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>297</v>
+      </c>
+      <c r="B92" t="s">
+        <v>742</v>
+      </c>
+      <c r="C92" t="s">
+        <v>740</v>
+      </c>
+      <c r="D92" t="s">
+        <v>327</v>
+      </c>
+      <c r="E92" t="s">
+        <v>414</v>
+      </c>
+      <c r="F92" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>298</v>
+      </c>
+      <c r="B93" t="s">
+        <v>742</v>
+      </c>
+      <c r="C93" t="s">
+        <v>740</v>
+      </c>
+      <c r="D93" t="s">
+        <v>328</v>
+      </c>
+      <c r="E93" t="s">
+        <v>415</v>
+      </c>
+      <c r="F93" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>430</v>
+      </c>
+      <c r="B94" t="s">
+        <v>742</v>
+      </c>
+      <c r="C94" t="s">
+        <v>740</v>
+      </c>
+      <c r="D94" t="s">
+        <v>330</v>
+      </c>
+      <c r="E94" t="s">
+        <v>417</v>
+      </c>
+      <c r="F94" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>299</v>
+      </c>
+      <c r="B95" t="s">
+        <v>742</v>
+      </c>
+      <c r="C95" t="s">
+        <v>740</v>
+      </c>
+      <c r="D95" t="s">
+        <v>329</v>
+      </c>
+      <c r="E95" t="s">
+        <v>416</v>
+      </c>
+      <c r="F95" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>300</v>
+      </c>
+      <c r="B96" t="s">
+        <v>742</v>
+      </c>
+      <c r="C96" t="s">
+        <v>740</v>
+      </c>
+      <c r="D96" t="s">
+        <v>330</v>
+      </c>
+      <c r="E96" t="s">
+        <v>417</v>
+      </c>
+      <c r="F96" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>431</v>
+      </c>
+      <c r="B97" t="s">
+        <v>742</v>
+      </c>
+      <c r="C97" t="s">
+        <v>740</v>
+      </c>
+      <c r="D97" t="s">
+        <v>332</v>
+      </c>
+      <c r="E97" t="s">
+        <v>419</v>
+      </c>
+      <c r="F97" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>301</v>
+      </c>
+      <c r="B98" t="s">
+        <v>742</v>
+      </c>
+      <c r="C98" t="s">
+        <v>740</v>
+      </c>
+      <c r="D98" t="s">
+        <v>331</v>
+      </c>
+      <c r="E98" t="s">
+        <v>418</v>
+      </c>
+      <c r="F98" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>302</v>
+      </c>
+      <c r="B99" t="s">
+        <v>742</v>
+      </c>
+      <c r="C99" t="s">
+        <v>740</v>
+      </c>
+      <c r="D99" t="s">
+        <v>332</v>
+      </c>
+      <c r="E99" t="s">
+        <v>419</v>
+      </c>
+      <c r="F99" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>196</v>
+      </c>
+      <c r="B100" t="s">
+        <v>744</v>
+      </c>
+      <c r="C100" t="s">
+        <v>740</v>
+      </c>
+      <c r="D100" t="s">
+        <v>333</v>
+      </c>
+      <c r="E100" t="s">
         <v>392</v>
       </c>
-      <c r="D2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>275</v>
-      </c>
-      <c r="B4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C4" t="s">
-        <v>394</v>
-      </c>
-      <c r="D4" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C5" t="s">
-        <v>396</v>
-      </c>
-      <c r="D5" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>277</v>
-      </c>
-      <c r="B6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C6" t="s">
-        <v>397</v>
-      </c>
-      <c r="D6" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>278</v>
-      </c>
-      <c r="B7" t="s">
-        <v>308</v>
-      </c>
-      <c r="C7" t="s">
-        <v>398</v>
-      </c>
-      <c r="D7" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B8" t="s">
-        <v>309</v>
-      </c>
-      <c r="C8" t="s">
-        <v>399</v>
-      </c>
-      <c r="D8" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>280</v>
-      </c>
-      <c r="B9" t="s">
-        <v>310</v>
-      </c>
-      <c r="C9" t="s">
-        <v>400</v>
-      </c>
-      <c r="D9" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B10" t="s">
-        <v>311</v>
-      </c>
-      <c r="C10" t="s">
-        <v>401</v>
-      </c>
-      <c r="D10" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>282</v>
-      </c>
-      <c r="B11" t="s">
-        <v>312</v>
-      </c>
-      <c r="C11" t="s">
-        <v>402</v>
-      </c>
-      <c r="D11" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>424</v>
-      </c>
-      <c r="B12" t="s">
-        <v>425</v>
-      </c>
-      <c r="C12" t="s">
-        <v>404</v>
-      </c>
-      <c r="D12" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>283</v>
-      </c>
-      <c r="B13" t="s">
-        <v>313</v>
-      </c>
-      <c r="C13" t="s">
-        <v>403</v>
-      </c>
-      <c r="D13" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>284</v>
-      </c>
-      <c r="B14" t="s">
-        <v>314</v>
-      </c>
-      <c r="C14" t="s">
-        <v>404</v>
-      </c>
-      <c r="D14" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>426</v>
-      </c>
-      <c r="B15" t="s">
-        <v>316</v>
-      </c>
-      <c r="C15" t="s">
-        <v>406</v>
-      </c>
-      <c r="D15" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>285</v>
-      </c>
-      <c r="B16" t="s">
-        <v>315</v>
-      </c>
-      <c r="C16" t="s">
-        <v>405</v>
-      </c>
-      <c r="D16" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>286</v>
-      </c>
-      <c r="B17" t="s">
-        <v>316</v>
-      </c>
-      <c r="C17" t="s">
-        <v>406</v>
-      </c>
-      <c r="D17" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>427</v>
-      </c>
-      <c r="B18" t="s">
-        <v>318</v>
-      </c>
-      <c r="C18" t="s">
-        <v>408</v>
-      </c>
-      <c r="D18" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>287</v>
-      </c>
-      <c r="B19" t="s">
-        <v>317</v>
-      </c>
-      <c r="C19" t="s">
-        <v>407</v>
-      </c>
-      <c r="D19" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>288</v>
-      </c>
-      <c r="B20" t="s">
-        <v>318</v>
-      </c>
-      <c r="C20" t="s">
-        <v>408</v>
-      </c>
-      <c r="D20" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>428</v>
-      </c>
-      <c r="B21" t="s">
-        <v>320</v>
-      </c>
-      <c r="C21" t="s">
-        <v>410</v>
-      </c>
-      <c r="D21" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>289</v>
-      </c>
-      <c r="B22" t="s">
-        <v>319</v>
-      </c>
-      <c r="C22" t="s">
-        <v>409</v>
-      </c>
-      <c r="D22" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>290</v>
-      </c>
-      <c r="B23" t="s">
-        <v>320</v>
-      </c>
-      <c r="C23" t="s">
-        <v>410</v>
-      </c>
-      <c r="D23" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>429</v>
-      </c>
-      <c r="B24" t="s">
-        <v>322</v>
-      </c>
-      <c r="C24" t="s">
-        <v>412</v>
-      </c>
-      <c r="D24" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>291</v>
-      </c>
-      <c r="B25" t="s">
-        <v>321</v>
-      </c>
-      <c r="C25" t="s">
-        <v>411</v>
-      </c>
-      <c r="D25" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>292</v>
-      </c>
-      <c r="B26" t="s">
-        <v>322</v>
-      </c>
-      <c r="C26" t="s">
-        <v>412</v>
-      </c>
-      <c r="D26" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>430</v>
-      </c>
-      <c r="B27" t="s">
-        <v>324</v>
-      </c>
-      <c r="C27" t="s">
-        <v>414</v>
-      </c>
-      <c r="D27" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>293</v>
-      </c>
-      <c r="B28" t="s">
-        <v>323</v>
-      </c>
-      <c r="C28" t="s">
-        <v>413</v>
-      </c>
-      <c r="D28" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>294</v>
-      </c>
-      <c r="B29" t="s">
-        <v>324</v>
-      </c>
-      <c r="C29" t="s">
-        <v>414</v>
-      </c>
-      <c r="D29" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>431</v>
-      </c>
-      <c r="B30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C30" t="s">
-        <v>416</v>
-      </c>
-      <c r="D30" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>295</v>
-      </c>
-      <c r="B31" t="s">
-        <v>325</v>
-      </c>
-      <c r="C31" t="s">
-        <v>415</v>
-      </c>
-      <c r="D31" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>296</v>
-      </c>
-      <c r="B32" t="s">
-        <v>326</v>
-      </c>
-      <c r="C32" t="s">
-        <v>416</v>
-      </c>
-      <c r="D32" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>432</v>
-      </c>
-      <c r="B33" t="s">
-        <v>328</v>
-      </c>
-      <c r="C33" t="s">
-        <v>418</v>
-      </c>
-      <c r="D33" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>297</v>
-      </c>
-      <c r="B34" t="s">
-        <v>327</v>
-      </c>
-      <c r="C34" t="s">
-        <v>417</v>
-      </c>
-      <c r="D34" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>298</v>
-      </c>
-      <c r="B35" t="s">
-        <v>328</v>
-      </c>
-      <c r="C35" t="s">
-        <v>418</v>
-      </c>
-      <c r="D35" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>433</v>
-      </c>
-      <c r="B36" t="s">
-        <v>330</v>
-      </c>
-      <c r="C36" t="s">
-        <v>420</v>
-      </c>
-      <c r="D36" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>299</v>
-      </c>
-      <c r="B37" t="s">
-        <v>329</v>
-      </c>
-      <c r="C37" t="s">
-        <v>419</v>
-      </c>
-      <c r="D37" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>300</v>
-      </c>
-      <c r="B38" t="s">
-        <v>330</v>
-      </c>
-      <c r="C38" t="s">
-        <v>420</v>
-      </c>
-      <c r="D38" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>434</v>
-      </c>
-      <c r="B39" t="s">
-        <v>332</v>
-      </c>
-      <c r="C39" t="s">
-        <v>422</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="F100" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>301</v>
-      </c>
-      <c r="B40" t="s">
-        <v>331</v>
-      </c>
-      <c r="C40" t="s">
-        <v>421</v>
-      </c>
-      <c r="D40" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>197</v>
+      </c>
+      <c r="B101" t="s">
+        <v>744</v>
+      </c>
+      <c r="C101" t="s">
+        <v>743</v>
+      </c>
+      <c r="D101" t="s">
+        <v>334</v>
+      </c>
+      <c r="E101" t="s">
+        <v>537</v>
+      </c>
+      <c r="F101" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>302</v>
-      </c>
-      <c r="B41" t="s">
-        <v>332</v>
-      </c>
-      <c r="C41" t="s">
-        <v>422</v>
-      </c>
-      <c r="D41" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>198</v>
+      </c>
+      <c r="B102" t="s">
+        <v>744</v>
+      </c>
+      <c r="C102" t="s">
+        <v>743</v>
+      </c>
+      <c r="D102" t="s">
+        <v>334</v>
+      </c>
+      <c r="E102" t="s">
+        <v>538</v>
+      </c>
+      <c r="F102" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>610</v>
-      </c>
-      <c r="B42" t="s">
-        <v>602</v>
-      </c>
-      <c r="C42" t="s">
-        <v>603</v>
-      </c>
-      <c r="D42" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>601</v>
-      </c>
-      <c r="B43" t="s">
-        <v>602</v>
-      </c>
-      <c r="C43" t="s">
-        <v>604</v>
-      </c>
-      <c r="D43" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>609</v>
-      </c>
-      <c r="B44" t="s">
-        <v>602</v>
-      </c>
-      <c r="C44" t="s">
-        <v>605</v>
-      </c>
-      <c r="D44" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>196</v>
-      </c>
-      <c r="B45" t="s">
-        <v>333</v>
-      </c>
-      <c r="C45" t="s">
-        <v>395</v>
-      </c>
-      <c r="D45" t="s">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>199</v>
+      </c>
+      <c r="B103" t="s">
+        <v>744</v>
+      </c>
+      <c r="C103" t="s">
+        <v>743</v>
+      </c>
+      <c r="D103" t="s">
+        <v>334</v>
+      </c>
+      <c r="E103" t="s">
+        <v>539</v>
+      </c>
+      <c r="F103" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>197</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>200</v>
+      </c>
+      <c r="B104" t="s">
+        <v>744</v>
+      </c>
+      <c r="C104" t="s">
+        <v>743</v>
+      </c>
+      <c r="D104" t="s">
         <v>334</v>
       </c>
-      <c r="C46" t="s">
+      <c r="E104" t="s">
         <v>540</v>
       </c>
-      <c r="D46" t="s">
+      <c r="F104" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>198</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>201</v>
+      </c>
+      <c r="B105" t="s">
+        <v>744</v>
+      </c>
+      <c r="C105" t="s">
+        <v>740</v>
+      </c>
+      <c r="D105" t="s">
         <v>334</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E105" t="s">
+        <v>529</v>
+      </c>
+      <c r="F105" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>202</v>
+      </c>
+      <c r="B106" t="s">
+        <v>744</v>
+      </c>
+      <c r="C106" t="s">
+        <v>737</v>
+      </c>
+      <c r="D106" t="s">
+        <v>334</v>
+      </c>
+      <c r="E106" t="s">
+        <v>530</v>
+      </c>
+      <c r="F106" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>195</v>
+      </c>
+      <c r="B107" t="s">
+        <v>744</v>
+      </c>
+      <c r="C107" t="s">
+        <v>740</v>
+      </c>
+      <c r="D107" t="s">
+        <v>335</v>
+      </c>
+      <c r="E107" t="s">
+        <v>531</v>
+      </c>
+      <c r="F107" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>203</v>
+      </c>
+      <c r="B108" t="s">
+        <v>744</v>
+      </c>
+      <c r="C108" t="s">
+        <v>739</v>
+      </c>
+      <c r="D108" t="s">
+        <v>336</v>
+      </c>
+      <c r="E108" t="s">
         <v>541</v>
       </c>
-      <c r="D47" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>199</v>
-      </c>
-      <c r="B48" t="s">
-        <v>334</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="F108" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>204</v>
+      </c>
+      <c r="B109" t="s">
+        <v>744</v>
+      </c>
+      <c r="C109" t="s">
+        <v>739</v>
+      </c>
+      <c r="D109" t="s">
+        <v>337</v>
+      </c>
+      <c r="E109" t="s">
+        <v>544</v>
+      </c>
+      <c r="F109" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>205</v>
+      </c>
+      <c r="B110" t="s">
+        <v>744</v>
+      </c>
+      <c r="C110" t="s">
+        <v>739</v>
+      </c>
+      <c r="D110" t="s">
+        <v>338</v>
+      </c>
+      <c r="E110" t="s">
         <v>542</v>
       </c>
-      <c r="D48" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>200</v>
-      </c>
-      <c r="B49" t="s">
-        <v>334</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="F110" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>206</v>
+      </c>
+      <c r="B111" t="s">
+        <v>744</v>
+      </c>
+      <c r="C111" t="s">
+        <v>739</v>
+      </c>
+      <c r="D111" t="s">
+        <v>339</v>
+      </c>
+      <c r="E111" t="s">
         <v>543</v>
       </c>
-      <c r="D49" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>201</v>
-      </c>
-      <c r="B50" t="s">
-        <v>334</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="F111" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>207</v>
+      </c>
+      <c r="B112" t="s">
+        <v>744</v>
+      </c>
+      <c r="C112" t="s">
+        <v>739</v>
+      </c>
+      <c r="D112" t="s">
+        <v>340</v>
+      </c>
+      <c r="E112" t="s">
         <v>532</v>
       </c>
-      <c r="D50" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>202</v>
-      </c>
-      <c r="B51" t="s">
-        <v>334</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="F112" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>208</v>
+      </c>
+      <c r="B113" t="s">
+        <v>744</v>
+      </c>
+      <c r="C113" t="s">
+        <v>739</v>
+      </c>
+      <c r="D113" t="s">
+        <v>341</v>
+      </c>
+      <c r="E113" t="s">
+        <v>545</v>
+      </c>
+      <c r="F113" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>209</v>
+      </c>
+      <c r="B114" t="s">
+        <v>744</v>
+      </c>
+      <c r="C114" t="s">
+        <v>739</v>
+      </c>
+      <c r="D114" t="s">
+        <v>342</v>
+      </c>
+      <c r="E114" t="s">
+        <v>546</v>
+      </c>
+      <c r="F114" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>210</v>
+      </c>
+      <c r="B115" t="s">
+        <v>744</v>
+      </c>
+      <c r="C115" t="s">
+        <v>739</v>
+      </c>
+      <c r="D115" t="s">
+        <v>343</v>
+      </c>
+      <c r="E115" t="s">
         <v>533</v>
       </c>
-      <c r="D51" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>195</v>
-      </c>
-      <c r="B52" t="s">
-        <v>335</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="F115" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>211</v>
+      </c>
+      <c r="B116" t="s">
+        <v>744</v>
+      </c>
+      <c r="C116" t="s">
+        <v>739</v>
+      </c>
+      <c r="D116" t="s">
+        <v>344</v>
+      </c>
+      <c r="E116" t="s">
+        <v>547</v>
+      </c>
+      <c r="F116" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>212</v>
+      </c>
+      <c r="B117" t="s">
+        <v>744</v>
+      </c>
+      <c r="C117" t="s">
+        <v>739</v>
+      </c>
+      <c r="D117" t="s">
+        <v>345</v>
+      </c>
+      <c r="E117" t="s">
+        <v>554</v>
+      </c>
+      <c r="F117" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>213</v>
+      </c>
+      <c r="B118" t="s">
+        <v>744</v>
+      </c>
+      <c r="C118" t="s">
+        <v>739</v>
+      </c>
+      <c r="D118" t="s">
+        <v>346</v>
+      </c>
+      <c r="E118" t="s">
+        <v>555</v>
+      </c>
+      <c r="F118" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>214</v>
+      </c>
+      <c r="B119" t="s">
+        <v>744</v>
+      </c>
+      <c r="C119" t="s">
+        <v>739</v>
+      </c>
+      <c r="D119" t="s">
+        <v>347</v>
+      </c>
+      <c r="E119" t="s">
+        <v>556</v>
+      </c>
+      <c r="F119" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>215</v>
+      </c>
+      <c r="B120" t="s">
+        <v>744</v>
+      </c>
+      <c r="C120" t="s">
+        <v>739</v>
+      </c>
+      <c r="D120" t="s">
+        <v>348</v>
+      </c>
+      <c r="E120" t="s">
+        <v>553</v>
+      </c>
+      <c r="F120" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>216</v>
+      </c>
+      <c r="B121" t="s">
+        <v>744</v>
+      </c>
+      <c r="C121" t="s">
+        <v>739</v>
+      </c>
+      <c r="D121" t="s">
+        <v>349</v>
+      </c>
+      <c r="E121" t="s">
         <v>534</v>
       </c>
-      <c r="D52" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>203</v>
-      </c>
-      <c r="B53" t="s">
-        <v>336</v>
-      </c>
-      <c r="C53" t="s">
-        <v>544</v>
-      </c>
-      <c r="D53" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>204</v>
-      </c>
-      <c r="B54" t="s">
-        <v>337</v>
-      </c>
-      <c r="C54" t="s">
-        <v>547</v>
-      </c>
-      <c r="D54" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
-        <v>205</v>
-      </c>
-      <c r="B55" t="s">
-        <v>338</v>
-      </c>
-      <c r="C55" t="s">
-        <v>545</v>
-      </c>
-      <c r="D55" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>206</v>
-      </c>
-      <c r="B56" t="s">
-        <v>339</v>
-      </c>
-      <c r="C56" t="s">
-        <v>546</v>
-      </c>
-      <c r="D56" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>207</v>
-      </c>
-      <c r="B57" t="s">
-        <v>340</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="F121" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>217</v>
+      </c>
+      <c r="B122" t="s">
+        <v>744</v>
+      </c>
+      <c r="C122" t="s">
+        <v>739</v>
+      </c>
+      <c r="D122" t="s">
+        <v>350</v>
+      </c>
+      <c r="E122" t="s">
+        <v>548</v>
+      </c>
+      <c r="F122" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>218</v>
+      </c>
+      <c r="B123" t="s">
+        <v>744</v>
+      </c>
+      <c r="C123" t="s">
+        <v>739</v>
+      </c>
+      <c r="D123" t="s">
+        <v>351</v>
+      </c>
+      <c r="E123" t="s">
+        <v>557</v>
+      </c>
+      <c r="F123" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
+        <v>219</v>
+      </c>
+      <c r="B124" t="s">
+        <v>744</v>
+      </c>
+      <c r="C124" t="s">
+        <v>739</v>
+      </c>
+      <c r="D124" t="s">
+        <v>352</v>
+      </c>
+      <c r="E124" t="s">
         <v>535</v>
       </c>
-      <c r="D57" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>208</v>
-      </c>
-      <c r="B58" t="s">
-        <v>341</v>
-      </c>
-      <c r="C58" t="s">
-        <v>548</v>
-      </c>
-      <c r="D58" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>209</v>
-      </c>
-      <c r="B59" t="s">
-        <v>342</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="F124" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>220</v>
+      </c>
+      <c r="B125" t="s">
+        <v>744</v>
+      </c>
+      <c r="C125" t="s">
+        <v>739</v>
+      </c>
+      <c r="D125" t="s">
+        <v>353</v>
+      </c>
+      <c r="E125" t="s">
         <v>549</v>
       </c>
-      <c r="D59" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
-        <v>210</v>
-      </c>
-      <c r="B60" t="s">
-        <v>343</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="F125" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>221</v>
+      </c>
+      <c r="B126" t="s">
+        <v>744</v>
+      </c>
+      <c r="C126" t="s">
+        <v>739</v>
+      </c>
+      <c r="D126" t="s">
+        <v>354</v>
+      </c>
+      <c r="E126" t="s">
+        <v>551</v>
+      </c>
+      <c r="F126" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>222</v>
+      </c>
+      <c r="B127" t="s">
+        <v>744</v>
+      </c>
+      <c r="C127" t="s">
+        <v>739</v>
+      </c>
+      <c r="D127" t="s">
+        <v>355</v>
+      </c>
+      <c r="E127" t="s">
         <v>536</v>
       </c>
-      <c r="D60" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
-        <v>211</v>
-      </c>
-      <c r="B61" t="s">
-        <v>344</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="F127" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
+        <v>223</v>
+      </c>
+      <c r="B128" t="s">
+        <v>744</v>
+      </c>
+      <c r="C128" t="s">
+        <v>739</v>
+      </c>
+      <c r="D128" t="s">
+        <v>356</v>
+      </c>
+      <c r="E128" t="s">
         <v>550</v>
       </c>
-      <c r="D61" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
-        <v>212</v>
-      </c>
-      <c r="B62" t="s">
-        <v>345</v>
-      </c>
-      <c r="C62" t="s">
-        <v>557</v>
-      </c>
-      <c r="D62" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
-        <v>213</v>
-      </c>
-      <c r="B63" t="s">
-        <v>346</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="F128" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>224</v>
+      </c>
+      <c r="B129" t="s">
+        <v>744</v>
+      </c>
+      <c r="C129" t="s">
+        <v>739</v>
+      </c>
+      <c r="D129" t="s">
+        <v>357</v>
+      </c>
+      <c r="E129" t="s">
+        <v>552</v>
+      </c>
+      <c r="F129" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>225</v>
+      </c>
+      <c r="B130" t="s">
+        <v>744</v>
+      </c>
+      <c r="C130" t="s">
+        <v>739</v>
+      </c>
+      <c r="D130" t="s">
+        <v>358</v>
+      </c>
+      <c r="E130" t="s">
+        <v>560</v>
+      </c>
+      <c r="F130" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>226</v>
+      </c>
+      <c r="B131" t="s">
+        <v>744</v>
+      </c>
+      <c r="C131" t="s">
+        <v>739</v>
+      </c>
+      <c r="D131" t="s">
+        <v>359</v>
+      </c>
+      <c r="E131" t="s">
         <v>558</v>
       </c>
-      <c r="D63" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>214</v>
-      </c>
-      <c r="B64" t="s">
-        <v>347</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="F131" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>227</v>
+      </c>
+      <c r="B132" t="s">
+        <v>744</v>
+      </c>
+      <c r="C132" t="s">
+        <v>739</v>
+      </c>
+      <c r="D132" t="s">
+        <v>360</v>
+      </c>
+      <c r="E132" t="s">
         <v>559</v>
       </c>
-      <c r="D64" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
-        <v>215</v>
-      </c>
-      <c r="B65" t="s">
-        <v>348</v>
-      </c>
-      <c r="C65" t="s">
-        <v>556</v>
-      </c>
-      <c r="D65" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
-        <v>216</v>
-      </c>
-      <c r="B66" t="s">
-        <v>349</v>
-      </c>
-      <c r="C66" t="s">
-        <v>537</v>
-      </c>
-      <c r="D66" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
-        <v>217</v>
-      </c>
-      <c r="B67" t="s">
-        <v>350</v>
-      </c>
-      <c r="C67" t="s">
-        <v>551</v>
-      </c>
-      <c r="D67" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
-        <v>218</v>
-      </c>
-      <c r="B68" t="s">
-        <v>351</v>
-      </c>
-      <c r="C68" t="s">
-        <v>560</v>
-      </c>
-      <c r="D68" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
-        <v>219</v>
-      </c>
-      <c r="B69" t="s">
-        <v>352</v>
-      </c>
-      <c r="C69" t="s">
-        <v>538</v>
-      </c>
-      <c r="D69" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
-        <v>220</v>
-      </c>
-      <c r="B70" t="s">
-        <v>353</v>
-      </c>
-      <c r="C70" t="s">
-        <v>552</v>
-      </c>
-      <c r="D70" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
-        <v>221</v>
-      </c>
-      <c r="B71" t="s">
-        <v>354</v>
-      </c>
-      <c r="C71" t="s">
-        <v>554</v>
-      </c>
-      <c r="D71" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
-        <v>222</v>
-      </c>
-      <c r="B72" t="s">
-        <v>355</v>
-      </c>
-      <c r="C72" t="s">
-        <v>539</v>
-      </c>
-      <c r="D72" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
-        <v>223</v>
-      </c>
-      <c r="B73" t="s">
-        <v>356</v>
-      </c>
-      <c r="C73" t="s">
-        <v>553</v>
-      </c>
-      <c r="D73" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
-        <v>224</v>
-      </c>
-      <c r="B74" t="s">
-        <v>357</v>
-      </c>
-      <c r="C74" t="s">
-        <v>555</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="F132" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
-        <v>225</v>
-      </c>
-      <c r="B75" t="s">
-        <v>358</v>
-      </c>
-      <c r="C75" t="s">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>228</v>
+      </c>
+      <c r="B133" t="s">
+        <v>744</v>
+      </c>
+      <c r="C133" t="s">
+        <v>739</v>
+      </c>
+      <c r="D133" t="s">
+        <v>361</v>
+      </c>
+      <c r="E133" t="s">
+        <v>561</v>
+      </c>
+      <c r="F133" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>229</v>
+      </c>
+      <c r="B134" t="s">
+        <v>744</v>
+      </c>
+      <c r="C134" t="s">
+        <v>739</v>
+      </c>
+      <c r="D134" t="s">
+        <v>362</v>
+      </c>
+      <c r="E134" t="s">
+        <v>562</v>
+      </c>
+      <c r="F134" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>230</v>
+      </c>
+      <c r="B135" t="s">
+        <v>744</v>
+      </c>
+      <c r="C135" t="s">
+        <v>739</v>
+      </c>
+      <c r="D135" t="s">
+        <v>363</v>
+      </c>
+      <c r="E135" t="s">
         <v>563</v>
       </c>
-      <c r="D75" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
-        <v>226</v>
-      </c>
-      <c r="B76" t="s">
-        <v>359</v>
-      </c>
-      <c r="C76" t="s">
-        <v>561</v>
-      </c>
-      <c r="D76" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
-        <v>227</v>
-      </c>
-      <c r="B77" t="s">
-        <v>360</v>
-      </c>
-      <c r="C77" t="s">
-        <v>562</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="F135" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
-        <v>228</v>
-      </c>
-      <c r="B78" t="s">
-        <v>361</v>
-      </c>
-      <c r="C78" t="s">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>231</v>
+      </c>
+      <c r="B136" t="s">
+        <v>744</v>
+      </c>
+      <c r="C136" t="s">
+        <v>739</v>
+      </c>
+      <c r="D136" t="s">
+        <v>364</v>
+      </c>
+      <c r="E136" t="s">
         <v>564</v>
       </c>
-      <c r="D78" t="s">
+      <c r="F136" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" t="s">
-        <v>229</v>
-      </c>
-      <c r="B79" t="s">
-        <v>362</v>
-      </c>
-      <c r="C79" t="s">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>232</v>
+      </c>
+      <c r="B137" t="s">
+        <v>744</v>
+      </c>
+      <c r="C137" t="s">
+        <v>739</v>
+      </c>
+      <c r="D137" t="s">
+        <v>365</v>
+      </c>
+      <c r="E137" t="s">
         <v>565</v>
       </c>
-      <c r="D79" t="s">
+      <c r="F137" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
-        <v>230</v>
-      </c>
-      <c r="B80" t="s">
-        <v>363</v>
-      </c>
-      <c r="C80" t="s">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>233</v>
+      </c>
+      <c r="B138" t="s">
+        <v>744</v>
+      </c>
+      <c r="C138" t="s">
+        <v>739</v>
+      </c>
+      <c r="D138" t="s">
+        <v>366</v>
+      </c>
+      <c r="E138" t="s">
         <v>566</v>
       </c>
-      <c r="D80" t="s">
+      <c r="F138" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
-        <v>231</v>
-      </c>
-      <c r="B81" t="s">
-        <v>364</v>
-      </c>
-      <c r="C81" t="s">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>234</v>
+      </c>
+      <c r="B139" t="s">
+        <v>744</v>
+      </c>
+      <c r="C139" t="s">
+        <v>739</v>
+      </c>
+      <c r="D139" t="s">
+        <v>367</v>
+      </c>
+      <c r="E139" t="s">
         <v>567</v>
       </c>
-      <c r="D81" t="s">
+      <c r="F139" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
-        <v>232</v>
-      </c>
-      <c r="B82" t="s">
-        <v>365</v>
-      </c>
-      <c r="C82" t="s">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
+        <v>235</v>
+      </c>
+      <c r="B140" t="s">
+        <v>744</v>
+      </c>
+      <c r="C140" t="s">
+        <v>739</v>
+      </c>
+      <c r="D140" t="s">
+        <v>368</v>
+      </c>
+      <c r="E140" t="s">
         <v>568</v>
       </c>
-      <c r="D82" t="s">
+      <c r="F140" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" t="s">
-        <v>233</v>
-      </c>
-      <c r="B83" t="s">
-        <v>366</v>
-      </c>
-      <c r="C83" t="s">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
+        <v>236</v>
+      </c>
+      <c r="B141" t="s">
+        <v>744</v>
+      </c>
+      <c r="C141" t="s">
+        <v>739</v>
+      </c>
+      <c r="D141" t="s">
+        <v>369</v>
+      </c>
+      <c r="E141" t="s">
         <v>569</v>
       </c>
-      <c r="D83" t="s">
+      <c r="F141" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
-        <v>234</v>
-      </c>
-      <c r="B84" t="s">
-        <v>367</v>
-      </c>
-      <c r="C84" t="s">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
+        <v>237</v>
+      </c>
+      <c r="B142" t="s">
+        <v>744</v>
+      </c>
+      <c r="C142" t="s">
+        <v>739</v>
+      </c>
+      <c r="D142" t="s">
+        <v>370</v>
+      </c>
+      <c r="E142" t="s">
         <v>570</v>
       </c>
-      <c r="D84" t="s">
+      <c r="F142" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" t="s">
-        <v>235</v>
-      </c>
-      <c r="B85" t="s">
-        <v>368</v>
-      </c>
-      <c r="C85" t="s">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
+        <v>238</v>
+      </c>
+      <c r="B143" t="s">
+        <v>744</v>
+      </c>
+      <c r="C143" t="s">
+        <v>739</v>
+      </c>
+      <c r="D143" t="s">
+        <v>371</v>
+      </c>
+      <c r="E143" t="s">
         <v>571</v>
       </c>
-      <c r="D85" t="s">
+      <c r="F143" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
-        <v>236</v>
-      </c>
-      <c r="B86" t="s">
-        <v>369</v>
-      </c>
-      <c r="C86" t="s">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>239</v>
+      </c>
+      <c r="B144" t="s">
+        <v>744</v>
+      </c>
+      <c r="C144" t="s">
+        <v>739</v>
+      </c>
+      <c r="D144" t="s">
+        <v>372</v>
+      </c>
+      <c r="E144" t="s">
         <v>572</v>
       </c>
-      <c r="D86" t="s">
+      <c r="F144" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
-        <v>237</v>
-      </c>
-      <c r="B87" t="s">
-        <v>370</v>
-      </c>
-      <c r="C87" t="s">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
+        <v>240</v>
+      </c>
+      <c r="B145" t="s">
+        <v>744</v>
+      </c>
+      <c r="C145" t="s">
+        <v>739</v>
+      </c>
+      <c r="D145" t="s">
+        <v>373</v>
+      </c>
+      <c r="E145" t="s">
         <v>573</v>
       </c>
-      <c r="D87" t="s">
+      <c r="F145" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
-        <v>238</v>
-      </c>
-      <c r="B88" t="s">
-        <v>371</v>
-      </c>
-      <c r="C88" t="s">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
+        <v>241</v>
+      </c>
+      <c r="B146" t="s">
+        <v>744</v>
+      </c>
+      <c r="C146" t="s">
+        <v>739</v>
+      </c>
+      <c r="D146" t="s">
+        <v>374</v>
+      </c>
+      <c r="E146" t="s">
         <v>574</v>
       </c>
-      <c r="D88" t="s">
+      <c r="F146" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" t="s">
-        <v>239</v>
-      </c>
-      <c r="B89" t="s">
-        <v>372</v>
-      </c>
-      <c r="C89" t="s">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
+        <v>242</v>
+      </c>
+      <c r="B147" t="s">
+        <v>744</v>
+      </c>
+      <c r="C147" t="s">
+        <v>739</v>
+      </c>
+      <c r="D147" t="s">
+        <v>375</v>
+      </c>
+      <c r="E147" t="s">
         <v>575</v>
       </c>
-      <c r="D89" t="s">
+      <c r="F147" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" t="s">
-        <v>240</v>
-      </c>
-      <c r="B90" t="s">
-        <v>373</v>
-      </c>
-      <c r="C90" t="s">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>243</v>
+      </c>
+      <c r="B148" t="s">
+        <v>744</v>
+      </c>
+      <c r="C148" t="s">
+        <v>739</v>
+      </c>
+      <c r="D148" t="s">
+        <v>376</v>
+      </c>
+      <c r="E148" t="s">
         <v>576</v>
       </c>
-      <c r="D90" t="s">
+      <c r="F148" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" t="s">
-        <v>241</v>
-      </c>
-      <c r="B91" t="s">
-        <v>374</v>
-      </c>
-      <c r="C91" t="s">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
+        <v>244</v>
+      </c>
+      <c r="B149" t="s">
+        <v>744</v>
+      </c>
+      <c r="C149" t="s">
+        <v>739</v>
+      </c>
+      <c r="D149" t="s">
+        <v>377</v>
+      </c>
+      <c r="E149" t="s">
         <v>577</v>
       </c>
-      <c r="D91" t="s">
+      <c r="F149" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A92" t="s">
-        <v>242</v>
-      </c>
-      <c r="B92" t="s">
-        <v>375</v>
-      </c>
-      <c r="C92" t="s">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>245</v>
+      </c>
+      <c r="B150" t="s">
+        <v>744</v>
+      </c>
+      <c r="C150" t="s">
+        <v>739</v>
+      </c>
+      <c r="D150" t="s">
+        <v>378</v>
+      </c>
+      <c r="E150" t="s">
         <v>578</v>
       </c>
-      <c r="D92" t="s">
+      <c r="F150" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A93" t="s">
-        <v>243</v>
-      </c>
-      <c r="B93" t="s">
-        <v>376</v>
-      </c>
-      <c r="C93" t="s">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>246</v>
+      </c>
+      <c r="B151" t="s">
+        <v>744</v>
+      </c>
+      <c r="C151" t="s">
+        <v>739</v>
+      </c>
+      <c r="D151" t="s">
+        <v>379</v>
+      </c>
+      <c r="E151" t="s">
+        <v>590</v>
+      </c>
+      <c r="F151" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A152" t="s">
+        <v>247</v>
+      </c>
+      <c r="B152" t="s">
+        <v>744</v>
+      </c>
+      <c r="C152" t="s">
+        <v>739</v>
+      </c>
+      <c r="D152" t="s">
+        <v>380</v>
+      </c>
+      <c r="E152" t="s">
+        <v>589</v>
+      </c>
+      <c r="F152" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A153" t="s">
+        <v>248</v>
+      </c>
+      <c r="B153" t="s">
+        <v>744</v>
+      </c>
+      <c r="C153" t="s">
+        <v>739</v>
+      </c>
+      <c r="D153" t="s">
+        <v>381</v>
+      </c>
+      <c r="E153" t="s">
+        <v>588</v>
+      </c>
+      <c r="F153" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A154" t="s">
+        <v>249</v>
+      </c>
+      <c r="B154" t="s">
+        <v>744</v>
+      </c>
+      <c r="C154" t="s">
+        <v>739</v>
+      </c>
+      <c r="D154" t="s">
+        <v>382</v>
+      </c>
+      <c r="E154" t="s">
+        <v>582</v>
+      </c>
+      <c r="F154" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A155" t="s">
+        <v>250</v>
+      </c>
+      <c r="B155" t="s">
+        <v>744</v>
+      </c>
+      <c r="C155" t="s">
+        <v>739</v>
+      </c>
+      <c r="D155" t="s">
+        <v>383</v>
+      </c>
+      <c r="E155" t="s">
+        <v>583</v>
+      </c>
+      <c r="F155" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A156" t="s">
+        <v>251</v>
+      </c>
+      <c r="B156" t="s">
+        <v>744</v>
+      </c>
+      <c r="C156" t="s">
+        <v>739</v>
+      </c>
+      <c r="D156" t="s">
+        <v>384</v>
+      </c>
+      <c r="E156" t="s">
+        <v>584</v>
+      </c>
+      <c r="F156" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A157" t="s">
+        <v>252</v>
+      </c>
+      <c r="B157" t="s">
+        <v>744</v>
+      </c>
+      <c r="C157" t="s">
+        <v>739</v>
+      </c>
+      <c r="D157" t="s">
+        <v>385</v>
+      </c>
+      <c r="E157" t="s">
+        <v>585</v>
+      </c>
+      <c r="F157" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A158" t="s">
+        <v>253</v>
+      </c>
+      <c r="B158" t="s">
+        <v>744</v>
+      </c>
+      <c r="C158" t="s">
+        <v>739</v>
+      </c>
+      <c r="D158" t="s">
+        <v>386</v>
+      </c>
+      <c r="E158" t="s">
+        <v>586</v>
+      </c>
+      <c r="F158" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A159" t="s">
+        <v>254</v>
+      </c>
+      <c r="B159" t="s">
+        <v>744</v>
+      </c>
+      <c r="C159" t="s">
+        <v>739</v>
+      </c>
+      <c r="D159" t="s">
+        <v>387</v>
+      </c>
+      <c r="E159" t="s">
+        <v>587</v>
+      </c>
+      <c r="F159" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A160" t="s">
+        <v>255</v>
+      </c>
+      <c r="B160" t="s">
+        <v>744</v>
+      </c>
+      <c r="C160" t="s">
+        <v>739</v>
+      </c>
+      <c r="D160" t="s">
+        <v>388</v>
+      </c>
+      <c r="E160" t="s">
         <v>579</v>
       </c>
-      <c r="D93" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A94" t="s">
-        <v>244</v>
-      </c>
-      <c r="B94" t="s">
-        <v>377</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="F160" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A161" t="s">
+        <v>256</v>
+      </c>
+      <c r="B161" t="s">
+        <v>744</v>
+      </c>
+      <c r="C161" t="s">
+        <v>739</v>
+      </c>
+      <c r="D161" t="s">
+        <v>389</v>
+      </c>
+      <c r="E161" t="s">
         <v>580</v>
       </c>
-      <c r="D94" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" t="s">
-        <v>245</v>
-      </c>
-      <c r="B95" t="s">
-        <v>378</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="F161" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A162" t="s">
+        <v>257</v>
+      </c>
+      <c r="B162" t="s">
+        <v>744</v>
+      </c>
+      <c r="C162" t="s">
+        <v>739</v>
+      </c>
+      <c r="D162" t="s">
+        <v>390</v>
+      </c>
+      <c r="E162" t="s">
         <v>581</v>
       </c>
-      <c r="D95" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" t="s">
-        <v>246</v>
-      </c>
-      <c r="B96" t="s">
-        <v>379</v>
-      </c>
-      <c r="C96" t="s">
-        <v>593</v>
-      </c>
-      <c r="D96" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
-        <v>247</v>
-      </c>
-      <c r="B97" t="s">
-        <v>380</v>
-      </c>
-      <c r="C97" t="s">
-        <v>592</v>
-      </c>
-      <c r="D97" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" t="s">
-        <v>248</v>
-      </c>
-      <c r="B98" t="s">
-        <v>381</v>
-      </c>
-      <c r="C98" t="s">
-        <v>591</v>
-      </c>
-      <c r="D98" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" t="s">
-        <v>249</v>
-      </c>
-      <c r="B99" t="s">
-        <v>382</v>
-      </c>
-      <c r="C99" t="s">
-        <v>585</v>
-      </c>
-      <c r="D99" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" t="s">
-        <v>250</v>
-      </c>
-      <c r="B100" t="s">
-        <v>383</v>
-      </c>
-      <c r="C100" t="s">
-        <v>586</v>
-      </c>
-      <c r="D100" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101" t="s">
-        <v>251</v>
-      </c>
-      <c r="B101" t="s">
-        <v>384</v>
-      </c>
-      <c r="C101" t="s">
-        <v>587</v>
-      </c>
-      <c r="D101" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A102" t="s">
-        <v>252</v>
-      </c>
-      <c r="B102" t="s">
-        <v>385</v>
-      </c>
-      <c r="C102" t="s">
-        <v>588</v>
-      </c>
-      <c r="D102" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A103" t="s">
-        <v>253</v>
-      </c>
-      <c r="B103" t="s">
-        <v>386</v>
-      </c>
-      <c r="C103" t="s">
-        <v>589</v>
-      </c>
-      <c r="D103" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A104" t="s">
-        <v>254</v>
-      </c>
-      <c r="B104" t="s">
-        <v>387</v>
-      </c>
-      <c r="C104" t="s">
-        <v>590</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="F162" t="s">
         <v>597</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" t="s">
-        <v>255</v>
-      </c>
-      <c r="B105" t="s">
-        <v>388</v>
-      </c>
-      <c r="C105" t="s">
-        <v>582</v>
-      </c>
-      <c r="D105" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" t="s">
-        <v>256</v>
-      </c>
-      <c r="B106" t="s">
-        <v>389</v>
-      </c>
-      <c r="C106" t="s">
-        <v>583</v>
-      </c>
-      <c r="D106" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" t="s">
-        <v>257</v>
-      </c>
-      <c r="B107" t="s">
-        <v>390</v>
-      </c>
-      <c r="C107" t="s">
-        <v>584</v>
-      </c>
-      <c r="D107" t="s">
-        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/HoI2Editor/Documents/Design/scenario.xlsx
+++ b/HoI2Editor/Documents/Design/scenario.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="2445" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ファイル構成" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="931">
   <si>
     <t>シナリオファイルの構成</t>
     <rPh sb="9" eb="11">
@@ -3255,6 +3255,335 @@
   </si>
   <si>
     <t>tradeMoneyTextBox2</t>
+  </si>
+  <si>
+    <t>DiplomacyRelationValue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DiplomacyMaster</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DiplomacyMilitaryControl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DiplomacyNonAggression</t>
+  </si>
+  <si>
+    <t>DiplomacyNonAggressionEndYear</t>
+  </si>
+  <si>
+    <t>DiplomacyNonAggressionEndMonth</t>
+  </si>
+  <si>
+    <t>DiplomacyNonAggressionEndDay</t>
+  </si>
+  <si>
+    <t>DiplomacyNonAggressionStartYear</t>
+  </si>
+  <si>
+    <t>DiplomacyNonAggressionStartMonth</t>
+  </si>
+  <si>
+    <t>DiplomacyNonAggressionStartDay</t>
+  </si>
+  <si>
+    <t>DiplomacyNonAggressionType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DiplomacyNonAggressionId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DiplomacyPeace</t>
+  </si>
+  <si>
+    <t>DiplomacyPeaceStartYear</t>
+  </si>
+  <si>
+    <t>DiplomacyPeaceStartMonth</t>
+  </si>
+  <si>
+    <t>DiplomacyPeaceStartDay</t>
+  </si>
+  <si>
+    <t>DiplomacyPeaceEndYear</t>
+  </si>
+  <si>
+    <t>DiplomacyPeaceEndMonth</t>
+  </si>
+  <si>
+    <t>DiplomacyPeaceEndDay</t>
+  </si>
+  <si>
+    <t>DiplomacyPeaceType</t>
+  </si>
+  <si>
+    <t>DiplomacyPeaceId</t>
+  </si>
+  <si>
+    <t>IntelligenceSpies</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Relation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Relation.ItemId.Value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Relation.ItemId.Access</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.Control</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.Master</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SpySettings.ItemId.Spies</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>relation value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country master</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country control</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>access</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>peace type</t>
+  </si>
+  <si>
+    <t>peace id</t>
+  </si>
+  <si>
+    <t>non aggression</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>non aggression start year</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>peace start year</t>
+  </si>
+  <si>
+    <t>peace start month</t>
+  </si>
+  <si>
+    <t>peace start day</t>
+  </si>
+  <si>
+    <t>peace end year</t>
+  </si>
+  <si>
+    <t>peace end month</t>
+  </si>
+  <si>
+    <t>peace end day</t>
+  </si>
+  <si>
+    <t>non aggression start month</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>non aggression start day</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>non aggression end year</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>non aggression end month</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>non aggression end day</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>non aggression type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>non aggression id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>peace</t>
+  </si>
+  <si>
+    <t>num of spies</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>masterCheckBox</t>
+  </si>
+  <si>
+    <t>controlCheckBox</t>
+  </si>
+  <si>
+    <t>accessCheckBox</t>
+  </si>
+  <si>
+    <t>nonAggressionCheckBox</t>
+  </si>
+  <si>
+    <t>nonAggressionStartYearTextBox</t>
+  </si>
+  <si>
+    <t>nonAggressionStartMonthTextBox</t>
+  </si>
+  <si>
+    <t>nonAggressionStartDayTextBox</t>
+  </si>
+  <si>
+    <t>nonAggressionEndYearTextBox</t>
+  </si>
+  <si>
+    <t>nonAggressionEndMonthTextBox</t>
+  </si>
+  <si>
+    <t>nonAggressionEndDayTextBox</t>
+  </si>
+  <si>
+    <t>nonAggressionTypeTextBox</t>
+  </si>
+  <si>
+    <t>nonAggressionIdTextBox</t>
+  </si>
+  <si>
+    <t>peaceCheckBox</t>
+  </si>
+  <si>
+    <t>peaceStartYearTextBox</t>
+  </si>
+  <si>
+    <t>peaceStartMonthTextBox</t>
+  </si>
+  <si>
+    <t>peaceStartDayTextBox</t>
+  </si>
+  <si>
+    <t>peaceEndYearTextBox</t>
+  </si>
+  <si>
+    <t>peaceEndMonthTextBox</t>
+  </si>
+  <si>
+    <t>peaceEndDayTextBox</t>
+  </si>
+  <si>
+    <t>peaceTypeTextBox</t>
+  </si>
+  <si>
+    <t>peaceIdTextBox</t>
+  </si>
+  <si>
+    <t>spyNumNumericUpDown</t>
+  </si>
+  <si>
+    <t>DiplomacyGuaranteed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DiplomacyGuaranteedEndYear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DiplomacyGuaranteedEndMonth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DiplomacyGuaranteedEndDay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Relation.ItemId.Guaranteed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Relation.ItemId.GuaranteedYear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Relation.ItemId.GuaranteedMonth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Relation.ItemId.GuaranteedDay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>guaranteed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>guaranteed year</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>guaranteed month</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>guaranteed day</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>guaranteedCheckBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>guaranteedYearTextBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DiplomacyMilitaryAccess</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>guaranteedMonthTextBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>guaranteedDayTextBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>relationValueTextBox</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -5678,13 +6007,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F162"/>
+  <dimension ref="A1:F189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="44.625" bestFit="1" customWidth="1"/>
@@ -5714,1107 +6045,1107 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>752</v>
+        <v>837</v>
       </c>
       <c r="B2" t="s">
-        <v>774</v>
+        <v>859</v>
       </c>
       <c r="C2" t="s">
-        <v>775</v>
+        <v>739</v>
       </c>
       <c r="D2" t="s">
-        <v>778</v>
+        <v>862</v>
       </c>
       <c r="E2" t="s">
-        <v>795</v>
+        <v>868</v>
       </c>
       <c r="F2" t="s">
-        <v>811</v>
+        <v>930</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>753</v>
+        <v>838</v>
       </c>
       <c r="B3" t="s">
-        <v>774</v>
+        <v>859</v>
       </c>
       <c r="C3" t="s">
-        <v>775</v>
+        <v>743</v>
       </c>
       <c r="D3" t="s">
-        <v>781</v>
+        <v>866</v>
       </c>
       <c r="E3" t="s">
-        <v>799</v>
+        <v>869</v>
       </c>
       <c r="F3" t="s">
-        <v>812</v>
+        <v>891</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>754</v>
+        <v>839</v>
       </c>
       <c r="B4" t="s">
-        <v>774</v>
+        <v>859</v>
       </c>
       <c r="C4" t="s">
-        <v>775</v>
+        <v>743</v>
       </c>
       <c r="D4" t="s">
-        <v>782</v>
+        <v>865</v>
       </c>
       <c r="E4" t="s">
-        <v>800</v>
+        <v>870</v>
       </c>
       <c r="F4" t="s">
-        <v>813</v>
+        <v>892</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>755</v>
+        <v>927</v>
       </c>
       <c r="B5" t="s">
-        <v>774</v>
+        <v>859</v>
       </c>
       <c r="C5" t="s">
-        <v>775</v>
+        <v>743</v>
       </c>
       <c r="D5" t="s">
-        <v>779</v>
+        <v>863</v>
       </c>
       <c r="E5" t="s">
-        <v>796</v>
+        <v>871</v>
       </c>
       <c r="F5" t="s">
-        <v>814</v>
+        <v>893</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>756</v>
+        <v>913</v>
       </c>
       <c r="B6" t="s">
-        <v>774</v>
+        <v>859</v>
       </c>
       <c r="C6" t="s">
-        <v>775</v>
+        <v>743</v>
       </c>
       <c r="D6" t="s">
-        <v>780</v>
+        <v>917</v>
       </c>
       <c r="E6" t="s">
-        <v>797</v>
+        <v>921</v>
       </c>
       <c r="F6" t="s">
-        <v>815</v>
+        <v>925</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>757</v>
+        <v>914</v>
       </c>
       <c r="B7" t="s">
-        <v>774</v>
+        <v>859</v>
       </c>
       <c r="C7" t="s">
-        <v>775</v>
+        <v>860</v>
       </c>
       <c r="D7" t="s">
-        <v>783</v>
+        <v>918</v>
       </c>
       <c r="E7" t="s">
-        <v>798</v>
+        <v>922</v>
       </c>
       <c r="F7" t="s">
-        <v>816</v>
+        <v>926</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>818</v>
+        <v>915</v>
       </c>
       <c r="B8" t="s">
-        <v>774</v>
+        <v>859</v>
       </c>
       <c r="C8" t="s">
-        <v>775</v>
+        <v>860</v>
       </c>
       <c r="D8" t="s">
-        <v>819</v>
+        <v>919</v>
       </c>
       <c r="E8" t="s">
-        <v>820</v>
+        <v>923</v>
       </c>
       <c r="F8" t="s">
-        <v>817</v>
+        <v>928</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>758</v>
+        <v>916</v>
       </c>
       <c r="B9" t="s">
-        <v>774</v>
+        <v>859</v>
       </c>
       <c r="C9" t="s">
-        <v>775</v>
+        <v>860</v>
       </c>
       <c r="D9" t="s">
-        <v>784</v>
+        <v>920</v>
       </c>
       <c r="E9" t="s">
-        <v>801</v>
+        <v>924</v>
       </c>
       <c r="F9" t="s">
-        <v>821</v>
+        <v>929</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>759</v>
+        <v>840</v>
       </c>
       <c r="B10" t="s">
-        <v>774</v>
+        <v>859</v>
       </c>
       <c r="C10" t="s">
-        <v>776</v>
+        <v>861</v>
       </c>
       <c r="D10" t="s">
-        <v>785</v>
+        <v>864</v>
       </c>
       <c r="E10" t="s">
-        <v>802</v>
+        <v>874</v>
       </c>
       <c r="F10" t="s">
-        <v>822</v>
+        <v>894</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>760</v>
+        <v>844</v>
       </c>
       <c r="B11" t="s">
-        <v>774</v>
+        <v>859</v>
       </c>
       <c r="C11" t="s">
-        <v>777</v>
+        <v>860</v>
       </c>
       <c r="D11" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="E11" t="s">
-        <v>803</v>
+        <v>875</v>
       </c>
       <c r="F11" t="s">
-        <v>823</v>
+        <v>895</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>761</v>
+        <v>845</v>
       </c>
       <c r="B12" t="s">
-        <v>774</v>
+        <v>859</v>
       </c>
       <c r="C12" t="s">
-        <v>777</v>
+        <v>860</v>
       </c>
       <c r="D12" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="E12" t="s">
-        <v>804</v>
+        <v>882</v>
       </c>
       <c r="F12" t="s">
-        <v>824</v>
+        <v>896</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>762</v>
+        <v>846</v>
       </c>
       <c r="B13" t="s">
-        <v>774</v>
+        <v>859</v>
       </c>
       <c r="C13" t="s">
-        <v>739</v>
+        <v>860</v>
       </c>
       <c r="D13" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="E13" t="s">
-        <v>805</v>
+        <v>883</v>
       </c>
       <c r="F13" t="s">
-        <v>825</v>
+        <v>897</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>763</v>
+        <v>841</v>
       </c>
       <c r="B14" t="s">
-        <v>774</v>
+        <v>859</v>
       </c>
       <c r="C14" t="s">
-        <v>739</v>
+        <v>860</v>
       </c>
       <c r="D14" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="E14" t="s">
-        <v>805</v>
+        <v>884</v>
       </c>
       <c r="F14" t="s">
-        <v>826</v>
+        <v>898</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>764</v>
+        <v>842</v>
       </c>
       <c r="B15" t="s">
-        <v>774</v>
+        <v>859</v>
       </c>
       <c r="C15" t="s">
-        <v>739</v>
+        <v>860</v>
       </c>
       <c r="D15" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="E15" t="s">
-        <v>806</v>
+        <v>885</v>
       </c>
       <c r="F15" t="s">
-        <v>827</v>
+        <v>899</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>765</v>
+        <v>843</v>
       </c>
       <c r="B16" t="s">
-        <v>774</v>
+        <v>859</v>
       </c>
       <c r="C16" t="s">
-        <v>739</v>
+        <v>860</v>
       </c>
       <c r="D16" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="E16" t="s">
-        <v>806</v>
+        <v>886</v>
       </c>
       <c r="F16" t="s">
-        <v>828</v>
+        <v>900</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>766</v>
+        <v>847</v>
       </c>
       <c r="B17" t="s">
-        <v>774</v>
+        <v>859</v>
       </c>
       <c r="C17" t="s">
-        <v>739</v>
+        <v>860</v>
       </c>
       <c r="D17" t="s">
-        <v>791</v>
+        <v>819</v>
       </c>
       <c r="E17" t="s">
-        <v>807</v>
+        <v>887</v>
       </c>
       <c r="F17" t="s">
-        <v>829</v>
+        <v>901</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>767</v>
+        <v>848</v>
       </c>
       <c r="B18" t="s">
-        <v>774</v>
+        <v>859</v>
       </c>
       <c r="C18" t="s">
-        <v>739</v>
+        <v>860</v>
       </c>
       <c r="D18" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="E18" t="s">
-        <v>807</v>
+        <v>888</v>
       </c>
       <c r="F18" t="s">
-        <v>830</v>
+        <v>902</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>768</v>
+        <v>849</v>
       </c>
       <c r="B19" t="s">
-        <v>774</v>
+        <v>859</v>
       </c>
       <c r="C19" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="D19" t="s">
-        <v>792</v>
+        <v>864</v>
       </c>
       <c r="E19" t="s">
-        <v>808</v>
+        <v>889</v>
       </c>
       <c r="F19" t="s">
-        <v>831</v>
+        <v>903</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>769</v>
+        <v>850</v>
       </c>
       <c r="B20" t="s">
-        <v>774</v>
+        <v>859</v>
       </c>
       <c r="C20" t="s">
-        <v>739</v>
+        <v>860</v>
       </c>
       <c r="D20" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="E20" t="s">
-        <v>808</v>
+        <v>876</v>
       </c>
       <c r="F20" t="s">
-        <v>832</v>
+        <v>904</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>770</v>
+        <v>851</v>
       </c>
       <c r="B21" t="s">
-        <v>774</v>
+        <v>859</v>
       </c>
       <c r="C21" t="s">
-        <v>739</v>
+        <v>860</v>
       </c>
       <c r="D21" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="E21" t="s">
-        <v>809</v>
+        <v>877</v>
       </c>
       <c r="F21" t="s">
-        <v>833</v>
+        <v>905</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>771</v>
+        <v>852</v>
       </c>
       <c r="B22" t="s">
-        <v>774</v>
+        <v>859</v>
       </c>
       <c r="C22" t="s">
-        <v>739</v>
+        <v>860</v>
       </c>
       <c r="D22" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="E22" t="s">
-        <v>809</v>
+        <v>878</v>
       </c>
       <c r="F22" t="s">
-        <v>834</v>
+        <v>906</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>772</v>
+        <v>853</v>
       </c>
       <c r="B23" t="s">
-        <v>774</v>
+        <v>859</v>
       </c>
       <c r="C23" t="s">
-        <v>739</v>
+        <v>860</v>
       </c>
       <c r="D23" t="s">
-        <v>794</v>
+        <v>779</v>
       </c>
       <c r="E23" t="s">
-        <v>810</v>
+        <v>879</v>
       </c>
       <c r="F23" t="s">
-        <v>835</v>
+        <v>907</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>773</v>
+        <v>854</v>
       </c>
       <c r="B24" t="s">
-        <v>774</v>
+        <v>859</v>
       </c>
       <c r="C24" t="s">
-        <v>739</v>
+        <v>860</v>
       </c>
       <c r="D24" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
       <c r="E24" t="s">
-        <v>810</v>
+        <v>880</v>
       </c>
       <c r="F24" t="s">
-        <v>836</v>
+        <v>908</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>598</v>
+        <v>855</v>
       </c>
       <c r="B25" t="s">
-        <v>736</v>
+        <v>859</v>
       </c>
       <c r="C25" t="s">
-        <v>737</v>
+        <v>860</v>
       </c>
       <c r="D25" t="s">
-        <v>629</v>
+        <v>783</v>
       </c>
       <c r="E25" t="s">
-        <v>667</v>
+        <v>881</v>
       </c>
       <c r="F25" t="s">
-        <v>702</v>
+        <v>909</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>599</v>
+        <v>856</v>
       </c>
       <c r="B26" t="s">
-        <v>736</v>
+        <v>859</v>
       </c>
       <c r="C26" t="s">
-        <v>737</v>
+        <v>860</v>
       </c>
       <c r="D26" t="s">
-        <v>630</v>
+        <v>819</v>
       </c>
       <c r="E26" t="s">
-        <v>668</v>
+        <v>872</v>
       </c>
       <c r="F26" t="s">
-        <v>703</v>
+        <v>910</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>731</v>
+        <v>857</v>
       </c>
       <c r="B27" t="s">
-        <v>736</v>
+        <v>859</v>
       </c>
       <c r="C27" t="s">
-        <v>736</v>
+        <v>860</v>
       </c>
       <c r="D27" t="s">
-        <v>631</v>
+        <v>784</v>
       </c>
       <c r="E27" t="s">
-        <v>669</v>
+        <v>873</v>
       </c>
       <c r="F27" t="s">
-        <v>724</v>
+        <v>911</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>600</v>
+        <v>858</v>
       </c>
       <c r="B28" t="s">
-        <v>736</v>
+        <v>859</v>
       </c>
       <c r="C28" t="s">
-        <v>738</v>
+        <v>860</v>
       </c>
       <c r="D28" t="s">
-        <v>632</v>
+        <v>867</v>
       </c>
       <c r="E28" t="s">
-        <v>670</v>
+        <v>890</v>
       </c>
       <c r="F28" t="s">
-        <v>725</v>
+        <v>912</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>601</v>
+        <v>752</v>
       </c>
       <c r="B29" t="s">
-        <v>736</v>
+        <v>774</v>
       </c>
       <c r="C29" t="s">
-        <v>739</v>
+        <v>775</v>
       </c>
       <c r="D29" t="s">
-        <v>633</v>
+        <v>778</v>
       </c>
       <c r="E29" t="s">
-        <v>671</v>
+        <v>795</v>
       </c>
       <c r="F29" t="s">
-        <v>726</v>
+        <v>811</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>732</v>
+        <v>753</v>
       </c>
       <c r="B30" t="s">
-        <v>736</v>
+        <v>774</v>
       </c>
       <c r="C30" t="s">
-        <v>739</v>
+        <v>775</v>
       </c>
       <c r="D30" t="s">
-        <v>634</v>
+        <v>781</v>
       </c>
       <c r="E30" t="s">
-        <v>672</v>
+        <v>799</v>
       </c>
       <c r="F30" t="s">
-        <v>704</v>
+        <v>812</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>602</v>
+        <v>754</v>
       </c>
       <c r="B31" t="s">
-        <v>736</v>
+        <v>774</v>
       </c>
       <c r="C31" t="s">
-        <v>740</v>
+        <v>775</v>
       </c>
       <c r="D31" t="s">
-        <v>635</v>
+        <v>782</v>
       </c>
       <c r="E31" t="s">
-        <v>673</v>
+        <v>800</v>
       </c>
       <c r="F31" t="s">
-        <v>727</v>
+        <v>813</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>603</v>
+        <v>755</v>
       </c>
       <c r="B32" t="s">
-        <v>736</v>
+        <v>774</v>
       </c>
       <c r="C32" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="D32" t="s">
-        <v>636</v>
+        <v>779</v>
       </c>
       <c r="E32" t="s">
-        <v>674</v>
+        <v>796</v>
       </c>
       <c r="F32" t="s">
-        <v>705</v>
+        <v>814</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>604</v>
+        <v>756</v>
       </c>
       <c r="B33" t="s">
-        <v>736</v>
+        <v>774</v>
       </c>
       <c r="C33" t="s">
-        <v>740</v>
+        <v>775</v>
       </c>
       <c r="D33" t="s">
-        <v>637</v>
+        <v>780</v>
       </c>
       <c r="E33" t="s">
-        <v>675</v>
+        <v>797</v>
       </c>
       <c r="F33" t="s">
-        <v>706</v>
+        <v>815</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>733</v>
+        <v>757</v>
       </c>
       <c r="B34" t="s">
-        <v>736</v>
+        <v>774</v>
       </c>
       <c r="C34" t="s">
-        <v>740</v>
+        <v>775</v>
       </c>
       <c r="D34" t="s">
-        <v>638</v>
+        <v>783</v>
       </c>
       <c r="E34" t="s">
-        <v>676</v>
+        <v>798</v>
       </c>
       <c r="F34" t="s">
-        <v>707</v>
+        <v>816</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>605</v>
+        <v>818</v>
       </c>
       <c r="B35" t="s">
-        <v>736</v>
+        <v>774</v>
       </c>
       <c r="C35" t="s">
-        <v>739</v>
+        <v>775</v>
       </c>
       <c r="D35" t="s">
-        <v>639</v>
+        <v>819</v>
       </c>
       <c r="E35" t="s">
-        <v>677</v>
+        <v>820</v>
       </c>
       <c r="F35" t="s">
-        <v>746</v>
+        <v>817</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>606</v>
+        <v>758</v>
       </c>
       <c r="B36" t="s">
-        <v>736</v>
+        <v>774</v>
       </c>
       <c r="C36" t="s">
-        <v>739</v>
+        <v>775</v>
       </c>
       <c r="D36" t="s">
-        <v>641</v>
+        <v>784</v>
       </c>
       <c r="E36" t="s">
-        <v>678</v>
+        <v>801</v>
       </c>
       <c r="F36" t="s">
-        <v>747</v>
+        <v>821</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>607</v>
+        <v>759</v>
       </c>
       <c r="B37" t="s">
-        <v>736</v>
+        <v>774</v>
       </c>
       <c r="C37" t="s">
-        <v>739</v>
+        <v>776</v>
       </c>
       <c r="D37" t="s">
-        <v>642</v>
+        <v>785</v>
       </c>
       <c r="E37" t="s">
-        <v>679</v>
+        <v>802</v>
       </c>
       <c r="F37" t="s">
-        <v>748</v>
+        <v>822</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>608</v>
+        <v>760</v>
       </c>
       <c r="B38" t="s">
-        <v>736</v>
+        <v>774</v>
       </c>
       <c r="C38" t="s">
-        <v>739</v>
+        <v>777</v>
       </c>
       <c r="D38" t="s">
-        <v>643</v>
+        <v>786</v>
       </c>
       <c r="E38" t="s">
-        <v>680</v>
+        <v>803</v>
       </c>
       <c r="F38" t="s">
-        <v>749</v>
+        <v>823</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>745</v>
+        <v>761</v>
       </c>
       <c r="B39" t="s">
-        <v>736</v>
+        <v>774</v>
       </c>
       <c r="C39" t="s">
-        <v>739</v>
+        <v>777</v>
       </c>
       <c r="D39" t="s">
-        <v>644</v>
+        <v>787</v>
       </c>
       <c r="E39" t="s">
-        <v>681</v>
+        <v>804</v>
       </c>
       <c r="F39" t="s">
-        <v>750</v>
+        <v>824</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>609</v>
+        <v>762</v>
       </c>
       <c r="B40" t="s">
-        <v>736</v>
+        <v>774</v>
       </c>
       <c r="C40" t="s">
         <v>739</v>
       </c>
       <c r="D40" t="s">
-        <v>645</v>
+        <v>789</v>
       </c>
       <c r="E40" t="s">
-        <v>682</v>
+        <v>805</v>
       </c>
       <c r="F40" t="s">
-        <v>708</v>
+        <v>825</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>610</v>
+        <v>763</v>
       </c>
       <c r="B41" t="s">
-        <v>736</v>
+        <v>774</v>
       </c>
       <c r="C41" t="s">
         <v>739</v>
       </c>
       <c r="D41" t="s">
-        <v>646</v>
+        <v>788</v>
       </c>
       <c r="E41" t="s">
-        <v>683</v>
+        <v>805</v>
       </c>
       <c r="F41" t="s">
-        <v>709</v>
+        <v>826</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>611</v>
+        <v>764</v>
       </c>
       <c r="B42" t="s">
-        <v>736</v>
+        <v>774</v>
       </c>
       <c r="C42" t="s">
         <v>739</v>
       </c>
       <c r="D42" t="s">
-        <v>647</v>
+        <v>790</v>
       </c>
       <c r="E42" t="s">
-        <v>684</v>
+        <v>806</v>
       </c>
       <c r="F42" t="s">
-        <v>728</v>
+        <v>827</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>612</v>
+        <v>765</v>
       </c>
       <c r="B43" t="s">
-        <v>736</v>
+        <v>774</v>
       </c>
       <c r="C43" t="s">
         <v>739</v>
       </c>
       <c r="D43" t="s">
-        <v>648</v>
+        <v>790</v>
       </c>
       <c r="E43" t="s">
-        <v>685</v>
+        <v>806</v>
       </c>
       <c r="F43" t="s">
-        <v>710</v>
+        <v>828</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>613</v>
+        <v>766</v>
       </c>
       <c r="B44" t="s">
-        <v>736</v>
+        <v>774</v>
       </c>
       <c r="C44" t="s">
         <v>739</v>
       </c>
       <c r="D44" t="s">
-        <v>649</v>
+        <v>791</v>
       </c>
       <c r="E44" t="s">
-        <v>686</v>
+        <v>807</v>
       </c>
       <c r="F44" t="s">
-        <v>729</v>
+        <v>829</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>614</v>
+        <v>767</v>
       </c>
       <c r="B45" t="s">
-        <v>736</v>
+        <v>774</v>
       </c>
       <c r="C45" t="s">
         <v>739</v>
       </c>
       <c r="D45" t="s">
-        <v>650</v>
+        <v>791</v>
       </c>
       <c r="E45" t="s">
-        <v>687</v>
+        <v>807</v>
       </c>
       <c r="F45" t="s">
-        <v>711</v>
+        <v>830</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>615</v>
+        <v>768</v>
       </c>
       <c r="B46" t="s">
-        <v>736</v>
+        <v>774</v>
       </c>
       <c r="C46" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D46" t="s">
-        <v>651</v>
+        <v>792</v>
       </c>
       <c r="E46" t="s">
-        <v>688</v>
+        <v>808</v>
       </c>
       <c r="F46" t="s">
-        <v>712</v>
+        <v>831</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>616</v>
+        <v>769</v>
       </c>
       <c r="B47" t="s">
-        <v>736</v>
+        <v>774</v>
       </c>
       <c r="C47" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D47" t="s">
-        <v>652</v>
+        <v>792</v>
       </c>
       <c r="E47" t="s">
-        <v>689</v>
+        <v>808</v>
       </c>
       <c r="F47" t="s">
-        <v>713</v>
+        <v>832</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>617</v>
+        <v>770</v>
       </c>
       <c r="B48" t="s">
-        <v>736</v>
+        <v>774</v>
       </c>
       <c r="C48" t="s">
         <v>739</v>
       </c>
       <c r="D48" t="s">
-        <v>656</v>
+        <v>793</v>
       </c>
       <c r="E48" t="s">
-        <v>690</v>
+        <v>809</v>
       </c>
       <c r="F48" t="s">
-        <v>714</v>
+        <v>833</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>619</v>
+        <v>771</v>
       </c>
       <c r="B49" t="s">
-        <v>736</v>
+        <v>774</v>
       </c>
       <c r="C49" t="s">
         <v>739</v>
       </c>
       <c r="D49" t="s">
-        <v>655</v>
+        <v>793</v>
       </c>
       <c r="E49" t="s">
-        <v>691</v>
+        <v>809</v>
       </c>
       <c r="F49" t="s">
-        <v>715</v>
+        <v>834</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>620</v>
+        <v>772</v>
       </c>
       <c r="B50" t="s">
-        <v>736</v>
+        <v>774</v>
       </c>
       <c r="C50" t="s">
         <v>739</v>
       </c>
       <c r="D50" t="s">
-        <v>657</v>
+        <v>794</v>
       </c>
       <c r="E50" t="s">
-        <v>692</v>
+        <v>810</v>
       </c>
       <c r="F50" t="s">
-        <v>716</v>
+        <v>835</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>621</v>
+        <v>773</v>
       </c>
       <c r="B51" t="s">
-        <v>736</v>
+        <v>774</v>
       </c>
       <c r="C51" t="s">
         <v>739</v>
       </c>
       <c r="D51" t="s">
-        <v>658</v>
+        <v>794</v>
       </c>
       <c r="E51" t="s">
-        <v>694</v>
+        <v>810</v>
       </c>
       <c r="F51" t="s">
-        <v>730</v>
+        <v>836</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>622</v>
+        <v>598</v>
       </c>
       <c r="B52" t="s">
         <v>736</v>
       </c>
       <c r="C52" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D52" t="s">
-        <v>659</v>
+        <v>629</v>
       </c>
       <c r="E52" t="s">
-        <v>695</v>
+        <v>667</v>
       </c>
       <c r="F52" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>623</v>
+        <v>599</v>
       </c>
       <c r="B53" t="s">
         <v>736</v>
       </c>
       <c r="C53" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D53" t="s">
-        <v>660</v>
+        <v>630</v>
       </c>
       <c r="E53" t="s">
-        <v>696</v>
+        <v>668</v>
       </c>
       <c r="F53" t="s">
-        <v>718</v>
+        <v>703</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>624</v>
+        <v>731</v>
       </c>
       <c r="B54" t="s">
         <v>736</v>
       </c>
       <c r="C54" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D54" t="s">
-        <v>661</v>
+        <v>631</v>
       </c>
       <c r="E54" t="s">
-        <v>697</v>
+        <v>669</v>
       </c>
       <c r="F54" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="B55" t="s">
         <v>736</v>
       </c>
       <c r="C55" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D55" t="s">
-        <v>662</v>
+        <v>632</v>
       </c>
       <c r="E55" t="s">
-        <v>698</v>
+        <v>670</v>
       </c>
       <c r="F55" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>626</v>
+        <v>601</v>
       </c>
       <c r="B56" t="s">
         <v>736</v>
       </c>
       <c r="C56" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D56" t="s">
-        <v>663</v>
+        <v>633</v>
       </c>
       <c r="E56" t="s">
-        <v>699</v>
+        <v>671</v>
       </c>
       <c r="F56" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>627</v>
+        <v>732</v>
       </c>
       <c r="B57" t="s">
         <v>736</v>
@@ -6823,598 +7154,598 @@
         <v>739</v>
       </c>
       <c r="D57" t="s">
-        <v>654</v>
+        <v>634</v>
       </c>
       <c r="E57" t="s">
-        <v>700</v>
+        <v>672</v>
       </c>
       <c r="F57" t="s">
-        <v>722</v>
+        <v>704</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>628</v>
+        <v>602</v>
       </c>
       <c r="B58" t="s">
         <v>736</v>
       </c>
       <c r="C58" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D58" t="s">
-        <v>653</v>
+        <v>635</v>
       </c>
       <c r="E58" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="F58" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="B59" t="s">
         <v>736</v>
       </c>
       <c r="C59" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="D59" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E59" t="s">
-        <v>693</v>
+        <v>674</v>
       </c>
       <c r="F59" t="s">
-        <v>751</v>
+        <v>705</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>273</v>
+        <v>604</v>
       </c>
       <c r="B60" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C60" t="s">
         <v>740</v>
       </c>
       <c r="D60" t="s">
-        <v>303</v>
+        <v>637</v>
       </c>
       <c r="E60" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="F60" t="s">
-        <v>433</v>
+        <v>706</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>274</v>
+        <v>733</v>
       </c>
       <c r="B61" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C61" t="s">
         <v>740</v>
       </c>
       <c r="D61" t="s">
-        <v>304</v>
+        <v>638</v>
       </c>
       <c r="E61" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="F61" t="s">
-        <v>434</v>
+        <v>707</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>275</v>
+        <v>605</v>
       </c>
       <c r="B62" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C62" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D62" t="s">
-        <v>305</v>
+        <v>639</v>
       </c>
       <c r="E62" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
       <c r="F62" t="s">
-        <v>435</v>
+        <v>746</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>276</v>
+        <v>606</v>
       </c>
       <c r="B63" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C63" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D63" t="s">
-        <v>306</v>
+        <v>641</v>
       </c>
       <c r="E63" t="s">
-        <v>393</v>
+        <v>678</v>
       </c>
       <c r="F63" t="s">
-        <v>436</v>
+        <v>747</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>277</v>
+        <v>607</v>
       </c>
       <c r="B64" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C64" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D64" t="s">
-        <v>307</v>
+        <v>642</v>
       </c>
       <c r="E64" t="s">
-        <v>394</v>
+        <v>679</v>
       </c>
       <c r="F64" t="s">
-        <v>437</v>
+        <v>748</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>278</v>
+        <v>608</v>
       </c>
       <c r="B65" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C65" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D65" t="s">
-        <v>308</v>
+        <v>643</v>
       </c>
       <c r="E65" t="s">
-        <v>395</v>
+        <v>680</v>
       </c>
       <c r="F65" t="s">
-        <v>438</v>
+        <v>749</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>279</v>
+        <v>745</v>
       </c>
       <c r="B66" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C66" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D66" t="s">
-        <v>309</v>
+        <v>644</v>
       </c>
       <c r="E66" t="s">
-        <v>396</v>
+        <v>681</v>
       </c>
       <c r="F66" t="s">
-        <v>439</v>
+        <v>750</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>280</v>
+        <v>609</v>
       </c>
       <c r="B67" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C67" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D67" t="s">
-        <v>310</v>
+        <v>645</v>
       </c>
       <c r="E67" t="s">
-        <v>397</v>
+        <v>682</v>
       </c>
       <c r="F67" t="s">
-        <v>440</v>
+        <v>708</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>281</v>
+        <v>610</v>
       </c>
       <c r="B68" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C68" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D68" t="s">
-        <v>311</v>
+        <v>646</v>
       </c>
       <c r="E68" t="s">
-        <v>398</v>
+        <v>683</v>
       </c>
       <c r="F68" t="s">
-        <v>441</v>
+        <v>709</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>282</v>
+        <v>611</v>
       </c>
       <c r="B69" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C69" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D69" t="s">
-        <v>312</v>
+        <v>647</v>
       </c>
       <c r="E69" t="s">
-        <v>399</v>
+        <v>684</v>
       </c>
       <c r="F69" t="s">
-        <v>442</v>
+        <v>728</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>421</v>
+        <v>612</v>
       </c>
       <c r="B70" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C70" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D70" t="s">
-        <v>422</v>
+        <v>648</v>
       </c>
       <c r="E70" t="s">
-        <v>401</v>
+        <v>685</v>
       </c>
       <c r="F70" t="s">
-        <v>443</v>
+        <v>710</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>283</v>
+        <v>613</v>
       </c>
       <c r="B71" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C71" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D71" t="s">
-        <v>313</v>
+        <v>649</v>
       </c>
       <c r="E71" t="s">
-        <v>400</v>
+        <v>686</v>
       </c>
       <c r="F71" t="s">
-        <v>444</v>
+        <v>729</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>284</v>
+        <v>614</v>
       </c>
       <c r="B72" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C72" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D72" t="s">
-        <v>314</v>
+        <v>650</v>
       </c>
       <c r="E72" t="s">
-        <v>401</v>
+        <v>687</v>
       </c>
       <c r="F72" t="s">
-        <v>445</v>
+        <v>711</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>423</v>
+        <v>615</v>
       </c>
       <c r="B73" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C73" t="s">
         <v>740</v>
       </c>
       <c r="D73" t="s">
-        <v>316</v>
+        <v>651</v>
       </c>
       <c r="E73" t="s">
-        <v>403</v>
+        <v>688</v>
       </c>
       <c r="F73" t="s">
-        <v>446</v>
+        <v>712</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>285</v>
+        <v>616</v>
       </c>
       <c r="B74" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C74" t="s">
         <v>740</v>
       </c>
       <c r="D74" t="s">
-        <v>315</v>
+        <v>652</v>
       </c>
       <c r="E74" t="s">
-        <v>402</v>
+        <v>689</v>
       </c>
       <c r="F74" t="s">
-        <v>447</v>
+        <v>713</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>286</v>
+        <v>617</v>
       </c>
       <c r="B75" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C75" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D75" t="s">
-        <v>316</v>
+        <v>656</v>
       </c>
       <c r="E75" t="s">
-        <v>403</v>
+        <v>690</v>
       </c>
       <c r="F75" t="s">
-        <v>448</v>
+        <v>714</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>424</v>
+        <v>619</v>
       </c>
       <c r="B76" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C76" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D76" t="s">
-        <v>318</v>
+        <v>655</v>
       </c>
       <c r="E76" t="s">
-        <v>405</v>
+        <v>691</v>
       </c>
       <c r="F76" t="s">
-        <v>449</v>
+        <v>715</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>287</v>
+        <v>620</v>
       </c>
       <c r="B77" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C77" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D77" t="s">
-        <v>317</v>
+        <v>657</v>
       </c>
       <c r="E77" t="s">
-        <v>404</v>
+        <v>692</v>
       </c>
       <c r="F77" t="s">
-        <v>450</v>
+        <v>716</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>288</v>
+        <v>621</v>
       </c>
       <c r="B78" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C78" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D78" t="s">
-        <v>318</v>
+        <v>658</v>
       </c>
       <c r="E78" t="s">
-        <v>405</v>
+        <v>694</v>
       </c>
       <c r="F78" t="s">
-        <v>451</v>
+        <v>730</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>425</v>
+        <v>622</v>
       </c>
       <c r="B79" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C79" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D79" t="s">
-        <v>320</v>
+        <v>659</v>
       </c>
       <c r="E79" t="s">
-        <v>407</v>
+        <v>695</v>
       </c>
       <c r="F79" t="s">
-        <v>452</v>
+        <v>717</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>289</v>
+        <v>623</v>
       </c>
       <c r="B80" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C80" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D80" t="s">
-        <v>319</v>
+        <v>660</v>
       </c>
       <c r="E80" t="s">
-        <v>406</v>
+        <v>696</v>
       </c>
       <c r="F80" t="s">
-        <v>453</v>
+        <v>718</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>290</v>
+        <v>624</v>
       </c>
       <c r="B81" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C81" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D81" t="s">
-        <v>320</v>
+        <v>661</v>
       </c>
       <c r="E81" t="s">
-        <v>407</v>
+        <v>697</v>
       </c>
       <c r="F81" t="s">
-        <v>454</v>
+        <v>719</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>426</v>
+        <v>625</v>
       </c>
       <c r="B82" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C82" t="s">
         <v>740</v>
       </c>
       <c r="D82" t="s">
-        <v>322</v>
+        <v>662</v>
       </c>
       <c r="E82" t="s">
-        <v>409</v>
+        <v>698</v>
       </c>
       <c r="F82" t="s">
-        <v>455</v>
+        <v>720</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>291</v>
+        <v>626</v>
       </c>
       <c r="B83" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C83" t="s">
         <v>740</v>
       </c>
       <c r="D83" t="s">
-        <v>321</v>
+        <v>663</v>
       </c>
       <c r="E83" t="s">
-        <v>408</v>
+        <v>699</v>
       </c>
       <c r="F83" t="s">
-        <v>456</v>
+        <v>721</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>292</v>
+        <v>627</v>
       </c>
       <c r="B84" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C84" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D84" t="s">
-        <v>322</v>
+        <v>654</v>
       </c>
       <c r="E84" t="s">
-        <v>409</v>
+        <v>700</v>
       </c>
       <c r="F84" t="s">
-        <v>457</v>
+        <v>722</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>427</v>
+        <v>628</v>
       </c>
       <c r="B85" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C85" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D85" t="s">
-        <v>324</v>
+        <v>653</v>
       </c>
       <c r="E85" t="s">
-        <v>411</v>
+        <v>701</v>
       </c>
       <c r="F85" t="s">
-        <v>458</v>
+        <v>723</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>293</v>
+        <v>618</v>
       </c>
       <c r="B86" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C86" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D86" t="s">
-        <v>323</v>
+        <v>640</v>
       </c>
       <c r="E86" t="s">
-        <v>410</v>
+        <v>693</v>
       </c>
       <c r="F86" t="s">
-        <v>459</v>
+        <v>751</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="B87" t="s">
         <v>742</v>
@@ -7423,18 +7754,18 @@
         <v>740</v>
       </c>
       <c r="D87" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="E87" t="s">
-        <v>411</v>
+        <v>664</v>
       </c>
       <c r="F87" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>428</v>
+        <v>274</v>
       </c>
       <c r="B88" t="s">
         <v>742</v>
@@ -7443,18 +7774,18 @@
         <v>740</v>
       </c>
       <c r="D88" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="E88" t="s">
-        <v>413</v>
+        <v>665</v>
       </c>
       <c r="F88" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="B89" t="s">
         <v>742</v>
@@ -7463,18 +7794,18 @@
         <v>740</v>
       </c>
       <c r="D89" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="E89" t="s">
-        <v>412</v>
+        <v>666</v>
       </c>
       <c r="F89" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="B90" t="s">
         <v>742</v>
@@ -7483,18 +7814,18 @@
         <v>740</v>
       </c>
       <c r="D90" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="E90" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="F90" t="s">
-        <v>463</v>
+        <v>436</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>429</v>
+        <v>277</v>
       </c>
       <c r="B91" t="s">
         <v>742</v>
@@ -7503,18 +7834,18 @@
         <v>740</v>
       </c>
       <c r="D91" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="E91" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="F91" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="B92" t="s">
         <v>742</v>
@@ -7523,18 +7854,18 @@
         <v>740</v>
       </c>
       <c r="D92" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="E92" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="F92" t="s">
-        <v>465</v>
+        <v>438</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="B93" t="s">
         <v>742</v>
@@ -7543,18 +7874,18 @@
         <v>740</v>
       </c>
       <c r="D93" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="E93" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="F93" t="s">
-        <v>466</v>
+        <v>439</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>430</v>
+        <v>280</v>
       </c>
       <c r="B94" t="s">
         <v>742</v>
@@ -7563,18 +7894,18 @@
         <v>740</v>
       </c>
       <c r="D94" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="E94" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="F94" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="B95" t="s">
         <v>742</v>
@@ -7583,18 +7914,18 @@
         <v>740</v>
       </c>
       <c r="D95" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="E95" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="F95" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="B96" t="s">
         <v>742</v>
@@ -7603,18 +7934,18 @@
         <v>740</v>
       </c>
       <c r="D96" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="E96" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="F96" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B97" t="s">
         <v>742</v>
@@ -7623,18 +7954,18 @@
         <v>740</v>
       </c>
       <c r="D97" t="s">
-        <v>332</v>
+        <v>422</v>
       </c>
       <c r="E97" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="F97" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="B98" t="s">
         <v>742</v>
@@ -7643,18 +7974,18 @@
         <v>740</v>
       </c>
       <c r="D98" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="E98" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="F98" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="B99" t="s">
         <v>742</v>
@@ -7663,718 +7994,718 @@
         <v>740</v>
       </c>
       <c r="D99" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="E99" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="F99" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>196</v>
+        <v>423</v>
       </c>
       <c r="B100" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C100" t="s">
         <v>740</v>
       </c>
       <c r="D100" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="E100" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="F100" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>197</v>
+        <v>285</v>
       </c>
       <c r="B101" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C101" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D101" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="E101" t="s">
-        <v>537</v>
+        <v>402</v>
       </c>
       <c r="F101" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>198</v>
+        <v>286</v>
       </c>
       <c r="B102" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C102" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D102" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="E102" t="s">
-        <v>538</v>
+        <v>403</v>
       </c>
       <c r="F102" t="s">
-        <v>475</v>
+        <v>448</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>199</v>
+        <v>424</v>
       </c>
       <c r="B103" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C103" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D103" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="E103" t="s">
-        <v>539</v>
+        <v>405</v>
       </c>
       <c r="F103" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>200</v>
+        <v>287</v>
       </c>
       <c r="B104" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C104" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D104" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="E104" t="s">
-        <v>540</v>
+        <v>404</v>
       </c>
       <c r="F104" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>201</v>
+        <v>288</v>
       </c>
       <c r="B105" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C105" t="s">
         <v>740</v>
       </c>
       <c r="D105" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="E105" t="s">
-        <v>529</v>
+        <v>405</v>
       </c>
       <c r="F105" t="s">
-        <v>479</v>
+        <v>451</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>202</v>
+        <v>425</v>
       </c>
       <c r="B106" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C106" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="D106" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="E106" t="s">
-        <v>530</v>
+        <v>407</v>
       </c>
       <c r="F106" t="s">
-        <v>478</v>
+        <v>452</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>195</v>
+        <v>289</v>
       </c>
       <c r="B107" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C107" t="s">
         <v>740</v>
       </c>
       <c r="D107" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="E107" t="s">
-        <v>531</v>
+        <v>406</v>
       </c>
       <c r="F107" t="s">
-        <v>480</v>
+        <v>453</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>203</v>
+        <v>290</v>
       </c>
       <c r="B108" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C108" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D108" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="E108" t="s">
-        <v>541</v>
+        <v>407</v>
       </c>
       <c r="F108" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>204</v>
+        <v>426</v>
       </c>
       <c r="B109" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C109" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D109" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="E109" t="s">
-        <v>544</v>
+        <v>409</v>
       </c>
       <c r="F109" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>205</v>
+        <v>291</v>
       </c>
       <c r="B110" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C110" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D110" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="E110" t="s">
-        <v>542</v>
+        <v>408</v>
       </c>
       <c r="F110" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>206</v>
+        <v>292</v>
       </c>
       <c r="B111" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C111" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D111" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="E111" t="s">
-        <v>543</v>
+        <v>409</v>
       </c>
       <c r="F111" t="s">
-        <v>484</v>
+        <v>457</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>207</v>
+        <v>427</v>
       </c>
       <c r="B112" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C112" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D112" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="E112" t="s">
-        <v>532</v>
+        <v>411</v>
       </c>
       <c r="F112" t="s">
-        <v>485</v>
+        <v>458</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>208</v>
+        <v>293</v>
       </c>
       <c r="B113" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C113" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D113" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="E113" t="s">
-        <v>545</v>
+        <v>410</v>
       </c>
       <c r="F113" t="s">
-        <v>486</v>
+        <v>459</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>209</v>
+        <v>294</v>
       </c>
       <c r="B114" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C114" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D114" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="E114" t="s">
-        <v>546</v>
+        <v>411</v>
       </c>
       <c r="F114" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>210</v>
+        <v>428</v>
       </c>
       <c r="B115" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C115" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D115" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="E115" t="s">
-        <v>533</v>
+        <v>413</v>
       </c>
       <c r="F115" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="B116" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C116" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D116" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="E116" t="s">
-        <v>547</v>
+        <v>412</v>
       </c>
       <c r="F116" t="s">
-        <v>489</v>
+        <v>462</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>212</v>
+        <v>296</v>
       </c>
       <c r="B117" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C117" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D117" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="E117" t="s">
-        <v>554</v>
+        <v>413</v>
       </c>
       <c r="F117" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>213</v>
+        <v>429</v>
       </c>
       <c r="B118" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C118" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D118" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="E118" t="s">
-        <v>555</v>
+        <v>415</v>
       </c>
       <c r="F118" t="s">
-        <v>491</v>
+        <v>464</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>214</v>
+        <v>297</v>
       </c>
       <c r="B119" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C119" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D119" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="E119" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="F119" t="s">
-        <v>492</v>
+        <v>465</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>215</v>
+        <v>298</v>
       </c>
       <c r="B120" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C120" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D120" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="E120" t="s">
-        <v>553</v>
+        <v>415</v>
       </c>
       <c r="F120" t="s">
-        <v>493</v>
+        <v>466</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>216</v>
+        <v>430</v>
       </c>
       <c r="B121" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C121" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D121" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E121" t="s">
-        <v>534</v>
+        <v>417</v>
       </c>
       <c r="F121" t="s">
-        <v>494</v>
+        <v>467</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>217</v>
+        <v>299</v>
       </c>
       <c r="B122" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C122" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D122" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="E122" t="s">
-        <v>548</v>
+        <v>416</v>
       </c>
       <c r="F122" t="s">
-        <v>495</v>
+        <v>468</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>218</v>
+        <v>300</v>
       </c>
       <c r="B123" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C123" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D123" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="E123" t="s">
-        <v>557</v>
+        <v>417</v>
       </c>
       <c r="F123" t="s">
-        <v>496</v>
+        <v>469</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>219</v>
+        <v>431</v>
       </c>
       <c r="B124" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C124" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D124" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="E124" t="s">
-        <v>535</v>
+        <v>419</v>
       </c>
       <c r="F124" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>220</v>
+        <v>301</v>
       </c>
       <c r="B125" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C125" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D125" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="E125" t="s">
-        <v>549</v>
+        <v>418</v>
       </c>
       <c r="F125" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>221</v>
+        <v>302</v>
       </c>
       <c r="B126" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C126" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D126" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="E126" t="s">
-        <v>551</v>
+        <v>419</v>
       </c>
       <c r="F126" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="B127" t="s">
         <v>744</v>
       </c>
       <c r="C127" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D127" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="E127" t="s">
-        <v>536</v>
+        <v>392</v>
       </c>
       <c r="F127" t="s">
-        <v>500</v>
+        <v>473</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="B128" t="s">
         <v>744</v>
       </c>
       <c r="C128" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="D128" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="E128" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="F128" t="s">
-        <v>501</v>
+        <v>474</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="B129" t="s">
         <v>744</v>
       </c>
       <c r="C129" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="D129" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="E129" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="F129" t="s">
-        <v>502</v>
+        <v>475</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="B130" t="s">
         <v>744</v>
       </c>
       <c r="C130" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="D130" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="E130" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="F130" t="s">
-        <v>503</v>
+        <v>476</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="B131" t="s">
         <v>744</v>
       </c>
       <c r="C131" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="D131" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="E131" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="F131" t="s">
-        <v>504</v>
+        <v>477</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="B132" t="s">
         <v>744</v>
       </c>
       <c r="C132" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D132" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="E132" t="s">
-        <v>559</v>
+        <v>529</v>
       </c>
       <c r="F132" t="s">
-        <v>505</v>
+        <v>479</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="B133" t="s">
         <v>744</v>
       </c>
       <c r="C133" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D133" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="E133" t="s">
-        <v>561</v>
+        <v>530</v>
       </c>
       <c r="F133" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="B134" t="s">
         <v>744</v>
       </c>
       <c r="C134" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D134" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="E134" t="s">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="F134" t="s">
-        <v>507</v>
+        <v>480</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="B135" t="s">
         <v>744</v>
@@ -8383,18 +8714,18 @@
         <v>739</v>
       </c>
       <c r="D135" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="E135" t="s">
-        <v>563</v>
+        <v>541</v>
       </c>
       <c r="F135" t="s">
-        <v>508</v>
+        <v>481</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="B136" t="s">
         <v>744</v>
@@ -8403,18 +8734,18 @@
         <v>739</v>
       </c>
       <c r="D136" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="E136" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="F136" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="B137" t="s">
         <v>744</v>
@@ -8423,18 +8754,18 @@
         <v>739</v>
       </c>
       <c r="D137" t="s">
-        <v>365</v>
+        <v>338</v>
       </c>
       <c r="E137" t="s">
-        <v>565</v>
+        <v>542</v>
       </c>
       <c r="F137" t="s">
-        <v>510</v>
+        <v>483</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="B138" t="s">
         <v>744</v>
@@ -8443,18 +8774,18 @@
         <v>739</v>
       </c>
       <c r="D138" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="E138" t="s">
-        <v>566</v>
+        <v>543</v>
       </c>
       <c r="F138" t="s">
-        <v>511</v>
+        <v>484</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="B139" t="s">
         <v>744</v>
@@ -8463,18 +8794,18 @@
         <v>739</v>
       </c>
       <c r="D139" t="s">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="E139" t="s">
-        <v>567</v>
+        <v>532</v>
       </c>
       <c r="F139" t="s">
-        <v>512</v>
+        <v>485</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="B140" t="s">
         <v>744</v>
@@ -8483,18 +8814,18 @@
         <v>739</v>
       </c>
       <c r="D140" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="E140" t="s">
-        <v>568</v>
+        <v>545</v>
       </c>
       <c r="F140" t="s">
-        <v>513</v>
+        <v>486</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="B141" t="s">
         <v>744</v>
@@ -8503,18 +8834,18 @@
         <v>739</v>
       </c>
       <c r="D141" t="s">
-        <v>369</v>
+        <v>342</v>
       </c>
       <c r="E141" t="s">
-        <v>569</v>
+        <v>546</v>
       </c>
       <c r="F141" t="s">
-        <v>514</v>
+        <v>487</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="B142" t="s">
         <v>744</v>
@@ -8523,18 +8854,18 @@
         <v>739</v>
       </c>
       <c r="D142" t="s">
-        <v>370</v>
+        <v>343</v>
       </c>
       <c r="E142" t="s">
-        <v>570</v>
+        <v>533</v>
       </c>
       <c r="F142" t="s">
-        <v>515</v>
+        <v>488</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="B143" t="s">
         <v>744</v>
@@ -8543,18 +8874,18 @@
         <v>739</v>
       </c>
       <c r="D143" t="s">
-        <v>371</v>
+        <v>344</v>
       </c>
       <c r="E143" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="F143" t="s">
-        <v>516</v>
+        <v>489</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="B144" t="s">
         <v>744</v>
@@ -8563,18 +8894,18 @@
         <v>739</v>
       </c>
       <c r="D144" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="E144" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
       <c r="F144" t="s">
-        <v>517</v>
+        <v>490</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="B145" t="s">
         <v>744</v>
@@ -8583,18 +8914,18 @@
         <v>739</v>
       </c>
       <c r="D145" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="E145" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
       <c r="F145" t="s">
-        <v>518</v>
+        <v>491</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="B146" t="s">
         <v>744</v>
@@ -8603,18 +8934,18 @@
         <v>739</v>
       </c>
       <c r="D146" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="E146" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="F146" t="s">
-        <v>519</v>
+        <v>492</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="B147" t="s">
         <v>744</v>
@@ -8623,18 +8954,18 @@
         <v>739</v>
       </c>
       <c r="D147" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="E147" t="s">
-        <v>575</v>
+        <v>553</v>
       </c>
       <c r="F147" t="s">
-        <v>520</v>
+        <v>493</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="B148" t="s">
         <v>744</v>
@@ -8643,18 +8974,18 @@
         <v>739</v>
       </c>
       <c r="D148" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="E148" t="s">
-        <v>576</v>
+        <v>534</v>
       </c>
       <c r="F148" t="s">
-        <v>521</v>
+        <v>494</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="B149" t="s">
         <v>744</v>
@@ -8663,18 +8994,18 @@
         <v>739</v>
       </c>
       <c r="D149" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="E149" t="s">
-        <v>577</v>
+        <v>548</v>
       </c>
       <c r="F149" t="s">
-        <v>522</v>
+        <v>495</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="B150" t="s">
         <v>744</v>
@@ -8683,18 +9014,18 @@
         <v>739</v>
       </c>
       <c r="D150" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="E150" t="s">
-        <v>578</v>
+        <v>557</v>
       </c>
       <c r="F150" t="s">
-        <v>523</v>
+        <v>496</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="B151" t="s">
         <v>744</v>
@@ -8703,18 +9034,18 @@
         <v>739</v>
       </c>
       <c r="D151" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="E151" t="s">
-        <v>590</v>
+        <v>535</v>
       </c>
       <c r="F151" t="s">
-        <v>524</v>
+        <v>497</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="B152" t="s">
         <v>744</v>
@@ -8723,18 +9054,18 @@
         <v>739</v>
       </c>
       <c r="D152" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="E152" t="s">
-        <v>589</v>
+        <v>549</v>
       </c>
       <c r="F152" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="B153" t="s">
         <v>744</v>
@@ -8743,18 +9074,18 @@
         <v>739</v>
       </c>
       <c r="D153" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="E153" t="s">
-        <v>588</v>
+        <v>551</v>
       </c>
       <c r="F153" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="B154" t="s">
         <v>744</v>
@@ -8763,18 +9094,18 @@
         <v>739</v>
       </c>
       <c r="D154" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="E154" t="s">
-        <v>582</v>
+        <v>536</v>
       </c>
       <c r="F154" t="s">
-        <v>527</v>
+        <v>500</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="B155" t="s">
         <v>744</v>
@@ -8783,18 +9114,18 @@
         <v>739</v>
       </c>
       <c r="D155" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="E155" t="s">
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="F155" t="s">
-        <v>528</v>
+        <v>501</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="B156" t="s">
         <v>744</v>
@@ -8803,18 +9134,18 @@
         <v>739</v>
       </c>
       <c r="D156" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="E156" t="s">
-        <v>584</v>
+        <v>552</v>
       </c>
       <c r="F156" t="s">
-        <v>591</v>
+        <v>502</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="B157" t="s">
         <v>744</v>
@@ -8823,18 +9154,18 @@
         <v>739</v>
       </c>
       <c r="D157" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="E157" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
       <c r="F157" t="s">
-        <v>592</v>
+        <v>503</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="B158" t="s">
         <v>744</v>
@@ -8843,18 +9174,18 @@
         <v>739</v>
       </c>
       <c r="D158" t="s">
-        <v>386</v>
+        <v>359</v>
       </c>
       <c r="E158" t="s">
-        <v>586</v>
+        <v>558</v>
       </c>
       <c r="F158" t="s">
-        <v>593</v>
+        <v>504</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="B159" t="s">
         <v>744</v>
@@ -8863,18 +9194,18 @@
         <v>739</v>
       </c>
       <c r="D159" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
       <c r="E159" t="s">
-        <v>587</v>
+        <v>559</v>
       </c>
       <c r="F159" t="s">
-        <v>594</v>
+        <v>505</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="B160" t="s">
         <v>744</v>
@@ -8883,18 +9214,18 @@
         <v>739</v>
       </c>
       <c r="D160" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="E160" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="F160" t="s">
-        <v>595</v>
+        <v>506</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="B161" t="s">
         <v>744</v>
@@ -8903,18 +9234,18 @@
         <v>739</v>
       </c>
       <c r="D161" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
       <c r="E161" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="F161" t="s">
-        <v>596</v>
+        <v>507</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="B162" t="s">
         <v>744</v>
@@ -8923,12 +9254,552 @@
         <v>739</v>
       </c>
       <c r="D162" t="s">
+        <v>363</v>
+      </c>
+      <c r="E162" t="s">
+        <v>563</v>
+      </c>
+      <c r="F162" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A163" t="s">
+        <v>231</v>
+      </c>
+      <c r="B163" t="s">
+        <v>744</v>
+      </c>
+      <c r="C163" t="s">
+        <v>739</v>
+      </c>
+      <c r="D163" t="s">
+        <v>364</v>
+      </c>
+      <c r="E163" t="s">
+        <v>564</v>
+      </c>
+      <c r="F163" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A164" t="s">
+        <v>232</v>
+      </c>
+      <c r="B164" t="s">
+        <v>744</v>
+      </c>
+      <c r="C164" t="s">
+        <v>739</v>
+      </c>
+      <c r="D164" t="s">
+        <v>365</v>
+      </c>
+      <c r="E164" t="s">
+        <v>565</v>
+      </c>
+      <c r="F164" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A165" t="s">
+        <v>233</v>
+      </c>
+      <c r="B165" t="s">
+        <v>744</v>
+      </c>
+      <c r="C165" t="s">
+        <v>739</v>
+      </c>
+      <c r="D165" t="s">
+        <v>366</v>
+      </c>
+      <c r="E165" t="s">
+        <v>566</v>
+      </c>
+      <c r="F165" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A166" t="s">
+        <v>234</v>
+      </c>
+      <c r="B166" t="s">
+        <v>744</v>
+      </c>
+      <c r="C166" t="s">
+        <v>739</v>
+      </c>
+      <c r="D166" t="s">
+        <v>367</v>
+      </c>
+      <c r="E166" t="s">
+        <v>567</v>
+      </c>
+      <c r="F166" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A167" t="s">
+        <v>235</v>
+      </c>
+      <c r="B167" t="s">
+        <v>744</v>
+      </c>
+      <c r="C167" t="s">
+        <v>739</v>
+      </c>
+      <c r="D167" t="s">
+        <v>368</v>
+      </c>
+      <c r="E167" t="s">
+        <v>568</v>
+      </c>
+      <c r="F167" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A168" t="s">
+        <v>236</v>
+      </c>
+      <c r="B168" t="s">
+        <v>744</v>
+      </c>
+      <c r="C168" t="s">
+        <v>739</v>
+      </c>
+      <c r="D168" t="s">
+        <v>369</v>
+      </c>
+      <c r="E168" t="s">
+        <v>569</v>
+      </c>
+      <c r="F168" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A169" t="s">
+        <v>237</v>
+      </c>
+      <c r="B169" t="s">
+        <v>744</v>
+      </c>
+      <c r="C169" t="s">
+        <v>739</v>
+      </c>
+      <c r="D169" t="s">
+        <v>370</v>
+      </c>
+      <c r="E169" t="s">
+        <v>570</v>
+      </c>
+      <c r="F169" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A170" t="s">
+        <v>238</v>
+      </c>
+      <c r="B170" t="s">
+        <v>744</v>
+      </c>
+      <c r="C170" t="s">
+        <v>739</v>
+      </c>
+      <c r="D170" t="s">
+        <v>371</v>
+      </c>
+      <c r="E170" t="s">
+        <v>571</v>
+      </c>
+      <c r="F170" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A171" t="s">
+        <v>239</v>
+      </c>
+      <c r="B171" t="s">
+        <v>744</v>
+      </c>
+      <c r="C171" t="s">
+        <v>739</v>
+      </c>
+      <c r="D171" t="s">
+        <v>372</v>
+      </c>
+      <c r="E171" t="s">
+        <v>572</v>
+      </c>
+      <c r="F171" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A172" t="s">
+        <v>240</v>
+      </c>
+      <c r="B172" t="s">
+        <v>744</v>
+      </c>
+      <c r="C172" t="s">
+        <v>739</v>
+      </c>
+      <c r="D172" t="s">
+        <v>373</v>
+      </c>
+      <c r="E172" t="s">
+        <v>573</v>
+      </c>
+      <c r="F172" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A173" t="s">
+        <v>241</v>
+      </c>
+      <c r="B173" t="s">
+        <v>744</v>
+      </c>
+      <c r="C173" t="s">
+        <v>739</v>
+      </c>
+      <c r="D173" t="s">
+        <v>374</v>
+      </c>
+      <c r="E173" t="s">
+        <v>574</v>
+      </c>
+      <c r="F173" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A174" t="s">
+        <v>242</v>
+      </c>
+      <c r="B174" t="s">
+        <v>744</v>
+      </c>
+      <c r="C174" t="s">
+        <v>739</v>
+      </c>
+      <c r="D174" t="s">
+        <v>375</v>
+      </c>
+      <c r="E174" t="s">
+        <v>575</v>
+      </c>
+      <c r="F174" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A175" t="s">
+        <v>243</v>
+      </c>
+      <c r="B175" t="s">
+        <v>744</v>
+      </c>
+      <c r="C175" t="s">
+        <v>739</v>
+      </c>
+      <c r="D175" t="s">
+        <v>376</v>
+      </c>
+      <c r="E175" t="s">
+        <v>576</v>
+      </c>
+      <c r="F175" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A176" t="s">
+        <v>244</v>
+      </c>
+      <c r="B176" t="s">
+        <v>744</v>
+      </c>
+      <c r="C176" t="s">
+        <v>739</v>
+      </c>
+      <c r="D176" t="s">
+        <v>377</v>
+      </c>
+      <c r="E176" t="s">
+        <v>577</v>
+      </c>
+      <c r="F176" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A177" t="s">
+        <v>245</v>
+      </c>
+      <c r="B177" t="s">
+        <v>744</v>
+      </c>
+      <c r="C177" t="s">
+        <v>739</v>
+      </c>
+      <c r="D177" t="s">
+        <v>378</v>
+      </c>
+      <c r="E177" t="s">
+        <v>578</v>
+      </c>
+      <c r="F177" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A178" t="s">
+        <v>246</v>
+      </c>
+      <c r="B178" t="s">
+        <v>744</v>
+      </c>
+      <c r="C178" t="s">
+        <v>739</v>
+      </c>
+      <c r="D178" t="s">
+        <v>379</v>
+      </c>
+      <c r="E178" t="s">
+        <v>590</v>
+      </c>
+      <c r="F178" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A179" t="s">
+        <v>247</v>
+      </c>
+      <c r="B179" t="s">
+        <v>744</v>
+      </c>
+      <c r="C179" t="s">
+        <v>739</v>
+      </c>
+      <c r="D179" t="s">
+        <v>380</v>
+      </c>
+      <c r="E179" t="s">
+        <v>589</v>
+      </c>
+      <c r="F179" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A180" t="s">
+        <v>248</v>
+      </c>
+      <c r="B180" t="s">
+        <v>744</v>
+      </c>
+      <c r="C180" t="s">
+        <v>739</v>
+      </c>
+      <c r="D180" t="s">
+        <v>381</v>
+      </c>
+      <c r="E180" t="s">
+        <v>588</v>
+      </c>
+      <c r="F180" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A181" t="s">
+        <v>249</v>
+      </c>
+      <c r="B181" t="s">
+        <v>744</v>
+      </c>
+      <c r="C181" t="s">
+        <v>739</v>
+      </c>
+      <c r="D181" t="s">
+        <v>382</v>
+      </c>
+      <c r="E181" t="s">
+        <v>582</v>
+      </c>
+      <c r="F181" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A182" t="s">
+        <v>250</v>
+      </c>
+      <c r="B182" t="s">
+        <v>744</v>
+      </c>
+      <c r="C182" t="s">
+        <v>739</v>
+      </c>
+      <c r="D182" t="s">
+        <v>383</v>
+      </c>
+      <c r="E182" t="s">
+        <v>583</v>
+      </c>
+      <c r="F182" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A183" t="s">
+        <v>251</v>
+      </c>
+      <c r="B183" t="s">
+        <v>744</v>
+      </c>
+      <c r="C183" t="s">
+        <v>739</v>
+      </c>
+      <c r="D183" t="s">
+        <v>384</v>
+      </c>
+      <c r="E183" t="s">
+        <v>584</v>
+      </c>
+      <c r="F183" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A184" t="s">
+        <v>252</v>
+      </c>
+      <c r="B184" t="s">
+        <v>744</v>
+      </c>
+      <c r="C184" t="s">
+        <v>739</v>
+      </c>
+      <c r="D184" t="s">
+        <v>385</v>
+      </c>
+      <c r="E184" t="s">
+        <v>585</v>
+      </c>
+      <c r="F184" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A185" t="s">
+        <v>253</v>
+      </c>
+      <c r="B185" t="s">
+        <v>744</v>
+      </c>
+      <c r="C185" t="s">
+        <v>739</v>
+      </c>
+      <c r="D185" t="s">
+        <v>386</v>
+      </c>
+      <c r="E185" t="s">
+        <v>586</v>
+      </c>
+      <c r="F185" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A186" t="s">
+        <v>254</v>
+      </c>
+      <c r="B186" t="s">
+        <v>744</v>
+      </c>
+      <c r="C186" t="s">
+        <v>739</v>
+      </c>
+      <c r="D186" t="s">
+        <v>387</v>
+      </c>
+      <c r="E186" t="s">
+        <v>587</v>
+      </c>
+      <c r="F186" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A187" t="s">
+        <v>255</v>
+      </c>
+      <c r="B187" t="s">
+        <v>744</v>
+      </c>
+      <c r="C187" t="s">
+        <v>739</v>
+      </c>
+      <c r="D187" t="s">
+        <v>388</v>
+      </c>
+      <c r="E187" t="s">
+        <v>579</v>
+      </c>
+      <c r="F187" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A188" t="s">
+        <v>256</v>
+      </c>
+      <c r="B188" t="s">
+        <v>744</v>
+      </c>
+      <c r="C188" t="s">
+        <v>739</v>
+      </c>
+      <c r="D188" t="s">
+        <v>389</v>
+      </c>
+      <c r="E188" t="s">
+        <v>580</v>
+      </c>
+      <c r="F188" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A189" t="s">
+        <v>257</v>
+      </c>
+      <c r="B189" t="s">
+        <v>744</v>
+      </c>
+      <c r="C189" t="s">
+        <v>739</v>
+      </c>
+      <c r="D189" t="s">
         <v>390</v>
       </c>
-      <c r="E162" t="s">
+      <c r="E189" t="s">
         <v>581</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F189" t="s">
         <v>597</v>
       </c>
     </row>

--- a/HoI2Editor/Documents/Design/scenario.xlsx
+++ b/HoI2Editor/Documents/Design/scenario.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="1095">
   <si>
     <t>シナリオファイルの構成</t>
     <rPh sb="9" eb="11">
@@ -2361,10 +2361,6 @@
     <t>nuclearPowerRelativeTextBox</t>
   </si>
   <si>
-    <t>CountryName</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CountryFlagExt</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2475,10 +2471,6 @@
     <t>CountryOffmapIc</t>
   </si>
   <si>
-    <t>CountrySettings.ItemId.Name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CountrySettings.ItemId.FlagExt</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2627,10 +2619,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>country name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>country flag ext</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2764,10 +2752,6 @@
   </si>
   <si>
     <t>country offmap ic</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>countryNameTextBox</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3583,6 +3567,647 @@
   </si>
   <si>
     <t>relationValueTextBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AllianceName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Alliance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Alliance.ItemId.Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alliance name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>allianceNameTextBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AllianceType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Alliance.ItemId.Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AllianceId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Alliance.ItemId.Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alliance type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alliance id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>allianceTypeTextBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>allianceIdTextBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WarStartYear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WarStartMonth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WarEndYear</t>
+  </si>
+  <si>
+    <t>WarEndMonth</t>
+  </si>
+  <si>
+    <t>WarEndDay</t>
+  </si>
+  <si>
+    <t>WarId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>War.ItemId.StartYear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>War.ItemId.StartMonth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>War.ItemId.StartDay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>War.ItemId.EndYear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>War.ItemId.EndMonth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>War.ItemId.EndDay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>War.ItemId.Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>War.ItemId.Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>War.ItemId.AttackerType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>War.ItemId.AttackerId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>War.ItemId.DefenderId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>War.ItemId.DefenderType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>war start year</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>war start month</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>war start day</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>war end year</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>war end month</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>war end day</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>war type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>war id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>war defender id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>war attacker type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>war attacker id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>war defender type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>warEndYearTextBox</t>
+  </si>
+  <si>
+    <t>warEndMonthTextBox</t>
+  </si>
+  <si>
+    <t>warEndDayTextBox</t>
+  </si>
+  <si>
+    <t>WarStartDay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>warStartYearTextBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>warStartMonthTextBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>warStartDayTextBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>warTypeTextBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>warIdTextBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WarType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WarAttackerType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WarAttackerId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WarDefenderType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WarDefenderId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>warAttackerTypeTextBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>warAttackerIdTextBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>warDefenderTypeTextBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>warDefenderIdTextBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScenarioName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScenarioStartYear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScenarioStartMonth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScenarioStartDay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScenarioEndYear</t>
+  </si>
+  <si>
+    <t>ScenarioEndMonth</t>
+  </si>
+  <si>
+    <t>ScenarioEndDay</t>
+  </si>
+  <si>
+    <t>ScenarioIncludeFolder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScenarioFreeSelection</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScenarioAllowDiplomacy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScenarioAllowProduction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScenarioAllowTechnology</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScenarioAiAggressive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScenarioDifficulty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScenarioGameSpeed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scenario.ItemId.Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scenario.ItemId.PanelName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScenarioPanelName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scenario.ItemId.StartYear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scenario.ItemId.StartMonth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scenario.ItemId.StartDay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scenario.ItemId.EndYear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scenario.ItemId.EndMonth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scenario.ItemId.EndDay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scenario.ItemId.IncludeFolder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scenario.ItemId.BattleScenario</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scenario.ItemId.FreeSelection</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScenarioBattleScenario</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scenario.ItemId.AllowDiplomacy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scenario.ItemId.AllowProduction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scenario.ItemId.AllowTechnology</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scenario.ItemId.AiAggressive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scenario.ItemId.Difficulty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scenario.ItemId.GameSpeed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MajorCountrySettings.ItemId.PictureName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scenario name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scenario end year</t>
+  </si>
+  <si>
+    <t>scenario end month</t>
+  </si>
+  <si>
+    <t>scenario end day</t>
+  </si>
+  <si>
+    <t>scenario start year</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scenario start day</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scenario start month</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>battle scenario</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>include folder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>panel name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>free selection</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>allow diplomacy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>allow production</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>allow technology</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ai aggressive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>difficulty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>game speed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MajorFlagExt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MajorPropaganada</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MajorCountrySettings.ItemId.FlagExt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>major flag ext</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>propaganda image</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scenarioNameTextBox</t>
+  </si>
+  <si>
+    <t>panelImageTextBox</t>
+  </si>
+  <si>
+    <t>startYearTextBox</t>
+  </si>
+  <si>
+    <t>startMonthTextBox</t>
+  </si>
+  <si>
+    <t>startDayTextBox</t>
+  </si>
+  <si>
+    <t>endYearTextBox</t>
+  </si>
+  <si>
+    <t>endMonthTextBox</t>
+  </si>
+  <si>
+    <t>endDayTextBox</t>
+  </si>
+  <si>
+    <t>includeFolderTextBox</t>
+  </si>
+  <si>
+    <t>battleScenarioCheckBox</t>
+  </si>
+  <si>
+    <t>freeCountryCheckBox</t>
+  </si>
+  <si>
+    <t>allowDiplomacyCheckBox</t>
+  </si>
+  <si>
+    <t>allowProductionCheckBox</t>
+  </si>
+  <si>
+    <t>allowTechnologyCheckBox</t>
+  </si>
+  <si>
+    <t>aiAggressiveComboBox</t>
+  </si>
+  <si>
+    <t>difficultyComboBox</t>
+  </si>
+  <si>
+    <t>gameSpeedComboBox</t>
+  </si>
+  <si>
+    <t>majorFlagExtTextBox</t>
+  </si>
+  <si>
+    <t>propagandaTextBox</t>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MajorCountryNameKey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MajorCountryNameString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MajorCountryDescKey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MajorCountryDescString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MajorCountrySettings.ItemId.DescString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MajorCountrySettings.ItemId.NameString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>major country name string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country desc string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country desc key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>major country name key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>majorCountryNameKeyTextBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>majorCountryNameStringTextBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MajorCountrySettings.ItemId.NameKey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MajorCountrySettings.ItemId.DescKey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>countryDescKeyTextBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>countryDescStringTextBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountryNameString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountryNameKey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.NameKey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountrySettings.ItemId.NameString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country name key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country name string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>countryNameKeyTextBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>countryNameStringTextBox</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6007,11 +6632,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F189"/>
+  <dimension ref="A1:F228"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6028,10 +6651,10 @@
         <v>258</v>
       </c>
       <c r="B1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D1" t="s">
         <v>391</v>
@@ -6045,3761 +6668,4541 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>837</v>
+        <v>990</v>
       </c>
       <c r="B2" t="s">
-        <v>859</v>
+        <v>1005</v>
       </c>
       <c r="C2" t="s">
-        <v>739</v>
+        <v>1006</v>
       </c>
       <c r="D2" t="s">
-        <v>862</v>
+        <v>1007</v>
       </c>
       <c r="E2" t="s">
-        <v>868</v>
+        <v>1027</v>
       </c>
       <c r="F2" t="s">
-        <v>930</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>838</v>
+        <v>1009</v>
       </c>
       <c r="B3" t="s">
-        <v>859</v>
+        <v>1005</v>
       </c>
       <c r="C3" t="s">
-        <v>743</v>
+        <v>1006</v>
       </c>
       <c r="D3" t="s">
-        <v>866</v>
+        <v>1008</v>
       </c>
       <c r="E3" t="s">
-        <v>869</v>
+        <v>1036</v>
       </c>
       <c r="F3" t="s">
-        <v>891</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>839</v>
+        <v>991</v>
       </c>
       <c r="B4" t="s">
-        <v>859</v>
+        <v>1005</v>
       </c>
       <c r="C4" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="D4" t="s">
-        <v>865</v>
+        <v>1010</v>
       </c>
       <c r="E4" t="s">
-        <v>870</v>
+        <v>1031</v>
       </c>
       <c r="F4" t="s">
-        <v>892</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>927</v>
+        <v>992</v>
       </c>
       <c r="B5" t="s">
-        <v>859</v>
+        <v>1005</v>
       </c>
       <c r="C5" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="D5" t="s">
-        <v>863</v>
+        <v>1011</v>
       </c>
       <c r="E5" t="s">
-        <v>871</v>
+        <v>1033</v>
       </c>
       <c r="F5" t="s">
-        <v>893</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>913</v>
+        <v>993</v>
       </c>
       <c r="B6" t="s">
-        <v>859</v>
+        <v>1005</v>
       </c>
       <c r="C6" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="D6" t="s">
-        <v>917</v>
+        <v>1012</v>
       </c>
       <c r="E6" t="s">
-        <v>921</v>
+        <v>1032</v>
       </c>
       <c r="F6" t="s">
-        <v>925</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>914</v>
+        <v>994</v>
       </c>
       <c r="B7" t="s">
-        <v>859</v>
+        <v>1005</v>
       </c>
       <c r="C7" t="s">
-        <v>860</v>
+        <v>734</v>
       </c>
       <c r="D7" t="s">
-        <v>918</v>
+        <v>1013</v>
       </c>
       <c r="E7" t="s">
-        <v>922</v>
+        <v>1028</v>
       </c>
       <c r="F7" t="s">
-        <v>926</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>915</v>
+        <v>995</v>
       </c>
       <c r="B8" t="s">
-        <v>859</v>
+        <v>1005</v>
       </c>
       <c r="C8" t="s">
-        <v>860</v>
+        <v>734</v>
       </c>
       <c r="D8" t="s">
-        <v>919</v>
+        <v>1014</v>
       </c>
       <c r="E8" t="s">
-        <v>923</v>
+        <v>1029</v>
       </c>
       <c r="F8" t="s">
-        <v>928</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>916</v>
+        <v>996</v>
       </c>
       <c r="B9" t="s">
-        <v>859</v>
+        <v>1005</v>
       </c>
       <c r="C9" t="s">
-        <v>860</v>
+        <v>734</v>
       </c>
       <c r="D9" t="s">
-        <v>920</v>
+        <v>1015</v>
       </c>
       <c r="E9" t="s">
-        <v>924</v>
+        <v>1030</v>
       </c>
       <c r="F9" t="s">
-        <v>929</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>840</v>
+        <v>997</v>
       </c>
       <c r="B10" t="s">
-        <v>859</v>
+        <v>1005</v>
       </c>
       <c r="C10" t="s">
-        <v>861</v>
+        <v>1006</v>
       </c>
       <c r="D10" t="s">
-        <v>864</v>
+        <v>1016</v>
       </c>
       <c r="E10" t="s">
-        <v>874</v>
+        <v>1035</v>
       </c>
       <c r="F10" t="s">
-        <v>894</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>844</v>
+        <v>1019</v>
       </c>
       <c r="B11" t="s">
-        <v>859</v>
+        <v>1005</v>
       </c>
       <c r="C11" t="s">
-        <v>860</v>
+        <v>739</v>
       </c>
       <c r="D11" t="s">
-        <v>778</v>
+        <v>1017</v>
       </c>
       <c r="E11" t="s">
-        <v>875</v>
+        <v>1034</v>
       </c>
       <c r="F11" t="s">
-        <v>895</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>845</v>
+        <v>998</v>
       </c>
       <c r="B12" t="s">
-        <v>859</v>
+        <v>1005</v>
       </c>
       <c r="C12" t="s">
-        <v>860</v>
+        <v>739</v>
       </c>
       <c r="D12" t="s">
-        <v>781</v>
+        <v>1018</v>
       </c>
       <c r="E12" t="s">
-        <v>882</v>
+        <v>1037</v>
       </c>
       <c r="F12" t="s">
-        <v>896</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>846</v>
+        <v>999</v>
       </c>
       <c r="B13" t="s">
-        <v>859</v>
+        <v>1005</v>
       </c>
       <c r="C13" t="s">
-        <v>860</v>
+        <v>739</v>
       </c>
       <c r="D13" t="s">
-        <v>782</v>
+        <v>1020</v>
       </c>
       <c r="E13" t="s">
-        <v>883</v>
+        <v>1038</v>
       </c>
       <c r="F13" t="s">
-        <v>897</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>841</v>
+        <v>1000</v>
       </c>
       <c r="B14" t="s">
-        <v>859</v>
+        <v>1005</v>
       </c>
       <c r="C14" t="s">
-        <v>860</v>
+        <v>739</v>
       </c>
       <c r="D14" t="s">
-        <v>779</v>
+        <v>1021</v>
       </c>
       <c r="E14" t="s">
-        <v>884</v>
+        <v>1039</v>
       </c>
       <c r="F14" t="s">
-        <v>898</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>842</v>
+        <v>1001</v>
       </c>
       <c r="B15" t="s">
-        <v>859</v>
+        <v>1005</v>
       </c>
       <c r="C15" t="s">
-        <v>860</v>
+        <v>739</v>
       </c>
       <c r="D15" t="s">
-        <v>780</v>
+        <v>1022</v>
       </c>
       <c r="E15" t="s">
-        <v>885</v>
+        <v>1040</v>
       </c>
       <c r="F15" t="s">
-        <v>899</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>843</v>
+        <v>1002</v>
       </c>
       <c r="B16" t="s">
-        <v>859</v>
+        <v>1005</v>
       </c>
       <c r="C16" t="s">
-        <v>860</v>
+        <v>734</v>
       </c>
       <c r="D16" t="s">
-        <v>783</v>
+        <v>1023</v>
       </c>
       <c r="E16" t="s">
-        <v>886</v>
+        <v>1041</v>
       </c>
       <c r="F16" t="s">
-        <v>900</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>847</v>
+        <v>1003</v>
       </c>
       <c r="B17" t="s">
-        <v>859</v>
+        <v>1005</v>
       </c>
       <c r="C17" t="s">
-        <v>860</v>
+        <v>734</v>
       </c>
       <c r="D17" t="s">
-        <v>819</v>
+        <v>1024</v>
       </c>
       <c r="E17" t="s">
-        <v>887</v>
+        <v>1042</v>
       </c>
       <c r="F17" t="s">
-        <v>901</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>848</v>
+        <v>1004</v>
       </c>
       <c r="B18" t="s">
-        <v>859</v>
+        <v>1005</v>
       </c>
       <c r="C18" t="s">
-        <v>860</v>
+        <v>734</v>
       </c>
       <c r="D18" t="s">
-        <v>784</v>
+        <v>1025</v>
       </c>
       <c r="E18" t="s">
-        <v>888</v>
+        <v>1043</v>
       </c>
       <c r="F18" t="s">
-        <v>902</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>849</v>
+        <v>1070</v>
       </c>
       <c r="B19" t="s">
-        <v>859</v>
+        <v>1045</v>
       </c>
       <c r="C19" t="s">
-        <v>743</v>
+        <v>1006</v>
       </c>
       <c r="D19" t="s">
-        <v>864</v>
+        <v>1083</v>
       </c>
       <c r="E19" t="s">
-        <v>889</v>
+        <v>1080</v>
       </c>
       <c r="F19" t="s">
-        <v>903</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>850</v>
+        <v>1071</v>
       </c>
       <c r="B20" t="s">
-        <v>859</v>
+        <v>1069</v>
       </c>
       <c r="C20" t="s">
-        <v>860</v>
+        <v>733</v>
       </c>
       <c r="D20" t="s">
-        <v>778</v>
+        <v>1076</v>
       </c>
       <c r="E20" t="s">
-        <v>876</v>
+        <v>1077</v>
       </c>
       <c r="F20" t="s">
-        <v>904</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>851</v>
+        <v>1044</v>
       </c>
       <c r="B21" t="s">
-        <v>859</v>
+        <v>1045</v>
       </c>
       <c r="C21" t="s">
-        <v>860</v>
+        <v>1006</v>
       </c>
       <c r="D21" t="s">
-        <v>781</v>
+        <v>1047</v>
       </c>
       <c r="E21" t="s">
-        <v>877</v>
+        <v>1048</v>
       </c>
       <c r="F21" t="s">
-        <v>905</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>852</v>
+        <v>1072</v>
       </c>
       <c r="B22" t="s">
-        <v>859</v>
+        <v>1005</v>
       </c>
       <c r="C22" t="s">
-        <v>860</v>
+        <v>1006</v>
       </c>
       <c r="D22" t="s">
-        <v>782</v>
+        <v>1084</v>
       </c>
       <c r="E22" t="s">
-        <v>878</v>
+        <v>1079</v>
       </c>
       <c r="F22" t="s">
-        <v>906</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>853</v>
+        <v>1073</v>
       </c>
       <c r="B23" t="s">
-        <v>859</v>
+        <v>1005</v>
       </c>
       <c r="C23" t="s">
-        <v>860</v>
+        <v>1074</v>
       </c>
       <c r="D23" t="s">
-        <v>779</v>
+        <v>1075</v>
       </c>
       <c r="E23" t="s">
-        <v>879</v>
+        <v>1078</v>
       </c>
       <c r="F23" t="s">
-        <v>907</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>854</v>
+        <v>1046</v>
       </c>
       <c r="B24" t="s">
-        <v>859</v>
+        <v>1005</v>
       </c>
       <c r="C24" t="s">
-        <v>860</v>
+        <v>1006</v>
       </c>
       <c r="D24" t="s">
-        <v>780</v>
+        <v>1026</v>
       </c>
       <c r="E24" t="s">
-        <v>880</v>
+        <v>1049</v>
       </c>
       <c r="F24" t="s">
-        <v>908</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>855</v>
+        <v>927</v>
       </c>
       <c r="B25" t="s">
-        <v>859</v>
+        <v>928</v>
       </c>
       <c r="C25" t="s">
-        <v>860</v>
+        <v>929</v>
       </c>
       <c r="D25" t="s">
-        <v>783</v>
+        <v>930</v>
       </c>
       <c r="E25" t="s">
-        <v>881</v>
+        <v>931</v>
       </c>
       <c r="F25" t="s">
-        <v>909</v>
+        <v>932</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>856</v>
+        <v>933</v>
       </c>
       <c r="B26" t="s">
-        <v>859</v>
+        <v>928</v>
       </c>
       <c r="C26" t="s">
-        <v>860</v>
+        <v>934</v>
       </c>
       <c r="D26" t="s">
-        <v>819</v>
+        <v>935</v>
       </c>
       <c r="E26" t="s">
-        <v>872</v>
+        <v>938</v>
       </c>
       <c r="F26" t="s">
-        <v>910</v>
+        <v>940</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>857</v>
+        <v>936</v>
       </c>
       <c r="B27" t="s">
-        <v>859</v>
+        <v>928</v>
       </c>
       <c r="C27" t="s">
-        <v>860</v>
+        <v>934</v>
       </c>
       <c r="D27" t="s">
-        <v>784</v>
+        <v>937</v>
       </c>
       <c r="E27" t="s">
-        <v>873</v>
+        <v>939</v>
       </c>
       <c r="F27" t="s">
-        <v>911</v>
+        <v>941</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>858</v>
+        <v>942</v>
       </c>
       <c r="B28" t="s">
-        <v>859</v>
+        <v>928</v>
       </c>
       <c r="C28" t="s">
-        <v>860</v>
+        <v>934</v>
       </c>
       <c r="D28" t="s">
-        <v>867</v>
+        <v>948</v>
       </c>
       <c r="E28" t="s">
-        <v>890</v>
+        <v>960</v>
       </c>
       <c r="F28" t="s">
-        <v>912</v>
+        <v>976</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>752</v>
+        <v>943</v>
       </c>
       <c r="B29" t="s">
-        <v>774</v>
+        <v>928</v>
       </c>
       <c r="C29" t="s">
-        <v>775</v>
+        <v>934</v>
       </c>
       <c r="D29" t="s">
-        <v>778</v>
+        <v>949</v>
       </c>
       <c r="E29" t="s">
-        <v>795</v>
+        <v>961</v>
       </c>
       <c r="F29" t="s">
-        <v>811</v>
+        <v>977</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>753</v>
+        <v>975</v>
       </c>
       <c r="B30" t="s">
-        <v>774</v>
+        <v>928</v>
       </c>
       <c r="C30" t="s">
-        <v>775</v>
+        <v>934</v>
       </c>
       <c r="D30" t="s">
-        <v>781</v>
+        <v>950</v>
       </c>
       <c r="E30" t="s">
-        <v>799</v>
+        <v>962</v>
       </c>
       <c r="F30" t="s">
-        <v>812</v>
+        <v>978</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>754</v>
+        <v>944</v>
       </c>
       <c r="B31" t="s">
-        <v>774</v>
+        <v>928</v>
       </c>
       <c r="C31" t="s">
-        <v>775</v>
+        <v>934</v>
       </c>
       <c r="D31" t="s">
-        <v>782</v>
+        <v>951</v>
       </c>
       <c r="E31" t="s">
-        <v>800</v>
+        <v>963</v>
       </c>
       <c r="F31" t="s">
-        <v>813</v>
+        <v>972</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>755</v>
+        <v>945</v>
       </c>
       <c r="B32" t="s">
-        <v>774</v>
+        <v>928</v>
       </c>
       <c r="C32" t="s">
-        <v>775</v>
+        <v>934</v>
       </c>
       <c r="D32" t="s">
-        <v>779</v>
+        <v>952</v>
       </c>
       <c r="E32" t="s">
-        <v>796</v>
+        <v>964</v>
       </c>
       <c r="F32" t="s">
-        <v>814</v>
+        <v>973</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>756</v>
+        <v>946</v>
       </c>
       <c r="B33" t="s">
-        <v>774</v>
+        <v>928</v>
       </c>
       <c r="C33" t="s">
-        <v>775</v>
+        <v>934</v>
       </c>
       <c r="D33" t="s">
-        <v>780</v>
+        <v>953</v>
       </c>
       <c r="E33" t="s">
-        <v>797</v>
+        <v>965</v>
       </c>
       <c r="F33" t="s">
-        <v>815</v>
+        <v>974</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>757</v>
+        <v>981</v>
       </c>
       <c r="B34" t="s">
-        <v>774</v>
+        <v>928</v>
       </c>
       <c r="C34" t="s">
-        <v>775</v>
+        <v>934</v>
       </c>
       <c r="D34" t="s">
-        <v>783</v>
+        <v>954</v>
       </c>
       <c r="E34" t="s">
-        <v>798</v>
+        <v>966</v>
       </c>
       <c r="F34" t="s">
-        <v>816</v>
+        <v>979</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>818</v>
+        <v>947</v>
       </c>
       <c r="B35" t="s">
-        <v>774</v>
+        <v>928</v>
       </c>
       <c r="C35" t="s">
-        <v>775</v>
+        <v>934</v>
       </c>
       <c r="D35" t="s">
-        <v>819</v>
+        <v>955</v>
       </c>
       <c r="E35" t="s">
-        <v>820</v>
+        <v>967</v>
       </c>
       <c r="F35" t="s">
-        <v>817</v>
+        <v>980</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>758</v>
+        <v>982</v>
       </c>
       <c r="B36" t="s">
-        <v>774</v>
+        <v>928</v>
       </c>
       <c r="C36" t="s">
-        <v>775</v>
+        <v>934</v>
       </c>
       <c r="D36" t="s">
-        <v>784</v>
+        <v>956</v>
       </c>
       <c r="E36" t="s">
-        <v>801</v>
+        <v>969</v>
       </c>
       <c r="F36" t="s">
-        <v>821</v>
+        <v>986</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>759</v>
+        <v>983</v>
       </c>
       <c r="B37" t="s">
-        <v>774</v>
+        <v>928</v>
       </c>
       <c r="C37" t="s">
-        <v>776</v>
+        <v>934</v>
       </c>
       <c r="D37" t="s">
-        <v>785</v>
+        <v>957</v>
       </c>
       <c r="E37" t="s">
-        <v>802</v>
+        <v>970</v>
       </c>
       <c r="F37" t="s">
-        <v>822</v>
+        <v>987</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>760</v>
+        <v>984</v>
       </c>
       <c r="B38" t="s">
-        <v>774</v>
+        <v>928</v>
       </c>
       <c r="C38" t="s">
-        <v>777</v>
+        <v>934</v>
       </c>
       <c r="D38" t="s">
-        <v>786</v>
+        <v>959</v>
       </c>
       <c r="E38" t="s">
-        <v>803</v>
+        <v>971</v>
       </c>
       <c r="F38" t="s">
-        <v>823</v>
+        <v>988</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>761</v>
+        <v>985</v>
       </c>
       <c r="B39" t="s">
-        <v>774</v>
+        <v>928</v>
       </c>
       <c r="C39" t="s">
-        <v>777</v>
+        <v>934</v>
       </c>
       <c r="D39" t="s">
-        <v>787</v>
+        <v>958</v>
       </c>
       <c r="E39" t="s">
-        <v>804</v>
+        <v>968</v>
       </c>
       <c r="F39" t="s">
-        <v>824</v>
+        <v>989</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>762</v>
+        <v>833</v>
       </c>
       <c r="B40" t="s">
-        <v>774</v>
+        <v>855</v>
       </c>
       <c r="C40" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D40" t="s">
-        <v>789</v>
+        <v>858</v>
       </c>
       <c r="E40" t="s">
-        <v>805</v>
+        <v>864</v>
       </c>
       <c r="F40" t="s">
-        <v>825</v>
+        <v>926</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>763</v>
+        <v>834</v>
       </c>
       <c r="B41" t="s">
-        <v>774</v>
+        <v>855</v>
       </c>
       <c r="C41" t="s">
         <v>739</v>
       </c>
       <c r="D41" t="s">
-        <v>788</v>
+        <v>862</v>
       </c>
       <c r="E41" t="s">
-        <v>805</v>
+        <v>865</v>
       </c>
       <c r="F41" t="s">
-        <v>826</v>
+        <v>887</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>764</v>
+        <v>835</v>
       </c>
       <c r="B42" t="s">
-        <v>774</v>
+        <v>855</v>
       </c>
       <c r="C42" t="s">
         <v>739</v>
       </c>
       <c r="D42" t="s">
-        <v>790</v>
+        <v>861</v>
       </c>
       <c r="E42" t="s">
-        <v>806</v>
+        <v>866</v>
       </c>
       <c r="F42" t="s">
-        <v>827</v>
+        <v>888</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>765</v>
+        <v>923</v>
       </c>
       <c r="B43" t="s">
-        <v>774</v>
+        <v>855</v>
       </c>
       <c r="C43" t="s">
         <v>739</v>
       </c>
       <c r="D43" t="s">
-        <v>790</v>
+        <v>859</v>
       </c>
       <c r="E43" t="s">
-        <v>806</v>
+        <v>867</v>
       </c>
       <c r="F43" t="s">
-        <v>828</v>
+        <v>889</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>766</v>
+        <v>909</v>
       </c>
       <c r="B44" t="s">
-        <v>774</v>
+        <v>855</v>
       </c>
       <c r="C44" t="s">
         <v>739</v>
       </c>
       <c r="D44" t="s">
-        <v>791</v>
+        <v>913</v>
       </c>
       <c r="E44" t="s">
-        <v>807</v>
+        <v>917</v>
       </c>
       <c r="F44" t="s">
-        <v>829</v>
+        <v>921</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>767</v>
+        <v>910</v>
       </c>
       <c r="B45" t="s">
-        <v>774</v>
+        <v>855</v>
       </c>
       <c r="C45" t="s">
-        <v>739</v>
+        <v>856</v>
       </c>
       <c r="D45" t="s">
-        <v>791</v>
+        <v>914</v>
       </c>
       <c r="E45" t="s">
-        <v>807</v>
+        <v>918</v>
       </c>
       <c r="F45" t="s">
-        <v>830</v>
+        <v>922</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>768</v>
+        <v>911</v>
       </c>
       <c r="B46" t="s">
-        <v>774</v>
+        <v>855</v>
       </c>
       <c r="C46" t="s">
-        <v>739</v>
+        <v>856</v>
       </c>
       <c r="D46" t="s">
-        <v>792</v>
+        <v>915</v>
       </c>
       <c r="E46" t="s">
-        <v>808</v>
+        <v>919</v>
       </c>
       <c r="F46" t="s">
-        <v>831</v>
+        <v>924</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>769</v>
+        <v>912</v>
       </c>
       <c r="B47" t="s">
-        <v>774</v>
+        <v>855</v>
       </c>
       <c r="C47" t="s">
-        <v>739</v>
+        <v>856</v>
       </c>
       <c r="D47" t="s">
-        <v>792</v>
+        <v>916</v>
       </c>
       <c r="E47" t="s">
-        <v>808</v>
+        <v>920</v>
       </c>
       <c r="F47" t="s">
-        <v>832</v>
+        <v>925</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>770</v>
+        <v>836</v>
       </c>
       <c r="B48" t="s">
-        <v>774</v>
+        <v>855</v>
       </c>
       <c r="C48" t="s">
-        <v>739</v>
+        <v>857</v>
       </c>
       <c r="D48" t="s">
-        <v>793</v>
+        <v>860</v>
       </c>
       <c r="E48" t="s">
-        <v>809</v>
+        <v>870</v>
       </c>
       <c r="F48" t="s">
-        <v>833</v>
+        <v>890</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>771</v>
+        <v>840</v>
       </c>
       <c r="B49" t="s">
+        <v>855</v>
+      </c>
+      <c r="C49" t="s">
+        <v>856</v>
+      </c>
+      <c r="D49" t="s">
         <v>774</v>
       </c>
-      <c r="C49" t="s">
-        <v>739</v>
-      </c>
-      <c r="D49" t="s">
-        <v>793</v>
-      </c>
       <c r="E49" t="s">
-        <v>809</v>
+        <v>871</v>
       </c>
       <c r="F49" t="s">
-        <v>834</v>
+        <v>891</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>772</v>
+        <v>841</v>
       </c>
       <c r="B50" t="s">
-        <v>774</v>
+        <v>855</v>
       </c>
       <c r="C50" t="s">
-        <v>739</v>
+        <v>856</v>
       </c>
       <c r="D50" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
       <c r="E50" t="s">
-        <v>810</v>
+        <v>878</v>
       </c>
       <c r="F50" t="s">
-        <v>835</v>
+        <v>892</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>773</v>
+        <v>842</v>
       </c>
       <c r="B51" t="s">
-        <v>774</v>
+        <v>855</v>
       </c>
       <c r="C51" t="s">
-        <v>739</v>
+        <v>856</v>
       </c>
       <c r="D51" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
       <c r="E51" t="s">
-        <v>810</v>
+        <v>879</v>
       </c>
       <c r="F51" t="s">
-        <v>836</v>
+        <v>893</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>598</v>
+        <v>837</v>
       </c>
       <c r="B52" t="s">
-        <v>736</v>
+        <v>855</v>
       </c>
       <c r="C52" t="s">
-        <v>737</v>
+        <v>856</v>
       </c>
       <c r="D52" t="s">
-        <v>629</v>
+        <v>775</v>
       </c>
       <c r="E52" t="s">
-        <v>667</v>
+        <v>880</v>
       </c>
       <c r="F52" t="s">
-        <v>702</v>
+        <v>894</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>599</v>
+        <v>838</v>
       </c>
       <c r="B53" t="s">
-        <v>736</v>
+        <v>855</v>
       </c>
       <c r="C53" t="s">
-        <v>737</v>
+        <v>856</v>
       </c>
       <c r="D53" t="s">
-        <v>630</v>
+        <v>776</v>
       </c>
       <c r="E53" t="s">
-        <v>668</v>
+        <v>881</v>
       </c>
       <c r="F53" t="s">
-        <v>703</v>
+        <v>895</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>731</v>
+        <v>839</v>
       </c>
       <c r="B54" t="s">
-        <v>736</v>
+        <v>855</v>
       </c>
       <c r="C54" t="s">
-        <v>736</v>
+        <v>856</v>
       </c>
       <c r="D54" t="s">
-        <v>631</v>
+        <v>779</v>
       </c>
       <c r="E54" t="s">
-        <v>669</v>
+        <v>882</v>
       </c>
       <c r="F54" t="s">
-        <v>724</v>
+        <v>896</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>600</v>
+        <v>843</v>
       </c>
       <c r="B55" t="s">
-        <v>736</v>
+        <v>855</v>
       </c>
       <c r="C55" t="s">
-        <v>738</v>
+        <v>856</v>
       </c>
       <c r="D55" t="s">
-        <v>632</v>
+        <v>815</v>
       </c>
       <c r="E55" t="s">
-        <v>670</v>
+        <v>883</v>
       </c>
       <c r="F55" t="s">
-        <v>725</v>
+        <v>897</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>601</v>
+        <v>844</v>
       </c>
       <c r="B56" t="s">
-        <v>736</v>
+        <v>855</v>
       </c>
       <c r="C56" t="s">
-        <v>739</v>
+        <v>856</v>
       </c>
       <c r="D56" t="s">
-        <v>633</v>
+        <v>780</v>
       </c>
       <c r="E56" t="s">
-        <v>671</v>
+        <v>884</v>
       </c>
       <c r="F56" t="s">
-        <v>726</v>
+        <v>898</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>732</v>
+        <v>845</v>
       </c>
       <c r="B57" t="s">
-        <v>736</v>
+        <v>855</v>
       </c>
       <c r="C57" t="s">
         <v>739</v>
       </c>
       <c r="D57" t="s">
-        <v>634</v>
+        <v>860</v>
       </c>
       <c r="E57" t="s">
-        <v>672</v>
+        <v>885</v>
       </c>
       <c r="F57" t="s">
-        <v>704</v>
+        <v>899</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>602</v>
+        <v>846</v>
       </c>
       <c r="B58" t="s">
-        <v>736</v>
+        <v>855</v>
       </c>
       <c r="C58" t="s">
-        <v>740</v>
+        <v>856</v>
       </c>
       <c r="D58" t="s">
-        <v>635</v>
+        <v>774</v>
       </c>
       <c r="E58" t="s">
-        <v>673</v>
+        <v>872</v>
       </c>
       <c r="F58" t="s">
-        <v>727</v>
+        <v>900</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>603</v>
+        <v>847</v>
       </c>
       <c r="B59" t="s">
-        <v>736</v>
+        <v>855</v>
       </c>
       <c r="C59" t="s">
-        <v>741</v>
+        <v>856</v>
       </c>
       <c r="D59" t="s">
-        <v>636</v>
+        <v>777</v>
       </c>
       <c r="E59" t="s">
-        <v>674</v>
+        <v>873</v>
       </c>
       <c r="F59" t="s">
-        <v>705</v>
+        <v>901</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>604</v>
+        <v>848</v>
       </c>
       <c r="B60" t="s">
-        <v>736</v>
+        <v>855</v>
       </c>
       <c r="C60" t="s">
-        <v>740</v>
+        <v>856</v>
       </c>
       <c r="D60" t="s">
-        <v>637</v>
+        <v>778</v>
       </c>
       <c r="E60" t="s">
-        <v>675</v>
+        <v>874</v>
       </c>
       <c r="F60" t="s">
-        <v>706</v>
+        <v>902</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>733</v>
+        <v>849</v>
       </c>
       <c r="B61" t="s">
-        <v>736</v>
+        <v>855</v>
       </c>
       <c r="C61" t="s">
-        <v>740</v>
+        <v>856</v>
       </c>
       <c r="D61" t="s">
-        <v>638</v>
+        <v>775</v>
       </c>
       <c r="E61" t="s">
-        <v>676</v>
+        <v>875</v>
       </c>
       <c r="F61" t="s">
-        <v>707</v>
+        <v>903</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>605</v>
+        <v>850</v>
       </c>
       <c r="B62" t="s">
-        <v>736</v>
+        <v>855</v>
       </c>
       <c r="C62" t="s">
-        <v>739</v>
+        <v>856</v>
       </c>
       <c r="D62" t="s">
-        <v>639</v>
+        <v>776</v>
       </c>
       <c r="E62" t="s">
-        <v>677</v>
+        <v>876</v>
       </c>
       <c r="F62" t="s">
-        <v>746</v>
+        <v>904</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>606</v>
+        <v>851</v>
       </c>
       <c r="B63" t="s">
-        <v>736</v>
+        <v>855</v>
       </c>
       <c r="C63" t="s">
-        <v>739</v>
+        <v>856</v>
       </c>
       <c r="D63" t="s">
-        <v>641</v>
+        <v>779</v>
       </c>
       <c r="E63" t="s">
-        <v>678</v>
+        <v>877</v>
       </c>
       <c r="F63" t="s">
-        <v>747</v>
+        <v>905</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>607</v>
+        <v>852</v>
       </c>
       <c r="B64" t="s">
-        <v>736</v>
+        <v>855</v>
       </c>
       <c r="C64" t="s">
-        <v>739</v>
+        <v>856</v>
       </c>
       <c r="D64" t="s">
-        <v>642</v>
+        <v>815</v>
       </c>
       <c r="E64" t="s">
-        <v>679</v>
+        <v>868</v>
       </c>
       <c r="F64" t="s">
-        <v>748</v>
+        <v>906</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>608</v>
+        <v>853</v>
       </c>
       <c r="B65" t="s">
-        <v>736</v>
+        <v>855</v>
       </c>
       <c r="C65" t="s">
-        <v>739</v>
+        <v>856</v>
       </c>
       <c r="D65" t="s">
-        <v>643</v>
+        <v>780</v>
       </c>
       <c r="E65" t="s">
-        <v>680</v>
+        <v>869</v>
       </c>
       <c r="F65" t="s">
-        <v>749</v>
+        <v>907</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>745</v>
+        <v>854</v>
       </c>
       <c r="B66" t="s">
-        <v>736</v>
+        <v>855</v>
       </c>
       <c r="C66" t="s">
-        <v>739</v>
+        <v>856</v>
       </c>
       <c r="D66" t="s">
-        <v>644</v>
+        <v>863</v>
       </c>
       <c r="E66" t="s">
-        <v>681</v>
+        <v>886</v>
       </c>
       <c r="F66" t="s">
-        <v>750</v>
+        <v>908</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>609</v>
+        <v>748</v>
       </c>
       <c r="B67" t="s">
-        <v>736</v>
+        <v>770</v>
       </c>
       <c r="C67" t="s">
-        <v>739</v>
+        <v>771</v>
       </c>
       <c r="D67" t="s">
-        <v>645</v>
+        <v>774</v>
       </c>
       <c r="E67" t="s">
-        <v>682</v>
+        <v>791</v>
       </c>
       <c r="F67" t="s">
-        <v>708</v>
+        <v>807</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>610</v>
+        <v>749</v>
       </c>
       <c r="B68" t="s">
-        <v>736</v>
+        <v>770</v>
       </c>
       <c r="C68" t="s">
-        <v>739</v>
+        <v>771</v>
       </c>
       <c r="D68" t="s">
-        <v>646</v>
+        <v>777</v>
       </c>
       <c r="E68" t="s">
-        <v>683</v>
+        <v>795</v>
       </c>
       <c r="F68" t="s">
-        <v>709</v>
+        <v>808</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>611</v>
+        <v>750</v>
       </c>
       <c r="B69" t="s">
-        <v>736</v>
+        <v>770</v>
       </c>
       <c r="C69" t="s">
-        <v>739</v>
+        <v>771</v>
       </c>
       <c r="D69" t="s">
-        <v>647</v>
+        <v>778</v>
       </c>
       <c r="E69" t="s">
-        <v>684</v>
+        <v>796</v>
       </c>
       <c r="F69" t="s">
-        <v>728</v>
+        <v>809</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>612</v>
+        <v>751</v>
       </c>
       <c r="B70" t="s">
-        <v>736</v>
+        <v>770</v>
       </c>
       <c r="C70" t="s">
-        <v>739</v>
+        <v>771</v>
       </c>
       <c r="D70" t="s">
-        <v>648</v>
+        <v>775</v>
       </c>
       <c r="E70" t="s">
-        <v>685</v>
+        <v>792</v>
       </c>
       <c r="F70" t="s">
-        <v>710</v>
+        <v>810</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>613</v>
+        <v>752</v>
       </c>
       <c r="B71" t="s">
-        <v>736</v>
+        <v>770</v>
       </c>
       <c r="C71" t="s">
-        <v>739</v>
+        <v>771</v>
       </c>
       <c r="D71" t="s">
-        <v>649</v>
+        <v>776</v>
       </c>
       <c r="E71" t="s">
-        <v>686</v>
+        <v>793</v>
       </c>
       <c r="F71" t="s">
-        <v>729</v>
+        <v>811</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>614</v>
+        <v>753</v>
       </c>
       <c r="B72" t="s">
-        <v>736</v>
+        <v>770</v>
       </c>
       <c r="C72" t="s">
-        <v>739</v>
+        <v>771</v>
       </c>
       <c r="D72" t="s">
-        <v>650</v>
+        <v>779</v>
       </c>
       <c r="E72" t="s">
-        <v>687</v>
+        <v>794</v>
       </c>
       <c r="F72" t="s">
-        <v>711</v>
+        <v>812</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>615</v>
+        <v>814</v>
       </c>
       <c r="B73" t="s">
-        <v>736</v>
+        <v>770</v>
       </c>
       <c r="C73" t="s">
-        <v>740</v>
+        <v>771</v>
       </c>
       <c r="D73" t="s">
-        <v>651</v>
+        <v>815</v>
       </c>
       <c r="E73" t="s">
-        <v>688</v>
+        <v>816</v>
       </c>
       <c r="F73" t="s">
-        <v>712</v>
+        <v>813</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>616</v>
+        <v>754</v>
       </c>
       <c r="B74" t="s">
-        <v>736</v>
+        <v>770</v>
       </c>
       <c r="C74" t="s">
-        <v>740</v>
+        <v>771</v>
       </c>
       <c r="D74" t="s">
-        <v>652</v>
+        <v>780</v>
       </c>
       <c r="E74" t="s">
-        <v>689</v>
+        <v>797</v>
       </c>
       <c r="F74" t="s">
-        <v>713</v>
+        <v>817</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>617</v>
+        <v>755</v>
       </c>
       <c r="B75" t="s">
-        <v>736</v>
+        <v>770</v>
       </c>
       <c r="C75" t="s">
-        <v>739</v>
+        <v>772</v>
       </c>
       <c r="D75" t="s">
-        <v>656</v>
+        <v>781</v>
       </c>
       <c r="E75" t="s">
-        <v>690</v>
+        <v>798</v>
       </c>
       <c r="F75" t="s">
-        <v>714</v>
+        <v>818</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>619</v>
+        <v>756</v>
       </c>
       <c r="B76" t="s">
-        <v>736</v>
+        <v>770</v>
       </c>
       <c r="C76" t="s">
-        <v>739</v>
+        <v>773</v>
       </c>
       <c r="D76" t="s">
-        <v>655</v>
+        <v>782</v>
       </c>
       <c r="E76" t="s">
-        <v>691</v>
+        <v>799</v>
       </c>
       <c r="F76" t="s">
-        <v>715</v>
+        <v>819</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>620</v>
+        <v>757</v>
       </c>
       <c r="B77" t="s">
-        <v>736</v>
+        <v>770</v>
       </c>
       <c r="C77" t="s">
-        <v>739</v>
+        <v>773</v>
       </c>
       <c r="D77" t="s">
-        <v>657</v>
+        <v>783</v>
       </c>
       <c r="E77" t="s">
-        <v>692</v>
+        <v>800</v>
       </c>
       <c r="F77" t="s">
-        <v>716</v>
+        <v>820</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>621</v>
+        <v>758</v>
       </c>
       <c r="B78" t="s">
-        <v>736</v>
+        <v>770</v>
       </c>
       <c r="C78" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D78" t="s">
-        <v>658</v>
+        <v>785</v>
       </c>
       <c r="E78" t="s">
-        <v>694</v>
+        <v>801</v>
       </c>
       <c r="F78" t="s">
-        <v>730</v>
+        <v>821</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>622</v>
+        <v>759</v>
       </c>
       <c r="B79" t="s">
-        <v>736</v>
+        <v>770</v>
       </c>
       <c r="C79" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D79" t="s">
-        <v>659</v>
+        <v>784</v>
       </c>
       <c r="E79" t="s">
-        <v>695</v>
+        <v>801</v>
       </c>
       <c r="F79" t="s">
-        <v>717</v>
+        <v>822</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>623</v>
+        <v>760</v>
       </c>
       <c r="B80" t="s">
-        <v>736</v>
+        <v>770</v>
       </c>
       <c r="C80" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D80" t="s">
-        <v>660</v>
+        <v>786</v>
       </c>
       <c r="E80" t="s">
-        <v>696</v>
+        <v>802</v>
       </c>
       <c r="F80" t="s">
-        <v>718</v>
+        <v>823</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>624</v>
+        <v>761</v>
       </c>
       <c r="B81" t="s">
-        <v>736</v>
+        <v>770</v>
       </c>
       <c r="C81" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D81" t="s">
-        <v>661</v>
+        <v>786</v>
       </c>
       <c r="E81" t="s">
-        <v>697</v>
+        <v>802</v>
       </c>
       <c r="F81" t="s">
-        <v>719</v>
+        <v>824</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>625</v>
+        <v>762</v>
       </c>
       <c r="B82" t="s">
-        <v>736</v>
+        <v>770</v>
       </c>
       <c r="C82" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D82" t="s">
-        <v>662</v>
+        <v>787</v>
       </c>
       <c r="E82" t="s">
-        <v>698</v>
+        <v>803</v>
       </c>
       <c r="F82" t="s">
-        <v>720</v>
+        <v>825</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>626</v>
+        <v>763</v>
       </c>
       <c r="B83" t="s">
-        <v>736</v>
+        <v>770</v>
       </c>
       <c r="C83" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D83" t="s">
-        <v>663</v>
+        <v>787</v>
       </c>
       <c r="E83" t="s">
-        <v>699</v>
+        <v>803</v>
       </c>
       <c r="F83" t="s">
-        <v>721</v>
+        <v>826</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>627</v>
+        <v>764</v>
       </c>
       <c r="B84" t="s">
-        <v>736</v>
+        <v>770</v>
       </c>
       <c r="C84" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D84" t="s">
-        <v>654</v>
+        <v>788</v>
       </c>
       <c r="E84" t="s">
-        <v>700</v>
+        <v>804</v>
       </c>
       <c r="F84" t="s">
-        <v>722</v>
+        <v>827</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>628</v>
+        <v>765</v>
       </c>
       <c r="B85" t="s">
-        <v>736</v>
+        <v>770</v>
       </c>
       <c r="C85" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D85" t="s">
-        <v>653</v>
+        <v>788</v>
       </c>
       <c r="E85" t="s">
-        <v>701</v>
+        <v>804</v>
       </c>
       <c r="F85" t="s">
-        <v>723</v>
+        <v>828</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>618</v>
+        <v>766</v>
       </c>
       <c r="B86" t="s">
-        <v>736</v>
+        <v>770</v>
       </c>
       <c r="C86" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D86" t="s">
-        <v>640</v>
+        <v>789</v>
       </c>
       <c r="E86" t="s">
-        <v>693</v>
+        <v>805</v>
       </c>
       <c r="F86" t="s">
-        <v>751</v>
+        <v>829</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>273</v>
+        <v>767</v>
       </c>
       <c r="B87" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
       <c r="C87" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D87" t="s">
-        <v>303</v>
+        <v>789</v>
       </c>
       <c r="E87" t="s">
-        <v>664</v>
+        <v>805</v>
       </c>
       <c r="F87" t="s">
-        <v>433</v>
+        <v>830</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>274</v>
+        <v>768</v>
       </c>
       <c r="B88" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
       <c r="C88" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D88" t="s">
-        <v>304</v>
+        <v>790</v>
       </c>
       <c r="E88" t="s">
-        <v>665</v>
+        <v>806</v>
       </c>
       <c r="F88" t="s">
-        <v>434</v>
+        <v>831</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>275</v>
+        <v>769</v>
       </c>
       <c r="B89" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
       <c r="C89" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D89" t="s">
-        <v>305</v>
+        <v>790</v>
       </c>
       <c r="E89" t="s">
-        <v>666</v>
+        <v>806</v>
       </c>
       <c r="F89" t="s">
-        <v>435</v>
+        <v>832</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>276</v>
+        <v>1088</v>
       </c>
       <c r="B90" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C90" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="D90" t="s">
-        <v>306</v>
+        <v>1089</v>
       </c>
       <c r="E90" t="s">
-        <v>393</v>
+        <v>1091</v>
       </c>
       <c r="F90" t="s">
-        <v>436</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>277</v>
+        <v>1087</v>
       </c>
       <c r="B91" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C91" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="D91" t="s">
-        <v>307</v>
+        <v>1090</v>
       </c>
       <c r="E91" t="s">
-        <v>394</v>
+        <v>1092</v>
       </c>
       <c r="F91" t="s">
-        <v>437</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>278</v>
+        <v>598</v>
       </c>
       <c r="B92" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C92" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="D92" t="s">
-        <v>308</v>
+        <v>628</v>
       </c>
       <c r="E92" t="s">
-        <v>395</v>
+        <v>665</v>
       </c>
       <c r="F92" t="s">
-        <v>438</v>
+        <v>699</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>279</v>
+        <v>727</v>
       </c>
       <c r="B93" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C93" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="D93" t="s">
-        <v>309</v>
+        <v>629</v>
       </c>
       <c r="E93" t="s">
-        <v>396</v>
+        <v>666</v>
       </c>
       <c r="F93" t="s">
-        <v>439</v>
+        <v>720</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>280</v>
+        <v>599</v>
       </c>
       <c r="B94" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C94" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="D94" t="s">
-        <v>310</v>
+        <v>630</v>
       </c>
       <c r="E94" t="s">
-        <v>397</v>
+        <v>667</v>
       </c>
       <c r="F94" t="s">
-        <v>440</v>
+        <v>721</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>281</v>
+        <v>600</v>
       </c>
       <c r="B95" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C95" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D95" t="s">
-        <v>311</v>
+        <v>631</v>
       </c>
       <c r="E95" t="s">
-        <v>398</v>
+        <v>668</v>
       </c>
       <c r="F95" t="s">
-        <v>441</v>
+        <v>722</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>282</v>
+        <v>728</v>
       </c>
       <c r="B96" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C96" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D96" t="s">
-        <v>312</v>
+        <v>632</v>
       </c>
       <c r="E96" t="s">
-        <v>399</v>
+        <v>669</v>
       </c>
       <c r="F96" t="s">
-        <v>442</v>
+        <v>700</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>421</v>
+        <v>601</v>
       </c>
       <c r="B97" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C97" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D97" t="s">
-        <v>422</v>
+        <v>633</v>
       </c>
       <c r="E97" t="s">
-        <v>401</v>
+        <v>670</v>
       </c>
       <c r="F97" t="s">
-        <v>443</v>
+        <v>723</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>283</v>
+        <v>602</v>
       </c>
       <c r="B98" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C98" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D98" t="s">
-        <v>313</v>
+        <v>634</v>
       </c>
       <c r="E98" t="s">
-        <v>400</v>
+        <v>671</v>
       </c>
       <c r="F98" t="s">
-        <v>444</v>
+        <v>701</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>284</v>
+        <v>603</v>
       </c>
       <c r="B99" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C99" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D99" t="s">
-        <v>314</v>
+        <v>635</v>
       </c>
       <c r="E99" t="s">
-        <v>401</v>
+        <v>672</v>
       </c>
       <c r="F99" t="s">
-        <v>445</v>
+        <v>702</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>423</v>
+        <v>729</v>
       </c>
       <c r="B100" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C100" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D100" t="s">
-        <v>316</v>
+        <v>636</v>
       </c>
       <c r="E100" t="s">
-        <v>403</v>
+        <v>673</v>
       </c>
       <c r="F100" t="s">
-        <v>446</v>
+        <v>703</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>285</v>
+        <v>604</v>
       </c>
       <c r="B101" t="s">
+        <v>732</v>
+      </c>
+      <c r="C101" t="s">
+        <v>735</v>
+      </c>
+      <c r="D101" t="s">
+        <v>637</v>
+      </c>
+      <c r="E101" t="s">
+        <v>674</v>
+      </c>
+      <c r="F101" t="s">
         <v>742</v>
-      </c>
-      <c r="C101" t="s">
-        <v>740</v>
-      </c>
-      <c r="D101" t="s">
-        <v>315</v>
-      </c>
-      <c r="E101" t="s">
-        <v>402</v>
-      </c>
-      <c r="F101" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>286</v>
+        <v>605</v>
       </c>
       <c r="B102" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C102" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D102" t="s">
-        <v>316</v>
+        <v>639</v>
       </c>
       <c r="E102" t="s">
-        <v>403</v>
+        <v>675</v>
       </c>
       <c r="F102" t="s">
-        <v>448</v>
+        <v>743</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>424</v>
+        <v>606</v>
       </c>
       <c r="B103" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C103" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D103" t="s">
-        <v>318</v>
+        <v>640</v>
       </c>
       <c r="E103" t="s">
-        <v>405</v>
+        <v>676</v>
       </c>
       <c r="F103" t="s">
-        <v>449</v>
+        <v>744</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>287</v>
+        <v>607</v>
       </c>
       <c r="B104" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C104" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D104" t="s">
-        <v>317</v>
+        <v>641</v>
       </c>
       <c r="E104" t="s">
-        <v>404</v>
+        <v>677</v>
       </c>
       <c r="F104" t="s">
-        <v>450</v>
+        <v>745</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>288</v>
+        <v>741</v>
       </c>
       <c r="B105" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C105" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D105" t="s">
-        <v>318</v>
+        <v>642</v>
       </c>
       <c r="E105" t="s">
-        <v>405</v>
+        <v>678</v>
       </c>
       <c r="F105" t="s">
-        <v>451</v>
+        <v>746</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>425</v>
+        <v>608</v>
       </c>
       <c r="B106" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C106" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D106" t="s">
-        <v>320</v>
+        <v>643</v>
       </c>
       <c r="E106" t="s">
-        <v>407</v>
+        <v>679</v>
       </c>
       <c r="F106" t="s">
-        <v>452</v>
+        <v>704</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>289</v>
+        <v>609</v>
       </c>
       <c r="B107" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C107" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D107" t="s">
-        <v>319</v>
+        <v>644</v>
       </c>
       <c r="E107" t="s">
-        <v>406</v>
+        <v>680</v>
       </c>
       <c r="F107" t="s">
-        <v>453</v>
+        <v>705</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>290</v>
+        <v>610</v>
       </c>
       <c r="B108" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C108" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D108" t="s">
-        <v>320</v>
+        <v>645</v>
       </c>
       <c r="E108" t="s">
-        <v>407</v>
+        <v>681</v>
       </c>
       <c r="F108" t="s">
-        <v>454</v>
+        <v>724</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>426</v>
+        <v>611</v>
       </c>
       <c r="B109" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C109" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D109" t="s">
-        <v>322</v>
+        <v>646</v>
       </c>
       <c r="E109" t="s">
-        <v>409</v>
+        <v>682</v>
       </c>
       <c r="F109" t="s">
-        <v>455</v>
+        <v>706</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>291</v>
+        <v>612</v>
       </c>
       <c r="B110" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C110" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D110" t="s">
-        <v>321</v>
+        <v>647</v>
       </c>
       <c r="E110" t="s">
-        <v>408</v>
+        <v>683</v>
       </c>
       <c r="F110" t="s">
-        <v>456</v>
+        <v>725</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>292</v>
+        <v>613</v>
       </c>
       <c r="B111" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C111" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D111" t="s">
-        <v>322</v>
+        <v>648</v>
       </c>
       <c r="E111" t="s">
-        <v>409</v>
+        <v>684</v>
       </c>
       <c r="F111" t="s">
-        <v>457</v>
+        <v>707</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>427</v>
+        <v>614</v>
       </c>
       <c r="B112" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C112" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D112" t="s">
-        <v>324</v>
+        <v>649</v>
       </c>
       <c r="E112" t="s">
-        <v>411</v>
+        <v>685</v>
       </c>
       <c r="F112" t="s">
-        <v>458</v>
+        <v>708</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>293</v>
+        <v>615</v>
       </c>
       <c r="B113" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C113" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D113" t="s">
-        <v>323</v>
+        <v>650</v>
       </c>
       <c r="E113" t="s">
-        <v>410</v>
+        <v>686</v>
       </c>
       <c r="F113" t="s">
-        <v>459</v>
+        <v>709</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>294</v>
+        <v>616</v>
       </c>
       <c r="B114" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C114" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D114" t="s">
-        <v>324</v>
+        <v>654</v>
       </c>
       <c r="E114" t="s">
-        <v>411</v>
+        <v>687</v>
       </c>
       <c r="F114" t="s">
-        <v>460</v>
+        <v>710</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>428</v>
+        <v>618</v>
       </c>
       <c r="B115" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C115" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D115" t="s">
-        <v>326</v>
+        <v>653</v>
       </c>
       <c r="E115" t="s">
-        <v>413</v>
+        <v>688</v>
       </c>
       <c r="F115" t="s">
-        <v>461</v>
+        <v>711</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>295</v>
+        <v>619</v>
       </c>
       <c r="B116" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C116" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D116" t="s">
-        <v>325</v>
+        <v>655</v>
       </c>
       <c r="E116" t="s">
-        <v>412</v>
+        <v>689</v>
       </c>
       <c r="F116" t="s">
-        <v>462</v>
+        <v>712</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>296</v>
+        <v>620</v>
       </c>
       <c r="B117" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C117" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D117" t="s">
-        <v>326</v>
+        <v>656</v>
       </c>
       <c r="E117" t="s">
-        <v>413</v>
+        <v>691</v>
       </c>
       <c r="F117" t="s">
-        <v>463</v>
+        <v>726</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>429</v>
+        <v>621</v>
       </c>
       <c r="B118" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C118" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D118" t="s">
-        <v>328</v>
+        <v>657</v>
       </c>
       <c r="E118" t="s">
-        <v>415</v>
+        <v>692</v>
       </c>
       <c r="F118" t="s">
-        <v>464</v>
+        <v>713</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>297</v>
+        <v>622</v>
       </c>
       <c r="B119" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C119" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D119" t="s">
-        <v>327</v>
+        <v>658</v>
       </c>
       <c r="E119" t="s">
-        <v>414</v>
+        <v>693</v>
       </c>
       <c r="F119" t="s">
-        <v>465</v>
+        <v>714</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>298</v>
+        <v>623</v>
       </c>
       <c r="B120" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C120" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D120" t="s">
-        <v>328</v>
+        <v>659</v>
       </c>
       <c r="E120" t="s">
-        <v>415</v>
+        <v>694</v>
       </c>
       <c r="F120" t="s">
-        <v>466</v>
+        <v>715</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>430</v>
+        <v>624</v>
       </c>
       <c r="B121" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C121" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D121" t="s">
-        <v>330</v>
+        <v>660</v>
       </c>
       <c r="E121" t="s">
-        <v>417</v>
+        <v>695</v>
       </c>
       <c r="F121" t="s">
-        <v>467</v>
+        <v>716</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>299</v>
+        <v>625</v>
       </c>
       <c r="B122" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C122" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D122" t="s">
-        <v>329</v>
+        <v>661</v>
       </c>
       <c r="E122" t="s">
-        <v>416</v>
+        <v>696</v>
       </c>
       <c r="F122" t="s">
-        <v>468</v>
+        <v>717</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>300</v>
+        <v>626</v>
       </c>
       <c r="B123" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C123" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D123" t="s">
-        <v>330</v>
+        <v>652</v>
       </c>
       <c r="E123" t="s">
-        <v>417</v>
+        <v>697</v>
       </c>
       <c r="F123" t="s">
-        <v>469</v>
+        <v>718</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>431</v>
+        <v>627</v>
       </c>
       <c r="B124" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C124" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D124" t="s">
-        <v>332</v>
+        <v>651</v>
       </c>
       <c r="E124" t="s">
-        <v>419</v>
+        <v>698</v>
       </c>
       <c r="F124" t="s">
-        <v>470</v>
+        <v>719</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>301</v>
+        <v>617</v>
       </c>
       <c r="B125" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C125" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="D125" t="s">
-        <v>331</v>
+        <v>638</v>
       </c>
       <c r="E125" t="s">
-        <v>418</v>
+        <v>690</v>
       </c>
       <c r="F125" t="s">
-        <v>471</v>
+        <v>747</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="B126" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C126" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D126" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="E126" t="s">
-        <v>419</v>
+        <v>662</v>
       </c>
       <c r="F126" t="s">
-        <v>472</v>
+        <v>433</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>196</v>
+        <v>274</v>
       </c>
       <c r="B127" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C127" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D127" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="E127" t="s">
-        <v>392</v>
+        <v>663</v>
       </c>
       <c r="F127" t="s">
-        <v>473</v>
+        <v>434</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>197</v>
+        <v>275</v>
       </c>
       <c r="B128" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C128" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="D128" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="E128" t="s">
-        <v>537</v>
+        <v>664</v>
       </c>
       <c r="F128" t="s">
-        <v>474</v>
+        <v>435</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>198</v>
+        <v>276</v>
       </c>
       <c r="B129" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C129" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="D129" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="E129" t="s">
-        <v>538</v>
+        <v>393</v>
       </c>
       <c r="F129" t="s">
-        <v>475</v>
+        <v>436</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>199</v>
+        <v>277</v>
       </c>
       <c r="B130" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C130" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="D130" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="E130" t="s">
-        <v>539</v>
+        <v>394</v>
       </c>
       <c r="F130" t="s">
-        <v>476</v>
+        <v>437</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>200</v>
+        <v>278</v>
       </c>
       <c r="B131" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C131" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="D131" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="E131" t="s">
-        <v>540</v>
+        <v>395</v>
       </c>
       <c r="F131" t="s">
-        <v>477</v>
+        <v>438</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>201</v>
+        <v>279</v>
       </c>
       <c r="B132" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C132" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D132" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="E132" t="s">
-        <v>529</v>
+        <v>396</v>
       </c>
       <c r="F132" t="s">
-        <v>479</v>
+        <v>439</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>202</v>
+        <v>280</v>
       </c>
       <c r="B133" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C133" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D133" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="E133" t="s">
-        <v>530</v>
+        <v>397</v>
       </c>
       <c r="F133" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>195</v>
+        <v>281</v>
       </c>
       <c r="B134" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C134" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D134" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="E134" t="s">
-        <v>531</v>
+        <v>398</v>
       </c>
       <c r="F134" t="s">
-        <v>480</v>
+        <v>441</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>203</v>
+        <v>282</v>
       </c>
       <c r="B135" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C135" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D135" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="E135" t="s">
-        <v>541</v>
+        <v>399</v>
       </c>
       <c r="F135" t="s">
-        <v>481</v>
+        <v>442</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>204</v>
+        <v>421</v>
       </c>
       <c r="B136" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C136" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D136" t="s">
-        <v>337</v>
+        <v>422</v>
       </c>
       <c r="E136" t="s">
-        <v>544</v>
+        <v>401</v>
       </c>
       <c r="F136" t="s">
-        <v>482</v>
+        <v>443</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>205</v>
+        <v>283</v>
       </c>
       <c r="B137" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C137" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D137" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="E137" t="s">
-        <v>542</v>
+        <v>400</v>
       </c>
       <c r="F137" t="s">
-        <v>483</v>
+        <v>444</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>206</v>
+        <v>284</v>
       </c>
       <c r="B138" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C138" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D138" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="E138" t="s">
-        <v>543</v>
+        <v>401</v>
       </c>
       <c r="F138" t="s">
-        <v>484</v>
+        <v>445</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>207</v>
+        <v>423</v>
       </c>
       <c r="B139" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C139" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D139" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="E139" t="s">
-        <v>532</v>
+        <v>403</v>
       </c>
       <c r="F139" t="s">
-        <v>485</v>
+        <v>446</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>208</v>
+        <v>285</v>
       </c>
       <c r="B140" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C140" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D140" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="E140" t="s">
-        <v>545</v>
+        <v>402</v>
       </c>
       <c r="F140" t="s">
-        <v>486</v>
+        <v>447</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>209</v>
+        <v>286</v>
       </c>
       <c r="B141" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C141" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D141" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="E141" t="s">
-        <v>546</v>
+        <v>403</v>
       </c>
       <c r="F141" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>210</v>
+        <v>424</v>
       </c>
       <c r="B142" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C142" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D142" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="E142" t="s">
-        <v>533</v>
+        <v>405</v>
       </c>
       <c r="F142" t="s">
-        <v>488</v>
+        <v>449</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>211</v>
+        <v>287</v>
       </c>
       <c r="B143" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C143" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D143" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="E143" t="s">
-        <v>547</v>
+        <v>404</v>
       </c>
       <c r="F143" t="s">
-        <v>489</v>
+        <v>450</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="B144" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C144" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D144" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="E144" t="s">
-        <v>554</v>
+        <v>405</v>
       </c>
       <c r="F144" t="s">
-        <v>490</v>
+        <v>451</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>213</v>
+        <v>425</v>
       </c>
       <c r="B145" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C145" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D145" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="E145" t="s">
-        <v>555</v>
+        <v>407</v>
       </c>
       <c r="F145" t="s">
-        <v>491</v>
+        <v>452</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>214</v>
+        <v>289</v>
       </c>
       <c r="B146" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C146" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D146" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="E146" t="s">
-        <v>556</v>
+        <v>406</v>
       </c>
       <c r="F146" t="s">
-        <v>492</v>
+        <v>453</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>215</v>
+        <v>290</v>
       </c>
       <c r="B147" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C147" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D147" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="E147" t="s">
-        <v>553</v>
+        <v>407</v>
       </c>
       <c r="F147" t="s">
-        <v>493</v>
+        <v>454</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>216</v>
+        <v>426</v>
       </c>
       <c r="B148" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C148" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D148" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="E148" t="s">
-        <v>534</v>
+        <v>409</v>
       </c>
       <c r="F148" t="s">
-        <v>494</v>
+        <v>455</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>217</v>
+        <v>291</v>
       </c>
       <c r="B149" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C149" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D149" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="E149" t="s">
-        <v>548</v>
+        <v>408</v>
       </c>
       <c r="F149" t="s">
-        <v>495</v>
+        <v>456</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>218</v>
+        <v>292</v>
       </c>
       <c r="B150" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C150" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D150" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="E150" t="s">
-        <v>557</v>
+        <v>409</v>
       </c>
       <c r="F150" t="s">
-        <v>496</v>
+        <v>457</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>219</v>
+        <v>427</v>
       </c>
       <c r="B151" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C151" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D151" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="E151" t="s">
-        <v>535</v>
+        <v>411</v>
       </c>
       <c r="F151" t="s">
-        <v>497</v>
+        <v>458</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>220</v>
+        <v>293</v>
       </c>
       <c r="B152" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C152" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D152" t="s">
-        <v>353</v>
+        <v>323</v>
       </c>
       <c r="E152" t="s">
-        <v>549</v>
+        <v>410</v>
       </c>
       <c r="F152" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>221</v>
+        <v>294</v>
       </c>
       <c r="B153" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C153" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D153" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="E153" t="s">
-        <v>551</v>
+        <v>411</v>
       </c>
       <c r="F153" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>222</v>
+        <v>428</v>
       </c>
       <c r="B154" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C154" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D154" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="E154" t="s">
-        <v>536</v>
+        <v>413</v>
       </c>
       <c r="F154" t="s">
-        <v>500</v>
+        <v>461</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>223</v>
+        <v>295</v>
       </c>
       <c r="B155" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C155" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D155" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="E155" t="s">
-        <v>550</v>
+        <v>412</v>
       </c>
       <c r="F155" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>224</v>
+        <v>296</v>
       </c>
       <c r="B156" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C156" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D156" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="E156" t="s">
-        <v>552</v>
+        <v>413</v>
       </c>
       <c r="F156" t="s">
-        <v>502</v>
+        <v>463</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>225</v>
+        <v>429</v>
       </c>
       <c r="B157" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C157" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D157" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="E157" t="s">
-        <v>560</v>
+        <v>415</v>
       </c>
       <c r="F157" t="s">
-        <v>503</v>
+        <v>464</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>226</v>
+        <v>297</v>
       </c>
       <c r="B158" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C158" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D158" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="E158" t="s">
-        <v>558</v>
+        <v>414</v>
       </c>
       <c r="F158" t="s">
-        <v>504</v>
+        <v>465</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>227</v>
+        <v>298</v>
       </c>
       <c r="B159" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C159" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D159" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="E159" t="s">
-        <v>559</v>
+        <v>415</v>
       </c>
       <c r="F159" t="s">
-        <v>505</v>
+        <v>466</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>228</v>
+        <v>430</v>
       </c>
       <c r="B160" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C160" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D160" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="E160" t="s">
-        <v>561</v>
+        <v>417</v>
       </c>
       <c r="F160" t="s">
-        <v>506</v>
+        <v>467</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>229</v>
+        <v>299</v>
       </c>
       <c r="B161" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C161" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D161" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="E161" t="s">
-        <v>562</v>
+        <v>416</v>
       </c>
       <c r="F161" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="B162" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C162" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D162" t="s">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="E162" t="s">
-        <v>563</v>
+        <v>417</v>
       </c>
       <c r="F162" t="s">
-        <v>508</v>
+        <v>469</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>231</v>
+        <v>431</v>
       </c>
       <c r="B163" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C163" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D163" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="E163" t="s">
-        <v>564</v>
+        <v>419</v>
       </c>
       <c r="F163" t="s">
-        <v>509</v>
+        <v>470</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>232</v>
+        <v>301</v>
       </c>
       <c r="B164" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C164" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D164" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="E164" t="s">
-        <v>565</v>
+        <v>418</v>
       </c>
       <c r="F164" t="s">
-        <v>510</v>
+        <v>471</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>233</v>
+        <v>302</v>
       </c>
       <c r="B165" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C165" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D165" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="E165" t="s">
-        <v>566</v>
+        <v>419</v>
       </c>
       <c r="F165" t="s">
-        <v>511</v>
+        <v>472</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="B166" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C166" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D166" t="s">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="E166" t="s">
-        <v>567</v>
+        <v>392</v>
       </c>
       <c r="F166" t="s">
-        <v>512</v>
+        <v>473</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="B167" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C167" t="s">
         <v>739</v>
       </c>
       <c r="D167" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="E167" t="s">
-        <v>568</v>
+        <v>537</v>
       </c>
       <c r="F167" t="s">
-        <v>513</v>
+        <v>474</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="B168" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C168" t="s">
         <v>739</v>
       </c>
       <c r="D168" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="E168" t="s">
-        <v>569</v>
+        <v>538</v>
       </c>
       <c r="F168" t="s">
-        <v>514</v>
+        <v>475</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="B169" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C169" t="s">
         <v>739</v>
       </c>
       <c r="D169" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="E169" t="s">
-        <v>570</v>
+        <v>539</v>
       </c>
       <c r="F169" t="s">
-        <v>515</v>
+        <v>476</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="B170" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C170" t="s">
         <v>739</v>
       </c>
       <c r="D170" t="s">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="E170" t="s">
-        <v>571</v>
+        <v>540</v>
       </c>
       <c r="F170" t="s">
-        <v>516</v>
+        <v>477</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="B171" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C171" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D171" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="E171" t="s">
-        <v>572</v>
+        <v>529</v>
       </c>
       <c r="F171" t="s">
-        <v>517</v>
+        <v>479</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="B172" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C172" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="D172" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="E172" t="s">
-        <v>573</v>
+        <v>530</v>
       </c>
       <c r="F172" t="s">
-        <v>518</v>
+        <v>478</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="B173" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C173" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D173" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="E173" t="s">
-        <v>574</v>
+        <v>531</v>
       </c>
       <c r="F173" t="s">
-        <v>519</v>
+        <v>480</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="B174" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C174" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D174" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="E174" t="s">
-        <v>575</v>
+        <v>541</v>
       </c>
       <c r="F174" t="s">
-        <v>520</v>
+        <v>481</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="B175" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C175" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D175" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="E175" t="s">
-        <v>576</v>
+        <v>544</v>
       </c>
       <c r="F175" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="B176" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C176" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D176" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="E176" t="s">
-        <v>577</v>
+        <v>542</v>
       </c>
       <c r="F176" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="B177" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C177" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D177" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="E177" t="s">
-        <v>578</v>
+        <v>543</v>
       </c>
       <c r="F177" t="s">
-        <v>523</v>
+        <v>484</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="B178" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C178" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D178" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="E178" t="s">
-        <v>590</v>
+        <v>532</v>
       </c>
       <c r="F178" t="s">
-        <v>524</v>
+        <v>485</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="B179" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C179" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D179" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="E179" t="s">
-        <v>589</v>
+        <v>545</v>
       </c>
       <c r="F179" t="s">
-        <v>525</v>
+        <v>486</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="B180" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C180" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D180" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="E180" t="s">
-        <v>588</v>
+        <v>546</v>
       </c>
       <c r="F180" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="B181" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C181" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D181" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="E181" t="s">
-        <v>582</v>
+        <v>533</v>
       </c>
       <c r="F181" t="s">
-        <v>527</v>
+        <v>488</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="B182" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C182" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D182" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="E182" t="s">
-        <v>583</v>
+        <v>547</v>
       </c>
       <c r="F182" t="s">
-        <v>528</v>
+        <v>489</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="B183" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C183" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D183" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="E183" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
       <c r="F183" t="s">
-        <v>591</v>
+        <v>490</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B184" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C184" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D184" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="E184" t="s">
-        <v>585</v>
+        <v>555</v>
       </c>
       <c r="F184" t="s">
-        <v>592</v>
+        <v>491</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="B185" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C185" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D185" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="E185" t="s">
-        <v>586</v>
+        <v>556</v>
       </c>
       <c r="F185" t="s">
-        <v>593</v>
+        <v>492</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="B186" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C186" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D186" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="E186" t="s">
-        <v>587</v>
+        <v>553</v>
       </c>
       <c r="F186" t="s">
-        <v>594</v>
+        <v>493</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="B187" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C187" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D187" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="E187" t="s">
-        <v>579</v>
+        <v>534</v>
       </c>
       <c r="F187" t="s">
-        <v>595</v>
+        <v>494</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="B188" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C188" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D188" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="E188" t="s">
-        <v>580</v>
+        <v>548</v>
       </c>
       <c r="F188" t="s">
-        <v>596</v>
+        <v>495</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
+        <v>218</v>
+      </c>
+      <c r="B189" t="s">
+        <v>740</v>
+      </c>
+      <c r="C189" t="s">
+        <v>735</v>
+      </c>
+      <c r="D189" t="s">
+        <v>351</v>
+      </c>
+      <c r="E189" t="s">
+        <v>557</v>
+      </c>
+      <c r="F189" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A190" t="s">
+        <v>219</v>
+      </c>
+      <c r="B190" t="s">
+        <v>740</v>
+      </c>
+      <c r="C190" t="s">
+        <v>735</v>
+      </c>
+      <c r="D190" t="s">
+        <v>352</v>
+      </c>
+      <c r="E190" t="s">
+        <v>535</v>
+      </c>
+      <c r="F190" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A191" t="s">
+        <v>220</v>
+      </c>
+      <c r="B191" t="s">
+        <v>740</v>
+      </c>
+      <c r="C191" t="s">
+        <v>735</v>
+      </c>
+      <c r="D191" t="s">
+        <v>353</v>
+      </c>
+      <c r="E191" t="s">
+        <v>549</v>
+      </c>
+      <c r="F191" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A192" t="s">
+        <v>221</v>
+      </c>
+      <c r="B192" t="s">
+        <v>740</v>
+      </c>
+      <c r="C192" t="s">
+        <v>735</v>
+      </c>
+      <c r="D192" t="s">
+        <v>354</v>
+      </c>
+      <c r="E192" t="s">
+        <v>551</v>
+      </c>
+      <c r="F192" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A193" t="s">
+        <v>222</v>
+      </c>
+      <c r="B193" t="s">
+        <v>740</v>
+      </c>
+      <c r="C193" t="s">
+        <v>735</v>
+      </c>
+      <c r="D193" t="s">
+        <v>355</v>
+      </c>
+      <c r="E193" t="s">
+        <v>536</v>
+      </c>
+      <c r="F193" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A194" t="s">
+        <v>223</v>
+      </c>
+      <c r="B194" t="s">
+        <v>740</v>
+      </c>
+      <c r="C194" t="s">
+        <v>735</v>
+      </c>
+      <c r="D194" t="s">
+        <v>356</v>
+      </c>
+      <c r="E194" t="s">
+        <v>550</v>
+      </c>
+      <c r="F194" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A195" t="s">
+        <v>224</v>
+      </c>
+      <c r="B195" t="s">
+        <v>740</v>
+      </c>
+      <c r="C195" t="s">
+        <v>735</v>
+      </c>
+      <c r="D195" t="s">
+        <v>357</v>
+      </c>
+      <c r="E195" t="s">
+        <v>552</v>
+      </c>
+      <c r="F195" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A196" t="s">
+        <v>225</v>
+      </c>
+      <c r="B196" t="s">
+        <v>740</v>
+      </c>
+      <c r="C196" t="s">
+        <v>735</v>
+      </c>
+      <c r="D196" t="s">
+        <v>358</v>
+      </c>
+      <c r="E196" t="s">
+        <v>560</v>
+      </c>
+      <c r="F196" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A197" t="s">
+        <v>226</v>
+      </c>
+      <c r="B197" t="s">
+        <v>740</v>
+      </c>
+      <c r="C197" t="s">
+        <v>735</v>
+      </c>
+      <c r="D197" t="s">
+        <v>359</v>
+      </c>
+      <c r="E197" t="s">
+        <v>558</v>
+      </c>
+      <c r="F197" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A198" t="s">
+        <v>227</v>
+      </c>
+      <c r="B198" t="s">
+        <v>740</v>
+      </c>
+      <c r="C198" t="s">
+        <v>735</v>
+      </c>
+      <c r="D198" t="s">
+        <v>360</v>
+      </c>
+      <c r="E198" t="s">
+        <v>559</v>
+      </c>
+      <c r="F198" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A199" t="s">
+        <v>228</v>
+      </c>
+      <c r="B199" t="s">
+        <v>740</v>
+      </c>
+      <c r="C199" t="s">
+        <v>735</v>
+      </c>
+      <c r="D199" t="s">
+        <v>361</v>
+      </c>
+      <c r="E199" t="s">
+        <v>561</v>
+      </c>
+      <c r="F199" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A200" t="s">
+        <v>229</v>
+      </c>
+      <c r="B200" t="s">
+        <v>740</v>
+      </c>
+      <c r="C200" t="s">
+        <v>735</v>
+      </c>
+      <c r="D200" t="s">
+        <v>362</v>
+      </c>
+      <c r="E200" t="s">
+        <v>562</v>
+      </c>
+      <c r="F200" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A201" t="s">
+        <v>230</v>
+      </c>
+      <c r="B201" t="s">
+        <v>740</v>
+      </c>
+      <c r="C201" t="s">
+        <v>735</v>
+      </c>
+      <c r="D201" t="s">
+        <v>363</v>
+      </c>
+      <c r="E201" t="s">
+        <v>563</v>
+      </c>
+      <c r="F201" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A202" t="s">
+        <v>231</v>
+      </c>
+      <c r="B202" t="s">
+        <v>740</v>
+      </c>
+      <c r="C202" t="s">
+        <v>735</v>
+      </c>
+      <c r="D202" t="s">
+        <v>364</v>
+      </c>
+      <c r="E202" t="s">
+        <v>564</v>
+      </c>
+      <c r="F202" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A203" t="s">
+        <v>232</v>
+      </c>
+      <c r="B203" t="s">
+        <v>740</v>
+      </c>
+      <c r="C203" t="s">
+        <v>735</v>
+      </c>
+      <c r="D203" t="s">
+        <v>365</v>
+      </c>
+      <c r="E203" t="s">
+        <v>565</v>
+      </c>
+      <c r="F203" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A204" t="s">
+        <v>233</v>
+      </c>
+      <c r="B204" t="s">
+        <v>740</v>
+      </c>
+      <c r="C204" t="s">
+        <v>735</v>
+      </c>
+      <c r="D204" t="s">
+        <v>366</v>
+      </c>
+      <c r="E204" t="s">
+        <v>566</v>
+      </c>
+      <c r="F204" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A205" t="s">
+        <v>234</v>
+      </c>
+      <c r="B205" t="s">
+        <v>740</v>
+      </c>
+      <c r="C205" t="s">
+        <v>735</v>
+      </c>
+      <c r="D205" t="s">
+        <v>367</v>
+      </c>
+      <c r="E205" t="s">
+        <v>567</v>
+      </c>
+      <c r="F205" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A206" t="s">
+        <v>235</v>
+      </c>
+      <c r="B206" t="s">
+        <v>740</v>
+      </c>
+      <c r="C206" t="s">
+        <v>735</v>
+      </c>
+      <c r="D206" t="s">
+        <v>368</v>
+      </c>
+      <c r="E206" t="s">
+        <v>568</v>
+      </c>
+      <c r="F206" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A207" t="s">
+        <v>236</v>
+      </c>
+      <c r="B207" t="s">
+        <v>740</v>
+      </c>
+      <c r="C207" t="s">
+        <v>735</v>
+      </c>
+      <c r="D207" t="s">
+        <v>369</v>
+      </c>
+      <c r="E207" t="s">
+        <v>569</v>
+      </c>
+      <c r="F207" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A208" t="s">
+        <v>237</v>
+      </c>
+      <c r="B208" t="s">
+        <v>740</v>
+      </c>
+      <c r="C208" t="s">
+        <v>735</v>
+      </c>
+      <c r="D208" t="s">
+        <v>370</v>
+      </c>
+      <c r="E208" t="s">
+        <v>570</v>
+      </c>
+      <c r="F208" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A209" t="s">
+        <v>238</v>
+      </c>
+      <c r="B209" t="s">
+        <v>740</v>
+      </c>
+      <c r="C209" t="s">
+        <v>735</v>
+      </c>
+      <c r="D209" t="s">
+        <v>371</v>
+      </c>
+      <c r="E209" t="s">
+        <v>571</v>
+      </c>
+      <c r="F209" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A210" t="s">
+        <v>239</v>
+      </c>
+      <c r="B210" t="s">
+        <v>740</v>
+      </c>
+      <c r="C210" t="s">
+        <v>735</v>
+      </c>
+      <c r="D210" t="s">
+        <v>372</v>
+      </c>
+      <c r="E210" t="s">
+        <v>572</v>
+      </c>
+      <c r="F210" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A211" t="s">
+        <v>240</v>
+      </c>
+      <c r="B211" t="s">
+        <v>740</v>
+      </c>
+      <c r="C211" t="s">
+        <v>735</v>
+      </c>
+      <c r="D211" t="s">
+        <v>373</v>
+      </c>
+      <c r="E211" t="s">
+        <v>573</v>
+      </c>
+      <c r="F211" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A212" t="s">
+        <v>241</v>
+      </c>
+      <c r="B212" t="s">
+        <v>740</v>
+      </c>
+      <c r="C212" t="s">
+        <v>735</v>
+      </c>
+      <c r="D212" t="s">
+        <v>374</v>
+      </c>
+      <c r="E212" t="s">
+        <v>574</v>
+      </c>
+      <c r="F212" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A213" t="s">
+        <v>242</v>
+      </c>
+      <c r="B213" t="s">
+        <v>740</v>
+      </c>
+      <c r="C213" t="s">
+        <v>735</v>
+      </c>
+      <c r="D213" t="s">
+        <v>375</v>
+      </c>
+      <c r="E213" t="s">
+        <v>575</v>
+      </c>
+      <c r="F213" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A214" t="s">
+        <v>243</v>
+      </c>
+      <c r="B214" t="s">
+        <v>740</v>
+      </c>
+      <c r="C214" t="s">
+        <v>735</v>
+      </c>
+      <c r="D214" t="s">
+        <v>376</v>
+      </c>
+      <c r="E214" t="s">
+        <v>576</v>
+      </c>
+      <c r="F214" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A215" t="s">
+        <v>244</v>
+      </c>
+      <c r="B215" t="s">
+        <v>740</v>
+      </c>
+      <c r="C215" t="s">
+        <v>735</v>
+      </c>
+      <c r="D215" t="s">
+        <v>377</v>
+      </c>
+      <c r="E215" t="s">
+        <v>577</v>
+      </c>
+      <c r="F215" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A216" t="s">
+        <v>245</v>
+      </c>
+      <c r="B216" t="s">
+        <v>740</v>
+      </c>
+      <c r="C216" t="s">
+        <v>735</v>
+      </c>
+      <c r="D216" t="s">
+        <v>378</v>
+      </c>
+      <c r="E216" t="s">
+        <v>578</v>
+      </c>
+      <c r="F216" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A217" t="s">
+        <v>246</v>
+      </c>
+      <c r="B217" t="s">
+        <v>740</v>
+      </c>
+      <c r="C217" t="s">
+        <v>735</v>
+      </c>
+      <c r="D217" t="s">
+        <v>379</v>
+      </c>
+      <c r="E217" t="s">
+        <v>590</v>
+      </c>
+      <c r="F217" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A218" t="s">
+        <v>247</v>
+      </c>
+      <c r="B218" t="s">
+        <v>740</v>
+      </c>
+      <c r="C218" t="s">
+        <v>735</v>
+      </c>
+      <c r="D218" t="s">
+        <v>380</v>
+      </c>
+      <c r="E218" t="s">
+        <v>589</v>
+      </c>
+      <c r="F218" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A219" t="s">
+        <v>248</v>
+      </c>
+      <c r="B219" t="s">
+        <v>740</v>
+      </c>
+      <c r="C219" t="s">
+        <v>735</v>
+      </c>
+      <c r="D219" t="s">
+        <v>381</v>
+      </c>
+      <c r="E219" t="s">
+        <v>588</v>
+      </c>
+      <c r="F219" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A220" t="s">
+        <v>249</v>
+      </c>
+      <c r="B220" t="s">
+        <v>740</v>
+      </c>
+      <c r="C220" t="s">
+        <v>735</v>
+      </c>
+      <c r="D220" t="s">
+        <v>382</v>
+      </c>
+      <c r="E220" t="s">
+        <v>582</v>
+      </c>
+      <c r="F220" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A221" t="s">
+        <v>250</v>
+      </c>
+      <c r="B221" t="s">
+        <v>740</v>
+      </c>
+      <c r="C221" t="s">
+        <v>735</v>
+      </c>
+      <c r="D221" t="s">
+        <v>383</v>
+      </c>
+      <c r="E221" t="s">
+        <v>583</v>
+      </c>
+      <c r="F221" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A222" t="s">
+        <v>251</v>
+      </c>
+      <c r="B222" t="s">
+        <v>740</v>
+      </c>
+      <c r="C222" t="s">
+        <v>735</v>
+      </c>
+      <c r="D222" t="s">
+        <v>384</v>
+      </c>
+      <c r="E222" t="s">
+        <v>584</v>
+      </c>
+      <c r="F222" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A223" t="s">
+        <v>252</v>
+      </c>
+      <c r="B223" t="s">
+        <v>740</v>
+      </c>
+      <c r="C223" t="s">
+        <v>735</v>
+      </c>
+      <c r="D223" t="s">
+        <v>385</v>
+      </c>
+      <c r="E223" t="s">
+        <v>585</v>
+      </c>
+      <c r="F223" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A224" t="s">
+        <v>253</v>
+      </c>
+      <c r="B224" t="s">
+        <v>740</v>
+      </c>
+      <c r="C224" t="s">
+        <v>735</v>
+      </c>
+      <c r="D224" t="s">
+        <v>386</v>
+      </c>
+      <c r="E224" t="s">
+        <v>586</v>
+      </c>
+      <c r="F224" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A225" t="s">
+        <v>254</v>
+      </c>
+      <c r="B225" t="s">
+        <v>740</v>
+      </c>
+      <c r="C225" t="s">
+        <v>735</v>
+      </c>
+      <c r="D225" t="s">
+        <v>387</v>
+      </c>
+      <c r="E225" t="s">
+        <v>587</v>
+      </c>
+      <c r="F225" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A226" t="s">
+        <v>255</v>
+      </c>
+      <c r="B226" t="s">
+        <v>740</v>
+      </c>
+      <c r="C226" t="s">
+        <v>735</v>
+      </c>
+      <c r="D226" t="s">
+        <v>388</v>
+      </c>
+      <c r="E226" t="s">
+        <v>579</v>
+      </c>
+      <c r="F226" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A227" t="s">
+        <v>256</v>
+      </c>
+      <c r="B227" t="s">
+        <v>740</v>
+      </c>
+      <c r="C227" t="s">
+        <v>735</v>
+      </c>
+      <c r="D227" t="s">
+        <v>389</v>
+      </c>
+      <c r="E227" t="s">
+        <v>580</v>
+      </c>
+      <c r="F227" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A228" t="s">
         <v>257</v>
       </c>
-      <c r="B189" t="s">
-        <v>744</v>
-      </c>
-      <c r="C189" t="s">
-        <v>739</v>
-      </c>
-      <c r="D189" t="s">
+      <c r="B228" t="s">
+        <v>740</v>
+      </c>
+      <c r="C228" t="s">
+        <v>735</v>
+      </c>
+      <c r="D228" t="s">
         <v>390</v>
       </c>
-      <c r="E189" t="s">
+      <c r="E228" t="s">
         <v>581</v>
       </c>
-      <c r="F189" t="s">
+      <c r="F228" t="s">
         <v>597</v>
       </c>
     </row>

--- a/HoI2Editor/Documents/Design/scenario.xlsx
+++ b/HoI2Editor/Documents/Design/scenario.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="2445" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="2445" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ファイル構成" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="1095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="1107">
   <si>
     <t>シナリオファイルの構成</t>
     <rPh sb="9" eb="11">
@@ -1974,9 +1974,6 @@
     <t>claimedProvinceCheckBox</t>
   </si>
   <si>
-    <t>provinceNameTextBox</t>
-  </si>
-  <si>
     <t>provinceIdTextBox</t>
   </si>
   <si>
@@ -2128,9 +2125,6 @@
   </si>
   <si>
     <t>province id</t>
-  </si>
-  <si>
-    <t>province name</t>
   </si>
   <si>
     <t>province vp</t>
@@ -4208,6 +4202,62 @@
   </si>
   <si>
     <t>countryNameStringTextBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ProvinceNameString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ProvinceNameKey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.NameKey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ProvinceSettings.ItemId.NameString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>province name string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>province name key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>provinceNameKeyTextBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>provinceNameStringTextBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DarkestHour</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SaveGames</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BattleScenario</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HoI2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HoI2Bases</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DarkestHourDod</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4254,7 +4304,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4264,6 +4314,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -4282,7 +4362,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4294,6 +4374,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4301,6 +4399,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFFFF"/>
+      <color rgb="FF99CCFF"/>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FFFFCC99"/>
+      <color rgb="FFCCECFF"/>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5139,19 +5249,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="12.5" style="2" customWidth="1"/>
+    <col min="9" max="14" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>258</v>
       </c>
@@ -5173,8 +5282,26 @@
       <c r="G1" s="3" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I1" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>196</v>
       </c>
@@ -5196,8 +5323,26 @@
       <c r="G2" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I2" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>197</v>
       </c>
@@ -5219,8 +5364,26 @@
       <c r="G3" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I3" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>198</v>
       </c>
@@ -5242,8 +5405,26 @@
       <c r="G4" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I4" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>199</v>
       </c>
@@ -5265,8 +5446,26 @@
       <c r="G5" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I5" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>200</v>
       </c>
@@ -5288,8 +5487,26 @@
       <c r="G6" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I6" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -5311,8 +5528,24 @@
       <c r="G7" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I7" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>202</v>
       </c>
@@ -5334,8 +5567,26 @@
       <c r="G8" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I8" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>195</v>
       </c>
@@ -5357,8 +5608,26 @@
       <c r="G9" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>203</v>
       </c>
@@ -5380,8 +5649,26 @@
       <c r="G10" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I10" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>204</v>
       </c>
@@ -5403,8 +5690,26 @@
       <c r="G11" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I11" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -5426,8 +5731,26 @@
       <c r="G12" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I12" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>206</v>
       </c>
@@ -5449,8 +5772,26 @@
       <c r="G13" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I13" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>207</v>
       </c>
@@ -5472,8 +5813,26 @@
       <c r="G14" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I14" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>208</v>
       </c>
@@ -5495,8 +5854,26 @@
       <c r="G15" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I15" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>209</v>
       </c>
@@ -5518,8 +5895,26 @@
       <c r="G16" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I16" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>210</v>
       </c>
@@ -5541,8 +5936,26 @@
       <c r="G17" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I17" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>211</v>
       </c>
@@ -5564,8 +5977,26 @@
       <c r="G18" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I18" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>212</v>
       </c>
@@ -5587,8 +6018,26 @@
       <c r="G19" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I19" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>213</v>
       </c>
@@ -5610,8 +6059,26 @@
       <c r="G20" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I20" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>214</v>
       </c>
@@ -5633,8 +6100,26 @@
       <c r="G21" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I21" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>215</v>
       </c>
@@ -5656,8 +6141,26 @@
       <c r="G22" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I22" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>216</v>
       </c>
@@ -5679,8 +6182,26 @@
       <c r="G23" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I23" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>217</v>
       </c>
@@ -5702,8 +6223,26 @@
       <c r="G24" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I24" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>218</v>
       </c>
@@ -5725,8 +6264,26 @@
       <c r="G25" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I25" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>219</v>
       </c>
@@ -5748,8 +6305,26 @@
       <c r="G26" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I26" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>220</v>
       </c>
@@ -5771,8 +6346,26 @@
       <c r="G27" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I27" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>221</v>
       </c>
@@ -5794,8 +6387,26 @@
       <c r="G28" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I28" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>222</v>
       </c>
@@ -5817,8 +6428,26 @@
       <c r="G29" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I29" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>223</v>
       </c>
@@ -5840,8 +6469,26 @@
       <c r="G30" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I30" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>224</v>
       </c>
@@ -5863,8 +6510,26 @@
       <c r="G31" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I31" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>225</v>
       </c>
@@ -5886,8 +6551,26 @@
       <c r="G32" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I32" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>226</v>
       </c>
@@ -5909,8 +6592,26 @@
       <c r="G33" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="I33" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>227</v>
       </c>
@@ -5932,8 +6633,26 @@
       <c r="G34" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I34" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>228</v>
       </c>
@@ -5955,8 +6674,26 @@
       <c r="G35" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I35" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>229</v>
       </c>
@@ -5978,8 +6715,26 @@
       <c r="G36" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="I36" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>230</v>
       </c>
@@ -6001,8 +6756,26 @@
       <c r="G37" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I37" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>231</v>
       </c>
@@ -6024,8 +6797,26 @@
       <c r="G38" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I38" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>232</v>
       </c>
@@ -6047,8 +6838,26 @@
       <c r="G39" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="I39" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>233</v>
       </c>
@@ -6070,8 +6879,26 @@
       <c r="G40" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="I40" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>234</v>
       </c>
@@ -6093,8 +6920,26 @@
       <c r="G41" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="I41" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>235</v>
       </c>
@@ -6116,8 +6961,26 @@
       <c r="G42" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="I42" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>236</v>
       </c>
@@ -6139,8 +7002,26 @@
       <c r="G43" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="I43" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>237</v>
       </c>
@@ -6162,8 +7043,26 @@
       <c r="G44" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="I44" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>238</v>
       </c>
@@ -6185,8 +7084,26 @@
       <c r="G45" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="I45" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>239</v>
       </c>
@@ -6208,8 +7125,26 @@
       <c r="G46" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I46" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N46" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>240</v>
       </c>
@@ -6231,8 +7166,26 @@
       <c r="G47" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I47" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>241</v>
       </c>
@@ -6254,8 +7207,26 @@
       <c r="G48" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="I48" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>242</v>
       </c>
@@ -6277,8 +7248,26 @@
       <c r="G49" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I49" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>243</v>
       </c>
@@ -6300,8 +7289,26 @@
       <c r="G50" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I50" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>244</v>
       </c>
@@ -6323,8 +7330,26 @@
       <c r="G51" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="I51" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>245</v>
       </c>
@@ -6346,8 +7371,26 @@
       <c r="G52" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I52" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N52" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>246</v>
       </c>
@@ -6369,8 +7412,26 @@
       <c r="G53" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I53" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>247</v>
       </c>
@@ -6392,8 +7453,26 @@
       <c r="G54" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="I54" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N54" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>248</v>
       </c>
@@ -6415,8 +7494,26 @@
       <c r="G55" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I55" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>249</v>
       </c>
@@ -6438,8 +7535,26 @@
       <c r="G56" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I56" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>250</v>
       </c>
@@ -6461,8 +7576,26 @@
       <c r="G57" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I57" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>251</v>
       </c>
@@ -6484,8 +7617,26 @@
       <c r="G58" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I58" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>252</v>
       </c>
@@ -6507,8 +7658,26 @@
       <c r="G59" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I59" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N59" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>253</v>
       </c>
@@ -6530,8 +7699,26 @@
       <c r="G60" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I60" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="M60" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N60" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>254</v>
       </c>
@@ -6553,8 +7740,26 @@
       <c r="G61" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I61" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>255</v>
       </c>
@@ -6576,8 +7781,26 @@
       <c r="G62" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I62" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N62" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>256</v>
       </c>
@@ -6599,8 +7822,26 @@
       <c r="G63" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I63" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>257</v>
       </c>
@@ -6620,6 +7861,24 @@
         <v>266</v>
       </c>
       <c r="G64" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N64" s="9" t="s">
         <v>271</v>
       </c>
     </row>
@@ -6632,9 +7891,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F228"/>
+  <dimension ref="A1:F229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6651,10 +7912,10 @@
         <v>258</v>
       </c>
       <c r="B1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D1" t="s">
         <v>391</v>
@@ -6668,2482 +7929,2482 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D2" t="s">
         <v>1005</v>
       </c>
-      <c r="C2" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1007</v>
-      </c>
       <c r="E2" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F2" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D3" t="s">
         <v>1006</v>
       </c>
-      <c r="D3" t="s">
-        <v>1008</v>
-      </c>
       <c r="E3" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F3" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B4" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C4" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D4" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E4" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F4" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B5" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C5" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D5" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E5" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="F5" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B6" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C6" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D6" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E6" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F6" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B7" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C7" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D7" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E7" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F7" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B8" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C8" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D8" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E8" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="F8" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B9" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C9" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D9" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E9" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="F9" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B10" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C10" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D10" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E10" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F10" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B11" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C11" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D11" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E11" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F11" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B12" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C12" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D12" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E12" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F12" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B13" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C13" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D13" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E13" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F13" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B14" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C14" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D14" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E14" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F14" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B15" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C15" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D15" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E15" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="F15" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B16" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C16" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D16" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E16" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="F16" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B17" t="s">
         <v>1003</v>
       </c>
-      <c r="B17" t="s">
-        <v>1005</v>
-      </c>
       <c r="C17" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D17" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E17" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="F17" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C18" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D18" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E18" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="F18" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B19" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C19" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D19" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="E19" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="F19" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B20" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C20" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D20" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="E20" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="F20" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B21" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D21" t="s">
         <v>1045</v>
       </c>
-      <c r="C21" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1047</v>
-      </c>
       <c r="E21" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="F21" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B22" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C22" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D22" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E22" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F22" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D23" t="s">
         <v>1073</v>
       </c>
-      <c r="B23" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1075</v>
-      </c>
       <c r="E23" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="F23" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B24" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C24" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D24" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="E24" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="F24" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
+        <v>925</v>
+      </c>
+      <c r="B25" t="s">
+        <v>926</v>
+      </c>
+      <c r="C25" t="s">
         <v>927</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>928</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>929</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>930</v>
-      </c>
-      <c r="E25" t="s">
-        <v>931</v>
-      </c>
-      <c r="F25" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>931</v>
+      </c>
+      <c r="B26" t="s">
+        <v>926</v>
+      </c>
+      <c r="C26" t="s">
+        <v>932</v>
+      </c>
+      <c r="D26" t="s">
         <v>933</v>
       </c>
-      <c r="B26" t="s">
-        <v>928</v>
-      </c>
-      <c r="C26" t="s">
-        <v>934</v>
-      </c>
-      <c r="D26" t="s">
-        <v>935</v>
-      </c>
       <c r="E26" t="s">
+        <v>936</v>
+      </c>
+      <c r="F26" t="s">
         <v>938</v>
-      </c>
-      <c r="F26" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B27" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C27" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D27" t="s">
+        <v>935</v>
+      </c>
+      <c r="E27" t="s">
         <v>937</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>939</v>
-      </c>
-      <c r="F27" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B28" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C28" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D28" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E28" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="F28" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B29" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C29" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D29" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E29" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F29" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B30" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C30" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D30" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E30" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="F30" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B31" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C31" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D31" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E31" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F31" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B32" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C32" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D32" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E32" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="F32" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B33" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C33" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D33" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E33" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F33" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B34" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C34" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D34" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E34" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F34" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B35" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C35" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D35" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E35" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F35" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B36" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C36" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D36" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E36" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F36" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B37" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C37" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D37" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E37" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="F37" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B38" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C38" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D38" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E38" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F38" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B39" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C39" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D39" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E39" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="F39" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B40" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C40" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D40" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E40" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F40" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B41" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C41" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D41" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E41" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F41" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B42" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C42" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D42" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E42" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F42" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B43" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C43" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D43" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E43" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F43" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B44" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C44" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D44" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E44" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="F44" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B45" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C45" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D45" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E45" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="F45" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B46" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C46" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D46" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E46" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B47" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C47" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D47" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E47" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F47" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B48" t="s">
+        <v>853</v>
+      </c>
+      <c r="C48" t="s">
         <v>855</v>
       </c>
-      <c r="C48" t="s">
-        <v>857</v>
-      </c>
       <c r="D48" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E48" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F48" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B49" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C49" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D49" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E49" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F49" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B50" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C50" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D50" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E50" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F50" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B51" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C51" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D51" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E51" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F51" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B52" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C52" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D52" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E52" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F52" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B53" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C53" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D53" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E53" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F53" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B54" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C54" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D54" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E54" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F54" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B55" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C55" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D55" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E55" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F55" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B56" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C56" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D56" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E56" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F56" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B57" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C57" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D57" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E57" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F57" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B58" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C58" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D58" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E58" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F58" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B59" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C59" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D59" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E59" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F59" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B60" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C60" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D60" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E60" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F60" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B61" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C61" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D61" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E61" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F61" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B62" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C62" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D62" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E62" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F62" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B63" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C63" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D63" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E63" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F63" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B64" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C64" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D64" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E64" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F64" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
+        <v>851</v>
+      </c>
+      <c r="B65" t="s">
         <v>853</v>
       </c>
-      <c r="B65" t="s">
-        <v>855</v>
-      </c>
       <c r="C65" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D65" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E65" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F65" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
+        <v>852</v>
+      </c>
+      <c r="B66" t="s">
+        <v>853</v>
+      </c>
+      <c r="C66" t="s">
         <v>854</v>
       </c>
-      <c r="B66" t="s">
-        <v>855</v>
-      </c>
-      <c r="C66" t="s">
-        <v>856</v>
-      </c>
       <c r="D66" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E66" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="F66" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B67" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C67" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D67" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E67" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F67" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B68" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C68" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D68" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E68" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F68" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B69" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C69" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D69" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E69" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F69" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B70" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C70" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D70" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E70" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F70" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B71" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C71" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D71" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E71" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F71" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B72" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C72" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D72" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E72" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F72" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
+        <v>812</v>
+      </c>
+      <c r="B73" t="s">
+        <v>768</v>
+      </c>
+      <c r="C73" t="s">
+        <v>769</v>
+      </c>
+      <c r="D73" t="s">
+        <v>813</v>
+      </c>
+      <c r="E73" t="s">
         <v>814</v>
       </c>
-      <c r="B73" t="s">
-        <v>770</v>
-      </c>
-      <c r="C73" t="s">
-        <v>771</v>
-      </c>
-      <c r="D73" t="s">
-        <v>815</v>
-      </c>
-      <c r="E73" t="s">
-        <v>816</v>
-      </c>
       <c r="F73" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B74" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C74" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D74" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E74" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F74" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B75" t="s">
+        <v>768</v>
+      </c>
+      <c r="C75" t="s">
         <v>770</v>
       </c>
-      <c r="C75" t="s">
-        <v>772</v>
-      </c>
       <c r="D75" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E75" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F75" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B76" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C76" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D76" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E76" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F76" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B77" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C77" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D77" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E77" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F77" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B78" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C78" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D78" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E78" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F78" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B79" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C79" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D79" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E79" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F79" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B80" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C80" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D80" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E80" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F80" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B81" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C81" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D81" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E81" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F81" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B82" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C82" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D82" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E82" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F82" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B83" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C83" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D83" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E83" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F83" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B84" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C84" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D84" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E84" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F84" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B85" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C85" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D85" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E85" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F85" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B86" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C86" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D86" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E86" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F86" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B87" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C87" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D87" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E87" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F87" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
+        <v>766</v>
+      </c>
+      <c r="B88" t="s">
         <v>768</v>
       </c>
-      <c r="B88" t="s">
-        <v>770</v>
-      </c>
       <c r="C88" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D88" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E88" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F88" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B89" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C89" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D89" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E89" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F89" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B90" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C90" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D90" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E90" t="s">
         <v>1089</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>1091</v>
-      </c>
-      <c r="F90" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B91" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C91" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D91" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E91" t="s">
         <v>1090</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>1092</v>
-      </c>
-      <c r="F91" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B92" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C92" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D92" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E92" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F92" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B93" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C93" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D93" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E93" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F93" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B94" t="s">
+        <v>730</v>
+      </c>
+      <c r="C94" t="s">
         <v>732</v>
       </c>
-      <c r="C94" t="s">
-        <v>734</v>
-      </c>
       <c r="D94" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E94" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F94" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B95" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C95" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D95" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E95" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F95" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B96" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C96" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D96" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E96" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F96" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B97" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C97" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D97" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E97" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F97" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B98" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C98" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D98" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E98" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F98" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B99" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C99" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D99" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E99" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F99" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B100" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C100" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D100" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E100" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F100" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B101" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C101" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D101" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E101" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F101" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B102" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C102" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D102" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E102" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F102" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B103" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C103" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D103" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E103" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F103" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B104" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C104" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D104" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E104" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F104" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B105" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C105" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D105" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E105" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F105" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B106" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C106" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D106" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E106" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F106" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B107" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C107" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D107" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E107" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F107" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B108" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C108" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D108" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E108" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F108" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B109" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C109" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D109" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E109" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F109" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B110" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C110" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D110" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E110" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F110" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B111" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C111" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D111" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E111" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F111" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B112" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C112" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D112" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E112" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F112" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B113" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C113" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D113" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E113" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F113" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B114" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C114" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D114" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E114" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F114" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B115" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C115" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D115" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E115" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F115" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B116" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C116" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D116" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E116" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F116" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B117" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C117" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D117" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E117" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F117" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B118" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C118" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D118" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E118" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F118" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B119" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C119" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D119" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E119" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F119" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B120" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C120" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D120" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E120" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F120" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B121" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C121" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D121" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E121" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F121" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B122" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C122" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D122" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E122" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F122" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B123" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C123" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D123" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E123" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F123" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B124" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C124" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D124" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E124" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="F124" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B125" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C125" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D125" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E125" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F125" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
@@ -9151,16 +10412,16 @@
         <v>273</v>
       </c>
       <c r="B126" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C126" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D126" t="s">
         <v>303</v>
       </c>
       <c r="E126" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F126" t="s">
         <v>433</v>
@@ -9171,16 +10432,16 @@
         <v>274</v>
       </c>
       <c r="B127" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C127" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D127" t="s">
         <v>304</v>
       </c>
       <c r="E127" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F127" t="s">
         <v>434</v>
@@ -9191,16 +10452,16 @@
         <v>275</v>
       </c>
       <c r="B128" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C128" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D128" t="s">
         <v>305</v>
       </c>
       <c r="E128" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F128" t="s">
         <v>435</v>
@@ -9211,10 +10472,10 @@
         <v>276</v>
       </c>
       <c r="B129" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C129" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D129" t="s">
         <v>306</v>
@@ -9231,10 +10492,10 @@
         <v>277</v>
       </c>
       <c r="B130" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C130" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D130" t="s">
         <v>307</v>
@@ -9251,10 +10512,10 @@
         <v>278</v>
       </c>
       <c r="B131" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C131" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D131" t="s">
         <v>308</v>
@@ -9271,10 +10532,10 @@
         <v>279</v>
       </c>
       <c r="B132" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C132" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D132" t="s">
         <v>309</v>
@@ -9291,10 +10552,10 @@
         <v>280</v>
       </c>
       <c r="B133" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C133" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D133" t="s">
         <v>310</v>
@@ -9311,10 +10572,10 @@
         <v>281</v>
       </c>
       <c r="B134" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C134" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D134" t="s">
         <v>311</v>
@@ -9331,10 +10592,10 @@
         <v>282</v>
       </c>
       <c r="B135" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C135" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D135" t="s">
         <v>312</v>
@@ -9351,10 +10612,10 @@
         <v>421</v>
       </c>
       <c r="B136" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C136" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D136" t="s">
         <v>422</v>
@@ -9371,10 +10632,10 @@
         <v>283</v>
       </c>
       <c r="B137" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C137" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D137" t="s">
         <v>313</v>
@@ -9391,10 +10652,10 @@
         <v>284</v>
       </c>
       <c r="B138" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C138" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D138" t="s">
         <v>314</v>
@@ -9411,10 +10672,10 @@
         <v>423</v>
       </c>
       <c r="B139" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C139" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D139" t="s">
         <v>316</v>
@@ -9431,10 +10692,10 @@
         <v>285</v>
       </c>
       <c r="B140" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C140" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D140" t="s">
         <v>315</v>
@@ -9451,10 +10712,10 @@
         <v>286</v>
       </c>
       <c r="B141" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C141" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D141" t="s">
         <v>316</v>
@@ -9471,10 +10732,10 @@
         <v>424</v>
       </c>
       <c r="B142" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C142" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D142" t="s">
         <v>318</v>
@@ -9491,10 +10752,10 @@
         <v>287</v>
       </c>
       <c r="B143" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C143" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D143" t="s">
         <v>317</v>
@@ -9511,10 +10772,10 @@
         <v>288</v>
       </c>
       <c r="B144" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C144" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D144" t="s">
         <v>318</v>
@@ -9531,10 +10792,10 @@
         <v>425</v>
       </c>
       <c r="B145" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C145" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D145" t="s">
         <v>320</v>
@@ -9551,10 +10812,10 @@
         <v>289</v>
       </c>
       <c r="B146" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C146" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D146" t="s">
         <v>319</v>
@@ -9571,10 +10832,10 @@
         <v>290</v>
       </c>
       <c r="B147" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C147" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D147" t="s">
         <v>320</v>
@@ -9591,10 +10852,10 @@
         <v>426</v>
       </c>
       <c r="B148" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C148" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D148" t="s">
         <v>322</v>
@@ -9611,10 +10872,10 @@
         <v>291</v>
       </c>
       <c r="B149" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C149" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D149" t="s">
         <v>321</v>
@@ -9631,10 +10892,10 @@
         <v>292</v>
       </c>
       <c r="B150" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C150" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D150" t="s">
         <v>322</v>
@@ -9651,10 +10912,10 @@
         <v>427</v>
       </c>
       <c r="B151" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C151" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D151" t="s">
         <v>324</v>
@@ -9671,10 +10932,10 @@
         <v>293</v>
       </c>
       <c r="B152" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C152" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D152" t="s">
         <v>323</v>
@@ -9691,10 +10952,10 @@
         <v>294</v>
       </c>
       <c r="B153" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C153" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D153" t="s">
         <v>324</v>
@@ -9711,10 +10972,10 @@
         <v>428</v>
       </c>
       <c r="B154" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C154" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D154" t="s">
         <v>326</v>
@@ -9731,10 +10992,10 @@
         <v>295</v>
       </c>
       <c r="B155" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C155" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D155" t="s">
         <v>325</v>
@@ -9751,10 +11012,10 @@
         <v>296</v>
       </c>
       <c r="B156" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C156" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D156" t="s">
         <v>326</v>
@@ -9771,10 +11032,10 @@
         <v>429</v>
       </c>
       <c r="B157" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C157" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D157" t="s">
         <v>328</v>
@@ -9791,10 +11052,10 @@
         <v>297</v>
       </c>
       <c r="B158" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C158" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D158" t="s">
         <v>327</v>
@@ -9811,10 +11072,10 @@
         <v>298</v>
       </c>
       <c r="B159" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C159" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D159" t="s">
         <v>328</v>
@@ -9831,10 +11092,10 @@
         <v>430</v>
       </c>
       <c r="B160" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C160" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D160" t="s">
         <v>330</v>
@@ -9851,10 +11112,10 @@
         <v>299</v>
       </c>
       <c r="B161" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C161" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D161" t="s">
         <v>329</v>
@@ -9871,10 +11132,10 @@
         <v>300</v>
       </c>
       <c r="B162" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C162" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D162" t="s">
         <v>330</v>
@@ -9891,10 +11152,10 @@
         <v>431</v>
       </c>
       <c r="B163" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C163" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D163" t="s">
         <v>332</v>
@@ -9911,10 +11172,10 @@
         <v>301</v>
       </c>
       <c r="B164" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C164" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D164" t="s">
         <v>331</v>
@@ -9931,10 +11192,10 @@
         <v>302</v>
       </c>
       <c r="B165" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C165" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D165" t="s">
         <v>332</v>
@@ -9951,10 +11212,10 @@
         <v>196</v>
       </c>
       <c r="B166" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C166" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D166" t="s">
         <v>333</v>
@@ -9971,16 +11232,16 @@
         <v>197</v>
       </c>
       <c r="B167" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C167" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D167" t="s">
         <v>334</v>
       </c>
       <c r="E167" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F167" t="s">
         <v>474</v>
@@ -9991,16 +11252,16 @@
         <v>198</v>
       </c>
       <c r="B168" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C168" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D168" t="s">
         <v>334</v>
       </c>
       <c r="E168" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F168" t="s">
         <v>475</v>
@@ -10011,16 +11272,16 @@
         <v>199</v>
       </c>
       <c r="B169" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C169" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D169" t="s">
         <v>334</v>
       </c>
       <c r="E169" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F169" t="s">
         <v>476</v>
@@ -10031,16 +11292,16 @@
         <v>200</v>
       </c>
       <c r="B170" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C170" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D170" t="s">
         <v>334</v>
       </c>
       <c r="E170" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F170" t="s">
         <v>477</v>
@@ -10051,1159 +11312,1179 @@
         <v>201</v>
       </c>
       <c r="B171" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C171" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D171" t="s">
         <v>334</v>
       </c>
       <c r="E171" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F171" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>202</v>
+        <v>1094</v>
       </c>
       <c r="B172" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C172" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D172" t="s">
-        <v>334</v>
+        <v>1095</v>
       </c>
       <c r="E172" t="s">
-        <v>530</v>
+        <v>1098</v>
       </c>
       <c r="F172" t="s">
-        <v>478</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>195</v>
+        <v>1093</v>
       </c>
       <c r="B173" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C173" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="D173" t="s">
-        <v>335</v>
+        <v>1096</v>
       </c>
       <c r="E173" t="s">
-        <v>531</v>
+        <v>1097</v>
       </c>
       <c r="F173" t="s">
-        <v>480</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B174" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C174" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D174" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E174" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="F174" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B175" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C175" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D175" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E175" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="F175" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B176" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C176" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D176" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E176" t="s">
         <v>542</v>
       </c>
       <c r="F176" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B177" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C177" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D177" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E177" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F177" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B178" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C178" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D178" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E178" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="F178" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B179" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C179" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D179" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E179" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="F179" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B180" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C180" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D180" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E180" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F180" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B181" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C181" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D181" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E181" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="F181" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B182" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C182" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D182" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E182" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="F182" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B183" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C183" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D183" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E183" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="F183" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B184" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C184" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D184" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E184" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F184" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B185" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C185" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D185" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E185" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="F185" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B186" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C186" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D186" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E186" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F186" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B187" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C187" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D187" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E187" t="s">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="F187" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B188" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C188" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D188" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E188" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="F188" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B189" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C189" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D189" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E189" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="F189" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B190" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C190" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D190" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E190" t="s">
-        <v>535</v>
+        <v>555</v>
       </c>
       <c r="F190" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B191" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C191" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D191" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E191" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="F191" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B192" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C192" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D192" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E192" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F192" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B193" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C193" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D193" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E193" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="F193" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B194" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C194" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D194" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E194" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="F194" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B195" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C195" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D195" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E195" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="F195" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B196" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C196" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D196" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E196" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="F196" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B197" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C197" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D197" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E197" t="s">
         <v>558</v>
       </c>
       <c r="F197" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B198" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C198" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D198" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E198" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F198" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B199" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C199" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D199" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E199" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F199" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B200" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C200" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D200" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E200" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F200" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B201" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C201" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D201" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E201" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F201" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B202" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C202" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D202" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E202" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F202" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B203" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C203" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D203" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E203" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F203" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B204" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C204" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D204" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E204" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F204" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B205" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C205" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D205" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E205" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F205" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B206" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C206" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D206" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E206" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F206" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B207" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C207" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D207" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E207" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F207" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B208" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C208" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D208" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E208" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="F208" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B209" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C209" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D209" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E209" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F209" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B210" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C210" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D210" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E210" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F210" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B211" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C211" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D211" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E211" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F211" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B212" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C212" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D212" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E212" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F212" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B213" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C213" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D213" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E213" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F213" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B214" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C214" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D214" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E214" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="F214" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B215" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C215" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D215" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E215" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F215" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B216" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C216" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D216" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E216" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F216" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B217" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C217" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D217" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E217" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="F217" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B218" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C218" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D218" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E218" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F218" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B219" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C219" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D219" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E219" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F219" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B220" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C220" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D220" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E220" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="F220" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B221" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C221" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D221" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E221" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F221" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B222" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C222" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D222" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E222" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F222" t="s">
-        <v>591</v>
+        <v>527</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B223" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C223" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D223" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E223" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F223" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B224" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C224" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D224" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E224" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F224" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B225" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C225" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D225" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E225" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F225" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B226" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C226" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D226" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E226" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="F226" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B227" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C227" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D227" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E227" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F227" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
+        <v>256</v>
+      </c>
+      <c r="B228" t="s">
+        <v>738</v>
+      </c>
+      <c r="C228" t="s">
+        <v>733</v>
+      </c>
+      <c r="D228" t="s">
+        <v>389</v>
+      </c>
+      <c r="E228" t="s">
+        <v>578</v>
+      </c>
+      <c r="F228" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A229" t="s">
         <v>257</v>
       </c>
-      <c r="B228" t="s">
-        <v>740</v>
-      </c>
-      <c r="C228" t="s">
-        <v>735</v>
-      </c>
-      <c r="D228" t="s">
+      <c r="B229" t="s">
+        <v>738</v>
+      </c>
+      <c r="C229" t="s">
+        <v>733</v>
+      </c>
+      <c r="D229" t="s">
         <v>390</v>
       </c>
-      <c r="E228" t="s">
-        <v>581</v>
-      </c>
-      <c r="F228" t="s">
-        <v>597</v>
+      <c r="E229" t="s">
+        <v>579</v>
+      </c>
+      <c r="F229" t="s">
+        <v>595</v>
       </c>
     </row>
   </sheetData>

--- a/HoI2Editor/Documents/Design/scenario.xlsx
+++ b/HoI2Editor/Documents/Design/scenario.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="1102">
   <si>
     <t>シナリオファイルの構成</t>
     <rPh sb="9" eb="11">
@@ -4237,27 +4237,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DarkestHour</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SaveGames</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BattleScenario</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HoI2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HoI2Bases</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DarkestHourDod</t>
+    <t>DH Full
+1914等</t>
+    <rPh sb="12" eb="13">
+      <t>ナド</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4304,7 +4288,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4314,36 +4298,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -4362,7 +4316,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4372,24 +4326,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5249,59 +5185,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="12.5" style="2" customWidth="1"/>
-    <col min="9" max="14" width="12.5" customWidth="1"/>
+    <col min="2" max="8" width="12.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>258</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>1104</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>1105</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>1101</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>1106</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>1103</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>196</v>
       </c>
@@ -5321,28 +5241,13 @@
         <v>270</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>197</v>
       </c>
@@ -5362,28 +5267,13 @@
         <v>270</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>198</v>
       </c>
@@ -5403,28 +5293,13 @@
         <v>270</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>199</v>
       </c>
@@ -5444,28 +5319,13 @@
         <v>270</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>200</v>
       </c>
@@ -5485,28 +5345,13 @@
         <v>270</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -5520,32 +5365,19 @@
         <v>266</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>202</v>
       </c>
@@ -5553,40 +5385,25 @@
         <v>270</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>195</v>
       </c>
@@ -5606,28 +5423,13 @@
         <v>11</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>203</v>
       </c>
@@ -5635,40 +5437,25 @@
         <v>270</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="F10" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>204</v>
       </c>
@@ -5676,40 +5463,25 @@
         <v>270</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -5717,40 +5489,25 @@
         <v>270</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>206</v>
       </c>
@@ -5758,40 +5515,25 @@
         <v>270</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="F13" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>207</v>
       </c>
@@ -5799,40 +5541,25 @@
         <v>270</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>208</v>
       </c>
@@ -5840,40 +5567,25 @@
         <v>270</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>209</v>
       </c>
@@ -5881,40 +5593,25 @@
         <v>270</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>210</v>
       </c>
@@ -5922,40 +5619,25 @@
         <v>270</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>211</v>
       </c>
@@ -5963,40 +5645,25 @@
         <v>270</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>212</v>
       </c>
@@ -6004,40 +5671,25 @@
         <v>270</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>213</v>
       </c>
@@ -6045,40 +5697,25 @@
         <v>270</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>214</v>
       </c>
@@ -6086,40 +5723,25 @@
         <v>270</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>215</v>
       </c>
@@ -6127,40 +5749,25 @@
         <v>270</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>216</v>
       </c>
@@ -6168,40 +5775,25 @@
         <v>270</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>217</v>
       </c>
@@ -6209,40 +5801,25 @@
         <v>270</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>218</v>
       </c>
@@ -6250,40 +5827,25 @@
         <v>270</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G25" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N25" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>219</v>
       </c>
@@ -6291,40 +5853,25 @@
         <v>270</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G26" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I26" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>220</v>
       </c>
@@ -6332,40 +5879,25 @@
         <v>270</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G27" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N27" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>221</v>
       </c>
@@ -6373,40 +5905,25 @@
         <v>270</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G28" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I28" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N28" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>222</v>
       </c>
@@ -6414,40 +5931,25 @@
         <v>270</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G29" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N29" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>223</v>
       </c>
@@ -6455,40 +5957,25 @@
         <v>270</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G30" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I30" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N30" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>224</v>
       </c>
@@ -6496,40 +5983,25 @@
         <v>270</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G31" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I31" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N31" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>225</v>
       </c>
@@ -6537,40 +6009,25 @@
         <v>270</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G32" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I32" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N32" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>226</v>
       </c>
@@ -6578,40 +6035,25 @@
         <v>270</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G33" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I33" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N33" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>227</v>
       </c>
@@ -6621,38 +6063,23 @@
       <c r="C34" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G34" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I34" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N34" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>228</v>
       </c>
@@ -6660,40 +6087,25 @@
         <v>270</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G35" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I35" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N35" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>229</v>
       </c>
@@ -6701,40 +6113,25 @@
         <v>270</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G36" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I36" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N36" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>230</v>
       </c>
@@ -6744,38 +6141,23 @@
       <c r="C37" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G37" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I37" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N37" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>231</v>
       </c>
@@ -6783,40 +6165,25 @@
         <v>270</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G38" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I38" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>232</v>
       </c>
@@ -6824,40 +6191,25 @@
         <v>270</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G39" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I39" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N39" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>233</v>
       </c>
@@ -6867,38 +6219,23 @@
       <c r="C40" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G40" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I40" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N40" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>234</v>
       </c>
@@ -6906,40 +6243,25 @@
         <v>272</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G41" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I41" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M41" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N41" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>235</v>
       </c>
@@ -6947,40 +6269,25 @@
         <v>272</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G42" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I42" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L42" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N42" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>236</v>
       </c>
@@ -6990,38 +6297,23 @@
       <c r="C43" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G43" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I43" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N43" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>237</v>
       </c>
@@ -7029,40 +6321,25 @@
         <v>272</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G44" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I44" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L44" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M44" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N44" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>238</v>
       </c>
@@ -7070,40 +6347,25 @@
         <v>272</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G45" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I45" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J45" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L45" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M45" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N45" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>239</v>
       </c>
@@ -7113,38 +6375,23 @@
       <c r="C46" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G46" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I46" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M46" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N46" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>240</v>
       </c>
@@ -7152,40 +6399,25 @@
         <v>270</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G47" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I47" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M47" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N47" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>241</v>
       </c>
@@ -7193,40 +6425,25 @@
         <v>270</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G48" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I48" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M48" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N48" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>242</v>
       </c>
@@ -7236,38 +6453,23 @@
       <c r="C49" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G49" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I49" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M49" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N49" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>243</v>
       </c>
@@ -7275,40 +6477,25 @@
         <v>270</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G50" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I50" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L50" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M50" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N50" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>244</v>
       </c>
@@ -7316,40 +6503,25 @@
         <v>270</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G51" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I51" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L51" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M51" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N51" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>245</v>
       </c>
@@ -7359,38 +6531,23 @@
       <c r="C52" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G52" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I52" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K52" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L52" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M52" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N52" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>246</v>
       </c>
@@ -7398,40 +6555,25 @@
         <v>270</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G53" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I53" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K53" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L53" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M53" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N53" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>247</v>
       </c>
@@ -7439,40 +6581,25 @@
         <v>270</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G54" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I54" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K54" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L54" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M54" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N54" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>248</v>
       </c>
@@ -7482,38 +6609,23 @@
       <c r="C55" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G55" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I55" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L55" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M55" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N55" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>249</v>
       </c>
@@ -7527,34 +6639,19 @@
         <v>266</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F56" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I56" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="M56" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N56" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>250</v>
       </c>
@@ -7568,34 +6665,19 @@
         <v>266</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F57" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I57" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="M57" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N57" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>251</v>
       </c>
@@ -7609,34 +6691,19 @@
         <v>266</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F58" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I58" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="M58" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N58" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>252</v>
       </c>
@@ -7650,34 +6717,19 @@
         <v>266</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F59" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I59" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="M59" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N59" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>253</v>
       </c>
@@ -7691,34 +6743,19 @@
         <v>266</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F60" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I60" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J60" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="M60" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N60" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>254</v>
       </c>
@@ -7732,34 +6769,19 @@
         <v>266</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F61" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I61" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="M61" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N61" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>255</v>
       </c>
@@ -7773,34 +6795,19 @@
         <v>266</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F62" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I62" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J62" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="M62" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N62" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>256</v>
       </c>
@@ -7814,34 +6821,19 @@
         <v>266</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F63" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="H63" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I63" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J63" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="M63" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N63" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>257</v>
       </c>
@@ -7855,30 +6847,15 @@
         <v>266</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F64" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J64" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="M64" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N64" s="9" t="s">
+      <c r="H64" s="2" t="s">
         <v>271</v>
       </c>
     </row>

--- a/HoI2Editor/Documents/Design/scenario.xlsx
+++ b/HoI2Editor/Documents/Design/scenario.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="2445" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="2445" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ファイル構成" sheetId="1" r:id="rId1"/>
     <sheet name="保存先" sheetId="7" r:id="rId2"/>
     <sheet name="編集項目" sheetId="8" r:id="rId3"/>
-    <sheet name="Month" sheetId="3" r:id="rId4"/>
-    <sheet name="GovernmentType" sheetId="2" r:id="rId5"/>
-    <sheet name="BuildingType" sheetId="4" r:id="rId6"/>
-    <sheet name="MissionType" sheetId="5" r:id="rId7"/>
+    <sheet name="Unit" sheetId="9" r:id="rId4"/>
+    <sheet name="Month" sheetId="3" r:id="rId5"/>
+    <sheet name="GovernmentType" sheetId="2" r:id="rId6"/>
+    <sheet name="BuildingType" sheetId="4" r:id="rId7"/>
+    <sheet name="MissionType" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3180" uniqueCount="1249">
   <si>
     <t>シナリオファイルの構成</t>
     <rPh sb="9" eb="11">
@@ -4004,6 +4005,1030 @@
     </rPh>
     <rPh sb="26" eb="27">
       <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>location</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TypeId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prevprov</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニットID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニット名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直前のプロヴィンス</t>
+    <rPh sb="0" eb="2">
+      <t>チョクゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>home</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホームプロヴィンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mission</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mission</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>任務</t>
+    <rPh sb="0" eb="2">
+      <t>ニンム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GameDate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>development</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生産中かどうか</t>
+    <rPh sb="0" eb="3">
+      <t>セイサンチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>morale</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>士気</t>
+    <rPh sb="0" eb="2">
+      <t>シキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>leader</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Leader</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指揮官</t>
+    <rPh sb="0" eb="3">
+      <t>シキカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>division</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Division</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構成師団</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dig_in</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>塹壕</t>
+    <rPh sb="0" eb="2">
+      <t>ザンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>base</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基地プロヴィンス</t>
+    <rPh sb="0" eb="2">
+      <t>キチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AoD1.08</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DH1.03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>師団ID</t>
+    <rPh sb="0" eb="2">
+      <t>シダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>師団名</t>
+    <rPh sb="0" eb="2">
+      <t>シダン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>brigade_model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>付属旅団モデル</t>
+    <rPh sb="0" eb="2">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UnitType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニット種類</t>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>strength</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦力</t>
+    <rPh sb="0" eb="2">
+      <t>センリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>organisation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組織率</t>
+    <rPh sb="0" eb="3">
+      <t>ソシキリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>Double</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経験値</t>
+    <rPh sb="0" eb="3">
+      <t>ケイケンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>defaultorganisation</t>
+  </si>
+  <si>
+    <t>最大組織率</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ソシキリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改良進捗率</t>
+    <rPh sb="0" eb="2">
+      <t>カイリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>シンチョクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>redep_unit_name</t>
+  </si>
+  <si>
+    <t>supplies</t>
+  </si>
+  <si>
+    <t>物資</t>
+    <rPh sb="0" eb="2">
+      <t>ブッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>燃料</t>
+    <rPh sb="0" eb="2">
+      <t>ネンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max_supply_stock</t>
+  </si>
+  <si>
+    <t>最大物資</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max_oil_stock</t>
+  </si>
+  <si>
+    <t>最大燃料</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ネンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>maxspeed</t>
+  </si>
+  <si>
+    <t>Double</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大速度</t>
+    <rPh sb="0" eb="4">
+      <t>サイダイソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>supplyconsumption</t>
+  </si>
+  <si>
+    <t>物資消費量</t>
+    <rPh sb="0" eb="2">
+      <t>ブッシ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ショウヒリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fuelconsumption</t>
+  </si>
+  <si>
+    <t>燃料消費量</t>
+    <rPh sb="0" eb="5">
+      <t>ネンリョウショウヒリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>defensiveness</t>
+  </si>
+  <si>
+    <t>防御力</t>
+    <rPh sb="0" eb="3">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>toughness</t>
+  </si>
+  <si>
+    <t>softness</t>
+  </si>
+  <si>
+    <t>脆弱性</t>
+    <rPh sb="0" eb="3">
+      <t>ゼイジャクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>耐久力</t>
+    <rPh sb="0" eb="3">
+      <t>タイキュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>suppression</t>
+  </si>
+  <si>
+    <t>制圧力</t>
+    <rPh sb="0" eb="3">
+      <t>セイアツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>airdefence</t>
+  </si>
+  <si>
+    <t>対空防御力</t>
+    <rPh sb="0" eb="2">
+      <t>タイクウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>softattack</t>
+  </si>
+  <si>
+    <t>対人攻撃力</t>
+    <rPh sb="0" eb="5">
+      <t>タイジンコウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hardattack</t>
+  </si>
+  <si>
+    <t>transportweight</t>
+  </si>
+  <si>
+    <t>airattack</t>
+  </si>
+  <si>
+    <t>speed_cap_art</t>
+  </si>
+  <si>
+    <t>speed_cap_eng</t>
+  </si>
+  <si>
+    <t>speed_cap_aa</t>
+  </si>
+  <si>
+    <t>speed_cap_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>artillery_bombardment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対甲攻撃力</t>
+    <rPh sb="0" eb="1">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>輸送負荷</t>
+    <rPh sb="0" eb="4">
+      <t>ユソウフカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対空攻撃力</t>
+    <rPh sb="0" eb="5">
+      <t>タイクウコウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>砲兵速度キャップ</t>
+    <rPh sb="0" eb="2">
+      <t>ホウヘイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工兵速度キャップ</t>
+    <rPh sb="0" eb="2">
+      <t>コウヘイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対戦車速度キャップ</t>
+    <rPh sb="0" eb="3">
+      <t>タイセンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対空速度キャップ</t>
+    <rPh sb="0" eb="2">
+      <t>タイクウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>砲撃能力</t>
+    <rPh sb="0" eb="4">
+      <t>ホウゲキノウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DDA1.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DDA1.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AoD1.04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AoD1.07</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DH1.02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DH1.04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ユニット]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[師団]</t>
+    <rPh sb="1" eb="3">
+      <t>シダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再配置ユニット名</t>
+    <rPh sb="0" eb="3">
+      <t>サイハイチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在のプロヴィンス</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>extra1</t>
+  </si>
+  <si>
+    <t>extra2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>extra3</t>
+  </si>
+  <si>
+    <t>extra4</t>
+  </si>
+  <si>
+    <t>extra5</t>
+  </si>
+  <si>
+    <t>付属旅団ユニット種類</t>
+    <rPh sb="0" eb="2">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョダン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>付属旅団ユニット種類1</t>
+    <rPh sb="0" eb="2">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョダン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>付属旅団ユニット種類2</t>
+    <rPh sb="0" eb="2">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョダン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>付属旅団ユニット種類3</t>
+    <rPh sb="0" eb="2">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョダン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>付属旅団ユニット種類4</t>
+    <rPh sb="0" eb="2">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョダン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>付属旅団ユニット種類5</t>
+    <rPh sb="0" eb="2">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョダン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>extra</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UnitType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>brigade_model1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>付属旅団モデル2</t>
+    <rPh sb="0" eb="2">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>brigade_model2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>付属旅団モデル1</t>
+    <rPh sb="0" eb="2">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>brigade_model3</t>
+  </si>
+  <si>
+    <t>付属旅団モデル3</t>
+    <rPh sb="0" eb="2">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>brigade_model4</t>
+  </si>
+  <si>
+    <t>付属旅団モデル4</t>
+    <rPh sb="0" eb="2">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>brigade_model5</t>
+  </si>
+  <si>
+    <t>付属旅団モデル5</t>
+    <rPh sb="0" eb="2">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>surfacedetectioncapability</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>airdetectioncapability</t>
+  </si>
+  <si>
+    <t>subdetectioncapability</t>
+  </si>
+  <si>
+    <t>visibility</t>
+  </si>
+  <si>
+    <t>seadefence</t>
+  </si>
+  <si>
+    <t>seaattack</t>
+  </si>
+  <si>
+    <t>subattack</t>
+  </si>
+  <si>
+    <t>convoyattack</t>
+  </si>
+  <si>
+    <t>shorebombardment</t>
+  </si>
+  <si>
+    <t>transportcapability</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>travelled</t>
+  </si>
+  <si>
+    <t>対地索敵力</t>
+    <rPh sb="0" eb="5">
+      <t>タイチサクテキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対潜索敵力</t>
+    <rPh sb="0" eb="5">
+      <t>タイセンサクテキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対空索敵力</t>
+    <rPh sb="0" eb="5">
+      <t>タイクウサクテキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>視認性</t>
+    <rPh sb="0" eb="3">
+      <t>シニンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対艦防御力</t>
+    <rPh sb="0" eb="2">
+      <t>タイカン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>艦対艦攻撃力</t>
+    <rPh sb="0" eb="6">
+      <t>カンタイカンコウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対潜攻撃力</t>
+    <rPh sb="0" eb="5">
+      <t>タイセンコウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>船団攻撃力</t>
+    <rPh sb="0" eb="5">
+      <t>センダンコウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>沿岸砲撃能力</t>
+    <rPh sb="0" eb="6">
+      <t>エンガンホウゲキノウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>輸送能力</t>
+    <rPh sb="0" eb="4">
+      <t>ユソウノウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>射程</t>
+    <rPh sb="0" eb="2">
+      <t>シャテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>航続距離</t>
+    <rPh sb="0" eb="4">
+      <t>コウゾクキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動距離</t>
+    <rPh sb="0" eb="4">
+      <t>イドウキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>surfacedefence</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対地防御力</t>
+    <rPh sb="0" eb="5">
+      <t>タイチボウギョリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>strategicattack</t>
+  </si>
+  <si>
+    <t>戦略爆撃攻撃力</t>
+    <rPh sb="0" eb="7">
+      <t>センリャクバクゲキコウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>navalattack</t>
+  </si>
+  <si>
+    <t>空対艦攻撃力</t>
+    <rPh sb="0" eb="3">
+      <t>クウタイカン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>div_upgr_progress</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>redep_target</t>
+  </si>
+  <si>
+    <t>再配置先プロヴィンス</t>
+    <rPh sb="0" eb="4">
+      <t>サイハイチサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>redep_unit_id</t>
+  </si>
+  <si>
+    <t>再配置先ユニットID</t>
+    <rPh sb="0" eb="4">
+      <t>サイハイチサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所属国</t>
+    <rPh sb="0" eb="3">
+      <t>ショゾクコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集対象</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movetime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動時刻</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IntList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動先</t>
+    <rPh sb="0" eb="3">
+      <t>イドウサキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4063,7 +5088,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4074,6 +5099,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4083,12 +5115,12 @@
   <colors>
     <mruColors>
       <color rgb="FFCCFFFF"/>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FF99CCFF"/>
-      <color rgb="FFCCFFCC"/>
       <color rgb="FFFFCC99"/>
       <color rgb="FFCCECFF"/>
       <color rgb="FFFFCCFF"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFFFF99"/>
     </mruColors>
   </colors>
@@ -4720,7 +5752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6403,7 +7435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F229"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A196" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -11006,6 +12038,3410 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="9" style="4" customWidth="1"/>
+    <col min="13" max="15" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>1167</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>1169</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B4" t="s">
+        <v>692</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B11" t="s">
+        <v>698</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B12" t="s">
+        <v>694</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B17" t="s">
+        <v>694</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B36" t="s">
+        <v>692</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B37" t="s">
+        <v>694</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B38" t="s">
+        <v>694</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B39" t="s">
+        <v>694</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B41" t="s">
+        <v>694</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B42" t="s">
+        <v>694</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B44" t="s">
+        <v>692</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1236</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B46" t="s">
+        <v>694</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B47" t="s">
+        <v>694</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B48" t="s">
+        <v>694</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B49" t="s">
+        <v>694</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B51" t="s">
+        <v>694</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B52" t="s">
+        <v>694</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B53" t="s">
+        <v>694</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B54" t="s">
+        <v>694</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B55" t="s">
+        <v>694</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B56" t="s">
+        <v>694</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B57" t="s">
+        <v>694</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B58" t="s">
+        <v>694</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B59" t="s">
+        <v>694</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B60" t="s">
+        <v>694</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B61" t="s">
+        <v>694</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B62" t="s">
+        <v>694</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O62" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B63" t="s">
+        <v>694</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O63" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B64" t="s">
+        <v>694</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O64" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B65" t="s">
+        <v>694</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B66" t="s">
+        <v>694</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B67" t="s">
+        <v>694</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B68" t="s">
+        <v>694</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B69" t="s">
+        <v>694</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B70" t="s">
+        <v>694</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O70" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B71" t="s">
+        <v>694</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O71" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B72" t="s">
+        <v>694</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O72" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B73" t="s">
+        <v>694</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B74" t="s">
+        <v>694</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B75" t="s">
+        <v>694</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B76" t="s">
+        <v>694</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M76" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B77" t="s">
+        <v>694</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B78" t="s">
+        <v>694</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M78" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B79" t="s">
+        <v>694</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O79" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B80" t="s">
+        <v>694</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O80" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B81" t="s">
+        <v>694</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B82" t="s">
+        <v>694</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11127,7 +15563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -11241,7 +15677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -11361,7 +15797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>

--- a/HoI2Editor/Documents/Design/scenario.xlsx
+++ b/HoI2Editor/Documents/Design/scenario.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3180" uniqueCount="1249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3370" uniqueCount="1280">
   <si>
     <t>シナリオファイルの構成</t>
     <rPh sb="9" eb="11">
@@ -4090,13 +4090,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>生産中かどうか</t>
-    <rPh sb="0" eb="3">
-      <t>セイサンチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>morale</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4108,6 +4101,927 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>division</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Division</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構成師団</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dig_in</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>塹壕</t>
+    <rPh sb="0" eb="2">
+      <t>ザンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>base</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基地プロヴィンス</t>
+    <rPh sb="0" eb="2">
+      <t>キチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AoD1.08</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DH1.03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>師団ID</t>
+    <rPh sb="0" eb="2">
+      <t>シダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>師団名</t>
+    <rPh sb="0" eb="2">
+      <t>シダン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>brigade_model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>付属旅団モデル</t>
+    <rPh sb="0" eb="2">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UnitType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニット種類</t>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>strength</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦力</t>
+    <rPh sb="0" eb="2">
+      <t>センリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>organisation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組織率</t>
+    <rPh sb="0" eb="3">
+      <t>ソシキリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>Double</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経験値</t>
+    <rPh sb="0" eb="3">
+      <t>ケイケンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大組織率</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ソシキリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改良進捗率</t>
+    <rPh sb="0" eb="2">
+      <t>カイリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>シンチョクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物資</t>
+    <rPh sb="0" eb="2">
+      <t>ブッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燃料</t>
+    <rPh sb="0" eb="2">
+      <t>ネンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大物資</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大燃料</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ネンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Double</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大速度</t>
+    <rPh sb="0" eb="4">
+      <t>サイダイソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物資消費量</t>
+    <rPh sb="0" eb="2">
+      <t>ブッシ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ショウヒリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燃料消費量</t>
+    <rPh sb="0" eb="5">
+      <t>ネンリョウショウヒリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御力</t>
+    <rPh sb="0" eb="3">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脆弱性</t>
+    <rPh sb="0" eb="3">
+      <t>ゼイジャクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>耐久力</t>
+    <rPh sb="0" eb="3">
+      <t>タイキュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制圧力</t>
+    <rPh sb="0" eb="3">
+      <t>セイアツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対空防御力</t>
+    <rPh sb="0" eb="2">
+      <t>タイクウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対人攻撃力</t>
+    <rPh sb="0" eb="5">
+      <t>タイジンコウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>speed_cap_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>artillery_bombardment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対甲攻撃力</t>
+    <rPh sb="0" eb="1">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>輸送負荷</t>
+    <rPh sb="0" eb="4">
+      <t>ユソウフカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対空攻撃力</t>
+    <rPh sb="0" eb="5">
+      <t>タイクウコウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>砲兵速度キャップ</t>
+    <rPh sb="0" eb="2">
+      <t>ホウヘイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工兵速度キャップ</t>
+    <rPh sb="0" eb="2">
+      <t>コウヘイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対戦車速度キャップ</t>
+    <rPh sb="0" eb="3">
+      <t>タイセンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対空速度キャップ</t>
+    <rPh sb="0" eb="2">
+      <t>タイクウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>砲撃能力</t>
+    <rPh sb="0" eb="4">
+      <t>ホウゲキノウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DDA1.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DDA1.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AoD1.04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AoD1.07</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DH1.02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DH1.04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ユニット]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[師団]</t>
+    <rPh sb="1" eb="3">
+      <t>シダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在のプロヴィンス</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>extra1</t>
+  </si>
+  <si>
+    <t>extra2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>extra3</t>
+  </si>
+  <si>
+    <t>extra4</t>
+  </si>
+  <si>
+    <t>extra5</t>
+  </si>
+  <si>
+    <t>付属旅団ユニット種類</t>
+    <rPh sb="0" eb="2">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョダン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>付属旅団ユニット種類1</t>
+    <rPh sb="0" eb="2">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョダン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>付属旅団ユニット種類2</t>
+    <rPh sb="0" eb="2">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョダン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>付属旅団ユニット種類3</t>
+    <rPh sb="0" eb="2">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョダン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>付属旅団ユニット種類4</t>
+    <rPh sb="0" eb="2">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョダン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>付属旅団ユニット種類5</t>
+    <rPh sb="0" eb="2">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョダン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>extra</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UnitType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>brigade_model1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>付属旅団モデル2</t>
+    <rPh sb="0" eb="2">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>brigade_model2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>付属旅団モデル1</t>
+    <rPh sb="0" eb="2">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>brigade_model3</t>
+  </si>
+  <si>
+    <t>付属旅団モデル3</t>
+    <rPh sb="0" eb="2">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>brigade_model4</t>
+  </si>
+  <si>
+    <t>付属旅団モデル4</t>
+    <rPh sb="0" eb="2">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>brigade_model5</t>
+  </si>
+  <si>
+    <t>付属旅団モデル5</t>
+    <rPh sb="0" eb="2">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>surfacedetectioncapability</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>airdetectioncapability</t>
+  </si>
+  <si>
+    <t>subdetectioncapability</t>
+  </si>
+  <si>
+    <t>visibility</t>
+  </si>
+  <si>
+    <t>seadefence</t>
+  </si>
+  <si>
+    <t>seaattack</t>
+  </si>
+  <si>
+    <t>subattack</t>
+  </si>
+  <si>
+    <t>convoyattack</t>
+  </si>
+  <si>
+    <t>shorebombardment</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>対地索敵力</t>
+    <rPh sb="0" eb="5">
+      <t>タイチサクテキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対潜索敵力</t>
+    <rPh sb="0" eb="5">
+      <t>タイセンサクテキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対空索敵力</t>
+    <rPh sb="0" eb="5">
+      <t>タイクウサクテキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>視認性</t>
+    <rPh sb="0" eb="3">
+      <t>シニンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対艦防御力</t>
+    <rPh sb="0" eb="2">
+      <t>タイカン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>艦対艦攻撃力</t>
+    <rPh sb="0" eb="6">
+      <t>カンタイカンコウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対潜攻撃力</t>
+    <rPh sb="0" eb="5">
+      <t>タイセンコウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>船団攻撃力</t>
+    <rPh sb="0" eb="5">
+      <t>センダンコウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>沿岸砲撃能力</t>
+    <rPh sb="0" eb="6">
+      <t>エンガンホウゲキノウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>輸送能力</t>
+    <rPh sb="0" eb="4">
+      <t>ユソウノウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>航続距離</t>
+    <rPh sb="0" eb="4">
+      <t>コウゾクキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動距離</t>
+    <rPh sb="0" eb="4">
+      <t>イドウキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>surfacedefence</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対地防御力</t>
+    <rPh sb="0" eb="5">
+      <t>タイチボウギョリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦略爆撃攻撃力</t>
+    <rPh sb="0" eb="7">
+      <t>センリャクバクゲキコウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空対艦攻撃力</t>
+    <rPh sb="0" eb="3">
+      <t>クウタイカン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>div_upgr_progress</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再配置先プロヴィンス</t>
+    <rPh sb="0" eb="4">
+      <t>サイハイチサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再配置先ユニットID</t>
+    <rPh sb="0" eb="4">
+      <t>サイハイチサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所属国</t>
+    <rPh sb="0" eb="3">
+      <t>ショゾクコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集対象</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movetime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IntList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動先</t>
+    <rPh sb="0" eb="3">
+      <t>イドウサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>offensive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻勢開始日</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>カイシビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prioritized</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先</t>
+    <rPh sb="0" eb="2">
+      <t>ユウセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>can_upgrade</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max_strength</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大戦力</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再配置先ユニット名</t>
+    <rPh sb="0" eb="3">
+      <t>サイハイチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nuke</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>核兵器搭載</t>
+    <rPh sb="0" eb="3">
+      <t>カクヘイキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>locked</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動不可</t>
+    <rPh sb="0" eb="4">
+      <t>イドウフカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dormant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休止状態</t>
+    <rPh sb="0" eb="4">
+      <t>キュウシジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>射程距離</t>
+    <rPh sb="0" eb="4">
+      <t>シャテイキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>control</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Country</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>統帥国</t>
+    <rPh sb="0" eb="2">
+      <t>トウスイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>leader</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4123,913 +5037,223 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>division</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Division</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>構成師団</t>
+    <t>指定日時</t>
+    <rPh sb="0" eb="4">
+      <t>シテイニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動完了日時</t>
     <rPh sb="0" eb="2">
-      <t>コウセイ</t>
+      <t>イドウ</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>シダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dig_in</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>塹壕</t>
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>invasion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上陸中</t>
+    <rPh sb="0" eb="3">
+      <t>ジョウリクチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生産中</t>
+    <rPh sb="0" eb="3">
+      <t>セイサンチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上陸先</t>
     <rPh sb="0" eb="2">
-      <t>ザンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>base</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基地プロヴィンス</t>
-    <rPh sb="0" eb="2">
-      <t>キチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AoD1.08</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DH1.03</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>師団ID</t>
-    <rPh sb="0" eb="2">
-      <t>シダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>師団名</t>
-    <rPh sb="0" eb="2">
-      <t>シダン</t>
+      <t>ジョウリク</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>model</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モデル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>brigade_model</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>付属旅団モデル</t>
-    <rPh sb="0" eb="2">
-      <t>フゾク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リョダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UnitType</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユニット種類</t>
-    <rPh sb="4" eb="6">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>strength</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>戦力</t>
-    <rPh sb="0" eb="2">
-      <t>センリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>organisation</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>組織率</t>
-    <rPh sb="0" eb="3">
-      <t>ソシキリツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>Double</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>経験値</t>
-    <rPh sb="0" eb="3">
-      <t>ケイケンチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>defaultorganisation</t>
-  </si>
-  <si>
-    <t>最大組織率</t>
-    <rPh sb="0" eb="2">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ソシキリツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>改良進捗率</t>
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改良可能</t>
     <rPh sb="0" eb="2">
       <t>カイリョウ</t>
     </rPh>
-    <rPh sb="2" eb="5">
-      <t>シンチョクリツ</t>
-    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補充可能</t>
+    <rPh sb="0" eb="2">
+      <t>ホジュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>landunit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>搭載ユニット</t>
+    <rPh sb="0" eb="2">
+      <t>トウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃開始日時</t>
+    <rPh sb="0" eb="4">
+      <t>コウゲキカイシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>can_reinforce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>defaultorganisation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>redep_target</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>redep_unit_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>redep_unit_id</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>supplies</t>
-  </si>
-  <si>
-    <t>物資</t>
-    <rPh sb="0" eb="2">
-      <t>ブッシ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>oil</t>
-  </si>
-  <si>
-    <t>燃料</t>
-    <rPh sb="0" eb="2">
-      <t>ネンリョウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>max_supply_stock</t>
-  </si>
-  <si>
-    <t>最大物資</t>
-    <rPh sb="0" eb="2">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブッシ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>max_oil_stock</t>
-  </si>
-  <si>
-    <t>最大燃料</t>
-    <rPh sb="0" eb="2">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ネンリョウ</t>
-    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>supplyconsumption</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fuelconsumption</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>maxspeed</t>
-  </si>
-  <si>
-    <t>Double</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最大速度</t>
-    <rPh sb="0" eb="4">
-      <t>サイダイソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>supplyconsumption</t>
-  </si>
-  <si>
-    <t>物資消費量</t>
-    <rPh sb="0" eb="2">
-      <t>ブッシ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ショウヒリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fuelconsumption</t>
-  </si>
-  <si>
-    <t>燃料消費量</t>
-    <rPh sb="0" eb="5">
-      <t>ネンリョウショウヒリョウ</t>
-    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>speed_cap_art</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>speed_cap_eng</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>speed_cap_aa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>transportweight</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>defensiveness</t>
-  </si>
-  <si>
-    <t>防御力</t>
-    <rPh sb="0" eb="3">
-      <t>ボウギョリョク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>toughness</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>softness</t>
-  </si>
-  <si>
-    <t>脆弱性</t>
-    <rPh sb="0" eb="3">
-      <t>ゼイジャクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>耐久力</t>
-    <rPh sb="0" eb="3">
-      <t>タイキュウリョク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>suppression</t>
-  </si>
-  <si>
-    <t>制圧力</t>
-    <rPh sb="0" eb="3">
-      <t>セイアツリョク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>airdefence</t>
-  </si>
-  <si>
-    <t>対空防御力</t>
-    <rPh sb="0" eb="2">
-      <t>タイクウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ボウギョリョク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>softattack</t>
-  </si>
-  <si>
-    <t>対人攻撃力</t>
-    <rPh sb="0" eb="5">
-      <t>タイジンコウゲキリョク</t>
-    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>airattack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>transportcapability</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>travelled</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>hardattack</t>
-  </si>
-  <si>
-    <t>transportweight</t>
-  </si>
-  <si>
-    <t>airattack</t>
-  </si>
-  <si>
-    <t>speed_cap_art</t>
-  </si>
-  <si>
-    <t>speed_cap_eng</t>
-  </si>
-  <si>
-    <t>speed_cap_aa</t>
-  </si>
-  <si>
-    <t>speed_cap_at</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>artillery_bombardment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対甲攻撃力</t>
-    <rPh sb="0" eb="1">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>コウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>コウゲキリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>輸送負荷</t>
-    <rPh sb="0" eb="4">
-      <t>ユソウフカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対空攻撃力</t>
-    <rPh sb="0" eb="5">
-      <t>タイクウコウゲキリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>砲兵速度キャップ</t>
-    <rPh sb="0" eb="2">
-      <t>ホウヘイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>工兵速度キャップ</t>
-    <rPh sb="0" eb="2">
-      <t>コウヘイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対戦車速度キャップ</t>
-    <rPh sb="0" eb="3">
-      <t>タイセンシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対空速度キャップ</t>
-    <rPh sb="0" eb="2">
-      <t>タイクウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>砲撃能力</t>
-    <rPh sb="0" eb="4">
-      <t>ホウゲキノウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DDA1.2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DDA1.3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AoD1.04</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AoD1.07</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DH1.02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DH1.04</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[ユニット]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[師団]</t>
-    <rPh sb="1" eb="3">
-      <t>シダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>再配置ユニット名</t>
-    <rPh sb="0" eb="3">
-      <t>サイハイチ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>現在のプロヴィンス</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>extra1</t>
-  </si>
-  <si>
-    <t>extra2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>extra3</t>
-  </si>
-  <si>
-    <t>extra4</t>
-  </si>
-  <si>
-    <t>extra5</t>
-  </si>
-  <si>
-    <t>付属旅団ユニット種類</t>
-    <rPh sb="0" eb="2">
-      <t>フゾク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リョダン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>付属旅団ユニット種類1</t>
-    <rPh sb="0" eb="2">
-      <t>フゾク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リョダン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>付属旅団ユニット種類2</t>
-    <rPh sb="0" eb="2">
-      <t>フゾク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リョダン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>付属旅団ユニット種類3</t>
-    <rPh sb="0" eb="2">
-      <t>フゾク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リョダン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>付属旅団ユニット種類4</t>
-    <rPh sb="0" eb="2">
-      <t>フゾク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リョダン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>付属旅団ユニット種類5</t>
-    <rPh sb="0" eb="2">
-      <t>フゾク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リョダン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>extra</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UnitType</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>brigade_model1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>付属旅団モデル2</t>
-    <rPh sb="0" eb="2">
-      <t>フゾク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リョダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>brigade_model2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>付属旅団モデル1</t>
-    <rPh sb="0" eb="2">
-      <t>フゾク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リョダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>brigade_model3</t>
-  </si>
-  <si>
-    <t>付属旅団モデル3</t>
-    <rPh sb="0" eb="2">
-      <t>フゾク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リョダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>brigade_model4</t>
-  </si>
-  <si>
-    <t>付属旅団モデル4</t>
-    <rPh sb="0" eb="2">
-      <t>フゾク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リョダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>brigade_model5</t>
-  </si>
-  <si>
-    <t>付属旅団モデル5</t>
-    <rPh sb="0" eb="2">
-      <t>フゾク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リョダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>surfacedetectioncapability</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>airdetectioncapability</t>
-  </si>
-  <si>
-    <t>subdetectioncapability</t>
-  </si>
-  <si>
-    <t>visibility</t>
-  </si>
-  <si>
-    <t>seadefence</t>
-  </si>
-  <si>
-    <t>seaattack</t>
-  </si>
-  <si>
-    <t>subattack</t>
-  </si>
-  <si>
-    <t>convoyattack</t>
-  </si>
-  <si>
-    <t>shorebombardment</t>
-  </si>
-  <si>
-    <t>transportcapability</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>distance</t>
-  </si>
-  <si>
-    <t>travelled</t>
-  </si>
-  <si>
-    <t>対地索敵力</t>
-    <rPh sb="0" eb="5">
-      <t>タイチサクテキリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対潜索敵力</t>
-    <rPh sb="0" eb="5">
-      <t>タイセンサクテキリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対空索敵力</t>
-    <rPh sb="0" eb="5">
-      <t>タイクウサクテキリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>視認性</t>
-    <rPh sb="0" eb="3">
-      <t>シニンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対艦防御力</t>
-    <rPh sb="0" eb="2">
-      <t>タイカン</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ボウギョリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>艦対艦攻撃力</t>
-    <rPh sb="0" eb="6">
-      <t>カンタイカンコウゲキリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対潜攻撃力</t>
-    <rPh sb="0" eb="5">
-      <t>タイセンコウゲキリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>船団攻撃力</t>
-    <rPh sb="0" eb="5">
-      <t>センダンコウゲキリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>沿岸砲撃能力</t>
-    <rPh sb="0" eb="6">
-      <t>エンガンホウゲキノウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>輸送能力</t>
-    <rPh sb="0" eb="4">
-      <t>ユソウノウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>射程</t>
-    <rPh sb="0" eb="2">
-      <t>シャテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>航続距離</t>
-    <rPh sb="0" eb="4">
-      <t>コウゾクキョリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>移動距離</t>
-    <rPh sb="0" eb="4">
-      <t>イドウキョリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>surfacedefence</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対地防御力</t>
-    <rPh sb="0" eb="5">
-      <t>タイチボウギョリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>o</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>strategicattack</t>
-  </si>
-  <si>
-    <t>戦略爆撃攻撃力</t>
-    <rPh sb="0" eb="7">
-      <t>センリャクバクゲキコウゲキリョク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>navalattack</t>
-  </si>
-  <si>
-    <t>空対艦攻撃力</t>
-    <rPh sb="0" eb="3">
-      <t>クウタイカン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>コウゲキリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>div_upgr_progress</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>redep_target</t>
-  </si>
-  <si>
-    <t>再配置先プロヴィンス</t>
-    <rPh sb="0" eb="4">
-      <t>サイハイチサキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>redep_unit_id</t>
-  </si>
-  <si>
-    <t>再配置先ユニットID</t>
-    <rPh sb="0" eb="4">
-      <t>サイハイチサキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>country</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>所属国</t>
-    <rPh sb="0" eb="3">
-      <t>ショゾクコク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>編集対象</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>movetime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>移動時刻</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジコク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>movement</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IntList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>移動先</t>
-    <rPh sb="0" eb="3">
-      <t>イドウサキ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -12038,7 +12262,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:O94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -12058,40 +12282,40 @@
   <sheetData>
     <row r="1" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>1223</v>
+        <v>1193</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>690</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1224</v>
+        <v>1194</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>1239</v>
+        <v>1205</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>1164</v>
+        <v>1139</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>1165</v>
+        <v>1140</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>1166</v>
+        <v>1141</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>1169</v>
+        <v>1144</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>120</v>
@@ -12105,7 +12329,7 @@
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>1170</v>
+        <v>1145</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -12216,16 +12440,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>1067</v>
+        <v>1231</v>
       </c>
       <c r="B5" t="s">
-        <v>1068</v>
+        <v>1232</v>
       </c>
       <c r="C5" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>123</v>
+        <v>1233</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>123</v>
@@ -12252,24 +12473,21 @@
         <v>123</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O5" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>1071</v>
+        <v>1234</v>
       </c>
       <c r="B6" t="s">
-        <v>1068</v>
+        <v>1235</v>
       </c>
       <c r="C6" t="s">
-        <v>1074</v>
+        <v>1236</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>123</v>
@@ -12296,21 +12514,27 @@
         <v>123</v>
       </c>
       <c r="M6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="B7" t="s">
         <v>1068</v>
       </c>
       <c r="C7" t="s">
-        <v>1076</v>
+        <v>1147</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1240</v>
+        <v>123</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>123</v>
@@ -12319,28 +12543,28 @@
         <v>123</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>1094</v>
+        <v>123</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>1094</v>
+        <v>123</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>1094</v>
+        <v>123</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>1094</v>
+        <v>123</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>1094</v>
+        <v>123</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>1094</v>
+        <v>123</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>1094</v>
+        <v>123</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>1098</v>
+        <v>123</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>123</v>
@@ -12348,16 +12572,13 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>1096</v>
+        <v>1071</v>
       </c>
       <c r="B8" t="s">
         <v>1068</v>
       </c>
       <c r="C8" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>123</v>
+        <v>1074</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>123</v>
@@ -12383,22 +12604,22 @@
       <c r="L8" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B9" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
       <c r="C9" t="s">
-        <v>1079</v>
+        <v>1076</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1206</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>123</v>
@@ -12407,28 +12628,28 @@
         <v>123</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>123</v>
+        <v>1090</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>123</v>
+        <v>1090</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>123</v>
+        <v>1090</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>123</v>
+        <v>1090</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>123</v>
+        <v>1090</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>123</v>
+        <v>1090</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>123</v>
+        <v>1090</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>123</v>
+        <v>1094</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>123</v>
@@ -12436,10 +12657,16 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>1080</v>
+        <v>1092</v>
       </c>
       <c r="B10" t="s">
-        <v>1081</v>
+        <v>1068</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>123</v>
@@ -12463,9 +12690,6 @@
         <v>123</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="M10" s="4" t="s">
         <v>123</v>
       </c>
       <c r="N10" s="4" t="s">
@@ -12477,13 +12701,16 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="B11" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C11" t="s">
-        <v>1083</v>
+        <v>1089</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>1091</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>123</v>
@@ -12510,24 +12737,18 @@
         <v>123</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O11" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B12" t="s">
         <v>694</v>
       </c>
       <c r="C12" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>123</v>
@@ -12568,13 +12789,13 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>1244</v>
+        <v>1077</v>
       </c>
       <c r="B13" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="C13" t="s">
-        <v>1245</v>
+        <v>1079</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>123</v>
@@ -12612,13 +12833,13 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>1246</v>
+        <v>1080</v>
       </c>
       <c r="B14" t="s">
-        <v>1247</v>
+        <v>1081</v>
       </c>
       <c r="C14" t="s">
-        <v>1248</v>
+        <v>1237</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>123</v>
@@ -12656,16 +12877,13 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="B15" t="s">
-        <v>1087</v>
+        <v>698</v>
       </c>
       <c r="C15" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>123</v>
+        <v>1241</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>123</v>
@@ -12674,28 +12892,28 @@
         <v>123</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>1095</v>
+        <v>123</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>1095</v>
+        <v>123</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>1095</v>
+        <v>123</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>1095</v>
+        <v>123</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>1095</v>
+        <v>123</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>1095</v>
+        <v>123</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>1095</v>
+        <v>123</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>1095</v>
+        <v>123</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>123</v>
@@ -12703,13 +12921,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>1089</v>
+        <v>1210</v>
       </c>
       <c r="B16" t="s">
-        <v>1090</v>
+        <v>1081</v>
       </c>
       <c r="C16" t="s">
-        <v>1091</v>
+        <v>1238</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>123</v>
@@ -12747,16 +12965,13 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>1092</v>
+        <v>1211</v>
       </c>
       <c r="B17" t="s">
-        <v>694</v>
+        <v>1212</v>
       </c>
       <c r="C17" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>1095</v>
+        <v>1213</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>123</v>
@@ -12783,6 +12998,12 @@
         <v>123</v>
       </c>
       <c r="M17" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O17" s="4" t="s">
         <v>123</v>
       </c>
     </row>
@@ -12793,6 +13014,9 @@
       <c r="B18" t="s">
         <v>1081</v>
       </c>
+      <c r="C18" t="s">
+        <v>1250</v>
+      </c>
       <c r="E18" s="4" t="s">
         <v>123</v>
       </c>
@@ -12818,26 +13042,62 @@
         <v>123</v>
       </c>
       <c r="M18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O18" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>1171</v>
+        <v>1239</v>
+      </c>
+      <c r="B19" t="s">
+        <v>698</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>1069</v>
+        <v>1242</v>
       </c>
       <c r="B20" t="s">
-        <v>1070</v>
+        <v>1243</v>
       </c>
       <c r="C20" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>123</v>
+        <v>1244</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>123</v>
@@ -12854,28 +13114,28 @@
       <c r="I20" s="4" t="s">
         <v>123</v>
       </c>
+      <c r="J20" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="M20" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O20" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>1066</v>
+        <v>1216</v>
       </c>
       <c r="B21" t="s">
-        <v>1102</v>
+        <v>698</v>
       </c>
       <c r="C21" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>123</v>
+        <v>1217</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>123</v>
@@ -12913,16 +13173,13 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>1104</v>
+        <v>1218</v>
       </c>
       <c r="B22" t="s">
-        <v>1068</v>
+        <v>698</v>
       </c>
       <c r="C22" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>123</v>
+        <v>1245</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>123</v>
@@ -12960,16 +13217,13 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>1106</v>
+        <v>1251</v>
       </c>
       <c r="B23" t="s">
-        <v>1068</v>
+        <v>698</v>
       </c>
       <c r="C23" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>123</v>
+        <v>1246</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>123</v>
@@ -12996,6 +13250,9 @@
         <v>123</v>
       </c>
       <c r="M23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N23" s="4" t="s">
         <v>123</v>
       </c>
       <c r="O23" s="4" t="s">
@@ -13004,13 +13261,13 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>1065</v>
+        <v>1085</v>
       </c>
       <c r="B24" t="s">
-        <v>1108</v>
+        <v>1086</v>
       </c>
       <c r="C24" t="s">
-        <v>1109</v>
+        <v>1087</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>123</v>
@@ -13051,13 +13308,13 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>1185</v>
+        <v>1247</v>
       </c>
       <c r="B25" t="s">
-        <v>1186</v>
+        <v>1248</v>
       </c>
       <c r="C25" t="s">
-        <v>1179</v>
+        <v>1249</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>123</v>
@@ -13086,60 +13343,27 @@
       <c r="L25" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="N25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O25" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1180</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>1241</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>123</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>1175</v>
+        <v>1069</v>
       </c>
       <c r="B27" t="s">
-        <v>1108</v>
+        <v>1070</v>
       </c>
       <c r="C27" t="s">
-        <v>1181</v>
+        <v>1097</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>123</v>
@@ -13159,28 +13383,25 @@
       <c r="I27" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L27" s="4" t="s">
+      <c r="M27" s="4" t="s">
         <v>123</v>
       </c>
       <c r="N27" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O27" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>1176</v>
+        <v>1066</v>
       </c>
       <c r="B28" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
       <c r="C28" t="s">
-        <v>1182</v>
+        <v>1099</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>123</v>
@@ -13209,19 +13430,25 @@
       <c r="L28" s="4" t="s">
         <v>123</v>
       </c>
+      <c r="M28" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="N28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O28" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>1177</v>
+        <v>1065</v>
       </c>
       <c r="B29" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="C29" t="s">
-        <v>1183</v>
+        <v>1105</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>123</v>
@@ -13250,19 +13477,25 @@
       <c r="L29" s="4" t="s">
         <v>123</v>
       </c>
+      <c r="M29" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="N29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O29" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>1178</v>
+        <v>1100</v>
       </c>
       <c r="B30" t="s">
-        <v>1108</v>
+        <v>1068</v>
       </c>
       <c r="C30" t="s">
-        <v>1184</v>
+        <v>1101</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>123</v>
@@ -13291,60 +13524,66 @@
       <c r="L30" s="4" t="s">
         <v>123</v>
       </c>
+      <c r="M30" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="N30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O30" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>1187</v>
+        <v>1222</v>
       </c>
       <c r="B31" t="s">
-        <v>1068</v>
+        <v>1223</v>
       </c>
       <c r="C31" t="s">
-        <v>1190</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>1095</v>
+        <v>1224</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>123</v>
+        <v>1225</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>123</v>
+        <v>1225</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>123</v>
+        <v>1225</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>123</v>
+        <v>1225</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>123</v>
+        <v>1225</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>123</v>
+        <v>1225</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>123</v>
+        <v>1225</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>123</v>
+        <v>1225</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>123</v>
+        <v>1225</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>1225</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>1189</v>
+        <v>1159</v>
       </c>
       <c r="B32" t="s">
-        <v>1068</v>
+        <v>1160</v>
       </c>
       <c r="C32" t="s">
-        <v>1188</v>
+        <v>1153</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>123</v>
@@ -13373,22 +13612,28 @@
       <c r="L32" s="4" t="s">
         <v>123</v>
       </c>
+      <c r="M32" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="N32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O32" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>1191</v>
+        <v>1148</v>
       </c>
       <c r="B33" t="s">
-        <v>1068</v>
+        <v>1104</v>
       </c>
       <c r="C33" t="s">
-        <v>1192</v>
+        <v>1154</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>123</v>
+        <v>1207</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>123</v>
@@ -13414,19 +13659,25 @@
       <c r="L33" s="4" t="s">
         <v>123</v>
       </c>
+      <c r="M33" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="N33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O33" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>1193</v>
+        <v>1149</v>
       </c>
       <c r="B34" t="s">
-        <v>1068</v>
+        <v>1104</v>
       </c>
       <c r="C34" t="s">
-        <v>1194</v>
+        <v>1155</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>123</v>
@@ -13455,19 +13706,25 @@
       <c r="L34" s="4" t="s">
         <v>123</v>
       </c>
+      <c r="M34" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="N34" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O34" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="B35" t="s">
-        <v>1068</v>
+        <v>1104</v>
       </c>
       <c r="C35" t="s">
-        <v>1196</v>
+        <v>1156</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>123</v>
@@ -13496,19 +13753,28 @@
       <c r="L35" s="4" t="s">
         <v>123</v>
       </c>
+      <c r="M35" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="N35" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O35" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>1237</v>
+        <v>1151</v>
       </c>
       <c r="B36" t="s">
-        <v>692</v>
+        <v>1104</v>
       </c>
       <c r="C36" t="s">
-        <v>1238</v>
+        <v>1157</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>123</v>
@@ -13535,18 +13801,24 @@
         <v>123</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>1095</v>
+        <v>123</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>1110</v>
+        <v>1152</v>
       </c>
       <c r="B37" t="s">
-        <v>694</v>
+        <v>1104</v>
       </c>
       <c r="C37" t="s">
-        <v>1111</v>
+        <v>1158</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>123</v>
@@ -13587,13 +13859,13 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="B38" t="s">
-        <v>694</v>
+        <v>1068</v>
       </c>
       <c r="C38" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>123</v>
@@ -13634,16 +13906,16 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>1084</v>
+        <v>1161</v>
       </c>
       <c r="B39" t="s">
-        <v>694</v>
+        <v>1068</v>
       </c>
       <c r="C39" t="s">
-        <v>1085</v>
+        <v>1164</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>123</v>
+        <v>1091</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>123</v>
@@ -13681,13 +13953,13 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>1114</v>
+        <v>1163</v>
       </c>
       <c r="B40" t="s">
-        <v>1115</v>
+        <v>1068</v>
       </c>
       <c r="C40" t="s">
-        <v>1116</v>
+        <v>1162</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>123</v>
@@ -13728,13 +14000,13 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>1117</v>
+        <v>1165</v>
       </c>
       <c r="B41" t="s">
-        <v>694</v>
+        <v>1068</v>
       </c>
       <c r="C41" t="s">
-        <v>1118</v>
+        <v>1166</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>123</v>
@@ -13775,13 +14047,16 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>1232</v>
+        <v>1167</v>
       </c>
       <c r="B42" t="s">
-        <v>694</v>
+        <v>1068</v>
       </c>
       <c r="C42" t="s">
-        <v>1119</v>
+        <v>1168</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>123</v>
@@ -13808,18 +14083,27 @@
         <v>123</v>
       </c>
       <c r="M42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O42" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>1233</v>
+        <v>1169</v>
       </c>
       <c r="B43" t="s">
         <v>1068</v>
       </c>
       <c r="C43" t="s">
-        <v>1234</v>
+        <v>1170</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>123</v>
@@ -13843,18 +14127,27 @@
         <v>123</v>
       </c>
       <c r="L43" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O43" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>1120</v>
+        <v>1203</v>
       </c>
       <c r="B44" t="s">
         <v>692</v>
       </c>
       <c r="C44" t="s">
-        <v>1172</v>
+        <v>1204</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>123</v>
@@ -13881,24 +14174,36 @@
         <v>123</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O44" s="4" t="s">
-        <v>123</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>1235</v>
+        <v>1219</v>
       </c>
       <c r="B45" t="s">
-        <v>1070</v>
+        <v>694</v>
       </c>
       <c r="C45" t="s">
-        <v>1236</v>
+        <v>1220</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>123</v>
@@ -13907,22 +14212,37 @@
         <v>123</v>
       </c>
       <c r="L45" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O45" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>1121</v>
+        <v>1106</v>
       </c>
       <c r="B46" t="s">
         <v>694</v>
       </c>
       <c r="C46" t="s">
-        <v>1122</v>
+        <v>1107</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>123</v>
       </c>
+      <c r="E46" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="G46" s="4" t="s">
         <v>123</v>
       </c>
@@ -13930,6 +14250,15 @@
         <v>123</v>
       </c>
       <c r="I46" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L46" s="4" t="s">
         <v>123</v>
       </c>
       <c r="M46" s="4" t="s">
@@ -13944,17 +14273,23 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>1123</v>
+        <v>1252</v>
       </c>
       <c r="B47" t="s">
         <v>694</v>
       </c>
       <c r="C47" t="s">
-        <v>1124</v>
+        <v>1113</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>123</v>
       </c>
+      <c r="E47" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="G47" s="4" t="s">
         <v>123</v>
       </c>
@@ -13962,6 +14297,15 @@
         <v>123</v>
       </c>
       <c r="I47" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L47" s="4" t="s">
         <v>123</v>
       </c>
       <c r="M47" s="4" t="s">
@@ -13976,17 +14320,23 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>1125</v>
+        <v>1108</v>
       </c>
       <c r="B48" t="s">
         <v>694</v>
       </c>
       <c r="C48" t="s">
-        <v>1126</v>
+        <v>1109</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>123</v>
       </c>
+      <c r="E48" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="G48" s="4" t="s">
         <v>123</v>
       </c>
@@ -13994,6 +14344,15 @@
         <v>123</v>
       </c>
       <c r="I48" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L48" s="4" t="s">
         <v>123</v>
       </c>
       <c r="M48" s="4" t="s">
@@ -14008,17 +14367,23 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>1127</v>
+        <v>1083</v>
       </c>
       <c r="B49" t="s">
         <v>694</v>
       </c>
       <c r="C49" t="s">
-        <v>1128</v>
+        <v>1084</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>123</v>
       </c>
+      <c r="E49" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="G49" s="4" t="s">
         <v>123</v>
       </c>
@@ -14026,6 +14391,15 @@
         <v>123</v>
       </c>
       <c r="I49" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L49" s="4" t="s">
         <v>123</v>
       </c>
       <c r="M49" s="4" t="s">
@@ -14040,13 +14414,13 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>1129</v>
+        <v>1110</v>
       </c>
       <c r="B50" t="s">
-        <v>1130</v>
+        <v>1111</v>
       </c>
       <c r="C50" t="s">
-        <v>1131</v>
+        <v>1112</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>123</v>
@@ -14087,16 +14461,13 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>1132</v>
+        <v>1200</v>
       </c>
       <c r="B51" t="s">
         <v>694</v>
       </c>
       <c r="C51" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>123</v>
+        <v>1114</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>123</v>
@@ -14134,16 +14505,13 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>1134</v>
+        <v>1253</v>
       </c>
       <c r="B52" t="s">
-        <v>694</v>
+        <v>1068</v>
       </c>
       <c r="C52" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>123</v>
+        <v>1201</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>123</v>
@@ -14170,27 +14538,18 @@
         <v>123</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="N52" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O52" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>1197</v>
+        <v>1254</v>
       </c>
       <c r="B53" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C53" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>123</v>
+        <v>1221</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>123</v>
@@ -14216,40 +14575,19 @@
       <c r="L53" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="N53" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O53" s="4" t="s">
+      <c r="M53" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>1198</v>
+        <v>1255</v>
       </c>
       <c r="B54" t="s">
-        <v>694</v>
+        <v>1070</v>
       </c>
       <c r="C54" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>123</v>
+        <v>1202</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>123</v>
@@ -14260,25 +14598,19 @@
       <c r="L54" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="N54" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O54" s="4" t="s">
+      <c r="M54" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>1199</v>
+        <v>1214</v>
       </c>
       <c r="B55" t="s">
-        <v>694</v>
+        <v>1081</v>
       </c>
       <c r="C55" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>123</v>
+        <v>1215</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>123</v>
@@ -14304,29 +14636,23 @@
       <c r="L55" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="N55" s="4" t="s">
+      <c r="M55" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>1200</v>
+        <v>1256</v>
       </c>
       <c r="B56" t="s">
         <v>694</v>
       </c>
       <c r="C56" t="s">
-        <v>1213</v>
+        <v>1115</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="G56" s="4" t="s">
         <v>123</v>
       </c>
@@ -14336,38 +14662,29 @@
       <c r="I56" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="J56" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L56" s="4" t="s">
+      <c r="M56" s="4" t="s">
         <v>123</v>
       </c>
       <c r="N56" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O56" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>1136</v>
+        <v>1257</v>
       </c>
       <c r="B57" t="s">
         <v>694</v>
       </c>
       <c r="C57" t="s">
-        <v>1137</v>
+        <v>1116</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E57" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="G57" s="4" t="s">
         <v>123</v>
       </c>
@@ -14377,38 +14694,29 @@
       <c r="I57" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="J57" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L57" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="M57" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O57" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>1138</v>
+        <v>1258</v>
       </c>
       <c r="B58" t="s">
         <v>694</v>
       </c>
       <c r="C58" t="s">
-        <v>1141</v>
+        <v>1117</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="G58" s="4" t="s">
         <v>123</v>
       </c>
@@ -14418,38 +14726,29 @@
       <c r="I58" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="J58" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L58" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="M58" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O58" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>1139</v>
+        <v>1259</v>
       </c>
       <c r="B59" t="s">
         <v>694</v>
       </c>
       <c r="C59" t="s">
-        <v>1140</v>
+        <v>1118</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="G59" s="4" t="s">
         <v>123</v>
       </c>
@@ -14459,28 +14758,25 @@
       <c r="I59" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="J59" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L59" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="M59" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O59" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>1142</v>
+        <v>1260</v>
       </c>
       <c r="B60" t="s">
         <v>694</v>
       </c>
       <c r="C60" t="s">
-        <v>1143</v>
+        <v>1121</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>123</v>
@@ -14510,18 +14806,24 @@
         <v>123</v>
       </c>
       <c r="M60" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O60" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>1201</v>
+        <v>1261</v>
       </c>
       <c r="B61" t="s">
         <v>694</v>
       </c>
       <c r="C61" t="s">
-        <v>1214</v>
+        <v>1122</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>123</v>
@@ -14550,19 +14852,25 @@
       <c r="L61" s="4" t="s">
         <v>123</v>
       </c>
+      <c r="M61" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="N61" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O61" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>1225</v>
+        <v>1262</v>
       </c>
       <c r="B62" t="s">
-        <v>694</v>
+        <v>1119</v>
       </c>
       <c r="C62" t="s">
-        <v>1226</v>
+        <v>1120</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>123</v>
@@ -14589,6 +14897,12 @@
         <v>123</v>
       </c>
       <c r="L62" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N62" s="4" t="s">
         <v>123</v>
       </c>
       <c r="O62" s="4" t="s">
@@ -14597,13 +14911,13 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>1144</v>
+        <v>1263</v>
       </c>
       <c r="B63" t="s">
         <v>694</v>
       </c>
       <c r="C63" t="s">
-        <v>1145</v>
+        <v>1134</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>123</v>
@@ -14634,26 +14948,20 @@
       </c>
       <c r="M63" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="N63" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O63" s="4" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>1146</v>
+        <v>1264</v>
       </c>
       <c r="B64" t="s">
         <v>694</v>
       </c>
       <c r="C64" t="s">
-        <v>1147</v>
+        <v>1135</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>123</v>
+        <v>1091</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>123</v>
@@ -14680,21 +14988,18 @@
         <v>123</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O64" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>1148</v>
+        <v>1265</v>
       </c>
       <c r="B65" t="s">
         <v>694</v>
       </c>
       <c r="C65" t="s">
-        <v>1156</v>
+        <v>1137</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>123</v>
@@ -14724,21 +15029,18 @@
         <v>123</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O65" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>1202</v>
+        <v>1129</v>
       </c>
       <c r="B66" t="s">
         <v>694</v>
       </c>
       <c r="C66" t="s">
-        <v>1215</v>
+        <v>1136</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>123</v>
@@ -14767,22 +15069,22 @@
       <c r="L66" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="N66" s="4" t="s">
+      <c r="M66" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>1203</v>
+        <v>1266</v>
       </c>
       <c r="B67" t="s">
         <v>694</v>
       </c>
       <c r="C67" t="s">
-        <v>1216</v>
+        <v>1132</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>1242</v>
+        <v>123</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>123</v>
@@ -14808,19 +15110,19 @@
       <c r="L67" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="N67" s="4" t="s">
+      <c r="M67" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>1204</v>
+        <v>1274</v>
       </c>
       <c r="B68" t="s">
         <v>694</v>
       </c>
       <c r="C68" t="s">
-        <v>1217</v>
+        <v>1190</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>123</v>
@@ -14850,18 +15152,21 @@
         <v>123</v>
       </c>
       <c r="N68" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O68" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>1205</v>
+        <v>1267</v>
       </c>
       <c r="B69" t="s">
         <v>694</v>
       </c>
       <c r="C69" t="s">
-        <v>1218</v>
+        <v>1123</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>123</v>
@@ -14890,19 +15195,19 @@
       <c r="L69" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="N69" s="4" t="s">
+      <c r="M69" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>1150</v>
+        <v>1268</v>
       </c>
       <c r="B70" t="s">
         <v>694</v>
       </c>
       <c r="C70" t="s">
-        <v>1158</v>
+        <v>1125</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>123</v>
@@ -14932,27 +15237,21 @@
         <v>123</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="N70" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O70" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>1228</v>
+        <v>1269</v>
       </c>
       <c r="B71" t="s">
         <v>694</v>
       </c>
       <c r="C71" t="s">
-        <v>1229</v>
+        <v>1124</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>1242</v>
+        <v>123</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>123</v>
@@ -14978,22 +15277,22 @@
       <c r="L71" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="O71" s="4" t="s">
+      <c r="M71" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>1230</v>
+        <v>1270</v>
       </c>
       <c r="B72" t="s">
         <v>694</v>
       </c>
       <c r="C72" t="s">
-        <v>1231</v>
+        <v>1126</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>1095</v>
+        <v>123</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>123</v>
@@ -15019,19 +15318,19 @@
       <c r="L72" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="O72" s="4" t="s">
+      <c r="M72" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>1151</v>
+        <v>1175</v>
       </c>
       <c r="B73" t="s">
         <v>694</v>
       </c>
       <c r="C73" t="s">
-        <v>1159</v>
+        <v>1185</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>123</v>
@@ -15060,22 +15359,22 @@
       <c r="L73" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M73" s="4" t="s">
+      <c r="N73" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>1152</v>
+        <v>1195</v>
       </c>
       <c r="B74" t="s">
         <v>694</v>
       </c>
       <c r="C74" t="s">
-        <v>1160</v>
+        <v>1196</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>1095</v>
+        <v>123</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>123</v>
@@ -15101,19 +15400,19 @@
       <c r="L74" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M74" s="4" t="s">
+      <c r="O74" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>1153</v>
+        <v>1271</v>
       </c>
       <c r="B75" t="s">
         <v>694</v>
       </c>
       <c r="C75" t="s">
-        <v>1162</v>
+        <v>1127</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>123</v>
@@ -15144,17 +15443,23 @@
       </c>
       <c r="M75" s="4" t="s">
         <v>123</v>
+      </c>
+      <c r="N75" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O75" s="4" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>1154</v>
+        <v>1272</v>
       </c>
       <c r="B76" t="s">
         <v>694</v>
       </c>
       <c r="C76" t="s">
-        <v>1161</v>
+        <v>1128</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>123</v>
@@ -15184,22 +15489,31 @@
         <v>123</v>
       </c>
       <c r="M76" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O76" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>1155</v>
+        <v>1277</v>
       </c>
       <c r="B77" t="s">
         <v>694</v>
       </c>
       <c r="C77" t="s">
-        <v>1163</v>
+        <v>1131</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>123</v>
       </c>
+      <c r="E77" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="G77" s="4" t="s">
         <v>123</v>
       </c>
@@ -15219,18 +15533,21 @@
         <v>123</v>
       </c>
       <c r="M77" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O77" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>1149</v>
+        <v>1176</v>
       </c>
       <c r="B78" t="s">
         <v>694</v>
       </c>
       <c r="C78" t="s">
-        <v>1157</v>
+        <v>1186</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>123</v>
@@ -15259,22 +15576,22 @@
       <c r="L78" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M78" s="4" t="s">
+      <c r="N78" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>1206</v>
+        <v>1177</v>
       </c>
       <c r="B79" t="s">
         <v>694</v>
       </c>
       <c r="C79" t="s">
-        <v>1219</v>
+        <v>1187</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>123</v>
+        <v>1208</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>123</v>
@@ -15301,21 +15618,18 @@
         <v>123</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O79" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>1207</v>
+        <v>1178</v>
       </c>
       <c r="B80" t="s">
         <v>694</v>
       </c>
       <c r="C80" t="s">
-        <v>1220</v>
+        <v>1188</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>123</v>
@@ -15347,19 +15661,16 @@
       <c r="N80" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="O80" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>1208</v>
+        <v>1179</v>
       </c>
       <c r="B81" t="s">
         <v>694</v>
       </c>
       <c r="C81" t="s">
-        <v>1221</v>
+        <v>1189</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>123</v>
@@ -15392,18 +15703,18 @@
         <v>123</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>1209</v>
+        <v>1273</v>
       </c>
       <c r="B82" t="s">
         <v>694</v>
       </c>
       <c r="C82" t="s">
-        <v>1222</v>
+        <v>1133</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>1243</v>
+        <v>123</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>123</v>
@@ -15429,7 +15740,514 @@
       <c r="L82" s="4" t="s">
         <v>123</v>
       </c>
+      <c r="M82" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="N82" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O82" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B83" t="s">
+        <v>694</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O83" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B84" t="s">
+        <v>694</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L84" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O84" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B85" t="s">
+        <v>694</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L85" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M85" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B86" t="s">
+        <v>694</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K86" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L86" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N86" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O86" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B87" t="s">
+        <v>694</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N87" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O87" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B88" t="s">
+        <v>694</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B89" t="s">
+        <v>694</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L89" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B90" t="s">
+        <v>694</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K90" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L90" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O90" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B91" t="s">
+        <v>694</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K91" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L91" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N91" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B92" t="s">
+        <v>694</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L92" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N92" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B93" t="s">
+        <v>698</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K93" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M93" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B94" t="s">
+        <v>698</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L94" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M94" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N94" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O94" s="4" t="s">
         <v>123</v>
       </c>
     </row>

--- a/HoI2Editor/Documents/Design/scenario.xlsx
+++ b/HoI2Editor/Documents/Design/scenario.xlsx
@@ -16,12 +16,15 @@
     <sheet name="BuildingType" sheetId="4" r:id="rId7"/>
     <sheet name="MissionType" sheetId="5" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Unit!$A$1:$O$110</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3370" uniqueCount="1280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3570" uniqueCount="1315">
   <si>
     <t>シナリオファイルの構成</t>
     <rPh sb="9" eb="11">
@@ -5128,9 +5131,296 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>can_reinforce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>defaultorganisation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>redep_target</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>redep_unit_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>redep_unit_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>supplies</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max_oil_stock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>maxspeed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>speed_cap_art</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>speed_cap_eng</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>speed_cap_aa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>transportweight</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>defensiveness</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>toughness</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>softness</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>suppression</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>airdefence</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>softattack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>airattack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>transportcapability</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>travelled</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hardattack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>strategicattack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>navalattack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[任務]</t>
+    <rPh sb="1" eb="3">
+      <t>ニンム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象プロヴィンス</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>missionscope</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MissionType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>任務の種類</t>
+    <rPh sb="0" eb="2">
+      <t>ニンム</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象範囲</t>
+    <rPh sb="0" eb="4">
+      <t>タイショウハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>percentage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦力/組織率下限</t>
+    <rPh sb="0" eb="2">
+      <t>センリョク</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ソシキリツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>night</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>day</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夜間遂行</t>
+    <rPh sb="0" eb="2">
+      <t>ヤカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昼間遂行</t>
+    <rPh sb="0" eb="2">
+      <t>ヒルマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ac</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>船団攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>センダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>org</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Double</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組織率下限</t>
+    <rPh sb="0" eb="3">
+      <t>ソシキリツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>startdate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enddate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始日時</t>
+    <rPh sb="0" eb="4">
+      <t>カイシニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了日時</t>
+    <rPh sb="0" eb="4">
+      <t>シュウリョウニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>任務</t>
+    <rPh sb="0" eb="2">
+      <t>ニンム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>location</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <rPh sb="0" eb="2">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>攻撃開始日時</t>
-    <rPh sb="0" eb="4">
-      <t>コウゲキカイシ</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイシ</t>
     </rPh>
     <rPh sb="4" eb="5">
       <t>ビ</t>
@@ -5141,31 +5431,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>can_reinforce</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>defaultorganisation</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>redep_target</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>redep_unit_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>redep_unit_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>supplies</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>oil</t>
+    <t>Bool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死守命令/強制戦闘</t>
+    <rPh sb="0" eb="2">
+      <t>シシュ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>キョウセイセントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>焦土作戦</t>
+    <rPh sb="0" eb="4">
+      <t>ショウドサクセン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5173,10 +5459,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>max_oil_stock</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>supplyconsumption</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -5185,75 +5467,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>maxspeed</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>speed_cap_art</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>speed_cap_eng</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>speed_cap_aa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>transportweight</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>defensiveness</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>toughness</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>softness</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>suppression</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>airdefence</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>softattack</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>airattack</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>transportcapability</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>range</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>travelled</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hardattack</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>strategicattack</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>navalattack</t>
+    <t>stand_ground</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scorch_ground</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5261,7 +5479,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5291,6 +5509,21 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5312,7 +5545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5328,6 +5561,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -12262,19 +12501,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O94"/>
+  <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
     <col min="4" max="12" width="9" style="4" customWidth="1"/>
     <col min="13" max="15" width="9" style="4"/>
@@ -12331,18 +12570,42 @@
       <c r="A2" s="5" t="s">
         <v>1145</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="D2" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -12885,12 +13148,6 @@
       <c r="C15" t="s">
         <v>1241</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="G15" s="4" t="s">
         <v>123</v>
       </c>
@@ -12898,15 +13155,6 @@
         <v>123</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L15" s="4" t="s">
         <v>123</v>
       </c>
       <c r="M15" s="4" t="s">
@@ -13015,7 +13263,7 @@
         <v>1081</v>
       </c>
       <c r="C18" t="s">
-        <v>1250</v>
+        <v>1306</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>123</v>
@@ -13129,19 +13377,13 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>1216</v>
+        <v>1313</v>
       </c>
       <c r="B21" t="s">
-        <v>698</v>
+        <v>1307</v>
       </c>
       <c r="C21" t="s">
-        <v>1217</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>123</v>
+        <v>1308</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>123</v>
@@ -13152,40 +13394,22 @@
       <c r="I21" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="M21" s="4" t="s">
         <v>123</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O21" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>1218</v>
+        <v>1314</v>
       </c>
       <c r="B22" t="s">
-        <v>698</v>
+        <v>1307</v>
       </c>
       <c r="C22" t="s">
-        <v>1245</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>123</v>
+        <v>1309</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>123</v>
@@ -13196,34 +13420,19 @@
       <c r="I22" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="M22" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O22" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>1251</v>
+        <v>1216</v>
       </c>
       <c r="B23" t="s">
         <v>698</v>
       </c>
       <c r="C23" t="s">
-        <v>1246</v>
+        <v>1217</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>123</v>
@@ -13261,16 +13470,13 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>1085</v>
+        <v>1218</v>
       </c>
       <c r="B24" t="s">
-        <v>1086</v>
+        <v>698</v>
       </c>
       <c r="C24" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>123</v>
+        <v>1245</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>123</v>
@@ -13308,16 +13514,13 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="B25" t="s">
-        <v>1248</v>
+        <v>698</v>
       </c>
       <c r="C25" t="s">
-        <v>1249</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>123</v>
+        <v>1246</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>123</v>
@@ -13341,6 +13544,9 @@
         <v>123</v>
       </c>
       <c r="L25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M25" s="4" t="s">
         <v>123</v>
       </c>
       <c r="N25" s="4" t="s">
@@ -13352,18 +13558,60 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>1146</v>
+        <v>1085</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>1069</v>
+        <v>1247</v>
       </c>
       <c r="B27" t="s">
-        <v>1070</v>
+        <v>1248</v>
       </c>
       <c r="C27" t="s">
-        <v>1097</v>
+        <v>1249</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>123</v>
@@ -13383,7 +13631,13 @@
       <c r="I27" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="J27" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L27" s="4" t="s">
         <v>123</v>
       </c>
       <c r="N27" s="4" t="s">
@@ -13395,60 +13649,54 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O28" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="O28" s="8" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="B29" t="s">
-        <v>1104</v>
+        <v>1070</v>
       </c>
       <c r="C29" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>123</v>
@@ -13466,15 +13714,6 @@
         <v>123</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L29" s="4" t="s">
         <v>123</v>
       </c>
       <c r="M29" s="4" t="s">
@@ -13489,13 +13728,13 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>1100</v>
+        <v>1066</v>
       </c>
       <c r="B30" t="s">
-        <v>1068</v>
+        <v>1098</v>
       </c>
       <c r="C30" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>123</v>
@@ -13536,54 +13775,60 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>1222</v>
+        <v>1065</v>
       </c>
       <c r="B31" t="s">
-        <v>1223</v>
+        <v>1104</v>
       </c>
       <c r="C31" t="s">
-        <v>1224</v>
+        <v>1105</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>1225</v>
+        <v>123</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>1225</v>
+        <v>123</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>1225</v>
+        <v>123</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>1225</v>
+        <v>123</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>1225</v>
+        <v>123</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>1225</v>
+        <v>123</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>1225</v>
+        <v>123</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>1225</v>
+        <v>123</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>1225</v>
+        <v>123</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>1225</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>1159</v>
+        <v>1100</v>
       </c>
       <c r="B32" t="s">
-        <v>1160</v>
+        <v>1068</v>
       </c>
       <c r="C32" t="s">
-        <v>1153</v>
+        <v>1101</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>123</v>
@@ -13624,60 +13869,54 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>1148</v>
+        <v>1222</v>
       </c>
       <c r="B33" t="s">
-        <v>1104</v>
+        <v>1223</v>
       </c>
       <c r="C33" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>1207</v>
+        <v>1224</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>123</v>
+        <v>1225</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>123</v>
+        <v>1225</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>123</v>
+        <v>1225</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>123</v>
+        <v>1225</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>123</v>
+        <v>1225</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>123</v>
+        <v>1225</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>123</v>
+        <v>1225</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>123</v>
+        <v>1225</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>123</v>
+        <v>1225</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>123</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>1149</v>
+        <v>1159</v>
       </c>
       <c r="B34" t="s">
-        <v>1104</v>
+        <v>1160</v>
       </c>
       <c r="C34" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>123</v>
@@ -13718,16 +13957,16 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B35" t="s">
         <v>1104</v>
       </c>
       <c r="C35" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>123</v>
+        <v>1207</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>123</v>
@@ -13765,13 +14004,13 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B36" t="s">
         <v>1104</v>
       </c>
       <c r="C36" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>123</v>
@@ -13812,13 +14051,13 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B37" t="s">
         <v>1104</v>
       </c>
       <c r="C37" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>123</v>
@@ -13859,13 +14098,13 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>1102</v>
+        <v>1151</v>
       </c>
       <c r="B38" t="s">
-        <v>1068</v>
+        <v>1104</v>
       </c>
       <c r="C38" t="s">
-        <v>1103</v>
+        <v>1157</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>123</v>
@@ -13906,16 +14145,16 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
       <c r="B39" t="s">
-        <v>1068</v>
+        <v>1104</v>
       </c>
       <c r="C39" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>1091</v>
+        <v>123</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>123</v>
@@ -13953,13 +14192,13 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>1163</v>
+        <v>1102</v>
       </c>
       <c r="B40" t="s">
         <v>1068</v>
       </c>
       <c r="C40" t="s">
-        <v>1162</v>
+        <v>1103</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>123</v>
@@ -14000,16 +14239,16 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="B41" t="s">
         <v>1068</v>
       </c>
       <c r="C41" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>123</v>
+        <v>1091</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>123</v>
@@ -14047,13 +14286,13 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="B42" t="s">
         <v>1068</v>
       </c>
       <c r="C42" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>123</v>
@@ -14094,13 +14333,13 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="B43" t="s">
         <v>1068</v>
       </c>
       <c r="C43" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>123</v>
@@ -14141,13 +14380,16 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>1203</v>
+        <v>1167</v>
       </c>
       <c r="B44" t="s">
-        <v>692</v>
+        <v>1068</v>
       </c>
       <c r="C44" t="s">
-        <v>1204</v>
+        <v>1168</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>123</v>
@@ -14174,18 +14416,24 @@
         <v>123</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>1091</v>
+        <v>123</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>1219</v>
+        <v>1169</v>
       </c>
       <c r="B45" t="s">
-        <v>694</v>
+        <v>1068</v>
       </c>
       <c r="C45" t="s">
-        <v>1220</v>
+        <v>1170</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>123</v>
@@ -14226,16 +14474,13 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>1106</v>
+        <v>1203</v>
       </c>
       <c r="B46" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C46" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>123</v>
+        <v>1204</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>123</v>
@@ -14262,24 +14507,18 @@
         <v>123</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="N46" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O46" s="4" t="s">
-        <v>123</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>1252</v>
+        <v>1219</v>
       </c>
       <c r="B47" t="s">
         <v>694</v>
       </c>
       <c r="C47" t="s">
-        <v>1113</v>
+        <v>1220</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>123</v>
@@ -14320,13 +14559,13 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B48" t="s">
         <v>694</v>
       </c>
       <c r="C48" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>123</v>
@@ -14367,13 +14606,13 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>1083</v>
+        <v>1251</v>
       </c>
       <c r="B49" t="s">
         <v>694</v>
       </c>
       <c r="C49" t="s">
-        <v>1084</v>
+        <v>1113</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>123</v>
@@ -14414,13 +14653,13 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B50" t="s">
-        <v>1111</v>
+        <v>694</v>
       </c>
       <c r="C50" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>123</v>
@@ -14461,13 +14700,16 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>1200</v>
+        <v>1083</v>
       </c>
       <c r="B51" t="s">
         <v>694</v>
       </c>
       <c r="C51" t="s">
-        <v>1114</v>
+        <v>1084</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>123</v>
@@ -14505,13 +14747,16 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>1253</v>
+        <v>1110</v>
       </c>
       <c r="B52" t="s">
-        <v>1068</v>
+        <v>1111</v>
       </c>
       <c r="C52" t="s">
-        <v>1201</v>
+        <v>1112</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>123</v>
@@ -14538,18 +14783,24 @@
         <v>123</v>
       </c>
       <c r="M52" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O52" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>1254</v>
+        <v>1200</v>
       </c>
       <c r="B53" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C53" t="s">
-        <v>1221</v>
+        <v>1114</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>123</v>
@@ -14576,18 +14827,39 @@
         <v>123</v>
       </c>
       <c r="M53" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O53" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="B54" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C54" t="s">
-        <v>1202</v>
+        <v>1201</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>123</v>
@@ -14604,13 +14876,13 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>1214</v>
+        <v>1253</v>
       </c>
       <c r="B55" t="s">
-        <v>1081</v>
+        <v>692</v>
       </c>
       <c r="C55" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>123</v>
@@ -14642,47 +14914,41 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B56" t="s">
-        <v>694</v>
+        <v>1070</v>
       </c>
       <c r="C56" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I56" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L56" s="4" t="s">
         <v>123</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="N56" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O56" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>1257</v>
+        <v>1214</v>
       </c>
       <c r="B57" t="s">
-        <v>694</v>
+        <v>1081</v>
       </c>
       <c r="C57" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D57" s="4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>123</v>
       </c>
       <c r="G57" s="4" t="s">
@@ -14694,25 +14960,28 @@
       <c r="I57" s="4" t="s">
         <v>123</v>
       </c>
+      <c r="J57" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="M57" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="N57" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O57" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="B58" t="s">
         <v>694</v>
       </c>
       <c r="C58" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>123</v>
@@ -14738,13 +15007,13 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="B59" t="s">
         <v>694</v>
       </c>
       <c r="C59" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>123</v>
@@ -14770,23 +15039,17 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>1260</v>
+        <v>1310</v>
       </c>
       <c r="B60" t="s">
         <v>694</v>
       </c>
       <c r="C60" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="G60" s="4" t="s">
         <v>123</v>
       </c>
@@ -14794,15 +15057,6 @@
         <v>123</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L60" s="4" t="s">
         <v>123</v>
       </c>
       <c r="M60" s="4" t="s">
@@ -14817,23 +15071,17 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="B61" t="s">
         <v>694</v>
       </c>
       <c r="C61" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E61" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="G61" s="4" t="s">
         <v>123</v>
       </c>
@@ -14841,15 +15089,6 @@
         <v>123</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L61" s="4" t="s">
         <v>123</v>
       </c>
       <c r="M61" s="4" t="s">
@@ -14864,13 +15103,13 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>1262</v>
+        <v>1311</v>
       </c>
       <c r="B62" t="s">
-        <v>1119</v>
+        <v>694</v>
       </c>
       <c r="C62" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>123</v>
@@ -14911,13 +15150,13 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>1263</v>
+        <v>1312</v>
       </c>
       <c r="B63" t="s">
         <v>694</v>
       </c>
       <c r="C63" t="s">
-        <v>1134</v>
+        <v>1122</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>123</v>
@@ -14947,21 +15186,27 @@
         <v>123</v>
       </c>
       <c r="M63" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O63" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="B64" t="s">
-        <v>694</v>
+        <v>1119</v>
       </c>
       <c r="C64" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>1091</v>
+        <v>123</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>123</v>
@@ -14988,18 +15233,24 @@
         <v>123</v>
       </c>
       <c r="M64" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O64" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="B65" t="s">
         <v>694</v>
       </c>
       <c r="C65" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>123</v>
@@ -15034,16 +15285,16 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>1129</v>
+        <v>1260</v>
       </c>
       <c r="B66" t="s">
         <v>694</v>
       </c>
       <c r="C66" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>123</v>
+        <v>1091</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>123</v>
@@ -15075,13 +15326,13 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="B67" t="s">
         <v>694</v>
       </c>
       <c r="C67" t="s">
-        <v>1132</v>
+        <v>1137</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>123</v>
@@ -15116,13 +15367,13 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>1274</v>
+        <v>1129</v>
       </c>
       <c r="B68" t="s">
         <v>694</v>
       </c>
       <c r="C68" t="s">
-        <v>1190</v>
+        <v>1136</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>123</v>
@@ -15151,22 +15402,19 @@
       <c r="L68" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="N68" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O68" s="4" t="s">
+      <c r="M68" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="B69" t="s">
         <v>694</v>
       </c>
       <c r="C69" t="s">
-        <v>1123</v>
+        <v>1132</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>123</v>
@@ -15201,13 +15449,13 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="B70" t="s">
         <v>694</v>
       </c>
       <c r="C70" t="s">
-        <v>1125</v>
+        <v>1190</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>123</v>
@@ -15236,19 +15484,22 @@
       <c r="L70" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M70" s="4" t="s">
+      <c r="N70" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O70" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="B71" t="s">
         <v>694</v>
       </c>
       <c r="C71" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>123</v>
@@ -15283,13 +15534,13 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="B72" t="s">
         <v>694</v>
       </c>
       <c r="C72" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>123</v>
@@ -15324,13 +15575,13 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>1175</v>
+        <v>1265</v>
       </c>
       <c r="B73" t="s">
         <v>694</v>
       </c>
       <c r="C73" t="s">
-        <v>1185</v>
+        <v>1124</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>123</v>
@@ -15359,19 +15610,19 @@
       <c r="L73" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="N73" s="4" t="s">
+      <c r="M73" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>1195</v>
+        <v>1266</v>
       </c>
       <c r="B74" t="s">
         <v>694</v>
       </c>
       <c r="C74" t="s">
-        <v>1196</v>
+        <v>1126</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>123</v>
@@ -15400,19 +15651,19 @@
       <c r="L74" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="O74" s="4" t="s">
+      <c r="M74" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>1271</v>
+        <v>1175</v>
       </c>
       <c r="B75" t="s">
         <v>694</v>
       </c>
       <c r="C75" t="s">
-        <v>1127</v>
+        <v>1185</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>123</v>
@@ -15441,25 +15692,19 @@
       <c r="L75" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M75" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="N75" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="O75" s="4" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>1272</v>
+        <v>1195</v>
       </c>
       <c r="B76" t="s">
         <v>694</v>
       </c>
       <c r="C76" t="s">
-        <v>1128</v>
+        <v>1196</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>123</v>
@@ -15486,9 +15731,6 @@
         <v>123</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="M76" s="4" t="s">
         <v>123</v>
       </c>
       <c r="O76" s="4" t="s">
@@ -15497,13 +15739,13 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>1277</v>
+        <v>1267</v>
       </c>
       <c r="B77" t="s">
         <v>694</v>
       </c>
       <c r="C77" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>123</v>
@@ -15535,19 +15777,22 @@
       <c r="M77" s="4" t="s">
         <v>123</v>
       </c>
+      <c r="N77" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="O77" s="4" t="s">
-        <v>123</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>1176</v>
+        <v>1268</v>
       </c>
       <c r="B78" t="s">
         <v>694</v>
       </c>
       <c r="C78" t="s">
-        <v>1186</v>
+        <v>1128</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>123</v>
@@ -15576,22 +15821,25 @@
       <c r="L78" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="N78" s="4" t="s">
+      <c r="M78" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O78" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>1177</v>
+        <v>1273</v>
       </c>
       <c r="B79" t="s">
         <v>694</v>
       </c>
       <c r="C79" t="s">
-        <v>1187</v>
+        <v>1131</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>1208</v>
+        <v>123</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>123</v>
@@ -15617,19 +15865,22 @@
       <c r="L79" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="N79" s="4" t="s">
+      <c r="M79" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O79" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B80" t="s">
         <v>694</v>
       </c>
       <c r="C80" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>123</v>
@@ -15664,16 +15915,16 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B81" t="s">
         <v>694</v>
       </c>
       <c r="C81" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>123</v>
+        <v>1208</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>123</v>
@@ -15705,13 +15956,13 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>1273</v>
+        <v>1178</v>
       </c>
       <c r="B82" t="s">
         <v>694</v>
       </c>
       <c r="C82" t="s">
-        <v>1133</v>
+        <v>1188</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>123</v>
@@ -15740,28 +15991,22 @@
       <c r="L82" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M82" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="N82" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O82" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>1278</v>
+        <v>1179</v>
       </c>
       <c r="B83" t="s">
         <v>694</v>
       </c>
       <c r="C83" t="s">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>1208</v>
+        <v>123</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>123</v>
@@ -15787,22 +16032,22 @@
       <c r="L83" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="O83" s="4" t="s">
+      <c r="N83" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>1279</v>
+        <v>1269</v>
       </c>
       <c r="B84" t="s">
         <v>694</v>
       </c>
       <c r="C84" t="s">
-        <v>1199</v>
+        <v>1133</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>1091</v>
+        <v>123</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>123</v>
@@ -15826,6 +16071,12 @@
         <v>123</v>
       </c>
       <c r="L84" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N84" s="4" t="s">
         <v>123</v>
       </c>
       <c r="O84" s="4" t="s">
@@ -15834,15 +16085,21 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>1130</v>
+        <v>1274</v>
       </c>
       <c r="B85" t="s">
         <v>694</v>
       </c>
       <c r="C85" t="s">
-        <v>1138</v>
+        <v>1198</v>
       </c>
       <c r="D85" s="4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>123</v>
       </c>
       <c r="G85" s="4" t="s">
@@ -15863,22 +16120,22 @@
       <c r="L85" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M85" s="4" t="s">
+      <c r="O85" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>1171</v>
+        <v>1275</v>
       </c>
       <c r="B86" t="s">
         <v>694</v>
       </c>
       <c r="C86" t="s">
-        <v>1181</v>
+        <v>1199</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>123</v>
+        <v>1091</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>123</v>
@@ -15902,9 +16159,6 @@
         <v>123</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="N86" s="4" t="s">
         <v>123</v>
       </c>
       <c r="O86" s="4" t="s">
@@ -15913,23 +16167,17 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>1172</v>
+        <v>1130</v>
       </c>
       <c r="B87" t="s">
         <v>694</v>
       </c>
       <c r="C87" t="s">
-        <v>1183</v>
+        <v>1138</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E87" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="G87" s="4" t="s">
         <v>123</v>
       </c>
@@ -15948,22 +16196,19 @@
       <c r="L87" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="N87" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O87" s="4" t="s">
+      <c r="M87" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B88" t="s">
         <v>694</v>
       </c>
       <c r="C88" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>123</v>
@@ -15993,18 +16238,21 @@
         <v>123</v>
       </c>
       <c r="N88" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O88" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B89" t="s">
         <v>694</v>
       </c>
       <c r="C89" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>123</v>
@@ -16034,18 +16282,21 @@
         <v>123</v>
       </c>
       <c r="N89" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O89" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>1275</v>
+        <v>1173</v>
       </c>
       <c r="B90" t="s">
         <v>694</v>
       </c>
       <c r="C90" t="s">
-        <v>1191</v>
+        <v>1182</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>123</v>
@@ -16075,21 +16326,18 @@
         <v>123</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O90" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="B91" t="s">
         <v>694</v>
       </c>
       <c r="C91" t="s">
-        <v>1230</v>
+        <v>1184</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>123</v>
@@ -16124,16 +16372,16 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="B92" t="s">
         <v>694</v>
       </c>
       <c r="C92" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>1209</v>
+        <v>123</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>123</v>
@@ -16160,18 +16408,21 @@
         <v>123</v>
       </c>
       <c r="N92" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O92" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>1226</v>
+        <v>1180</v>
       </c>
       <c r="B93" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C93" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>123</v>
@@ -16200,58 +16451,668 @@
       <c r="L93" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M93" s="4" t="s">
+      <c r="N93" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B94" t="s">
+        <v>694</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L94" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N94" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B95" t="s">
+        <v>698</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L95" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M95" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
         <v>1228</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B96" t="s">
         <v>698</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C96" t="s">
         <v>1229</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J94" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K94" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L94" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="M94" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="N94" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O94" s="4" t="s">
+      <c r="D96" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L96" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M96" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N96" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O96" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J97" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K97" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="L97" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="M97" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="N97" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="O97" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L98" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M98" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N98" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O98" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L99" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M99" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N99" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O99" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N100" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O100" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K101" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L101" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M101" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N101" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O101" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B102" t="s">
+        <v>698</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K102" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L102" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M102" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N102" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O102" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B103" t="s">
+        <v>698</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K103" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L103" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M103" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N103" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O103" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1283</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K104" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L104" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N104" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O104" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B105" t="s">
+        <v>698</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1293</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K105" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L105" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N105" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P105" s="4"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1296</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K106" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L106" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N106" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O106" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K107" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L107" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M107" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N107" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O107" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K108" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L108" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M108" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N108" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O108" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K109" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L109" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M109" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K110" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L110" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M110" s="4" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O110"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/HoI2Editor/Documents/Design/scenario.xlsx
+++ b/HoI2Editor/Documents/Design/scenario.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="2445" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="2445" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ファイル構成" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3570" uniqueCount="1315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3774" uniqueCount="1448">
   <si>
     <t>シナリオファイルの構成</t>
     <rPh sb="9" eb="11">
@@ -5473,6 +5473,462 @@
   <si>
     <t>scorch_ground</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UnitType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UnitId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UnitName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UnitLocationId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UnitLocation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UnitBaseId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UnitBase</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UnitLeaderId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UnitLeader</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UnitMorale</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UnitDigIn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DivisionType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DivisionId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DivisionName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DivisionUnitType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DivisionModel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DivisionBrigadeType1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DivisionBrigadeType2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DivisionBrigadeType3</t>
+  </si>
+  <si>
+    <t>DivisionBrigadeType4</t>
+  </si>
+  <si>
+    <t>DivisionBrigadeType5</t>
+  </si>
+  <si>
+    <t>DivisionBrigadeModel1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DivisionBrigadeModel2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DivisionBrigadeModel3</t>
+  </si>
+  <si>
+    <t>DivisionBrigadeModel4</t>
+  </si>
+  <si>
+    <t>DivisionBrigadeModel5</t>
+  </si>
+  <si>
+    <t>DivisionStrength</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DivisionMaxStrength</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DivisionOrganisation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DivisionMaxOrganisation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DivisionMorale</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DivisionExperience</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DivisionLocked</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DivisionDormant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Oob</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Double</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unit type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>division organisation</t>
+  </si>
+  <si>
+    <t>division morale</t>
+  </si>
+  <si>
+    <t>division experience</t>
+  </si>
+  <si>
+    <t>division locked</t>
+  </si>
+  <si>
+    <t>division dormant</t>
+  </si>
+  <si>
+    <t>unit id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unit name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unit location</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>division type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>division unit type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unit base</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unit leader</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unit morale</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unit digin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>division id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>division name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>division model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>division brigade type1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>division brigade type2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>division brigade type3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>division brigade type4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>division brigade type5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>division brigade model1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>division brigade model2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>division brigade model3</t>
+  </si>
+  <si>
+    <t>division brigade model4</t>
+  </si>
+  <si>
+    <t>division brigade model5</t>
+  </si>
+  <si>
+    <t>division strength</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>division max strength</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>division max organisation</t>
+  </si>
+  <si>
+    <t>Unit.ItemId.Type</t>
+  </si>
+  <si>
+    <t>Unit.ItemId.Id</t>
+  </si>
+  <si>
+    <t>Unit.ItemId.Location</t>
+  </si>
+  <si>
+    <t>Unit.ItemId.Base</t>
+  </si>
+  <si>
+    <t>Unit.ItemId.DigIn</t>
+  </si>
+  <si>
+    <t>Unit.ItemId.Morale</t>
+  </si>
+  <si>
+    <t>Unit.ItemId.Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Division.ItemId.Morale</t>
+  </si>
+  <si>
+    <t>Division.ItemId.Experience</t>
+  </si>
+  <si>
+    <t>Division.ItemId.Locked</t>
+  </si>
+  <si>
+    <t>Division.ItemId.Dormant</t>
+  </si>
+  <si>
+    <t>Unit.ItemId.Leader</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Division.ItemId.Type</t>
+  </si>
+  <si>
+    <t>Division.ItemId.Id</t>
+  </si>
+  <si>
+    <t>Division.ItemId.Name</t>
+  </si>
+  <si>
+    <t>Division.ItemId.UnitType</t>
+  </si>
+  <si>
+    <t>Division.ItemId.Model</t>
+  </si>
+  <si>
+    <t>Division.ItemId.BrigadeType1</t>
+  </si>
+  <si>
+    <t>Division.ItemId.BrigadeType2</t>
+  </si>
+  <si>
+    <t>Division.ItemId.BrigadeType3</t>
+  </si>
+  <si>
+    <t>Division.ItemId.BrigadeType4</t>
+  </si>
+  <si>
+    <t>Division.ItemId.BrigadeType5</t>
+  </si>
+  <si>
+    <t>Division.ItemId.BirgadeModel1</t>
+  </si>
+  <si>
+    <t>Division.ItemId.BirgadeModel2</t>
+  </si>
+  <si>
+    <t>Division.ItemId.BirgadeModel3</t>
+  </si>
+  <si>
+    <t>Division.ItemId.BirgadeModel4</t>
+  </si>
+  <si>
+    <t>Division.ItemId.BirgadeModel5</t>
+  </si>
+  <si>
+    <t>Division.ItemId.MaxStrength</t>
+  </si>
+  <si>
+    <t>Division.ItemId.Strength</t>
+  </si>
+  <si>
+    <t>Division.ItemId.MaxOrganisation</t>
+  </si>
+  <si>
+    <t>Division.ItemId.Organisation</t>
+  </si>
+  <si>
+    <t>unitTypeTextBox</t>
+  </si>
+  <si>
+    <t>unitIdTextBox</t>
+  </si>
+  <si>
+    <t>unitNameTextBox</t>
+  </si>
+  <si>
+    <t>locationTextBox</t>
+  </si>
+  <si>
+    <t>locationComboBox</t>
+  </si>
+  <si>
+    <t>baseTextBox</t>
+  </si>
+  <si>
+    <t>baseComboBox</t>
+  </si>
+  <si>
+    <t>leaderTextBox</t>
+  </si>
+  <si>
+    <t>leaderComboBox</t>
+  </si>
+  <si>
+    <t>divisionTypeTextBox</t>
+  </si>
+  <si>
+    <t>unitMoraleTextBox</t>
+  </si>
+  <si>
+    <t>digInTextBox</t>
+  </si>
+  <si>
+    <t>divisionIdTextBox</t>
+  </si>
+  <si>
+    <t>divisionNameTextBox</t>
+  </si>
+  <si>
+    <t>unitTypeComboBox</t>
+  </si>
+  <si>
+    <t>unitModelComboBox</t>
+  </si>
+  <si>
+    <t>brigadeTypeComboBox1</t>
+  </si>
+  <si>
+    <t>brigadeTypeComboBox2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>brigadeTypeComboBox3</t>
+  </si>
+  <si>
+    <t>brigadeTypeComboBox4</t>
+  </si>
+  <si>
+    <t>brigadeTypeComboBox5</t>
+  </si>
+  <si>
+    <t>brigadeModelComboBox1</t>
+  </si>
+  <si>
+    <t>brigadeModelComboBox2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>brigadeModelComboBox3</t>
+  </si>
+  <si>
+    <t>brigadeModelComboBox4</t>
+  </si>
+  <si>
+    <t>brigadeModelComboBox5</t>
+  </si>
+  <si>
+    <t>strengthTextBox</t>
+  </si>
+  <si>
+    <t>maxStrengthTextBox</t>
+  </si>
+  <si>
+    <t>organisationTextBox</t>
+  </si>
+  <si>
+    <t>maxOrganisationTextBox</t>
+  </si>
+  <si>
+    <t>divisionMoraleTextBox</t>
+  </si>
+  <si>
+    <t>experienceTextBox</t>
+  </si>
+  <si>
+    <t>lockedCheckBox</t>
+  </si>
+  <si>
+    <t>dormantCheckBox</t>
   </si>
 </sst>
 </file>
@@ -7896,10 +8352,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F229"/>
+  <dimension ref="A1:F263"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="E244" sqref="E244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12492,6 +12948,686 @@
         <v>556</v>
       </c>
     </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A230" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D230" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E230" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F230" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A231" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D231" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E231" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F231" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A232" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C232" t="s">
+        <v>965</v>
+      </c>
+      <c r="D232" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E232" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F232" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A233" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D233" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E233" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F233" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A234" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D234" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E234" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F234" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A235" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C235" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D235" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E235" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F235" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A236" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C236" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D236" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E236" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F236" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A237" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C237" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D237" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E237" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F237" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A238" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D238" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E238" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F238" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A239" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E239" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F239" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A240" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D240" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E240" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F240" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A241" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C241" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D241" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E241" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F241" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A242" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C242" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D242" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E242" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F242" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A243" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C243" t="s">
+        <v>692</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E243" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F243" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A244" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D244" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E244" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F244" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A245" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E245" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F245" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A246" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D246" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E246" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F246" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A247" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D247" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E247" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F247" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A248" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D248" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E248" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F248" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A249" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D249" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E249" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F249" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A250" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D250" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E250" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F250" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A251" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E251" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F251" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A252" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D252" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E252" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F252" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A253" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D253" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E253" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F253" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A254" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D254" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E254" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F254" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A255" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D255" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E255" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F255" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A256" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D256" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E256" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F256" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A257" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D257" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E257" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F257" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A258" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D258" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E258" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F258" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A259" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D259" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E259" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F259" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A260" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D260" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E260" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F260" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A261" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D261" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E261" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F261" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A262" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C262" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E262" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F262" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A263" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E263" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F263" t="s">
+        <v>1447</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12503,7 +13639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/HoI2Editor/Documents/Design/scenario.xlsx
+++ b/HoI2Editor/Documents/Design/scenario.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="2445" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="2445" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ファイル構成" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3774" uniqueCount="1448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3928" uniqueCount="1506">
   <si>
     <t>シナリオファイルの構成</t>
     <rPh sb="9" eb="11">
@@ -5929,6 +5929,214 @@
   </si>
   <si>
     <t>dormantCheckBox</t>
+  </si>
+  <si>
+    <t>PlannedDefense</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>planned_defense</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DDA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AoD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <rPh sb="0" eb="2">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基地移動</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦略的再配備</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支援攻撃</t>
+  </si>
+  <si>
+    <t>防戦支援</t>
+  </si>
+  <si>
+    <t>待機</t>
+  </si>
+  <si>
+    <t>パルチザン掃討</t>
+  </si>
+  <si>
+    <t>制空権</t>
+  </si>
+  <si>
+    <t>地上攻撃</t>
+  </si>
+  <si>
+    <t>空港空爆</t>
+  </si>
+  <si>
+    <t>軍事施設攻撃</t>
+  </si>
+  <si>
+    <t>地上支援</t>
+  </si>
+  <si>
+    <t>艦船攻撃</t>
+  </si>
+  <si>
+    <t>港湾攻撃</t>
+  </si>
+  <si>
+    <t>兵站攻撃</t>
+  </si>
+  <si>
+    <t>戦略爆撃</t>
+  </si>
+  <si>
+    <t>空輸補給</t>
+  </si>
+  <si>
+    <t>空挺強襲</t>
+  </si>
+  <si>
+    <t>船団襲撃</t>
+  </si>
+  <si>
+    <t>対潜作戦</t>
+  </si>
+  <si>
+    <t>海上阻止</t>
+  </si>
+  <si>
+    <t>沿岸砲撃</t>
+  </si>
+  <si>
+    <t>強襲上陸</t>
+  </si>
+  <si>
+    <t>海上輸送</t>
+  </si>
+  <si>
+    <t>海上戦闘哨戒</t>
+  </si>
+  <si>
+    <t>船団爆撃</t>
+  </si>
+  <si>
+    <t>空母による港湾攻撃</t>
+  </si>
+  <si>
+    <t>空母による航空基地攻撃</t>
+  </si>
+  <si>
+    <t>核攻撃</t>
+  </si>
+  <si>
+    <t>Retreat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>retreat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退却</t>
+    <rPh sb="0" eb="2">
+      <t>タイキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AirScramble</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>air_scramble</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>航空緊急出撃</t>
+  </si>
+  <si>
+    <t>SneakMove</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sneak_move</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>naval_scramble</t>
+  </si>
+  <si>
+    <t>NavalScramble</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海上緊急出撃</t>
+  </si>
+  <si>
+    <t>隠密移動</t>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ArtilleryBombardment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>artillery_bombardment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防衛計画</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>砲撃任務</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -8354,7 +8562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+    <sheetView topLeftCell="A219" workbookViewId="0">
       <selection activeCell="E244" sqref="E244"/>
     </sheetView>
   </sheetViews>
@@ -18614,18 +18822,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="9" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -18633,16 +18841,28 @@
         <v>90</v>
       </c>
       <c r="C1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G1" s="4" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1452</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -18650,21 +18870,48 @@
         <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1457</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>118</v>
       </c>
       <c r="B3" t="s">
         <v>92</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -18672,10 +18919,22 @@
         <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1459</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -18683,10 +18942,22 @@
         <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1460</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>1455</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>1455</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -18694,10 +18965,22 @@
         <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1461</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>133</v>
       </c>
@@ -18705,10 +18988,22 @@
         <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1462</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -18716,249 +19011,636 @@
         <v>129</v>
       </c>
       <c r="C8" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G8" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>144</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>96</v>
       </c>
-      <c r="E9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="C11" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>145</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>97</v>
       </c>
-      <c r="E10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="C12" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>146</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>98</v>
       </c>
-      <c r="E11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="C13" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>147</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>99</v>
       </c>
-      <c r="E12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="C14" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>148</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>100</v>
       </c>
-      <c r="E13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="C15" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>149</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>101</v>
       </c>
-      <c r="E14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+      <c r="C16" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>150</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>102</v>
       </c>
-      <c r="E15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+      <c r="C17" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>151</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>103</v>
       </c>
-      <c r="E16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+      <c r="C18" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>152</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>104</v>
       </c>
-      <c r="E17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+      <c r="C19" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>1454</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>153</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>105</v>
       </c>
-      <c r="E18" t="s">
+      <c r="C20" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+      <c r="G20" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>154</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>106</v>
       </c>
-      <c r="E19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+      <c r="C21" t="s">
+        <v>1474</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>135</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B23" t="s">
         <v>107</v>
       </c>
-      <c r="D20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+      <c r="C23" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>1500</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>1500</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>136</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B24" t="s">
         <v>130</v>
       </c>
-      <c r="D21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+      <c r="C24" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>137</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B25" t="s">
         <v>108</v>
       </c>
-      <c r="D22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+      <c r="C25" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>138</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B26" t="s">
         <v>109</v>
       </c>
-      <c r="D23" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+      <c r="C26" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>139</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B27" t="s">
         <v>110</v>
       </c>
-      <c r="D24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
+      <c r="C27" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>140</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B28" t="s">
         <v>111</v>
       </c>
-      <c r="D25" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+      <c r="C28" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>141</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B29" t="s">
         <v>112</v>
       </c>
-      <c r="D26" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+      <c r="C29" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>1499</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>155</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B32" t="s">
         <v>113</v>
       </c>
-      <c r="E27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+      <c r="C32" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>1501</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>142</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B33" t="s">
         <v>114</v>
       </c>
-      <c r="D28" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+      <c r="C33" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
         <v>143</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B34" t="s">
         <v>115</v>
       </c>
-      <c r="D29" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
+      <c r="C34" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>156</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B35" t="s">
         <v>116</v>
       </c>
-      <c r="E30" t="s">
+      <c r="C35" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>126</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>1450</v>
       </c>
     </row>
   </sheetData>
